--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="569">
   <si>
     <t>id</t>
   </si>
@@ -1739,12 +1744,99 @@
   <si>
     <t>что, такое, определение, доходы, населения, входит, включают, содержат</t>
   </si>
+  <si>
+    <t>32.114</t>
+  </si>
+  <si>
+    <t>Что такое налог?</t>
+  </si>
+  <si>
+    <t>Под налогом понимается обязательный, индивидуально безвозмездный платеж, взимаемый с организаций и физических лиц в форме отчуждения принадлежащих им на праве собственности, хозяйственного ведения или оперативного управления денежных средств в целях финансового обеспечения деятельности государства и (или) муниципальных образований.</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 1 статьи 8 Налогового кодекса Российской Федерации под налогом понимается обязательный, индивидуально безвозмездный платеж, взимаемый с организаций и физических лиц в форме отчуждения принадлежащих им на праве собственности, хозяйственного ведения или оперативного управления денежных средств в целях финансового обеспечения деятельности государства и (или) муниципальных образований</t>
+  </si>
+  <si>
+    <t>Что, такое, налог, определение</t>
+  </si>
+  <si>
+    <t>32.115</t>
+  </si>
+  <si>
+    <t>Зачем платить налоги</t>
+  </si>
+  <si>
+    <t>Собираемые налоги позволяют государству формировать бюджет, выполнять свои социальные обязательства, осуществлять другие расходные обязательства. Отдавая часть своих доходов в бюджет, граждане выступают соучастниками создания благоприятной для жизни и здоровья среды, уровня образованности и благосостояния нации</t>
+  </si>
+  <si>
+    <t>Зачем, платить, налоги</t>
+  </si>
+  <si>
+    <t>32.116</t>
+  </si>
+  <si>
+    <t>Адрес Министерства финансов России</t>
+  </si>
+  <si>
+    <t>Министерство финансов Российской Федерации находится по адресу: город Москва, улица Ильинка, дом девять</t>
+  </si>
+  <si>
+    <t>Министерство финансов Российской Федерации находится по адресу: г. Москва, ул. Ильинка, д. 9</t>
+  </si>
+  <si>
+    <t>Адрес Министерства финансов Российской Федерации на Яндекс карте</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2wOe3hV</t>
+  </si>
+  <si>
+    <t>32.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что такое экономика </t>
+  </si>
+  <si>
+    <t>Что, такое, экономика</t>
+  </si>
+  <si>
+    <t>32.118</t>
+  </si>
+  <si>
+    <t>Что такое экономический кризис</t>
+  </si>
+  <si>
+    <t>Кризис экономический – это резкое ухудшение экономического состояния страны, проявляющееся в значительном спаде производства, нарушении сложившихся производственных связей, банкротстве предприятий, росте безработицы и в итоге - в снижении жизненного уровня, благосостояния населения</t>
+  </si>
+  <si>
+    <t>Что, такое, экономический, кризис</t>
+  </si>
+  <si>
+    <t>Экономика - это хозяйственная деятельность общества, а также совокупность отношений, складывающихся в системе производства, распределения, обмена и потребления</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 1 статьи 3 Налогового кодекса Российской Федерации каждое лицо должно уплачивать законно установленные налоги и сборы. Законодательство о налогах и сборах основывается на признании всеобщности и равенства налогообложения. При установлении налогов учитывается фактическая способность налогоплательщика к уплате налога.
+Собираемые налоги позволяют государству формировать бюджет, выполнять свои социальные обязательства, осуществлять другие расходные обязательства.
+Отдавая часть своих доходов в бюджет, граждане выступают соучастниками создания благоприятной для жизни и здоровья среды, уровня образованности и благосостояния нации</t>
+  </si>
+  <si>
+    <t>Экономика (от греч. oikos - дом, хозяйство и nomos - правило, закон; в совокупности - правила ведения хозяйства) – 
+1) хозяйство, совокупность средств, объектов, процессов, используемых людьми для обеспечения жизни, удовлетворения потребностей путем создания необходимых человеку благ, условий и средств существования с применением труда; 
+2) наука о хозяйстве, способах его ведения людьми, отношениях между людьми в процессе производства и обмена товаров, закономерностях протекания хозяйственных процессов.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Кризис экономический (от греч. krisis - поворотный пункт) - резкое ухудшение экономического состояния страны, проявляющееся в значительном спаде производства, нарушении сложившихся производственных связей, банкротстве предприятий, росте безработицы и в итоге - в снижении жизненного уровня, благосостояния населения.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Адрес, Министерства, финансов, Минфина</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1790,7 +1882,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,6 +1892,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1862,6 +1960,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,7 +2092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,9 +2124,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,6 +2176,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2232,21 +2369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="172" style="1" customWidth="1"/>
+    <col min="4" max="4" width="121.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="4" customWidth="1"/>
     <col min="7" max="8" width="28.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="4" customWidth="1"/>
@@ -2255,7 +2392,7 @@
     <col min="1026" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2430,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="126">
+    <row r="2" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>379</v>
       </c>
@@ -2317,7 +2454,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="110.25">
+    <row r="3" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>380</v>
       </c>
@@ -2334,7 +2471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>381</v>
       </c>
@@ -2351,7 +2488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="141.75">
+    <row r="5" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>382</v>
       </c>
@@ -2368,7 +2505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="63">
+    <row r="6" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>383</v>
       </c>
@@ -2385,7 +2522,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="110.25">
+    <row r="7" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>384</v>
       </c>
@@ -2402,7 +2539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="47.25">
+    <row r="8" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>385</v>
       </c>
@@ -2419,7 +2556,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="141.75">
+    <row r="9" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>386</v>
       </c>
@@ -2436,7 +2573,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="157.5">
+    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>387</v>
       </c>
@@ -2453,7 +2590,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="78.75">
+    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>388</v>
       </c>
@@ -2470,7 +2607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="47.25">
+    <row r="12" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>389</v>
       </c>
@@ -2487,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>390</v>
       </c>
@@ -2504,7 +2641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="126">
+    <row r="14" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>391</v>
       </c>
@@ -2521,7 +2658,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="47.25">
+    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>392</v>
       </c>
@@ -2538,7 +2675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>393</v>
       </c>
@@ -2555,7 +2692,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="63">
+    <row r="17" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>394</v>
       </c>
@@ -2572,7 +2709,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="78.75">
+    <row r="18" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>395</v>
       </c>
@@ -2589,7 +2726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="47.25">
+    <row r="19" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>396</v>
       </c>
@@ -2606,7 +2743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="63">
+    <row r="20" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>397</v>
       </c>
@@ -2623,7 +2760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="47.25">
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>398</v>
       </c>
@@ -2640,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="47.25">
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>399</v>
       </c>
@@ -2657,7 +2794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="96" customHeight="1">
+    <row r="23" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>400</v>
       </c>
@@ -2674,7 +2811,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="110.25">
+    <row r="24" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>401</v>
       </c>
@@ -2691,7 +2828,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="126">
+    <row r="25" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>402</v>
       </c>
@@ -2708,7 +2845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="47.25">
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>403</v>
       </c>
@@ -2725,7 +2862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="63">
+    <row r="27" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>404</v>
       </c>
@@ -2742,7 +2879,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="249" customHeight="1">
+    <row r="28" spans="1:5" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>405</v>
       </c>
@@ -2759,7 +2896,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="78.75">
+    <row r="29" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>406</v>
       </c>
@@ -2776,7 +2913,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="47.25">
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>407</v>
       </c>
@@ -2793,7 +2930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="157.5">
+    <row r="31" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>408</v>
       </c>
@@ -2810,7 +2947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="47.25">
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>409</v>
       </c>
@@ -2827,7 +2964,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="47.25">
+    <row r="33" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>410</v>
       </c>
@@ -2844,7 +2981,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="126">
+    <row r="34" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>411</v>
       </c>
@@ -2861,7 +2998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="63">
+    <row r="35" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>412</v>
       </c>
@@ -2878,7 +3015,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63">
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>413</v>
       </c>
@@ -2895,7 +3032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="47.25">
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>414</v>
       </c>
@@ -2912,7 +3049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="47.25">
+    <row r="38" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>415</v>
       </c>
@@ -2929,7 +3066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="47.25">
+    <row r="39" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>416</v>
       </c>
@@ -2946,7 +3083,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="94.5">
+    <row r="40" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>417</v>
       </c>
@@ -2963,7 +3100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="47.25">
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>418</v>
       </c>
@@ -2980,7 +3117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="63">
+    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>419</v>
       </c>
@@ -2997,7 +3134,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="47.25">
+    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>420</v>
       </c>
@@ -3014,7 +3151,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="47.25">
+    <row r="44" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>421</v>
       </c>
@@ -3031,7 +3168,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="31.5">
+    <row r="45" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>422</v>
       </c>
@@ -3048,7 +3185,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="47.25">
+    <row r="46" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>423</v>
       </c>
@@ -3065,7 +3202,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="63">
+    <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>424</v>
       </c>
@@ -3082,7 +3219,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="63">
+    <row r="48" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>425</v>
       </c>
@@ -3099,7 +3236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="94.5">
+    <row r="49" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>426</v>
       </c>
@@ -3116,7 +3253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="110.25">
+    <row r="50" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>427</v>
       </c>
@@ -3133,7 +3270,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="63">
+    <row r="51" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>428</v>
       </c>
@@ -3150,7 +3287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="63">
+    <row r="52" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>429</v>
       </c>
@@ -3167,7 +3304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="47.25">
+    <row r="53" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>430</v>
       </c>
@@ -3184,7 +3321,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="47.25">
+    <row r="54" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>431</v>
       </c>
@@ -3201,7 +3338,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="63">
+    <row r="55" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>432</v>
       </c>
@@ -3218,7 +3355,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="78.75">
+    <row r="56" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>433</v>
       </c>
@@ -3235,7 +3372,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="47.25">
+    <row r="57" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>434</v>
       </c>
@@ -3252,7 +3389,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5">
+    <row r="58" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>435</v>
       </c>
@@ -3269,7 +3406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="31.5">
+    <row r="59" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>436</v>
       </c>
@@ -3286,7 +3423,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5">
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>437</v>
       </c>
@@ -3303,7 +3440,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="47.25">
+    <row r="61" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>438</v>
       </c>
@@ -3320,7 +3457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="78.75">
+    <row r="62" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>439</v>
       </c>
@@ -3337,7 +3474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="47.25">
+    <row r="63" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>440</v>
       </c>
@@ -3354,7 +3491,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="47.25">
+    <row r="64" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>441</v>
       </c>
@@ -3371,7 +3508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="47.25">
+    <row r="65" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>442</v>
       </c>
@@ -3388,7 +3525,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="47.25">
+    <row r="66" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>443</v>
       </c>
@@ -3405,7 +3542,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="63">
+    <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>444</v>
       </c>
@@ -3422,7 +3559,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="47.25">
+    <row r="68" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>445</v>
       </c>
@@ -3439,7 +3576,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>446</v>
       </c>
@@ -3456,7 +3593,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>447</v>
       </c>
@@ -3473,7 +3610,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>448</v>
       </c>
@@ -3490,7 +3627,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="120">
+    <row r="72" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>449</v>
       </c>
@@ -3507,7 +3644,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="120">
+    <row r="73" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>450</v>
       </c>
@@ -3524,7 +3661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="45">
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>451</v>
       </c>
@@ -3541,7 +3678,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="60">
+    <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>452</v>
       </c>
@@ -3558,7 +3695,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="75">
+    <row r="76" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>453</v>
       </c>
@@ -3575,7 +3712,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="75">
+    <row r="77" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>454</v>
       </c>
@@ -3592,7 +3729,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="60">
+    <row r="78" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>455</v>
       </c>
@@ -3609,7 +3746,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45">
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>456</v>
       </c>
@@ -3626,7 +3763,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="75">
+    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>457</v>
       </c>
@@ -3643,7 +3780,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="45">
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>458</v>
       </c>
@@ -3660,7 +3797,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="45">
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>459</v>
       </c>
@@ -3677,7 +3814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="60">
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>460</v>
       </c>
@@ -3694,7 +3831,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="105">
+    <row r="84" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>461</v>
       </c>
@@ -3711,7 +3848,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="30">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>462</v>
       </c>
@@ -3728,7 +3865,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>463</v>
       </c>
@@ -3745,7 +3882,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45">
+    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>464</v>
       </c>
@@ -3762,7 +3899,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="90">
+    <row r="88" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>465</v>
       </c>
@@ -3785,7 +3922,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="90">
+    <row r="89" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>466</v>
       </c>
@@ -3802,7 +3939,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="45">
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>467</v>
       </c>
@@ -3819,7 +3956,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="75">
+    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>468</v>
       </c>
@@ -3836,7 +3973,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="45">
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>469</v>
       </c>
@@ -3853,7 +3990,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>470</v>
       </c>
@@ -3870,7 +4007,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="60">
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>471</v>
       </c>
@@ -3887,7 +4024,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45">
+    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>472</v>
       </c>
@@ -3904,7 +4041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45">
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>473</v>
       </c>
@@ -3921,7 +4058,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="105">
+    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>474</v>
       </c>
@@ -3938,7 +4075,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="45">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>475</v>
       </c>
@@ -3955,7 +4092,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="150">
+    <row r="99" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>476</v>
       </c>
@@ -3972,7 +4109,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="33" customHeight="1">
+    <row r="100" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>477</v>
       </c>
@@ -3989,7 +4126,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="60">
+    <row r="101" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>478</v>
       </c>
@@ -4006,7 +4143,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>479</v>
       </c>
@@ -4023,7 +4160,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="30">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>480</v>
       </c>
@@ -4040,7 +4177,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="90">
+    <row r="104" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>481</v>
       </c>
@@ -4057,7 +4194,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="75">
+    <row r="105" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>482</v>
       </c>
@@ -4074,7 +4211,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="120">
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>483</v>
       </c>
@@ -4091,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="165">
+    <row r="107" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>484</v>
       </c>
@@ -4108,7 +4245,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="165">
+    <row r="108" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>511</v>
       </c>
@@ -4125,7 +4262,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="135">
+    <row r="109" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>516</v>
       </c>
@@ -4142,7 +4279,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="150">
+    <row r="110" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>521</v>
       </c>
@@ -4159,7 +4296,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="165">
+    <row r="111" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>526</v>
       </c>
@@ -4176,7 +4313,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="150">
+    <row r="112" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>531</v>
       </c>
@@ -4193,7 +4330,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="150">
+    <row r="113" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>536</v>
       </c>
@@ -4208,6 +4345,97 @@
       </c>
       <c r="E113" s="1" t="s">
         <v>540</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A117" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -60,9 +65,6 @@
     <t>32.1</t>
   </si>
   <si>
-    <t>Что такое инфляционная спираль</t>
-  </si>
-  <si>
     <t>Инфляционная спираль – это процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен</t>
   </si>
   <si>
@@ -76,9 +78,6 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>Что такое интеграция</t>
-  </si>
-  <si>
     <t>Международная экономическая интеграция — это процесс международного объединения экономики стран и государств в один, общий рынок, при котором постепенная отмена тарифных и нетарифных ограничений приводит к унификации экономической политики в отраслях экономики и имеет ряд выраженных последствий</t>
   </si>
   <si>
@@ -92,9 +91,6 @@
     <t>32.3</t>
   </si>
   <si>
-    <t>Что такое инвестиционный климат</t>
-  </si>
-  <si>
     <t>Инвестиционный климат — это совокупность политических, экономических, социальных и юридических условий, максимально благоприятствующих инвестиционному процессу; равные для отечественных и иностранных инвесторов, одинаковые по привлекательности условия для вложения капиталов в национальную экономику</t>
   </si>
   <si>
@@ -102,9 +98,6 @@
   </si>
   <si>
     <t>32.4</t>
-  </si>
-  <si>
-    <t>Что такое зона свободной торговли</t>
   </si>
   <si>
     <t>Зона свободной торговли — таможенные территории, на которых в соответствии с международным договором с одним или несколькими государствами (группами государств) не применяются таможенные пошлины и другие меры ограничения внешней торговли товарами в отношении всей или значительной части торговли товарами, происходящими с данных таможенных территорий, за исключением возможности применения при необходимости таких мер на основе норм международных договоров</t>
@@ -120,9 +113,6 @@
     <t>32.5</t>
   </si>
   <si>
-    <t>Что такое акционерный капитал</t>
-  </si>
-  <si>
     <t>Акционерный капитал  является разницей между активами компании и ее обязательствами.</t>
   </si>
   <si>
@@ -136,9 +126,6 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>Что такое антиинфляционная политика</t>
-  </si>
-  <si>
     <t>Антиинфляционная политика — это комплекс мер по государственному регулированию экономики, направленный на подавление инфляции</t>
   </si>
   <si>
@@ -149,9 +136,6 @@
   </si>
   <si>
     <t>32.7</t>
-  </si>
-  <si>
-    <t>Что такое балансирование госбюджета</t>
   </si>
   <si>
     <t>Баланс государственного бюджета это соотношение денежных доходов и расходов государства</t>
@@ -167,9 +151,6 @@
     <t>32.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое валютная интервенция </t>
-  </si>
-  <si>
     <t>Валютная интервенция – действие центрального банка страны на валютном рынке, направленное на поддержание или ослабление национальной валюты, в ходе которого единовременно или в ограниченный период времени производится покупка или продажа большого объема валюты</t>
   </si>
   <si>
@@ -183,9 +164,6 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>Что такое бюджетный кодекс</t>
-  </si>
-  <si>
     <t>Бюджетный кодекс — это законодательный акт, который устанавливает общие принципы бюджетного законодательства Российской Федерации, организации и функционирования бюджетной системы Российской Федерации, правовое положение субъектов бюджетных правоотношений, определяет основы бюджетного процесса и межбюджетных отношений в Российской Федерации, порядок исполнения судебных актов по обращению взыскания на средства бюджетов бюджетной системы Российской Федерации, основания и виды ответственности за нарушение бюджетного законодательства Российской Федерации</t>
   </si>
   <si>
@@ -198,9 +176,6 @@
     <t>32.10</t>
   </si>
   <si>
-    <t>Что такое глобализация</t>
-  </si>
-  <si>
     <t>Глобализация — это процесс всемирной экономической, политической, культурной и религиозной интеграции и унификации.</t>
   </si>
   <si>
@@ -213,9 +188,6 @@
     <t>32.11</t>
   </si>
   <si>
-    <t>Что такое государственные закупки</t>
-  </si>
-  <si>
     <t>Гос зак\+упки — это заказ на выполнение работ, оказание услуг или поставку товаров за счет государственных средств</t>
   </si>
   <si>
@@ -228,9 +200,6 @@
     <t>32.12</t>
   </si>
   <si>
-    <t>Что такое гистерезис</t>
-  </si>
-  <si>
     <t>Гистерезис - это сохраняющиеся длительное время последствия определенных экономических явлений, отражающиеся, например, на естественном уровне безработицы</t>
   </si>
   <si>
@@ -243,9 +212,6 @@
     <t>32.13</t>
   </si>
   <si>
-    <t>Что такое государственный кредит</t>
-  </si>
-  <si>
     <t>Государственный кредит — совокупность экономических отношений, складывающихся между государством, с одной стороны, и юридическими и физическими лицами, иностранными государствами, международными финансовыми организациями — с другой стороны, по поводу движения денежных средств на условиях срочности, возвратности, платности и формирования на этой основе дополнительных финансовых ресурсов участников этих отношений</t>
   </si>
   <si>
@@ -256,9 +222,6 @@
   </si>
   <si>
     <t>32.14</t>
-  </si>
-  <si>
-    <t>Что такое девальвация</t>
   </si>
   <si>
     <t>Девальвация — это  уменьшение золотого содержания денежной единицы в условиях золотого стандарта</t>
@@ -274,9 +237,6 @@
     <t>32.15</t>
   </si>
   <si>
-    <t>Что такое экономическая девиация</t>
-  </si>
-  <si>
     <t>ДЕВИАЦИЯ  — это внезапное, непредсказуемое отклонение курса ценных бумаг, цен биржевых товаров под влиянием форс-мажорных обстоятельств.</t>
   </si>
   <si>
@@ -287,9 +247,6 @@
   </si>
   <si>
     <t>32.16</t>
-  </si>
-  <si>
-    <t>Что такое денежно-кредитная политика</t>
   </si>
   <si>
     <t>Денежно-кредитная политика – действия специализированных государственных учреждений на денежном и валютном рынке, направленные на контроль обменного курса, уровня инфляции, занятости, стабильности экономического роста</t>
@@ -303,9 +260,6 @@
   </si>
   <si>
     <t>32.17</t>
-  </si>
-  <si>
-    <t>Что такое деноминация</t>
   </si>
   <si>
     <t>Деноминация — изменение нарицательной стоимости денежных знаков, обычно после гиперинфляции с целью стабилизации валюты и упрощения расчётов</t>
@@ -323,9 +277,6 @@
     <t>32.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое дефлятор ВВП </t>
-  </si>
-  <si>
     <t>Дефлятор валового внутреннего продукта — это ценовой индекс, созданный для измерения общего уровня цен на товары и услуги за определённый период в экономике</t>
   </si>
   <si>
@@ -339,9 +290,6 @@
     <t>32.19</t>
   </si>
   <si>
-    <t>Что такое дивиденд</t>
-  </si>
-  <si>
     <t>Дивиденд — это часть прибыли акционерного общества или иного хозяйствующего субъекта, распределяемая между акционерами, участниками в соответствии с количеством и видом акций, дол\+ей, находящихся в их владении</t>
   </si>
   <si>
@@ -354,9 +302,6 @@
     <t>32.20</t>
   </si>
   <si>
-    <t>Что такое жизненный цикл товара</t>
-  </si>
-  <si>
     <t>Жизненный цикл товара — период времени, в течение которого товар обращается на рынке, начиная с момента выхода его на рынок и заканчивая его уходом с рынка</t>
   </si>
   <si>
@@ -369,9 +314,6 @@
     <t>32.21</t>
   </si>
   <si>
-    <t>Что такое закон Вальраса</t>
-  </si>
-  <si>
     <t>Закон, сформулированный Леоном Вальр\+асом, гласит, что суммарная ценность предложения всех товаров всегда в точности равна совокупному спросу на них</t>
   </si>
   <si>
@@ -382,9 +324,6 @@
   </si>
   <si>
     <t>32.22</t>
-  </si>
-  <si>
-    <t>Что такое закон Грэшема</t>
   </si>
   <si>
     <t>Закон Грэшема — это экономический теория о том, что денежные единицы, не пользующиеся спросом, или "плохие" деньги (bad money), вытесняют денежные единицы, пользующиеся повышенным спросом, или "хорошие" деньги (good money)</t>
@@ -398,9 +337,6 @@
   </si>
   <si>
     <t>32.23</t>
-  </si>
-  <si>
-    <t>Что такое закон Оукена</t>
   </si>
   <si>
     <t>Закон Оукена — это экономический закон наличия обратной зависимости между уровнем безработицы, превышающим естественный; и величиной валового национального продукта страны</t>
@@ -419,9 +355,6 @@
     <t>32.24</t>
   </si>
   <si>
-    <t>Что такое закон Сэя</t>
-  </si>
-  <si>
     <t>Закон Сэя - это закон, согласно которому предложение рождает свой собственный спрос. При этом приводится следующий аргумент: в экономике с полностью гибкими ценами и гибкой зарплатой факторы производства всегда найдут применение, а товары всегда будут проданы</t>
   </si>
   <si>
@@ -432,9 +365,6 @@
   </si>
   <si>
     <t>32.25</t>
-  </si>
-  <si>
-    <t>Что такое золотовалютный резерв</t>
   </si>
   <si>
     <t>Золотовалютные резервы — это внешние высоколиквидные активы, находящиеся под контролем государства. Золотовалютные резервы рассчитываются в долларах США</t>
@@ -728,9 +658,6 @@
     <t>32.47</t>
   </si>
   <si>
-    <t>Что такое величина прожиточного минимума</t>
-  </si>
-  <si>
     <t>Величина прожиточного минимума — это стоимостн\+ая оценка потребительской корзины, а также обязательные платежи и сборы</t>
   </si>
   <si>
@@ -744,9 +671,6 @@
     <t>32.48</t>
   </si>
   <si>
-    <t>Что такое потребительская корзина</t>
-  </si>
-  <si>
     <t>Потребительская корзина — это необходимые для сохранения здоровья человека и обеспечения его жизнедеятельности минимальный набор продуктов питания, а также непродовольственные товары и услуги, стоимость которых определяется в соотношении со стоимостью минимального набора продуктов питания</t>
   </si>
   <si>
@@ -759,9 +683,6 @@
     <t>32.49</t>
   </si>
   <si>
-    <t>Что такое доходы населения</t>
-  </si>
-  <si>
     <t>Доходы населения – это источники денежных и других доходов, которыми располагает население для удовлетворения своих потребностей. Основными источниками личных доходов населения являются: заработная плата, индивидуальная трудовая деятельность, предпринимательство, выплаты и льготы из общественных фондов потребления пенсии (стипендии, пособия), личное подсобное хозяйство</t>
   </si>
   <si>
@@ -771,9 +692,6 @@
     <t>32.50</t>
   </si>
   <si>
-    <t>Что такое собственность населения</t>
-  </si>
-  <si>
     <t>Собственность населения — это форма собственности, при которой все члены населения имеют равные права на её владение и использование, а также на равноправное участие в распоряжении результатами труда</t>
   </si>
   <si>
@@ -781,9 +699,6 @@
   </si>
   <si>
     <t>32.51</t>
-  </si>
-  <si>
-    <t>Что такое маркетинг</t>
   </si>
   <si>
     <t>М\+аркетинг — это предпринимательская деятельность, которая управляет продвижением товаров и услуг от производителя к потребителю. Кроме того, под маркетингом подразумевается деятельность по изучению текущего рынка сбыта</t>
@@ -799,9 +714,6 @@
     <t>32.52</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое производство </t>
-  </si>
-  <si>
     <t>Производство — это общественный процесс создания материальных благ, охватывающий как производительные силы общества, так и производственные отношения людей</t>
   </si>
   <si>
@@ -811,9 +723,6 @@
     <t>32.53</t>
   </si>
   <si>
-    <t>Что такое капитал</t>
-  </si>
-  <si>
     <t>Капитал — это стоимость, используемая для получения прибавочной стоимости посредством производственной и экономической деятельности, основанной на добровольном обмене</t>
   </si>
   <si>
@@ -823,9 +732,6 @@
     <t>32.54</t>
   </si>
   <si>
-    <t>Что такое финансы</t>
-  </si>
-  <si>
     <t>Финансы — это совокупность экономических отношений, возникающих в процессе формирования, распределения и использования централизованных и децентрализованных фондов денежных средств</t>
   </si>
   <si>
@@ -835,9 +741,6 @@
     <t>32.55</t>
   </si>
   <si>
-    <t>Что такое материальные ресурсы</t>
-  </si>
-  <si>
     <t>Материальные ресурсы — совокупность предметов и объектов труда, комплекс вещей, на которые человек воздействует в процессе и с помощью средств труда в целях приспособления их для удовлетворения своих потребностей и использования в процессе производства</t>
   </si>
   <si>
@@ -847,9 +750,6 @@
     <t>32.56</t>
   </si>
   <si>
-    <t>Что такое средние переменные издержки</t>
-  </si>
-  <si>
     <t>Средние переменные издержки — это переменные затраты, приходящиеся на единицу продукции, вычисляемые путем деления переменных затрат на объем выпускаемой продукции</t>
   </si>
   <si>
@@ -859,9 +759,6 @@
     <t>32.57</t>
   </si>
   <si>
-    <t>Что такое средние постоянные издержки</t>
-  </si>
-  <si>
     <t>Средние постоянные издержки — это общие постоянные издержки на единицу продукции</t>
   </si>
   <si>
@@ -874,9 +771,6 @@
     <t>32.58</t>
   </si>
   <si>
-    <t>Что такое средние валовые издержки</t>
-  </si>
-  <si>
     <t>Средние валовые издержки — это валовые издержки, приходящиеся на единицу выпускаемой продукции</t>
   </si>
   <si>
@@ -886,9 +780,6 @@
     <t>32.59</t>
   </si>
   <si>
-    <t>Что такое общие валовые издержки</t>
-  </si>
-  <si>
     <t>Общие валовые издержки — это совокупность постоянных и переменных издержек фирмы</t>
   </si>
   <si>
@@ -898,9 +789,6 @@
     <t>32.60</t>
   </si>
   <si>
-    <t>Что такое амортизация</t>
-  </si>
-  <si>
     <t>Амортизация - это процесс постепенного переноса стоимости средств труда по мере их износа на производимые с их помощью товары или услуги</t>
   </si>
   <si>
@@ -913,9 +801,6 @@
     <t>32.61</t>
   </si>
   <si>
-    <t>Что такое стандартизация</t>
-  </si>
-  <si>
     <t>Стандартизация — это деятельность по установлению правил и характеристик в целях их добровольного многократного использования, направленная на достижение упорядоченности в сферах производства и обращения продукции и повышение конкурентоспособности продукции, работ или услуг</t>
   </si>
   <si>
@@ -925,9 +810,6 @@
     <t>32.62</t>
   </si>
   <si>
-    <t>Что такое унификация</t>
-  </si>
-  <si>
     <t>Унификация — это обесп\+ечение рационального единообразия различных видов продукции, деталей, узлов и других конструктивных элементов, применяемых материалов и технологических процессов</t>
   </si>
   <si>
@@ -940,9 +822,6 @@
     <t>32.63</t>
   </si>
   <si>
-    <t>Что такое фондоотдача</t>
-  </si>
-  <si>
     <t>Фондоотдача — это объем выпущенной продукции, деленный на среднюю сумму промышленно-производственных основных фондов по первоначальной стоимости</t>
   </si>
   <si>
@@ -952,9 +831,6 @@
     <t>32.64</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое фондоемкость </t>
-  </si>
-  <si>
     <t>Фондоемкость — это средняя сумма промышленно производственных основных фондов по первоначальной стоимости деленная на объем выпущенной продукции</t>
   </si>
   <si>
@@ -964,9 +840,6 @@
     <t>32.65</t>
   </si>
   <si>
-    <t>Что такое фондовооруженность труда</t>
-  </si>
-  <si>
     <t>Фондовооруженность труда — это  показатель отражающий эффективность использования производственных фондов предприятия</t>
   </si>
   <si>
@@ -979,9 +852,6 @@
     <t>32.66</t>
   </si>
   <si>
-    <t>Что такое производительность труда</t>
-  </si>
-  <si>
     <t>Производительность труда — это показатель плодотворности целесообразной деятельности работников, которая измеряется количеством работы (продукции, услуг), сделанной в единицу времени.</t>
   </si>
   <si>
@@ -994,9 +864,6 @@
     <t>32.67</t>
   </si>
   <si>
-    <t>Что такое экономика предприятия</t>
-  </si>
-  <si>
     <t>Экономика предприятия — это система знаний, связанных с процессом разработки и принятия хозяйственных решений в ходе деятельности предприятия</t>
   </si>
   <si>
@@ -1006,9 +873,6 @@
     <t>32.68</t>
   </si>
   <si>
-    <t>Что такое акционерное общество</t>
-  </si>
-  <si>
     <t>Акционерное общество — предприятие или организация, уставный капитал которого разделен на определенное число акций, распределенных между акционерами.</t>
   </si>
   <si>
@@ -1021,9 +885,6 @@
     <t>32.69</t>
   </si>
   <si>
-    <t>Что такое инвестиции</t>
-  </si>
-  <si>
     <t>Инвестиции — это денежные средства и другое имущество, в том числе права, имеющие денежную оценку, вкладываемые в объекты предпринимательской или иной деятельности в целях получения прибыли или достижения иного полезного эффекта</t>
   </si>
   <si>
@@ -1034,9 +895,6 @@
   </si>
   <si>
     <t>32.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что такое импорт </t>
   </si>
   <si>
     <t xml:space="preserve">Импорт — это ввоз из-за границы товаров, технологии и капиталов для реализации и приложения на внутреннем рынке стран\+ы -импортера
@@ -1051,9 +909,6 @@
   </si>
   <si>
     <t>32.71</t>
-  </si>
-  <si>
-    <t>Что такое экспорт</t>
   </si>
   <si>
     <t>Экспорт — это вывоз за границу товаров, услуг и капитала для реализации на внешних рынках</t>
@@ -1070,9 +925,6 @@
   </si>
   <si>
     <t>32.72</t>
-  </si>
-  <si>
-    <t>Что такое сбережения</t>
   </si>
   <si>
     <t>Сбережения — это часть доходов, не использованная в определенный период времени на текущее потребление</t>
@@ -1093,9 +945,6 @@
     <t>32.73</t>
   </si>
   <si>
-    <t>Что является источником собственного капитала</t>
-  </si>
-  <si>
     <t>Источниками собственного капитала банка являются уставный капитал, добавочный капитал, резервный фонд, нераспределенная прибыль прошлых лет</t>
   </si>
   <si>
@@ -1103,9 +952,6 @@
   </si>
   <si>
     <t>32.74</t>
-  </si>
-  <si>
-    <t>Что такое рыночная конъюктура</t>
   </si>
   <si>
     <t>Рыночная конъюнктура – это совокупность параметров и условий, которые определяют рыночную ситуацию в определенный момент времени</t>
@@ -1122,9 +968,6 @@
     <t>32.75</t>
   </si>
   <si>
-    <t>Что такое патент</t>
-  </si>
-  <si>
     <t>Патент — это документ, свидетельство , выдаваемое изобретателю и удостоверяющее его авторство и исключительное право на использование изобретения, или документ, содержащий разрешение на занятие каким-либо ремеслом или промыслом при соблюдении зафиксированных условий и внесении платежа (патентного сбора)</t>
   </si>
   <si>
@@ -1139,9 +982,6 @@
     <t>32.76</t>
   </si>
   <si>
-    <t>Что такое конгломераты</t>
-  </si>
-  <si>
     <t>Конгломерат — это монополистическое объединение, диверсифицированная корпорация, возникшая в результате слияния разнородных, не связанных между собой по отраслевому или технологическому признакам предприятий, фирм, кредитных учреждений, находящихся под единым контролем</t>
   </si>
   <si>
@@ -1151,9 +991,6 @@
     <t>32.77</t>
   </si>
   <si>
-    <t>Что такое синдикаты</t>
-  </si>
-  <si>
     <t>Синдикат — это одна из форм объединения предприятий, преследующая цель устранения конкуренции и улучшения условий коммерческой деятельности, сохраняющая при этом за членами синдиката производственную и юридическую самостоятельность</t>
   </si>
   <si>
@@ -1166,9 +1003,6 @@
     <t>32.78</t>
   </si>
   <si>
-    <t>Что такое концерны</t>
-  </si>
-  <si>
     <t>Концерн — это крупное объединение различных организаций и предприятий, которые имеют общие интересы деятельности, общий капитал, а также принимают участие в общих проектах</t>
   </si>
   <si>
@@ -1179,9 +1013,6 @@
   </si>
   <si>
     <t>32.79</t>
-  </si>
-  <si>
-    <t>Что такое картели</t>
   </si>
   <si>
     <t>КартЭль – это форма объединения производителей или потребителей, гласное или негласное соглашение группы близких по профилю предприятий, фирм, компаний, об объемах производства и продажи, ценах, рынках сбыта</t>
@@ -1197,9 +1028,6 @@
     <t>32.80</t>
   </si>
   <si>
-    <t>Что такое тресты</t>
-  </si>
-  <si>
     <t>Трест — это одна из форм монополистических объединений, в рамках которой участники теряют производственную, коммерческую, а порой даже юридическую самостоятельность.</t>
   </si>
   <si>
@@ -1210,9 +1038,6 @@
   </si>
   <si>
     <t>32.81</t>
-  </si>
-  <si>
-    <t>Что такое секвестирование</t>
   </si>
   <si>
     <t>Секвестр бюджета — это пропорциональное снижение всех расходных статей бюджета на определённую долю.</t>
@@ -1920,12 +1745,192 @@
   <si>
     <t>Что такое маржинализм?</t>
   </si>
+  <si>
+    <t>Что такое инфляционная спираль?</t>
+  </si>
+  <si>
+    <t>Что такое интеграция?</t>
+  </si>
+  <si>
+    <t>Что такое инвестиционный климат?</t>
+  </si>
+  <si>
+    <t>Что такое зона свободной торговли?</t>
+  </si>
+  <si>
+    <t>Что такое акционерный капитал?</t>
+  </si>
+  <si>
+    <t>Что такое антиинфляционная политика?</t>
+  </si>
+  <si>
+    <t>Что такое балансирование госбюджета?</t>
+  </si>
+  <si>
+    <t>Что такое валютная интервенция?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетный кодекс?</t>
+  </si>
+  <si>
+    <t>Что такое глобализация?</t>
+  </si>
+  <si>
+    <t>Что такое государственные закупки?</t>
+  </si>
+  <si>
+    <t>Что такое гистерезис?</t>
+  </si>
+  <si>
+    <t>Что такое государственный кредит?</t>
+  </si>
+  <si>
+    <t>Что такое девальвация?</t>
+  </si>
+  <si>
+    <t>Что такое экономическая девиация?</t>
+  </si>
+  <si>
+    <t>Что такое денежно-кредитная политика?</t>
+  </si>
+  <si>
+    <t>Что такое деноминация?</t>
+  </si>
+  <si>
+    <t>Что такое дефлятор ВВП?</t>
+  </si>
+  <si>
+    <t>Что такое дивиденд?</t>
+  </si>
+  <si>
+    <t>Что такое жизненный цикл товара?</t>
+  </si>
+  <si>
+    <t>Что такое закон Вальраса?</t>
+  </si>
+  <si>
+    <t>Что такое закон Грэшема?</t>
+  </si>
+  <si>
+    <t>Что такое закон Оукена?</t>
+  </si>
+  <si>
+    <t>Что такое закон Сэя?</t>
+  </si>
+  <si>
+    <t>Что такое золотовалютный резерв?</t>
+  </si>
+  <si>
+    <t>Что такое величина прожиточного минимума?</t>
+  </si>
+  <si>
+    <t>Что такое потребительская корзина?</t>
+  </si>
+  <si>
+    <t>Что такое доходы населения?</t>
+  </si>
+  <si>
+    <t>Что такое собственность населения?</t>
+  </si>
+  <si>
+    <t>Что такое маркетинг?</t>
+  </si>
+  <si>
+    <t>Что такое производство?</t>
+  </si>
+  <si>
+    <t>Что такое капитал?</t>
+  </si>
+  <si>
+    <t>Что такое финансы?</t>
+  </si>
+  <si>
+    <t>Что такое материальные ресурсы?</t>
+  </si>
+  <si>
+    <t>Что такое средние переменные издержки?</t>
+  </si>
+  <si>
+    <t>Что такое средние постоянные издержки?</t>
+  </si>
+  <si>
+    <t>Что такое средние валовые издержки?</t>
+  </si>
+  <si>
+    <t>Что такое общие валовые издержки?</t>
+  </si>
+  <si>
+    <t>Что такое амортизация?</t>
+  </si>
+  <si>
+    <t>Что такое стандартизация?</t>
+  </si>
+  <si>
+    <t>Что такое унификация?</t>
+  </si>
+  <si>
+    <t>Что такое фондоотдача?</t>
+  </si>
+  <si>
+    <t>Что такое фондовооруженность труда?</t>
+  </si>
+  <si>
+    <t>Что такое фондоемкость?</t>
+  </si>
+  <si>
+    <t>Что такое производительность труда?</t>
+  </si>
+  <si>
+    <t>Что такое экономика предприятия?</t>
+  </si>
+  <si>
+    <t>Что такое акционерное общество?</t>
+  </si>
+  <si>
+    <t>Что такое инвестиции?</t>
+  </si>
+  <si>
+    <t>Что такое импорт?</t>
+  </si>
+  <si>
+    <t>Что такое экспорт?</t>
+  </si>
+  <si>
+    <t>Что такое сбережения?</t>
+  </si>
+  <si>
+    <t>Что является источником собственного капитала?</t>
+  </si>
+  <si>
+    <t>Что такое рыночная конъюктура?</t>
+  </si>
+  <si>
+    <t>Что такое патент?</t>
+  </si>
+  <si>
+    <t>Что такое конгломераты?</t>
+  </si>
+  <si>
+    <t>Что такое синдикаты?</t>
+  </si>
+  <si>
+    <t>Что такое концерны?</t>
+  </si>
+  <si>
+    <t>Что такое картели?</t>
+  </si>
+  <si>
+    <t>Что такое тресты?</t>
+  </si>
+  <si>
+    <t>Что такое секвестирование?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2143,6 +2148,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2189,7 +2202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2221,9 +2234,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2255,6 +2286,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2430,14 +2479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="26" style="2"/>
@@ -2452,7 +2501,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2490,21 +2539,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="252">
+    <row r="2" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -2514,2295 +2563,2295 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252">
+    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="283.5">
+    <row r="5" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>544</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="252">
+    <row r="7" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
+        <v>545</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>546</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="283.5">
+    <row r="9" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>47</v>
+        <v>547</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="157.5">
+    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>548</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25">
+    <row r="11" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>549</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63">
+    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>550</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>551</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75">
+    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>552</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5">
+    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>553</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="94.5">
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>555</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5">
+    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>556</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63">
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>97</v>
+        <v>557</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63">
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>102</v>
+        <v>558</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="63">
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>107</v>
+        <v>559</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="110.25">
+    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1">
+    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>117</v>
+        <v>561</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="141.75">
+    <row r="24" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>122</v>
+        <v>562</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252">
+    <row r="25" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>127</v>
+        <v>563</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25">
+    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>132</v>
+        <v>564</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1">
+    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75">
+    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63">
+    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="315">
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="47.25">
+    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="110.25">
+    <row r="32" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="283.5">
+    <row r="33" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75">
+    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5">
+    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63">
+    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25">
+    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75">
+    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5">
+    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25">
+    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63">
+    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63">
+    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63">
+    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63">
+    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75">
+    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>226</v>
+        <v>565</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5">
+    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>231</v>
+        <v>566</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="110.25">
+    <row r="48" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>236</v>
+        <v>567</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63">
+    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>240</v>
+        <v>568</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="63">
+    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25">
+    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>249</v>
+        <v>570</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="47.25">
+    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>253</v>
+        <v>571</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63">
+    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>257</v>
+        <v>572</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75">
+    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>261</v>
+        <v>573</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="47.25">
+    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>265</v>
+        <v>574</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>269</v>
+        <v>575</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5">
+    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>274</v>
+        <v>576</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5">
+    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>278</v>
+        <v>577</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75">
+    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>282</v>
+        <v>578</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="78.75">
+    <row r="60" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>287</v>
+        <v>579</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25">
+    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>291</v>
+        <v>580</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="47.25">
+    <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>296</v>
+        <v>581</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25">
+    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63">
+    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>304</v>
+        <v>582</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63">
+    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>309</v>
+        <v>584</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25">
+    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>314</v>
+        <v>585</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>315</v>
+        <v>269</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60">
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>318</v>
+        <v>586</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60">
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>323</v>
+        <v>587</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>328</v>
+        <v>588</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195">
+    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>333</v>
+        <v>589</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150">
+    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>338</v>
+        <v>590</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>343</v>
+        <v>591</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105">
+    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>347</v>
+        <v>592</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>348</v>
+        <v>295</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="135">
+    <row r="74" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>352</v>
+        <v>593</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="75">
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>361</v>
+        <v>595</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135">
+    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>371</v>
+        <v>597</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>373</v>
+        <v>315</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60">
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>376</v>
+        <v>598</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90">
+    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>381</v>
+        <v>599</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="105">
+    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="45">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="90">
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150">
+    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="105">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>413</v>
+        <v>353</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75">
+    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>424</v>
+        <v>364</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="60">
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75">
+    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>437</v>
+        <v>377</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="90">
+    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>441</v>
+        <v>381</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>442</v>
+        <v>382</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>443</v>
+        <v>383</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>444</v>
+        <v>384</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="105">
+    <row r="93" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>445</v>
+        <v>385</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>446</v>
+        <v>386</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>448</v>
+        <v>388</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>449</v>
+        <v>389</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="90">
+    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>451</v>
+        <v>391</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>454</v>
+        <v>394</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="270">
+    <row r="95" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>455</v>
+        <v>395</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>458</v>
+        <v>398</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1">
+    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>462</v>
+        <v>402</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>464</v>
+        <v>404</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90">
+    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>468</v>
+        <v>408</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>469</v>
+        <v>409</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>471</v>
+        <v>411</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>472</v>
+        <v>412</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="60">
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="135">
+    <row r="100" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90">
+    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="150">
+    <row r="102" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="300">
+    <row r="103" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="300">
+    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>499</v>
+        <v>439</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>502</v>
+        <v>442</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>503</v>
+        <v>443</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="150">
+    <row r="105" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>504</v>
+        <v>444</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>506</v>
+        <v>446</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>507</v>
+        <v>447</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>508</v>
+        <v>448</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165">
+    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>513</v>
+        <v>453</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165">
+    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>515</v>
+        <v>455</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>516</v>
+        <v>456</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>517</v>
+        <v>457</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>518</v>
+        <v>458</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="150">
+    <row r="108" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>519</v>
+        <v>459</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>521</v>
+        <v>461</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>522</v>
+        <v>462</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>523</v>
+        <v>463</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165">
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>524</v>
+        <v>464</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>525</v>
+        <v>465</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>528</v>
+        <v>468</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90">
+    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>530</v>
+        <v>470</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150">
+    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>537</v>
+        <v>477</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="135">
+    <row r="112" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>541</v>
+        <v>481</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="135">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>546</v>
+        <v>486</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>547</v>
+        <v>487</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="105">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>554</v>
+        <v>494</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="135">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>556</v>
+        <v>496</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>557</v>
+        <v>497</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>558</v>
+        <v>498</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="120">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>561</v>
+        <v>501</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>565</v>
+        <v>505</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>563</v>
+        <v>503</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>564</v>
+        <v>504</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195">
+    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>562</v>
+        <v>502</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="210">
+    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>570</v>
+        <v>510</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>572</v>
+        <v>512</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>583</v>
+        <v>523</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="75">
+    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>574</v>
+        <v>514</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>573</v>
+        <v>513</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>579</v>
+        <v>519</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>586</v>
+        <v>526</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="1:9" ht="225">
+    <row r="120" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>587</v>
+        <v>527</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>591</v>
+        <v>531</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="150">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>578</v>
+        <v>518</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="G121" s="18" t="s">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="I121" s="17" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="604">
   <si>
     <t>id</t>
   </si>
@@ -1925,12 +1920,25 @@
   <si>
     <t>Что такое секвестирование?</t>
   </si>
+  <si>
+    <t>32.126</t>
+  </si>
+  <si>
+    <t>Прогнозируемый общий объем доходов федерального бюджета на две тысячи семнадцатый год утвержден федеральным законом о бюджете в сумме четырнадцать триллионов шестьсот семьдесят восемьдесят миллиардов восемьсот миллионов рублей, исполнен в сумме восемь триллионов четыреста тридцать пять миллиардов пятьсот миллионов рублей. 
+Общий объем расходов федерального бюджета на две тысячи семнадцатый год утвержден в сумме шестнадцать триллионов шестьсот два миллиарда шестьсот миллионов рублей, исполнен в сумме девять триллионов пятьсот пятнадцать миллиардов четыреста миллионов рублей</t>
+  </si>
+  <si>
+    <t>Прогнозируемый общий объем доходов федерального бюджета на 2017 год утвержден федеральным законом от 19 декабря 2016 г. N 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» (с учетом внесения изменений) в сумме 14 678,8 млрд. рублей, на 16.08.2017 исполнен в сумме 8 435,5 млрд. рублей. Общий объем расходов федерального бюджета на 2017 год утвержден в сумме 16 602,6 млрд. рублей, на 16.08.2017 исполнен в сумме 9 515,4 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Бюджет, 2017, год</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2202,7 +2210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2234,27 +2242,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,24 +2276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2479,14 +2451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="26" style="2"/>
@@ -2501,7 +2473,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="252">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2563,7 +2535,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="252">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2554,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2573,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="283.5">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2592,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2639,7 +2611,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="252">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2658,7 +2630,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="63">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2677,7 +2649,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="283.5">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2696,7 +2668,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="157.5">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -2715,7 +2687,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="173.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -2734,7 +2706,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -2753,7 +2725,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="47.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -2772,7 +2744,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="141.75">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -2791,7 +2763,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="94.5">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -2810,7 +2782,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="47.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -2829,7 +2801,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="94.5">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -2848,7 +2820,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -2867,7 +2839,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="63">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -2886,7 +2858,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="63">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -2905,7 +2877,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="63">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -2924,7 +2896,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="110.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -2943,7 +2915,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="96" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -2962,7 +2934,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="141.75">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -2981,7 +2953,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="252">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3000,7 +2972,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="47.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3019,7 +2991,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="249" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3038,7 +3010,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="78.75">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3057,7 +3029,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="63">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3076,7 +3048,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="315">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3095,7 +3067,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="47.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3114,7 +3086,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="110.25">
       <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
@@ -3133,7 +3105,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="283.5">
       <c r="A33" s="6" t="s">
         <v>140</v>
       </c>
@@ -3152,7 +3124,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="78.75">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3171,7 +3143,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="94.5">
       <c r="A35" s="6" t="s">
         <v>150</v>
       </c>
@@ -3190,7 +3162,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="63">
       <c r="A36" s="6" t="s">
         <v>155</v>
       </c>
@@ -3209,7 +3181,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="47.25">
       <c r="A37" s="6" t="s">
         <v>160</v>
       </c>
@@ -3228,7 +3200,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="78.75">
       <c r="A38" s="6" t="s">
         <v>165</v>
       </c>
@@ -3247,7 +3219,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="94.5">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -3266,7 +3238,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="47.25">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -3285,7 +3257,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="63">
       <c r="A41" s="6" t="s">
         <v>178</v>
       </c>
@@ -3304,7 +3276,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="6" t="s">
         <v>182</v>
       </c>
@@ -3323,7 +3295,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="63">
       <c r="A43" s="6" t="s">
         <v>186</v>
       </c>
@@ -3342,7 +3314,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="63">
       <c r="A44" s="6" t="s">
         <v>190</v>
       </c>
@@ -3361,7 +3333,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="63">
       <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
@@ -3380,7 +3352,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="141.75">
       <c r="A46" s="6" t="s">
         <v>200</v>
       </c>
@@ -3399,7 +3371,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="94.5">
       <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
@@ -3418,7 +3390,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="110.25">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -3437,7 +3409,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="63">
       <c r="A49" s="6" t="s">
         <v>211</v>
       </c>
@@ -3456,7 +3428,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="63">
       <c r="A50" s="6" t="s">
         <v>214</v>
       </c>
@@ -3475,7 +3447,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="47.25">
       <c r="A51" s="6" t="s">
         <v>218</v>
       </c>
@@ -3494,7 +3466,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="47.25">
       <c r="A52" s="6" t="s">
         <v>221</v>
       </c>
@@ -3513,7 +3485,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="63">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
@@ -3532,7 +3504,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="78.75">
       <c r="A54" s="6" t="s">
         <v>227</v>
       </c>
@@ -3551,7 +3523,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="47.25">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
@@ -3570,7 +3542,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="47.25">
       <c r="A56" s="6" t="s">
         <v>233</v>
       </c>
@@ -3589,7 +3561,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="31.5">
       <c r="A57" s="6" t="s">
         <v>237</v>
       </c>
@@ -3608,7 +3580,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="31.5">
       <c r="A58" s="6" t="s">
         <v>240</v>
       </c>
@@ -3627,7 +3599,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="78.75">
       <c r="A59" s="6" t="s">
         <v>243</v>
       </c>
@@ -3646,7 +3618,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="78.75">
       <c r="A60" s="6" t="s">
         <v>247</v>
       </c>
@@ -3665,7 +3637,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="110.25">
       <c r="A61" s="6" t="s">
         <v>250</v>
       </c>
@@ -3684,7 +3656,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="47.25">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
@@ -3703,7 +3675,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="47.25">
       <c r="A63" s="6" t="s">
         <v>257</v>
       </c>
@@ -3722,7 +3694,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="63">
       <c r="A64" s="6" t="s">
         <v>260</v>
       </c>
@@ -3741,7 +3713,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="63">
       <c r="A65" s="6" t="s">
         <v>264</v>
       </c>
@@ -3760,7 +3732,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="47.25">
       <c r="A66" s="6" t="s">
         <v>268</v>
       </c>
@@ -3779,7 +3751,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="60">
       <c r="A67" s="6" t="s">
         <v>271</v>
       </c>
@@ -3798,7 +3770,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="60">
       <c r="A68" s="6" t="s">
         <v>275</v>
       </c>
@@ -3817,7 +3789,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75">
       <c r="A69" s="6" t="s">
         <v>279</v>
       </c>
@@ -3836,7 +3808,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="195">
       <c r="A70" s="6" t="s">
         <v>283</v>
       </c>
@@ -3855,7 +3827,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="150">
       <c r="A71" s="6" t="s">
         <v>287</v>
       </c>
@@ -3874,7 +3846,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="45">
       <c r="A72" s="6" t="s">
         <v>291</v>
       </c>
@@ -3893,7 +3865,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="105">
       <c r="A73" s="6" t="s">
         <v>294</v>
       </c>
@@ -3912,7 +3884,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="135">
       <c r="A74" s="6" t="s">
         <v>298</v>
       </c>
@@ -3931,7 +3903,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="75">
       <c r="A75" s="6" t="s">
         <v>302</v>
       </c>
@@ -3950,7 +3922,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="75">
       <c r="A76" s="6" t="s">
         <v>305</v>
       </c>
@@ -3969,7 +3941,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" s="6" t="s">
         <v>309</v>
       </c>
@@ -3988,7 +3960,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="135">
       <c r="A78" s="6" t="s">
         <v>313</v>
       </c>
@@ -4007,7 +3979,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="60">
       <c r="A79" s="6" t="s">
         <v>317</v>
       </c>
@@ -4026,7 +3998,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -4045,7 +4017,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="105">
       <c r="A81" s="6" t="s">
         <v>325</v>
       </c>
@@ -4064,7 +4036,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="45">
       <c r="A82" s="6" t="s">
         <v>330</v>
       </c>
@@ -4083,7 +4055,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90">
       <c r="A83" s="6" t="s">
         <v>334</v>
       </c>
@@ -4102,7 +4074,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="150">
       <c r="A84" s="6" t="s">
         <v>339</v>
       </c>
@@ -4125,7 +4097,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="105">
       <c r="A85" s="6" t="s">
         <v>346</v>
       </c>
@@ -4144,7 +4116,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="45">
       <c r="A86" s="6" t="s">
         <v>351</v>
       </c>
@@ -4163,7 +4135,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="75">
       <c r="A87" s="6" t="s">
         <v>356</v>
       </c>
@@ -4182,7 +4154,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="45">
       <c r="A88" s="6" t="s">
         <v>361</v>
       </c>
@@ -4201,7 +4173,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="60">
       <c r="A89" s="6" t="s">
         <v>365</v>
       </c>
@@ -4220,7 +4192,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="60">
       <c r="A90" s="6" t="s">
         <v>370</v>
       </c>
@@ -4239,7 +4211,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="75">
       <c r="A91" s="6" t="s">
         <v>375</v>
       </c>
@@ -4258,7 +4230,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="90">
       <c r="A92" s="6" t="s">
         <v>380</v>
       </c>
@@ -4277,7 +4249,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="105">
       <c r="A93" s="6" t="s">
         <v>385</v>
       </c>
@@ -4296,7 +4268,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="90">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -4315,7 +4287,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="270">
       <c r="A95" s="6" t="s">
         <v>395</v>
       </c>
@@ -4334,7 +4306,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="33" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>400</v>
       </c>
@@ -4353,7 +4325,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="90">
       <c r="A97" s="6" t="s">
         <v>405</v>
       </c>
@@ -4372,7 +4344,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="45">
       <c r="A98" s="6" t="s">
         <v>410</v>
       </c>
@@ -4391,7 +4363,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="60">
       <c r="A99" s="6" t="s">
         <v>414</v>
       </c>
@@ -4410,7 +4382,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="135">
       <c r="A100" s="6" t="s">
         <v>419</v>
       </c>
@@ -4429,7 +4401,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="90">
       <c r="A101" s="6" t="s">
         <v>424</v>
       </c>
@@ -4448,7 +4420,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="150">
       <c r="A102" s="6" t="s">
         <v>429</v>
       </c>
@@ -4467,7 +4439,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="300">
       <c r="A103" s="6" t="s">
         <v>434</v>
       </c>
@@ -4486,7 +4458,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="300">
       <c r="A104" s="14" t="s">
         <v>439</v>
       </c>
@@ -4505,7 +4477,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="150">
       <c r="A105" s="14" t="s">
         <v>444</v>
       </c>
@@ -4524,7 +4496,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="165">
       <c r="A106" s="14" t="s">
         <v>449</v>
       </c>
@@ -4543,7 +4515,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="165">
       <c r="A107" s="14" t="s">
         <v>454</v>
       </c>
@@ -4562,7 +4534,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="150">
       <c r="A108" s="14" t="s">
         <v>459</v>
       </c>
@@ -4581,7 +4553,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="165">
       <c r="A109" s="14" t="s">
         <v>464</v>
       </c>
@@ -4600,7 +4572,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="90">
       <c r="A110" s="15" t="s">
         <v>469</v>
       </c>
@@ -4619,7 +4591,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="150">
       <c r="A111" s="15" t="s">
         <v>474</v>
       </c>
@@ -4638,7 +4610,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="135">
       <c r="A112" s="15" t="s">
         <v>479</v>
       </c>
@@ -4661,7 +4633,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="135">
       <c r="A113" s="15" t="s">
         <v>486</v>
       </c>
@@ -4678,7 +4650,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="105">
       <c r="A114" s="15" t="s">
         <v>491</v>
       </c>
@@ -4695,7 +4667,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="135">
       <c r="A115" s="15" t="s">
         <v>496</v>
       </c>
@@ -4712,7 +4684,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="120">
       <c r="A116" s="16" t="s">
         <v>501</v>
       </c>
@@ -4733,7 +4705,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="195">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -4754,7 +4726,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="210">
       <c r="A118" s="16" t="s">
         <v>510</v>
       </c>
@@ -4775,7 +4747,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="16" t="s">
         <v>514</v>
       </c>
@@ -4796,7 +4768,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="225">
       <c r="A120" s="16" t="s">
         <v>515</v>
       </c>
@@ -4825,7 +4797,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="150">
       <c r="A121" s="16" t="s">
         <v>517</v>
       </c>
@@ -4852,6 +4824,23 @@
       </c>
       <c r="I121" s="17" t="s">
         <v>533</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="165">
+      <c r="A122" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1551,9 +1556,6 @@
     <t>Министерство финансов Российской Федерации находится по адресу: г. Москва, ул. Ильинка, д. 9</t>
   </si>
   <si>
-    <t>Адрес, Министерство, финансов, России, находится, расположение, место, местоположение, расположен, где, найти, здание, корпус, штаб, штаб-квартира, локация, географически, пройти, попасть, дойти, доехать, проехать, добраться</t>
-  </si>
-  <si>
     <t>Адрес Министерства финансов Российской Федерации на Яндекс карте</t>
   </si>
   <si>
@@ -1933,12 +1935,15 @@
   <si>
     <t>Бюджет, 2017, год</t>
   </si>
+  <si>
+    <t>Адрес, Минфин, Министерство, финансов, находится, расположение, место, местоположение, где, найти, пройти, попасть, дойти, доехать, проехать, добраться</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2210,7 +2215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2242,9 +2247,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2276,6 +2299,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2451,14 +2492,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="26" style="2"/>
@@ -2473,7 +2514,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2511,12 +2552,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="252">
+    <row r="2" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -2535,12 +2576,12 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252">
+    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -2554,12 +2595,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -2573,12 +2614,12 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="283.5">
+    <row r="5" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -2592,12 +2633,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -2611,12 +2652,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="252">
+    <row r="7" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>32</v>
@@ -2630,12 +2671,12 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -2649,12 +2690,12 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="283.5">
+    <row r="9" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>40</v>
@@ -2668,12 +2709,12 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="157.5">
+    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -2687,12 +2728,12 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25">
+    <row r="11" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
@@ -2706,12 +2747,12 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63">
+    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -2725,12 +2766,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
@@ -2744,12 +2785,12 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75">
+    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -2763,12 +2804,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5">
+    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>64</v>
@@ -2782,12 +2823,12 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
@@ -2801,12 +2842,12 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="94.5">
+    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>72</v>
@@ -2820,12 +2861,12 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5">
+    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>76</v>
@@ -2839,12 +2880,12 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63">
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>80</v>
@@ -2858,12 +2899,12 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63">
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>84</v>
@@ -2877,12 +2918,12 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="63">
+    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>88</v>
@@ -2896,12 +2937,12 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="110.25">
+    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>92</v>
@@ -2915,12 +2956,12 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1">
+    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>96</v>
@@ -2934,12 +2975,12 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="141.75">
+    <row r="24" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>100</v>
@@ -2953,12 +2994,12 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252">
+    <row r="25" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
@@ -2972,12 +3013,12 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25">
+    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>108</v>
@@ -2991,7 +3032,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1">
+    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3051,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75">
+    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3029,7 +3070,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63">
+    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3048,7 +3089,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="315">
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3067,7 +3108,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="47.25">
+    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3086,7 +3127,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="110.25">
+    <row r="32" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
@@ -3105,7 +3146,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="283.5">
+    <row r="33" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>140</v>
       </c>
@@ -3124,7 +3165,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75">
+    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3143,7 +3184,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5">
+    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>150</v>
       </c>
@@ -3162,7 +3203,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63">
+    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>155</v>
       </c>
@@ -3181,7 +3222,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25">
+    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>160</v>
       </c>
@@ -3200,7 +3241,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75">
+    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>165</v>
       </c>
@@ -3219,7 +3260,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5">
+    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -3238,7 +3279,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25">
+    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -3257,7 +3298,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63">
+    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>178</v>
       </c>
@@ -3276,12 +3317,12 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>183</v>
@@ -3295,7 +3336,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63">
+    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>186</v>
       </c>
@@ -3314,7 +3355,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63">
+    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>190</v>
       </c>
@@ -3333,7 +3374,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63">
+    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
@@ -3352,12 +3393,12 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75">
+    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>201</v>
@@ -3371,12 +3412,12 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5">
+    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>205</v>
@@ -3390,12 +3431,12 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="110.25">
+    <row r="48" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>209</v>
@@ -3409,12 +3450,12 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63">
+    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>212</v>
@@ -3428,12 +3469,12 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="63">
+    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>215</v>
@@ -3447,12 +3488,12 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25">
+    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>219</v>
@@ -3466,12 +3507,12 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="47.25">
+    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>222</v>
@@ -3485,12 +3526,12 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63">
+    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>225</v>
@@ -3504,12 +3545,12 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75">
+    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>228</v>
@@ -3523,12 +3564,12 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="47.25">
+    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>231</v>
@@ -3542,12 +3583,12 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>234</v>
@@ -3561,12 +3602,12 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5">
+    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>238</v>
@@ -3580,12 +3621,12 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5">
+    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>241</v>
@@ -3599,12 +3640,12 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75">
+    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>244</v>
@@ -3618,12 +3659,12 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="78.75">
+    <row r="60" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>248</v>
@@ -3637,12 +3678,12 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25">
+    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>251</v>
@@ -3656,12 +3697,12 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="47.25">
+    <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>255</v>
@@ -3675,12 +3716,12 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25">
+    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>258</v>
@@ -3694,12 +3735,12 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63">
+    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>261</v>
@@ -3713,12 +3754,12 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63">
+    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>265</v>
@@ -3732,12 +3773,12 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25">
+    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>269</v>
@@ -3751,12 +3792,12 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60">
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>272</v>
@@ -3770,12 +3811,12 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60">
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>276</v>
@@ -3789,12 +3830,12 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>280</v>
@@ -3808,12 +3849,12 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195">
+    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>284</v>
@@ -3827,12 +3868,12 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150">
+    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>288</v>
@@ -3846,12 +3887,12 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>292</v>
@@ -3865,12 +3906,12 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105">
+    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>295</v>
@@ -3884,12 +3925,12 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="135">
+    <row r="74" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>299</v>
@@ -3903,12 +3944,12 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="75">
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>303</v>
@@ -3922,12 +3963,12 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>305</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>306</v>
@@ -3941,12 +3982,12 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>310</v>
@@ -3960,12 +4001,12 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135">
+    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>314</v>
@@ -3979,12 +4020,12 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60">
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>318</v>
@@ -3998,12 +4039,12 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90">
+    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>322</v>
@@ -4017,7 +4058,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="105">
+    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>325</v>
       </c>
@@ -4036,7 +4077,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="45">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>330</v>
       </c>
@@ -4055,7 +4096,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="90">
+    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>334</v>
       </c>
@@ -4074,7 +4115,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150">
+    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>339</v>
       </c>
@@ -4097,7 +4138,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105">
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>346</v>
       </c>
@@ -4116,7 +4157,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45">
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>351</v>
       </c>
@@ -4135,7 +4176,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75">
+    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>356</v>
       </c>
@@ -4154,7 +4195,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>361</v>
       </c>
@@ -4173,7 +4214,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="60">
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>365</v>
       </c>
@@ -4192,7 +4233,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>370</v>
       </c>
@@ -4211,7 +4252,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75">
+    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>375</v>
       </c>
@@ -4230,7 +4271,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="90">
+    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>380</v>
       </c>
@@ -4249,7 +4290,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="105">
+    <row r="93" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>385</v>
       </c>
@@ -4268,7 +4309,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="90">
+    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -4287,7 +4328,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="270">
+    <row r="95" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>395</v>
       </c>
@@ -4306,7 +4347,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1">
+    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>400</v>
       </c>
@@ -4325,7 +4366,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90">
+    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>405</v>
       </c>
@@ -4344,7 +4385,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>410</v>
       </c>
@@ -4363,7 +4404,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="60">
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>414</v>
       </c>
@@ -4382,7 +4423,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="135">
+    <row r="100" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>419</v>
       </c>
@@ -4401,7 +4442,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90">
+    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>424</v>
       </c>
@@ -4420,7 +4461,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="150">
+    <row r="102" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>429</v>
       </c>
@@ -4439,7 +4480,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="300">
+    <row r="103" spans="1:7" ht="345" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>434</v>
       </c>
@@ -4458,7 +4499,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="300">
+    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>439</v>
       </c>
@@ -4477,7 +4518,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="150">
+    <row r="105" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>444</v>
       </c>
@@ -4496,7 +4537,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165">
+    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>449</v>
       </c>
@@ -4515,7 +4556,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165">
+    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>454</v>
       </c>
@@ -4534,7 +4575,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="150">
+    <row r="108" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>459</v>
       </c>
@@ -4553,7 +4594,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165">
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>464</v>
       </c>
@@ -4572,7 +4613,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90">
+    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>469</v>
       </c>
@@ -4591,7 +4632,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150">
+    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>474</v>
       </c>
@@ -4610,7 +4651,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="135">
+    <row r="112" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>479</v>
       </c>
@@ -4624,223 +4665,223 @@
         <v>482</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="135">
-      <c r="A113" s="15" t="s">
+      <c r="B113" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="105">
-      <c r="A114" s="15" t="s">
+      <c r="B114" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E114" s="2" t="s">
+    </row>
+    <row r="115" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="135">
-      <c r="A115" s="15" t="s">
+      <c r="B115" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="120">
-      <c r="A116" s="16" t="s">
-        <v>501</v>
-      </c>
       <c r="B116" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="E116" s="18" t="s">
         <v>505</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="E116" s="18" t="s">
-        <v>506</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195">
+    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B117" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="D117" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="D117" s="18" t="s">
-        <v>509</v>
-      </c>
       <c r="E117" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="210">
+    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>511</v>
-      </c>
       <c r="D118" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" s="18" t="s">
         <v>523</v>
-      </c>
-      <c r="E118" s="18" t="s">
-        <v>524</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="75">
+    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="1:9" ht="225">
+    <row r="120" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B120" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B121" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D120" s="18" t="s">
+      <c r="C121" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D121" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E121" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="F120" s="18" t="s">
+      <c r="F121" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="G120" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="I120" s="17" t="s">
+      <c r="G121" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="H121" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="I121" s="17" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="150">
-      <c r="A121" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="H121" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="165">
+    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="636">
   <si>
     <t>id</t>
   </si>
@@ -1556,6 +1551,9 @@
     <t>Министерство финансов Российской Федерации находится по адресу: г. Москва, ул. Ильинка, д. 9</t>
   </si>
   <si>
+    <t>Адрес, Министерство, финансов, России, находится, расположение, место, местоположение, расположен, где, найти, здание, корпус, штаб, штаб-квартира, локация, географически, пройти, попасть, дойти, доехать, проехать, добраться</t>
+  </si>
+  <si>
     <t>Адрес Министерства финансов Российской Федерации на Яндекс карте</t>
   </si>
   <si>
@@ -1936,14 +1934,150 @@
     <t>Бюджет, 2017, год</t>
   </si>
   <si>
-    <t>Адрес, Минфин, Министерство, финансов, находится, расположение, место, местоположение, где, найти, пройти, попасть, дойти, доехать, проехать, добраться</t>
+    <t>Что такое облигации федерального займа для физических лиц (ОФЗ-н)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облигации федерального займа для физических лиц – это ценные бумаги, выпускаемые Министерством финансов Российской Федерации, для распространения среди обычных граждан
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Облигации федерального займа для физических лиц (ОФЗ-н) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> это ценные бумаги, которые выпускает Министерство финансов РФ специально для распространения среди обычных граждан: их проще купить, чем рыночные облигации, а риски ограничены. 
+Приобретая ОФЗ-н, население дает деньги в долг государству и получает доход по фиксированной ставке. Государство при этом выступает гарантом возврата инвестиций.
+Облигации федерального займа для населения (ОФЗ-н) – новый инструмент для сбережений россиян! 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Что, такое, облигация, федеральный, займ, офз-н, определение, для, населения, физических лиц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Информация на официальном сайте Министерства финансов Российской Федерации в разделе "Об облигациях федерального займа для физических лиц (ОФЗ-н)"
+</t>
+  </si>
+  <si>
+    <t>https://www.minfin.ru/ru/perfomance/public_debt/internal/ofz-n/about/#</t>
+  </si>
+  <si>
+    <t>Преимущества облигаций федерального займа для физических лиц (ОФЗ-н)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облигации федерального займа для физических лиц дают возможность  населению получить упрощенный доступ к долговым инструментам с высоким кредитным качеством и получать б+ольший доход, чем по банковским депозитам, при минимальных рисках
+</t>
+  </si>
+  <si>
+    <t>Преимущества облигаций федерального займа для физических лиц (ОФЗ-н): 
+1. Для государства: 
+• стимулирование физических лиц к среднесрочным сбережениям 
+• повышение финансовой грамотности населения 
+• усиление конкуренции в финансовом секторе - стимул для повышения банками качества и доступности услуг/продуктов 
+• воспитание внутреннего инвестора, развитие внутреннего рынка капитала • потенциальное снижение стоимости заимствований в долгосрочной перспективе.  
+2. Для владельцев (граждан): 
+• получение упрощенного доступа к долговым инструментам с высоким кредитным качеством 
+• повышение финансовой грамотности 
+• возможность получать больший доход, чем по банковским депозитам, при минимальных рисках 
+• просто купить в отделении банков-агентов Сбербанка и ВТБ24 либо в личном кабинете на их сайтах в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>преимущества, облигация, федеральный, займ, офз, офз-н, для, населения, физических лиц</t>
+  </si>
+  <si>
+    <t>Где можно приобрести облигации федерального займа для физических лиц (ОФЗ-н)?</t>
+  </si>
+  <si>
+    <t>Приобрести облигации федерального займа для физических лиц можно в отделениях банков-агентов Сбербанка и ВЭ ТЭ БЭ двадцать четыре, либо в личном кабинете на их сайтах в сети «Интернет»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приобрести облигации федерального займа для физических лиц (ОФЗ-н) можно в отделениях Сбербанка и ВТБ-24 либо в личном кабинете на их сайтах в сети «Интернет». </t>
+  </si>
+  <si>
+    <t>где, приобрести, покупка, офз, офз-н, облигация, федеральный, займ, для, населения, физических лиц</t>
+  </si>
+  <si>
+    <t>Цели создания облигаций федерального займа для физических лиц (ОФЗ-н)?</t>
+  </si>
+  <si>
+    <t>Основная цель - повышение финансовой грамотности населения, воспитание культуры сохранения и инвестирования средств гражданами, в том числе за счет их стимулирования к осуществлению среднесрочных сбережений, посредством создания финансового инструмента, который по своим характеристикам и уровню риска находится «между» банковскими депозитами и обращающимися на организованном финансовом рынке государственными ценными бумагами</t>
+  </si>
+  <si>
+    <t>зачем, цель, создания, офз, офз-н, облигация, федерального, займа, для, населения, физических лиц</t>
+  </si>
+  <si>
+    <t>Доходность облигаций федерального займа для физических лиц (ОФЗ-н)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доходность к погашению облигаций федерального займа для физических лиц – аналогичная доходности трехлетних рыночных облигаций федерального займа, а именно восемь целых пять десятых процента годовых
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доходность к погашению облигаций федерального займа для физических лиц (ОФЗ-н) – аналогичная доходности трехлетних рыночных ОФЗ (8,5% годовых)
+</t>
+  </si>
+  <si>
+    <t>Доходность, облигаций, федерального, займа, для, физических, лиц, ОФЗ-н</t>
+  </si>
+  <si>
+    <t>Минимальная номинальная стоимость облигаций федерального займа для физических лиц, доступных для приобретения – тридцать тысяч рублей. Максимальная номинальная стоимость облигаций одного выпуска, доступных для приобретения одним владельцем – пятнадцать миллионов рублей</t>
+  </si>
+  <si>
+    <t>Минимальная номинальная стоимость облигаций федерального займа для физических лиц (ОФЗ-н), доступных для приобретения – 30 тыс. руб. 
+Максимальная номинальная стоимость облигаций одного выпуска, доступных для приобретения одним владельцем – 15 млн.руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальная, максимальная, номинальная,
+стоимость, облигаций, федерального, займа,  для, приобретения, физическим, лицам, офз, офз-н, </t>
+  </si>
+  <si>
+    <t>32.127</t>
+  </si>
+  <si>
+    <t>32.128</t>
+  </si>
+  <si>
+    <t>32.129</t>
+  </si>
+  <si>
+    <t>32.130</t>
+  </si>
+  <si>
+    <t>32.131</t>
+  </si>
+  <si>
+    <t>32.132</t>
+  </si>
+  <si>
+    <t>Основная цель - повышение финансовой грамотности населения, воспитание культуры сохранения и инвестирования средств гражданами, в том числе за счет их стимулирования к осуществлению среднесрочных сбережений, посредством создания финансового инструмента, который по своим характеристикам и уровню риска находится «между» банковскими депозитами и обращающимися на организованном финансовом рынке государственными ценными бумагами. 
+Дополнительные цели: 
+- повышение доверия граждан к мерам государственной политики; 
+- развитие внутреннего финансового рынка: создание нового сегмента рынка ценных бумаг, стимулирование роста конкурентоспособности финансовых услуг корпоративного сектора; 
+-  расширение и диверсификация базы инвесторов в государственные ценные бумаги.
+ОФЗ-н не рассматриваются в качестве основного инструмента государственных заимствований</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальная / максимальная номинальная стоимость облигаций федерального займа, доступных для приобретения физическим лицам? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1978,6 +2112,35 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7.7"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -2022,10 +2185,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2087,8 +2254,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2215,7 +2392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2247,27 +2424,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2299,24 +2458,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2492,19 +2633,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
-    <col min="2" max="2" width="26" style="2"/>
-    <col min="3" max="3" width="70.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="63" style="2" customWidth="1"/>
+    <col min="4" max="4" width="87.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="1"/>
     <col min="7" max="8" width="28.85546875" style="1"/>
@@ -2514,7 +2655,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2552,12 +2693,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="252">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -2576,12 +2717,12 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="252">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -2595,12 +2736,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="94.5">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -2614,12 +2755,12 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="283.5">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -2633,12 +2774,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -2652,12 +2793,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="252">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>32</v>
@@ -2671,12 +2812,12 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="63">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -2690,12 +2831,12 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="283.5">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>40</v>
@@ -2709,12 +2850,12 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="157.5">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -2728,12 +2869,12 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="173.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
@@ -2747,12 +2888,12 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -2766,12 +2907,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="47.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
@@ -2785,12 +2926,12 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="141.75">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -2804,12 +2945,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="94.5">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>64</v>
@@ -2823,12 +2964,12 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="47.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
@@ -2842,12 +2983,12 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="94.5">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>72</v>
@@ -2861,12 +3002,12 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>76</v>
@@ -2880,12 +3021,12 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="63">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>80</v>
@@ -2899,12 +3040,12 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="63">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>84</v>
@@ -2918,12 +3059,12 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="63">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>88</v>
@@ -2937,12 +3078,12 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="110.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>92</v>
@@ -2956,12 +3097,12 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="96" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>96</v>
@@ -2975,12 +3116,12 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="141.75">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>100</v>
@@ -2994,12 +3135,12 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="252">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
@@ -3013,12 +3154,12 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="47.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>108</v>
@@ -3032,7 +3173,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="249" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3051,7 +3192,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="78.75">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3070,7 +3211,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="63">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3089,7 +3230,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="315">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3108,7 +3249,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="47.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3127,7 +3268,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="110.25">
       <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
@@ -3146,7 +3287,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="283.5">
       <c r="A33" s="6" t="s">
         <v>140</v>
       </c>
@@ -3165,7 +3306,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="78.75">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3184,7 +3325,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="94.5">
       <c r="A35" s="6" t="s">
         <v>150</v>
       </c>
@@ -3203,7 +3344,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="63">
       <c r="A36" s="6" t="s">
         <v>155</v>
       </c>
@@ -3222,7 +3363,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="47.25">
       <c r="A37" s="6" t="s">
         <v>160</v>
       </c>
@@ -3241,7 +3382,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="78.75">
       <c r="A38" s="6" t="s">
         <v>165</v>
       </c>
@@ -3260,7 +3401,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="94.5">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -3279,7 +3420,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="47.25">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -3298,7 +3439,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="63">
       <c r="A41" s="6" t="s">
         <v>178</v>
       </c>
@@ -3317,12 +3458,12 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>183</v>
@@ -3336,7 +3477,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="63">
       <c r="A43" s="6" t="s">
         <v>186</v>
       </c>
@@ -3355,7 +3496,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="63">
       <c r="A44" s="6" t="s">
         <v>190</v>
       </c>
@@ -3374,7 +3515,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="63">
       <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
@@ -3393,12 +3534,12 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="141.75">
       <c r="A46" s="6" t="s">
         <v>200</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>201</v>
@@ -3412,12 +3553,12 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="94.5">
       <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>205</v>
@@ -3431,12 +3572,12 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="110.25">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>209</v>
@@ -3450,12 +3591,12 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="63">
       <c r="A49" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>212</v>
@@ -3469,12 +3610,12 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="63">
       <c r="A50" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>215</v>
@@ -3488,12 +3629,12 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="47.25">
       <c r="A51" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>219</v>
@@ -3507,12 +3648,12 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="47.25">
       <c r="A52" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>222</v>
@@ -3526,12 +3667,12 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="63">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>225</v>
@@ -3545,12 +3686,12 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="78.75">
       <c r="A54" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>228</v>
@@ -3564,12 +3705,12 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="47.25">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>231</v>
@@ -3583,12 +3724,12 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="47.25">
       <c r="A56" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>234</v>
@@ -3602,12 +3743,12 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="31.5">
       <c r="A57" s="6" t="s">
         <v>237</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>238</v>
@@ -3621,12 +3762,12 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="31.5">
       <c r="A58" s="6" t="s">
         <v>240</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>241</v>
@@ -3640,12 +3781,12 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="78.75">
       <c r="A59" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>244</v>
@@ -3659,12 +3800,12 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="78.75">
       <c r="A60" s="6" t="s">
         <v>247</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>248</v>
@@ -3678,12 +3819,12 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="110.25">
       <c r="A61" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>251</v>
@@ -3697,12 +3838,12 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="47.25">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>255</v>
@@ -3716,12 +3857,12 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="47.25">
       <c r="A63" s="6" t="s">
         <v>257</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>258</v>
@@ -3735,12 +3876,12 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="63">
       <c r="A64" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>261</v>
@@ -3754,12 +3895,12 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="63">
       <c r="A65" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>265</v>
@@ -3773,12 +3914,12 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="47.25">
       <c r="A66" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>269</v>
@@ -3792,12 +3933,12 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="60">
       <c r="A67" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>272</v>
@@ -3811,12 +3952,12 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="60">
       <c r="A68" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>276</v>
@@ -3830,12 +3971,12 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75">
       <c r="A69" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>280</v>
@@ -3849,12 +3990,12 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="195">
       <c r="A70" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>284</v>
@@ -3868,12 +4009,12 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="150">
       <c r="A71" s="6" t="s">
         <v>287</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>288</v>
@@ -3887,12 +4028,12 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="45">
       <c r="A72" s="6" t="s">
         <v>291</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>292</v>
@@ -3906,12 +4047,12 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="105">
       <c r="A73" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>295</v>
@@ -3925,12 +4066,12 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="135">
       <c r="A74" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>299</v>
@@ -3944,12 +4085,12 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="75">
       <c r="A75" s="6" t="s">
         <v>302</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>303</v>
@@ -3963,12 +4104,12 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="75">
       <c r="A76" s="6" t="s">
         <v>305</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>306</v>
@@ -3982,12 +4123,12 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>310</v>
@@ -4001,12 +4142,12 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="135">
       <c r="A78" s="6" t="s">
         <v>313</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>314</v>
@@ -4020,12 +4161,12 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="60">
       <c r="A79" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>318</v>
@@ -4039,12 +4180,12 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>322</v>
@@ -4058,7 +4199,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="105">
       <c r="A81" s="6" t="s">
         <v>325</v>
       </c>
@@ -4077,7 +4218,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="45">
       <c r="A82" s="6" t="s">
         <v>330</v>
       </c>
@@ -4096,7 +4237,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90">
       <c r="A83" s="6" t="s">
         <v>334</v>
       </c>
@@ -4115,7 +4256,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="150">
       <c r="A84" s="6" t="s">
         <v>339</v>
       </c>
@@ -4138,7 +4279,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="105">
       <c r="A85" s="6" t="s">
         <v>346</v>
       </c>
@@ -4157,7 +4298,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="45">
       <c r="A86" s="6" t="s">
         <v>351</v>
       </c>
@@ -4176,7 +4317,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="75">
       <c r="A87" s="6" t="s">
         <v>356</v>
       </c>
@@ -4195,7 +4336,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="45">
       <c r="A88" s="6" t="s">
         <v>361</v>
       </c>
@@ -4214,7 +4355,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="60">
       <c r="A89" s="6" t="s">
         <v>365</v>
       </c>
@@ -4233,7 +4374,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="60">
       <c r="A90" s="6" t="s">
         <v>370</v>
       </c>
@@ -4252,7 +4393,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="75">
       <c r="A91" s="6" t="s">
         <v>375</v>
       </c>
@@ -4271,7 +4412,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="90">
       <c r="A92" s="6" t="s">
         <v>380</v>
       </c>
@@ -4290,7 +4431,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="105">
       <c r="A93" s="6" t="s">
         <v>385</v>
       </c>
@@ -4309,7 +4450,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="90">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -4328,7 +4469,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="270">
       <c r="A95" s="6" t="s">
         <v>395</v>
       </c>
@@ -4347,7 +4488,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="33" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>400</v>
       </c>
@@ -4366,7 +4507,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="90">
       <c r="A97" s="6" t="s">
         <v>405</v>
       </c>
@@ -4385,7 +4526,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="45">
       <c r="A98" s="6" t="s">
         <v>410</v>
       </c>
@@ -4404,7 +4545,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="60">
       <c r="A99" s="6" t="s">
         <v>414</v>
       </c>
@@ -4423,7 +4564,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="135">
       <c r="A100" s="6" t="s">
         <v>419</v>
       </c>
@@ -4442,7 +4583,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="90">
       <c r="A101" s="6" t="s">
         <v>424</v>
       </c>
@@ -4461,7 +4602,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="150">
       <c r="A102" s="6" t="s">
         <v>429</v>
       </c>
@@ -4480,7 +4621,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="300">
       <c r="A103" s="6" t="s">
         <v>434</v>
       </c>
@@ -4499,7 +4640,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="300">
       <c r="A104" s="14" t="s">
         <v>439</v>
       </c>
@@ -4518,7 +4659,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="150">
       <c r="A105" s="14" t="s">
         <v>444</v>
       </c>
@@ -4537,7 +4678,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="165">
       <c r="A106" s="14" t="s">
         <v>449</v>
       </c>
@@ -4556,7 +4697,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="165">
       <c r="A107" s="14" t="s">
         <v>454</v>
       </c>
@@ -4575,7 +4716,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="150">
       <c r="A108" s="14" t="s">
         <v>459</v>
       </c>
@@ -4594,7 +4735,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="165">
       <c r="A109" s="14" t="s">
         <v>464</v>
       </c>
@@ -4613,7 +4754,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="90">
       <c r="A110" s="15" t="s">
         <v>469</v>
       </c>
@@ -4632,7 +4773,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="150">
       <c r="A111" s="15" t="s">
         <v>474</v>
       </c>
@@ -4651,7 +4792,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="135">
       <c r="A112" s="15" t="s">
         <v>479</v>
       </c>
@@ -4665,223 +4806,361 @@
         <v>482</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>603</v>
+        <v>483</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="135">
       <c r="A113" s="15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="105">
       <c r="A114" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="135">
       <c r="A115" s="15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="120">
       <c r="A116" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B116" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="D116" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>503</v>
-      </c>
       <c r="E116" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="195">
       <c r="A117" s="16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="210">
       <c r="A118" s="16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B118" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>510</v>
-      </c>
       <c r="D118" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>512</v>
-      </c>
       <c r="D119" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="225">
       <c r="A120" s="16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C120" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="150">
+      <c r="A121" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="G121" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="D120" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="F120" s="18" t="s">
+      <c r="H121" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="G120" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="H121" s="18" t="s">
+      <c r="I121" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="I121" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" ht="165">
       <c r="A122" s="16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="150">
+      <c r="A123" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="240">
+      <c r="A124" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="105">
+      <c r="A125" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="240">
+      <c r="A126" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="105">
+      <c r="A127" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="105">
+      <c r="A128" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4889,8 +5168,14 @@
     <hyperlink ref="G84" r:id="rId1"/>
     <hyperlink ref="G121" r:id="rId2"/>
     <hyperlink ref="G120" r:id="rId3"/>
+    <hyperlink ref="G123" r:id="rId4"/>
+    <hyperlink ref="G124" r:id="rId5"/>
+    <hyperlink ref="G125" r:id="rId6"/>
+    <hyperlink ref="G126" r:id="rId7"/>
+    <hyperlink ref="G128" r:id="rId8"/>
+    <hyperlink ref="G127" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="637">
   <si>
     <t>id</t>
   </si>
@@ -2072,12 +2077,15 @@
   <si>
     <t xml:space="preserve">Минимальная / максимальная номинальная стоимость облигаций федерального займа, доступных для приобретения физическим лицам? </t>
   </si>
+  <si>
+    <t>Бюджет на 2017 год</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2392,7 +2400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2424,9 +2432,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2458,6 +2484,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2633,14 +2677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
@@ -2655,7 +2699,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="252">
+    <row r="2" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2717,7 +2761,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252">
+    <row r="3" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2736,7 +2780,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="94.5">
+    <row r="4" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -2755,7 +2799,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="283.5">
+    <row r="5" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2774,7 +2818,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -2793,7 +2837,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="252">
+    <row r="7" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2812,7 +2856,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
+    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2831,7 +2875,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="283.5">
+    <row r="9" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2850,7 +2894,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="157.5">
+    <row r="10" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -2869,7 +2913,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25">
+    <row r="11" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -2888,7 +2932,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63">
+    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -2907,7 +2951,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25">
+    <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -2926,7 +2970,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75">
+    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -2945,7 +2989,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5">
+    <row r="15" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -2964,7 +3008,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -2983,7 +3027,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="94.5">
+    <row r="17" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -3002,7 +3046,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5">
+    <row r="18" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -3021,7 +3065,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63">
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -3040,7 +3084,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63">
+    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -3059,7 +3103,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="63">
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3078,7 +3122,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="110.25">
+    <row r="22" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -3097,7 +3141,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1">
+    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -3116,7 +3160,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="141.75">
+    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3135,7 +3179,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252">
+    <row r="25" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3154,7 +3198,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25">
+    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3173,7 +3217,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1">
+    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3192,7 +3236,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75">
+    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3211,7 +3255,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63">
+    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3230,7 +3274,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="315">
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3249,7 +3293,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="47.25">
+    <row r="31" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3268,7 +3312,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="110.25">
+    <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>135</v>
       </c>
@@ -3287,7 +3331,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="283.5">
+    <row r="33" spans="1:7" ht="252" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>140</v>
       </c>
@@ -3306,7 +3350,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75">
+    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3325,7 +3369,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5">
+    <row r="35" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>150</v>
       </c>
@@ -3344,7 +3388,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63">
+    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>155</v>
       </c>
@@ -3363,7 +3407,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25">
+    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>160</v>
       </c>
@@ -3382,7 +3426,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75">
+    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>165</v>
       </c>
@@ -3401,7 +3445,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5">
+    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>170</v>
       </c>
@@ -3420,7 +3464,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25">
+    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>174</v>
       </c>
@@ -3439,7 +3483,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63">
+    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>178</v>
       </c>
@@ -3458,7 +3502,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>182</v>
       </c>
@@ -3477,7 +3521,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63">
+    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>186</v>
       </c>
@@ -3496,7 +3540,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63">
+    <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>190</v>
       </c>
@@ -3515,7 +3559,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63">
+    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>195</v>
       </c>
@@ -3534,7 +3578,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75">
+    <row r="46" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>200</v>
       </c>
@@ -3553,7 +3597,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5">
+    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>204</v>
       </c>
@@ -3572,7 +3616,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="110.25">
+    <row r="48" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -3591,7 +3635,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63">
+    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>211</v>
       </c>
@@ -3610,7 +3654,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="63">
+    <row r="50" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>214</v>
       </c>
@@ -3629,7 +3673,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25">
+    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>218</v>
       </c>
@@ -3648,7 +3692,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="47.25">
+    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>221</v>
       </c>
@@ -3667,7 +3711,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63">
+    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>224</v>
       </c>
@@ -3686,7 +3730,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75">
+    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>227</v>
       </c>
@@ -3705,7 +3749,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="47.25">
+    <row r="55" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
@@ -3724,7 +3768,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25">
+    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>233</v>
       </c>
@@ -3743,7 +3787,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5">
+    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>237</v>
       </c>
@@ -3762,7 +3806,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5">
+    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>240</v>
       </c>
@@ -3781,7 +3825,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75">
+    <row r="59" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>243</v>
       </c>
@@ -3800,7 +3844,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="78.75">
+    <row r="60" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>247</v>
       </c>
@@ -3819,7 +3863,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25">
+    <row r="61" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>250</v>
       </c>
@@ -3838,7 +3882,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="47.25">
+    <row r="62" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>254</v>
       </c>
@@ -3857,7 +3901,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25">
+    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>257</v>
       </c>
@@ -3876,7 +3920,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63">
+    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>260</v>
       </c>
@@ -3895,7 +3939,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63">
+    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>264</v>
       </c>
@@ -3914,7 +3958,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25">
+    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>268</v>
       </c>
@@ -3933,7 +3977,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60">
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>271</v>
       </c>
@@ -3952,7 +3996,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60">
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>275</v>
       </c>
@@ -3971,7 +4015,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>279</v>
       </c>
@@ -3990,7 +4034,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195">
+    <row r="70" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>283</v>
       </c>
@@ -4009,7 +4053,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150">
+    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>287</v>
       </c>
@@ -4028,7 +4072,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45">
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>291</v>
       </c>
@@ -4047,7 +4091,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105">
+    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>294</v>
       </c>
@@ -4066,7 +4110,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="135">
+    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>298</v>
       </c>
@@ -4085,7 +4129,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="75">
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>302</v>
       </c>
@@ -4104,7 +4148,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75">
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>305</v>
       </c>
@@ -4123,7 +4167,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>309</v>
       </c>
@@ -4142,7 +4186,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135">
+    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>313</v>
       </c>
@@ -4161,7 +4205,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60">
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>317</v>
       </c>
@@ -4180,7 +4224,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90">
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>321</v>
       </c>
@@ -4199,7 +4243,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="105">
+    <row r="81" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>325</v>
       </c>
@@ -4218,7 +4262,7 @@
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="1:7" ht="45">
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>330</v>
       </c>
@@ -4237,7 +4281,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="90">
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>334</v>
       </c>
@@ -4256,7 +4300,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150">
+    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>339</v>
       </c>
@@ -4279,7 +4323,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="105">
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>346</v>
       </c>
@@ -4298,7 +4342,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="45">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>351</v>
       </c>
@@ -4317,7 +4361,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75">
+    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>356</v>
       </c>
@@ -4336,7 +4380,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45">
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>361</v>
       </c>
@@ -4355,7 +4399,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="60">
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>365</v>
       </c>
@@ -4374,7 +4418,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60">
+    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>370</v>
       </c>
@@ -4393,7 +4437,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75">
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>375</v>
       </c>
@@ -4412,7 +4456,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="90">
+    <row r="92" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>380</v>
       </c>
@@ -4431,7 +4475,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="105">
+    <row r="93" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>385</v>
       </c>
@@ -4450,7 +4494,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="90">
+    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>390</v>
       </c>
@@ -4469,7 +4513,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="270">
+    <row r="95" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>395</v>
       </c>
@@ -4488,7 +4532,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1">
+    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>400</v>
       </c>
@@ -4507,7 +4551,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90">
+    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>405</v>
       </c>
@@ -4526,7 +4570,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>410</v>
       </c>
@@ -4545,7 +4589,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="60">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>414</v>
       </c>
@@ -4564,7 +4608,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="135">
+    <row r="100" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>419</v>
       </c>
@@ -4583,7 +4627,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90">
+    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>424</v>
       </c>
@@ -4602,7 +4646,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="150">
+    <row r="102" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>429</v>
       </c>
@@ -4621,7 +4665,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="300">
+    <row r="103" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>434</v>
       </c>
@@ -4640,7 +4684,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="300">
+    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>439</v>
       </c>
@@ -4659,7 +4703,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="150">
+    <row r="105" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>444</v>
       </c>
@@ -4678,7 +4722,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165">
+    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>449</v>
       </c>
@@ -4697,7 +4741,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165">
+    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>454</v>
       </c>
@@ -4716,7 +4760,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="150">
+    <row r="108" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>459</v>
       </c>
@@ -4735,7 +4779,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165">
+    <row r="109" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>464</v>
       </c>
@@ -4754,7 +4798,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90">
+    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>469</v>
       </c>
@@ -4773,7 +4817,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150">
+    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>474</v>
       </c>
@@ -4792,7 +4836,7 @@
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="1:7" ht="135">
+    <row r="112" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>479</v>
       </c>
@@ -4815,7 +4859,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="135">
+    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>486</v>
       </c>
@@ -4832,7 +4876,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="105">
+    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>491</v>
       </c>
@@ -4849,7 +4893,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="135">
+    <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>496</v>
       </c>
@@ -4866,7 +4910,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="120">
+    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>501</v>
       </c>
@@ -4887,7 +4931,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195">
+    <row r="117" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -4908,7 +4952,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="210">
+    <row r="118" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>510</v>
       </c>
@@ -4929,7 +4973,7 @@
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="75">
+    <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>514</v>
       </c>
@@ -4950,7 +4994,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
     </row>
-    <row r="120" spans="1:9" ht="225">
+    <row r="120" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>515</v>
       </c>
@@ -4979,7 +5023,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="150">
+    <row r="121" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>517</v>
       </c>
@@ -5008,12 +5052,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="165">
+    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>600</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>445</v>
+        <v>636</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>601</v>
@@ -5025,7 +5069,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="150">
+    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>628</v>
       </c>
@@ -5048,7 +5092,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="240">
+    <row r="124" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>629</v>
       </c>
@@ -5071,7 +5115,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="105">
+    <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>630</v>
       </c>
@@ -5094,7 +5138,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="240">
+    <row r="126" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>631</v>
       </c>
@@ -5117,7 +5161,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="105">
+    <row r="127" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>632</v>
       </c>
@@ -5140,7 +5184,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="105">
+    <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>633</v>
       </c>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -2680,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="630">
   <si>
     <t>id</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t xml:space="preserve">Акциз — это косвенный налог, включаемый в цену товара или услуги, преимущественно массового потребления, а также услуг частных предприятий, и оплачиваемый покупателями </t>
-  </si>
-  <si>
-    <t>Акциз — это косвенный налог, включаемый в цену товара или услуги, преимущественно массового потребления, а тж. услуг частных предприятий, и оплачиваемый покупателями (потребителями)</t>
   </si>
   <si>
     <t>что, такое, определение, акциз</t>
@@ -1090,29 +1087,6 @@
   </si>
   <si>
     <t>что, такое, определение, дефляция, инфляция</t>
-  </si>
-  <si>
-    <t>32.87</t>
-  </si>
-  <si>
-    <t>Внешний долг РФ в $? Внутренний?</t>
-  </si>
-  <si>
-    <t>Объем государственного внутреннего долга Российской Федерации на первое августа две тысячи семнадцатого года составил восемь миллиардов пятьсот миллионов рублей.
-Объем государственного внешнего долга Российской Федерации на первое июля две тысячи семнадцатого года составил пятьдесят один миллиард триста миллионов долларов США</t>
-  </si>
-  <si>
-    <t>Объем государственного внутреннего долга Российской Федерации на 1 августа 2017 года составил 8,5 млрд.рублей
-Объем государственного внешнего долга Российской Федерации на 1 июля 2017 года составил 51,3 млрд. долларов США.</t>
-  </si>
-  <si>
-    <t>сколько, внешний, внутренний, долг, госдолг, государственный, России, рф, российской, федерации, доллар, США, $</t>
-  </si>
-  <si>
-    <t>Раздел «Государственный внутренний долг Российской Федерации» на официальном сайте Министерства финансов Российской Федерации; Раздел «Государственный внешний долг Российской Федерации» на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
-    <t>https://www.minfin.ru/ru/perfomance/public_debt/internal/;  https://www.minfin.ru/ru/perfomance/public_debt/external/structure/</t>
   </si>
   <si>
     <t>32.88</t>
@@ -2079,6 +2053,9 @@
   </si>
   <si>
     <t>Бюджет на 2017 год</t>
+  </si>
+  <si>
+    <t>Акциз — это косвенный налог, включаемый в цену товара или услуги, преимущественно массового потребления, а также услуг частных предприятий, и оплачиваемый покупателями (потребителями)</t>
   </si>
 </sst>
 </file>
@@ -2678,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK128"/>
+  <dimension ref="A1:AMK127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -2766,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -2785,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -2804,7 +2781,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -2823,7 +2800,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -2842,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>32</v>
@@ -2861,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -2880,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>40</v>
@@ -2899,7 +2876,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -2918,7 +2895,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
@@ -2937,7 +2914,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -2956,7 +2933,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
@@ -2975,7 +2952,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -2994,7 +2971,7 @@
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>64</v>
@@ -3013,7 +2990,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
@@ -3032,7 +3009,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>72</v>
@@ -3051,7 +3028,7 @@
         <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>76</v>
@@ -3070,7 +3047,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>80</v>
@@ -3089,7 +3066,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>84</v>
@@ -3108,7 +3085,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>88</v>
@@ -3127,7 +3104,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>92</v>
@@ -3146,7 +3123,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>96</v>
@@ -3165,7 +3142,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>100</v>
@@ -3184,7 +3161,7 @@
         <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
@@ -3203,7 +3180,7 @@
         <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>108</v>
@@ -3304,1922 +3281,1898 @@
         <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
     </row>
     <row r="33" spans="1:7" ht="252" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
     </row>
     <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
     </row>
     <row r="35" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
     </row>
     <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
     </row>
     <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
     </row>
     <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
     </row>
     <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
     </row>
     <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
     </row>
     <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
     </row>
     <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>539</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
     </row>
     <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
     </row>
     <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
     </row>
     <row r="46" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
     </row>
     <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
     </row>
     <row r="48" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
     </row>
     <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
     </row>
     <row r="50" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
     </row>
     <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
     </row>
     <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
     </row>
     <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
     </row>
     <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>270</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
     </row>
     <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
     </row>
     <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
     </row>
     <row r="70" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
     </row>
     <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
     </row>
     <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="F81"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="D85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
     </row>
     <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="13" t="s">
         <v>415</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>423</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="315" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
     </row>
     <row r="105" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
     </row>
     <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
     </row>
     <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="F111"/>
-      <c r="G111"/>
-    </row>
-    <row r="112" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+      <c r="B112" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E112" s="2" t="s">
+    </row>
+    <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="D113" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C113" s="2" t="s">
+    </row>
+    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="D114" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C114" s="2" t="s">
+    </row>
+    <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="B115" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+    </row>
+    <row r="116" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="B116" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="C116" s="18" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
+      <c r="D116" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>504</v>
-      </c>
       <c r="E116" s="18" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C118" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="D118" s="18" t="s">
-        <v>523</v>
-      </c>
       <c r="E118" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E119" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="H120" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-    </row>
-    <row r="120" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>531</v>
-      </c>
       <c r="I120" s="17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>538</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="G121" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="H121" s="18" t="s">
-        <v>534</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="F122" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="G122" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="D122" s="2" t="s">
+    </row>
+    <row r="123" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B123" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="C123" s="23" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="B123" s="21" t="s">
+      <c r="D123" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="E123" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="D123" s="21" t="s">
+      <c r="F123" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="B124" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="C124" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="D124" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="E124" s="21" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B124" s="21" t="s">
+      <c r="F124" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>623</v>
+      </c>
+      <c r="B125" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C125" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="D124" s="21" t="s">
+      <c r="D125" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E125" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="E124" s="21" t="s">
+      <c r="F125" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B125" s="21" t="s">
+      <c r="C126" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="D126" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="E126" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="E125" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>620</v>
-      </c>
       <c r="F126" s="21" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>635</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="F128" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G84" r:id="rId1"/>
-    <hyperlink ref="G121" r:id="rId2"/>
-    <hyperlink ref="G120" r:id="rId3"/>
+    <hyperlink ref="G120" r:id="rId1"/>
+    <hyperlink ref="G119" r:id="rId2"/>
+    <hyperlink ref="G122" r:id="rId3"/>
     <hyperlink ref="G123" r:id="rId4"/>
     <hyperlink ref="G124" r:id="rId5"/>
     <hyperlink ref="G125" r:id="rId6"/>
-    <hyperlink ref="G126" r:id="rId7"/>
-    <hyperlink ref="G128" r:id="rId8"/>
-    <hyperlink ref="G127" r:id="rId9"/>
+    <hyperlink ref="G127" r:id="rId7"/>
+    <hyperlink ref="G126" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Васина Светлана Викторовна</author>
+  </authors>
+  <commentList>
+    <comment ref="D161" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">государственный внутренний долг Российской Федерации - в трех источника информации - три разные суммы. Предлагаю убрать вопрос 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="810">
   <si>
     <t>id</t>
   </si>
@@ -1668,19 +1705,10 @@
     <t>Кто, такой, экономист, определение</t>
   </si>
   <si>
-    <t>Расходы, чемпионат, мира, по футболу</t>
-  </si>
-  <si>
-    <t>Cтруктура доходов федерального бюджета</t>
-  </si>
-  <si>
     <t>Cтруктура расходов федерального бюджета</t>
   </si>
   <si>
     <t>Cтруктура, доходов, федерального бюджета, ФБ</t>
-  </si>
-  <si>
-    <t>Cтруктура,расходов, федерального бюджета, ФБ</t>
   </si>
   <si>
     <t>Структура доходов федерального бюджета в 2016 году</t>
@@ -2057,12 +2085,627 @@
   <si>
     <t>Акциз — это косвенный налог, включаемый в цену товара или услуги, преимущественно массового потребления, а также услуг частных предприятий, и оплачиваемый покупателями (потребителями)</t>
   </si>
+  <si>
+    <t>32.133</t>
+  </si>
+  <si>
+    <t>32.134</t>
+  </si>
+  <si>
+    <t>32.135</t>
+  </si>
+  <si>
+    <t>32.136</t>
+  </si>
+  <si>
+    <t>32.137</t>
+  </si>
+  <si>
+    <t>32.138</t>
+  </si>
+  <si>
+    <t>Что такое евробонды?</t>
+  </si>
+  <si>
+    <t>Кто выпускает евробонды?</t>
+  </si>
+  <si>
+    <t>Заемщиками, выпускающими евробонды, выступают правительства, корпорации и международные организации.</t>
+  </si>
+  <si>
+    <t>http://abc.informbureau.com/html/aadiaiiau.html</t>
+  </si>
+  <si>
+    <t>Экономический словарь</t>
+  </si>
+  <si>
+    <t>Сколько лет Минфину?</t>
+  </si>
+  <si>
+    <t>32.141</t>
+  </si>
+  <si>
+    <t>32.142</t>
+  </si>
+  <si>
+    <t>32.143</t>
+  </si>
+  <si>
+    <t>32.144</t>
+  </si>
+  <si>
+    <t>32.145</t>
+  </si>
+  <si>
+    <t>32.146</t>
+  </si>
+  <si>
+    <t>Дмитрий Анатольевич Медведев</t>
+  </si>
+  <si>
+    <t>Что такое макроэкономика?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макроэкономика — это раздел экономической науки, посвященный изучению крупномасштабных экономических явлений и процессов, относящихся к экономике страны, ее хозяйству в целом. </t>
+  </si>
+  <si>
+    <t>Что такое микроэкономика?</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2015 году</t>
+  </si>
+  <si>
+    <t>Заемщиками, выпускающими евробонды, выступают правительства, корпорации, международные организации, заинтересованные в получении денежных средств на длительный срок (от 7 до 40 лет)</t>
+  </si>
+  <si>
+    <t>Евробонды (еврооблигации) - разновидность ценных бумаг в виде купонных облигаций, выпускаемых эмитентом в целях получения долгосрочного займа на еврорынке.
+Гарантирование и размещение этих облигаций в ряде стран осуществляется обычно международным банковским синдикатом.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Евробонды, или еврооблигации - это разновидность ценных бумаг в виде купонных облигаций, выпускаемых эмитентом в целях получения долгосрочного займа на еврорынке</t>
+  </si>
+  <si>
+    <t>что, такое, евробонды, еврооблигации</t>
+  </si>
+  <si>
+    <t>Министерству финансов двести пятнадцать лет</t>
+  </si>
+  <si>
+    <t>Министерство финансов было учреждено Манифестом 8 сентября 1802 г. Так, в сентябре 2017 г. Минфин празднует круглую дату - 215 лет!</t>
+  </si>
+  <si>
+    <t>кто, выпускает, евробонды, еврооблигации</t>
+  </si>
+  <si>
+    <t>Еврооблигационные займы России в 2016 году?</t>
+  </si>
+  <si>
+    <t>Евробонд, Еврооблигационный, займ, 2016, год</t>
+  </si>
+  <si>
+    <t>Еврооблигационные займы России в 2017 году?</t>
+  </si>
+  <si>
+    <t>Евробонд, Еврооблигационный, займ, 2017, год</t>
+  </si>
+  <si>
+    <t>Еврооблигационные займы России в 2015 году?</t>
+  </si>
+  <si>
+    <t>Евробонд, Еврооблигационный, займ, 2015, год</t>
+  </si>
+  <si>
+    <t>Еврооблигационные займы России в 2014 году?</t>
+  </si>
+  <si>
+    <t>Евробонд, Еврооблигационный, займ, 2014, год</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году еврооблигационные займы Российской Федерации составили тридцать семь миллиардов шестьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2016 году еврооблигационные займы Российской Федерации составили 37,6 млрд.руб.</t>
+  </si>
+  <si>
+    <t>В две тысячи семнадцатом году еврооблигационные займы Российской Федерации составили тридцать восемь миллиардов сто миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 01.08.2017 году еврооблигационные займы Российской Федерации составили 38,1 млрд.руб.</t>
+  </si>
+  <si>
+    <t>В две тысячи пятнадцатом году еврооблигационные займы Российской Федерации составили тридцать пять миллиардов девятьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2015 году еврооблигационные займы Российской Федерации составили 35,9 млрд.руб.</t>
+  </si>
+  <si>
+    <t>В две тысячи четырнадцатом году еврооблигационные займы Российской Федерации составили тридцать девять миллиардов триста миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2014 году еврооблигационные займы Российской Федерации составили 39,3 млрд.руб.</t>
+  </si>
+  <si>
+    <t>Сколько, лет, Минфину, возраст, Министерства, финансов</t>
+  </si>
+  <si>
+    <t>Биография председателя Правительства Российской Федерации Медведева Дмитрия Анатольевича</t>
+  </si>
+  <si>
+    <t>http://government.ru/gov/persons/183/biography/</t>
+  </si>
+  <si>
+    <t>Дмитрий Анатольевич Медведев, одна тысяча девятьсот шестьдесят пятого года рождения. Окончил юридический факультет и аспирантуру Ленинградского государственного университета в 1987 году. Кандидат юридических наук, доцент. В должности председателя Правительства Российской Федерации находится с две тысячи двенадцатого года</t>
+  </si>
+  <si>
+    <t>Биография, председателя, Правительства, Российской, Федерации, Медведев, Дмитрий, Анатольевич</t>
+  </si>
+  <si>
+    <t>Раздел "Биография" на официальном сайте Правительства России</t>
+  </si>
+  <si>
+    <t>Дмитрий Анатольевич Медведев - Председатель Правительства России и Председатель партии "Единая Россия". 
+Биография: 
+Родился 14 сентября 1965 года в Ленинграде.
+Окончил юридический факультет Ленинградского государственного университета в 1987 году и аспирантуру ЛГУ в 1990 году. Кандидат юридических наук, доцент.
+В 1990 — 1999 годах — на преподавательской работе в Санкт-Петербургском государственном университете.
+Одновременно в 1990 — 1995 годах — советник Председателя Ленинградского городского совета, эксперт Комитета по внешним связям Мэрии Санкт-Петербурга.
+В 1999 году — заместитель Руководителя Аппарата Правительства Российской Федерации.
+В 1999 — 2000 годах — заместитель Руководителя Администрации Президента Российской Федерации.
+С 2000 года — первый заместитель Руководителя Администрации Президента Российской Федерации.
+В 2000 — 2001 годах — председатель Совета директоров ОАО «Газпром», в 2001 году -заместитель председателя Совета директоров ОАО «Газпром», с июня 2002 года — председатель Совета директоров ОАО «Газпром».
+С октября 2003 года — Руководитель Администрации Президента Российской Федерации.
+В ноябре 2005 года назначен Первым заместителем Председателя Правительства Российской Федерации.
+7 мая 2008 года вступил в должность Президента Российской Федерации.
+8 мая 2012 года назначен Председателем Правительства Российской Федерации.
+Женат, имеет сына</t>
+  </si>
+  <si>
+    <t>Макроэкономика — это раздел экономической науки, посвященный изучению крупномасштабных экономических явлений и процессов, относящихся к экономике страны, ее хозяйству в целом. Объектом изучения макроэкономики являются сводные, обобщающие показатели по всему хозяйству, такие, как национальное богатство, валовой национальный и валовой внутренний продукт, национальный доход, суммарные государственные и частные инвестиции, общее количество денег в обращении.
+Источник информации: Энциклопедический словарь экономики и права</t>
+  </si>
+  <si>
+    <t>32.142.jpg</t>
+  </si>
+  <si>
+    <t>Микроэкономика — это раздел экономической науки, связанный с изучением относительно мелкомасштабных экономических процессов, субъектов, явлений, в основном предприятий, фирм, предпринимателей, их хозяйственной деятельности, экономических отношений между ними. В центре внимания микроэкономики находятся производители и потребители, принятие ими решений в отношении объемов производства, продаж, покупок, потребления с учетом потребностей, цен, затрат, прибыли.
+Источник информации: Энциклопедический словарь экономики и права</t>
+  </si>
+  <si>
+    <t>Микроэкономика — это раздел экономической науки, связанный с изучением относительно мелкомасштабных экономических процессов, субъектов, явлений, в основном предприятий, фирм, предпринимателей, их хозяйственной деятельности, экономических отношений между ними</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2017 году?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">По оценке Росстата уровень инфляции в Российской Федерации </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">по состоянию на 15.08.2017 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>составляет 3,9%</t>
+    </r>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2016 году?</t>
+  </si>
+  <si>
+    <t>Что такое инфляция?</t>
+  </si>
+  <si>
+    <t>Устойчивое повышение общего уровня цен на товары и услуги в экономике. Об изменении цен в экономике дают представление различные показатели ценовой динамики - индексы цен производителей, дефлятор валового внутреннего продукта, индекс потребительских цен. Когда говорят об инфляции, обычно имеют в виду индекс потребительских цен (ИПЦ), который измеряет изменение во времени стоимости набора продовольственных, непродовольственных товаров и услуг, потребляемых средним домохозяйством (то есть стоимости потребительской корзины). Выбор ИПЦ в качестве основного индикатора инфляции связан с его ролью как важного показателя динамики стоимости жизни населения. Кроме того, ИПЦ обладает рядом характеристик, которые делают его удобным для широкого применения (простота и понятность методологии построения, месячная периодичность расчета, оперативность публикации).
+Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
+  </si>
+  <si>
+    <t>Когда говорят об инфляции, обычно имеют в виду индекс потребительских цен, который измеряет изменение во времени стоимости набора продовольственных, непродовольственных товаров и услуг, потребляемых средним домохозяйством (то есть стоимости потребительской корзины).</t>
+  </si>
+  <si>
+    <t>32.147</t>
+  </si>
+  <si>
+    <t>32.148</t>
+  </si>
+  <si>
+    <t>32.149</t>
+  </si>
+  <si>
+    <t>32.150</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2016 году составил 5,4%</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2015 году составил 12,9%</t>
+  </si>
+  <si>
+    <t>По оценке Росстата текущий уровень инфляции составляет три целых девять десятых процента</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в две тысячи шестнадцатом году составил пять целых четыре десятых процента</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в две тысячи пятнадцатом году составил двенадцать целых девять десятых процента</t>
+  </si>
+  <si>
+    <t>Что, такое, инфляция</t>
+  </si>
+  <si>
+    <t>Что, такое, макроэкономика</t>
+  </si>
+  <si>
+    <t>Что, такое, микроэкономика</t>
+  </si>
+  <si>
+    <t>что, такое, Базовая, инфляция</t>
+  </si>
+  <si>
+    <t>Что такое базовая инфляция?</t>
+  </si>
+  <si>
+    <t>Базовая инфляция - это инфляция, измеренная на основе базового индекса потребительских цен. Отличие базового индекса потребительских цен от индекса потребительских цен состоит в исключении при расчете изменения цен на отдельные товары и услуги, подверженные влиянию факторов, которые носят административный, а также сезонный характер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Базовая инфляция - инфляция, измеренная на основе базового индекса потребительских цен (БИПЦ). Отличие БИПЦ от индекса потребительских цен (ИПЦ) состоит в исключении при расчете БИПЦ изменения цен на отдельные товары и услуги, подверженные влиянию факторов, которые носят административный, а также сезонный характер (плодоовощная продукция, топливо, отдельные услуги пассажирского транспорта, услуги связи, большинство жилищно-коммунальных услуг).
+Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)
+</t>
+  </si>
+  <si>
+    <t>Что такое ключевая ставка Банка России?</t>
+  </si>
+  <si>
+    <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и позволяет достигать основной цели денежно-кредитной политики</t>
+  </si>
+  <si>
+    <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и в конечном счете позволяет достигать основной цели денежно-кредитной политики. Операционно соответствует минимальной процентной ставке на аукционах репо Банка России на срок 1 неделя и максимальной процентной ставке на депозитных аукционах Банка России на срок 1 неделя
+Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
+  </si>
+  <si>
+    <t>Платежный баланс Российской Федерации - это статистическая система, в которой отражаются все экономические операции между резидентами и нерезидентами Российской Федерации, произошедшие в течение отчетного периода</t>
+  </si>
+  <si>
+    <t>Что такое платежный баланс?</t>
+  </si>
+  <si>
+    <t>Уровень, инфляции, 2017, год</t>
+  </si>
+  <si>
+    <t>Уровень, инфляции, 2016, год</t>
+  </si>
+  <si>
+    <t>Уровень, инфляции, 2015, год</t>
+  </si>
+  <si>
+    <t>Что, такое, ключевая, ставка, Банка, России</t>
+  </si>
+  <si>
+    <t>Что, такое, платежный, баланс</t>
+  </si>
+  <si>
+    <t>32.151</t>
+  </si>
+  <si>
+    <t>32.152</t>
+  </si>
+  <si>
+    <t>32.153</t>
+  </si>
+  <si>
+    <t>Что такое режим плавающего валютного курса?</t>
+  </si>
+  <si>
+    <t>Что, такое, режим, плавающего, валютного, курса</t>
+  </si>
+  <si>
+    <t>По действующей классификации Международного валютного фонда в рамках режима плавающего валютного курса центральный банк не устанавливает ориентиров, в том числе операционных, для уровня или изменения курса, позволяя курсообразованию происходить под влиянием рыночных факторов</t>
+  </si>
+  <si>
+    <t>Платежный баланс - таблица, ведомость, отражающая движение денежных средств в виде платежей из страны в страну. Платежный баланс характеризует соотношение сумм платежей, произведенных страной за границей в течение определенного периода и поступивших в страну в течение того же периода. Платежный баланс, в котором поступления денежных средств превышают их расходование, называют активным, а в противоположном случае - пассивным. Частью платежного баланса являются баланс по текущим операциям (в том числе торговый баланс, который включает сальдо экспорта и импорта товаров, баланс "невидимых" текущих операций, состоящий из чистого экспорта услуг, доходов от инвестиций, переводов) и баланс движения капитала (отражающий отток из страны и приток капитала в страну).
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>По действующей классификации Международного валютного фонда в рамках режима плавающего валютного курса центральный банк не устанавливает ориентиров, в том числе операционных, для уровня или изменения курса, позволяя курсообразованию происходить под влиянием рыночных факторов. При этом центральный банк оставляет за собой право осуществлять покупки иностранной валюты для пополнения международных резервов либо ее продажи в случае возникновения угроз для финансовой стабильности.
+Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
+  </si>
+  <si>
+    <t>Что такое уровень инфляции?</t>
+  </si>
+  <si>
+    <t>Уровень инфляции - это скорость измерения цен за определенный период (месяц, год), определяемая величиной их прироста в процентах за этот период; устанавливается по индексу потребительских цен и цен средств производства</t>
+  </si>
+  <si>
+    <t>Что, такое, уровень, инфляции</t>
+  </si>
+  <si>
+    <t>Уровень инфляции - скорость измерения цен за определенный период (месяц, год), определяемая величиной их прироста в процентах за этот период; устанавливается по индексу потребительских цен и цен средств производства.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными темпами. Возможное написание термина - ползучая инфляция.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Что такое ползущая инфляция?</t>
+  </si>
+  <si>
+    <t>32.154</t>
+  </si>
+  <si>
+    <t>32.155</t>
+  </si>
+  <si>
+    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными темпами. Возможное написание термина - ползучая инфляция</t>
+  </si>
+  <si>
+    <t>Что, такое, ползущая, инфляция</t>
+  </si>
+  <si>
+    <t>Уровень инфляции - это скорость измерения цен за определенный период  (месяц, год), определяемая величиной их прироста в процентах за этот период; устанавливается по индексу потребительских цен и цен средств производства</t>
+  </si>
+  <si>
+    <t>32.156</t>
+  </si>
+  <si>
+    <t>32.157</t>
+  </si>
+  <si>
+    <t>32.158</t>
+  </si>
+  <si>
+    <t>32.159</t>
+  </si>
+  <si>
+    <t>32.160</t>
+  </si>
+  <si>
+    <t>32.161</t>
+  </si>
+  <si>
+    <t>32.162</t>
+  </si>
+  <si>
+    <t>32.163</t>
+  </si>
+  <si>
+    <t>Строительство космодрома велось в рамках Федеральной космической программы России на 2006–2015 годы (ФКП) и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на 2006–2015 годы» (ФЦП).
+В рамках ФЦП создавались объекты первой очереди обеспечивающей инфраструктуры космодрома (внутрикосмодромные автомобильные и железные дороги, энерго-, водо-, теплоснабжение, объекты социального назначения и т.п.).
+В рамках ФКП создавались объекты космической инфраструктуры (стартовые, технические, заправочные комплексы для ракет-носителей и космических аппаратов)</t>
+  </si>
+  <si>
+    <t>Расходы на космодром "Восточный"?</t>
+  </si>
+  <si>
+    <t>Строительство космодрома велось в рамках Федеральной космической программы России на 2006–2015 годы и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на 2006–2015 годы»</t>
+  </si>
+  <si>
+    <t>Расходы, космодром,Восточный</t>
+  </si>
+  <si>
+    <t>«ФЦП: Федеральная космическая программа России на 2006 - 2015 годы» на официальном сайте Федеральных целевых программ России; «Подпрограмма «Создание обеспечивающей инфраструктуры космодрома «Восточный» федеральной целевой программы «Развитие российских космодромов на 2006–2015 годы» на официальном сайте Федеральных целевых программ России</t>
+  </si>
+  <si>
+    <t>http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2016/355/</t>
+  </si>
+  <si>
+    <t>Расходы на строительство транспортного перехода через Керченский пролив?</t>
+  </si>
+  <si>
+    <t>Керченский мост, Крымский, расходы, строительство, Транспортный, переход, через, пролив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В соответствии с пунктом 5 распоряжения Правительства РФ от 30 января 2015 г. N 118-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ по проектированию и строительству транспортного перехода через Керченский пролив, закупку которых осуществляет ФКУ «Управление федеральных автомобильных дорог «Тамань» Федерального дорожного агентства» предельная стоимость работ, а также затраты заказчика, не подлежащие включению в сводный сметный расчет, но необходимые для реализации проекта «Транспортный переход через Керченский пролив», с учетом налога на добавленную стоимость составляют 212 529 726 тыс. рублей в ценах 2015 года (228 300 000 тыс. рублей в ценах соответствующих лет с учетом прогнозных индексов-дефляторов, установленных Министерством экономического развития Российской Федерации). Предельная стоимость работ не может быть превышена.
+В соответствии с пунктом 3 распоряжения Правительства РФ от 26.01.2017 N 101-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ, закупку которых осуществляет Росжелдор, по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив»» общая цена контракта по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив» составляет 16947,2 млн. рублей
+</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 5 Распоряжения Правительства РФ от тридцатого января две тысячи пятнадцатого года номер сто восемнадцать эр предельная стоимость работ, а также затраты заказчика, не подлежащие включению в сводный сметный расчет, но необходимые для реализации проекта «Транспортный переход через Керченский пролив», с учетом налога на добавленную стоимость составляют двести двенадцать миллиардов пятьсот миллионов рублей в ценах 2015 года</t>
+  </si>
+  <si>
+    <t>«ФЦП: Программа «Социально-экономическое развитие Республики Крым и г. Севастополя до 2020 года» на официальном сайте Федеральных целевых программ России</t>
+  </si>
+  <si>
+    <t>http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2016/429</t>
+  </si>
+  <si>
+    <t>Сколько стоит Олимпиада в Сочи 2014?</t>
+  </si>
+  <si>
+    <t>По информации Счетной палаты затраты на подготовку и проведение двадцать вторых Олимпийских зимних игр и одиннадцатых Паралимпийских зимних игр (а именно, строительство спортивных объектов и объектов, обеспечивающих их функционирование, строительство временной инфраструктуры и организацию Игр) в общей сложности составили триста двадцать четыре миллиарда девятьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>По информации Счетной палаты затраты на подготовку и проведение XXII Олимпийских зимних игр и XI Паралимпийских зимних игр (строительство спортивных объектов и объектов, обеспечивающих их функционирование, строительство временной инфраструктуры и организацию Игр) в общей сложности составили 324,9 млрд. руб., из них: 
+• 221 млрд. руб. - частные инвестиции, 
+• 103,3 млрд. руб. – федеральный бюджет, 
+• 0,6 млрд. руб. - бюджеты Краснодарского края и г. Сочи</t>
+  </si>
+  <si>
+    <t>http://www.ach.gov.ru/press_center/news/21280?sphrase_id=4846230</t>
+  </si>
+  <si>
+    <t>Документ «Анализ мер по устранению нарушений при подготовке и проведении ХХII Олимпийских зимних игр и ХI Паралимпийских зимних игр 2014 г. в Сочи» на официальном сайте Счетной палаты Российской Федерации</t>
+  </si>
+  <si>
+    <t>Гиперинфляция - это процесс резкого роста инфляции, приводящий к обесцениванию денег и резкому скачку цен на товары и услуги</t>
+  </si>
+  <si>
+    <t>Что такое гиперинфляция?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гиперинфляция, что, такое </t>
+  </si>
+  <si>
+    <t>Докапитализация банков - это процедура для борьбы с финансовым и экономическим кризисами, когда государство предоставляет финансовым учреждениям капиталы в целях повышения их финансовой устойчивости. Внедрение средств в проблемные банки осуществляется путем покупки государством привилегированных акций и прочих финансовых инструментов</t>
+  </si>
+  <si>
+    <t>Докапитализация банков - это процедура, когда государство предоставляет финансовым учреждениям капиталы в целях повышения их финансовой устойчивости</t>
+  </si>
+  <si>
+    <t>Что такое докапитализация банков?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что, такое, докапитализация, банков </t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда на 15.08.2017 года составил 1 018,9 млрд. рублей, что на 46,8 млрд. рублей или 4,8% выше, чем на 01.01.2017 года</t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда на пятнадцатое августа две тысячи семнадцатого года составил один триллион восемнадцать миллиардов девятьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>Объем, резервного, фонда,2017, году</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния на пятнадцатое августа две тысячи семнадцатого года составил четыре триллиона четыреста девяносто три миллиарда сто миллионов рублей</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния на 15.08.2017 года составил 4 493,1 млрд. рублей, что на 133,9 млрд. рублей или 3,1% выше, чем на 01.01.2017 года</t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда в 2017 году?</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния в 2017 году?</t>
+  </si>
+  <si>
+    <t>Объем, Фонда, национального, благосостояния, 2017, год</t>
+  </si>
+  <si>
+    <t>Как пройти в библиотеку?</t>
+  </si>
+  <si>
+    <t>Научная библиотека Министерства финансов РФ находится по адресу г. Москва, Ильинка ул., 9.
+Читатели научной библиотеки в любое время могут получить литературу и информацию по самым разнообразным вопросам финансовой службы: исторические сведения, новые научные изыскания в области экономики и финансов страны, информацию по финансам зарубежных стран и многим другим вопросам. 
+К услугам читателей и абонентов — читальный зал и отдел абонемента, научно-библиографический отдел, открытые книжные полки с томами отечественной и зарубежной литературы, многочисленные выставки. В читальном зале имеется автоматизированное рабочее место для проведения тематического поиска непосредственно читателями.</t>
+  </si>
+  <si>
+    <t>Как, пройти, библиотека, Научная, Министерства, финансов</t>
+  </si>
+  <si>
+    <t>Научная библиотека Министерства финансов Российской Федерации находится по адресу город Москва, улица Ильинка, дом девять. Читатели научной библиотеки в любое время могут получить литературу и информацию по самым разнообразным вопросам финансовой службы: исторические сведения, новые научные изыскания в области экономики и финансов страны, информацию по финансам зарубежных стран и многим другим вопросам</t>
+  </si>
+  <si>
+    <t>http://bit.ly/2xBr1ij</t>
+  </si>
+  <si>
+    <t>Адрес Научной библиотеки Министерства финансов Российской Федерации на Яндекс карте</t>
+  </si>
+  <si>
+    <t>Структура доходов федерального бюджета</t>
+  </si>
+  <si>
+    <t>Cтруктура, расходов, федерального бюджета, ФБ</t>
+  </si>
+  <si>
+    <t>32.164</t>
+  </si>
+  <si>
+    <t>32.165</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2017 году?</t>
+  </si>
+  <si>
+    <t>На первое августа две тысячи семнадцатого года государственный внутренний долг Российской Федерации составил восемь триллионов шестьсот два миллиарда восемьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 1 августа 2017 государственный внутренний долг Российской Федерации составил 8 602,8 млрд. рублей, государственный внешний долг Российской Федерации - 51,3 млрд. долларов США</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2016 году?</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году государственный долг Российской Федерации составил одиннадцать триллионов сто девять миллиардов восемьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2016 государственный долг Российской Федерации составил 11 109,8 млрд. рублей, из них: 
+8 003,5 млрд. рублей - государственный внутренний долг Российской Федерации, 
+3 106,3 млрд. рублей - государственный внешний долг Российской Федерации</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2015 году?</t>
+  </si>
+  <si>
+    <t>32.166</t>
+  </si>
+  <si>
+    <t>32.167</t>
+  </si>
+  <si>
+    <t>32.168</t>
+  </si>
+  <si>
+    <t>В две тысячи пятнадцатом году государственный долг Российской Федерации составил десять триллионов девятьсот пятьдесят один миллиард девятьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2015 государственный долг Российской Федерации составил 10 951,9 млрд. рублей, из них: 
+7 307,6 млрд. рублей - государственный внутренний долг Российской Федерации, 
+3 644,3 млрд. рублей - государственный внешний долг Российской Федерации</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2014 году?</t>
+  </si>
+  <si>
+    <t>В две тысячи четырнадцатом году государственный долг Российской Федерации составил десять триллионов двести девяносто девять миллиардов сто миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2014 государственный долг Российской Федерации составил 10 299,1 млрд. рублей, из них: 
+7 241,2 млрд. рублей - государственный внутренний долг Российской Федерации, 
+3 057,9 млрд. рублей - государственный внешний долг Российской Федерации</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2013 году?</t>
+  </si>
+  <si>
+    <t>В две тысячи тринадцатом году государственный долг Российской Федерации составил семь триллионов пятьсот сорок восемь миллиардов триста миллионов рублей</t>
+  </si>
+  <si>
+    <t>В 2013 государственный долг Российской Федерации составил 7 548,3 млрд. рублей, из них: 
+5 722,2 млрд. рублей - государственный внутренний долг Российской Федерации, 
+1826,1 млрд. рублей - государственный внешний долг Российской Федерации</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2017, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2016, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2015, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2014, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2013, год</t>
+  </si>
+  <si>
+    <t>Расходы, чемпионат, мира, по футболу, чм</t>
+  </si>
+  <si>
+    <t>Сколько, стоит, расходы, Олимпиада, Сочи, затраты</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2128,6 +2771,44 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2177,7 +2858,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2248,6 +2929,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2654,22 +3358,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
-    <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="87.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="1"/>
-    <col min="7" max="8" width="28.85546875" style="1"/>
+    <col min="7" max="7" width="43.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="1"/>
     <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" style="1"/>
     <col min="11" max="11" width="23.28515625" style="1"/>
@@ -2719,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -2738,12 +3443,12 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -2757,12 +3462,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -2781,7 +3486,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -2795,12 +3500,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -2819,7 +3524,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>32</v>
@@ -2833,12 +3538,12 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -2852,12 +3557,12 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>40</v>
@@ -2871,12 +3576,12 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -2890,12 +3595,12 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
@@ -2909,12 +3614,12 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -2928,12 +3633,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
@@ -2947,12 +3652,12 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -2966,12 +3671,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>64</v>
@@ -2985,12 +3690,12 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
@@ -3004,12 +3709,12 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>72</v>
@@ -3023,12 +3728,12 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>76</v>
@@ -3042,12 +3747,12 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>80</v>
@@ -3061,12 +3766,12 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>84</v>
@@ -3080,12 +3785,12 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>88</v>
@@ -3104,7 +3809,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>92</v>
@@ -3123,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>96</v>
@@ -3142,7 +3847,7 @@
         <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>100</v>
@@ -3156,12 +3861,12 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="252" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
@@ -3175,12 +3880,12 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>108</v>
@@ -3213,7 +3918,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3232,7 +3937,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3270,7 +3975,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3281,7 +3986,7 @@
         <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>133</v>
@@ -3308,7 +4013,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -3327,7 +4032,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -3346,7 +4051,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -3365,7 +4070,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -3384,7 +4089,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
@@ -3403,7 +4108,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -3422,7 +4127,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -3441,7 +4146,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -3460,7 +4165,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -3479,12 +4184,12 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>182</v>
@@ -3498,7 +4203,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -3517,7 +4222,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -3536,7 +4241,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -3555,12 +4260,12 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>200</v>
@@ -3574,12 +4279,12 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>204</v>
@@ -3593,12 +4298,12 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>208</v>
@@ -3612,12 +4317,12 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>211</v>
@@ -3631,12 +4336,12 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>214</v>
@@ -3650,12 +4355,12 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>218</v>
@@ -3669,12 +4374,12 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>221</v>
@@ -3688,12 +4393,12 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>224</v>
@@ -3707,12 +4412,12 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>227</v>
@@ -3726,12 +4431,12 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>230</v>
@@ -3745,12 +4450,12 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>233</v>
@@ -3764,12 +4469,12 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>237</v>
@@ -3783,12 +4488,12 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>240</v>
@@ -3802,12 +4507,12 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>243</v>
@@ -3821,12 +4526,12 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>247</v>
@@ -3840,12 +4545,12 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>250</v>
@@ -3859,12 +4564,12 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>254</v>
@@ -3878,12 +4583,12 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>257</v>
@@ -3897,12 +4602,12 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>260</v>
@@ -3916,12 +4621,12 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>264</v>
@@ -3935,12 +4640,12 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>268</v>
@@ -3954,12 +4659,12 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>271</v>
@@ -3973,12 +4678,12 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>275</v>
@@ -3992,12 +4697,12 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>279</v>
@@ -4011,12 +4716,12 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>283</v>
@@ -4030,12 +4735,12 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>287</v>
@@ -4049,12 +4754,12 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>291</v>
@@ -4068,12 +4773,12 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>294</v>
@@ -4087,12 +4792,12 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>298</v>
@@ -4106,12 +4811,12 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>302</v>
@@ -4125,12 +4830,12 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>305</v>
@@ -4144,12 +4849,12 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>309</v>
@@ -4168,7 +4873,7 @@
         <v>312</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>313</v>
@@ -4182,12 +4887,12 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>317</v>
@@ -4201,12 +4906,12 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>321</v>
@@ -4220,26 +4925,1042 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="F81"/>
-      <c r="G81"/>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="30"/>
+      <c r="AG81" s="30"/>
+      <c r="AH81" s="30"/>
+      <c r="AI81" s="30"/>
+      <c r="AJ81" s="30"/>
+      <c r="AK81" s="30"/>
+      <c r="AL81" s="30"/>
+      <c r="AM81" s="30"/>
+      <c r="AN81" s="30"/>
+      <c r="AO81" s="30"/>
+      <c r="AP81" s="30"/>
+      <c r="AQ81" s="30"/>
+      <c r="AR81" s="30"/>
+      <c r="AS81" s="30"/>
+      <c r="AT81" s="30"/>
+      <c r="AU81" s="30"/>
+      <c r="AV81" s="30"/>
+      <c r="AW81" s="30"/>
+      <c r="AX81" s="30"/>
+      <c r="AY81" s="30"/>
+      <c r="AZ81" s="30"/>
+      <c r="BA81" s="30"/>
+      <c r="BB81" s="30"/>
+      <c r="BC81" s="30"/>
+      <c r="BD81" s="30"/>
+      <c r="BE81" s="30"/>
+      <c r="BF81" s="30"/>
+      <c r="BG81" s="30"/>
+      <c r="BH81" s="30"/>
+      <c r="BI81" s="30"/>
+      <c r="BJ81" s="30"/>
+      <c r="BK81" s="30"/>
+      <c r="BL81" s="30"/>
+      <c r="BM81" s="30"/>
+      <c r="BN81" s="30"/>
+      <c r="BO81" s="30"/>
+      <c r="BP81" s="30"/>
+      <c r="BQ81" s="30"/>
+      <c r="BR81" s="30"/>
+      <c r="BS81" s="30"/>
+      <c r="BT81" s="30"/>
+      <c r="BU81" s="30"/>
+      <c r="BV81" s="30"/>
+      <c r="BW81" s="30"/>
+      <c r="BX81" s="30"/>
+      <c r="BY81" s="30"/>
+      <c r="BZ81" s="30"/>
+      <c r="CA81" s="30"/>
+      <c r="CB81" s="30"/>
+      <c r="CC81" s="30"/>
+      <c r="CD81" s="30"/>
+      <c r="CE81" s="30"/>
+      <c r="CF81" s="30"/>
+      <c r="CG81" s="30"/>
+      <c r="CH81" s="30"/>
+      <c r="CI81" s="30"/>
+      <c r="CJ81" s="30"/>
+      <c r="CK81" s="30"/>
+      <c r="CL81" s="30"/>
+      <c r="CM81" s="30"/>
+      <c r="CN81" s="30"/>
+      <c r="CO81" s="30"/>
+      <c r="CP81" s="30"/>
+      <c r="CQ81" s="30"/>
+      <c r="CR81" s="30"/>
+      <c r="CS81" s="30"/>
+      <c r="CT81" s="30"/>
+      <c r="CU81" s="30"/>
+      <c r="CV81" s="30"/>
+      <c r="CW81" s="30"/>
+      <c r="CX81" s="30"/>
+      <c r="CY81" s="30"/>
+      <c r="CZ81" s="30"/>
+      <c r="DA81" s="30"/>
+      <c r="DB81" s="30"/>
+      <c r="DC81" s="30"/>
+      <c r="DD81" s="30"/>
+      <c r="DE81" s="30"/>
+      <c r="DF81" s="30"/>
+      <c r="DG81" s="30"/>
+      <c r="DH81" s="30"/>
+      <c r="DI81" s="30"/>
+      <c r="DJ81" s="30"/>
+      <c r="DK81" s="30"/>
+      <c r="DL81" s="30"/>
+      <c r="DM81" s="30"/>
+      <c r="DN81" s="30"/>
+      <c r="DO81" s="30"/>
+      <c r="DP81" s="30"/>
+      <c r="DQ81" s="30"/>
+      <c r="DR81" s="30"/>
+      <c r="DS81" s="30"/>
+      <c r="DT81" s="30"/>
+      <c r="DU81" s="30"/>
+      <c r="DV81" s="30"/>
+      <c r="DW81" s="30"/>
+      <c r="DX81" s="30"/>
+      <c r="DY81" s="30"/>
+      <c r="DZ81" s="30"/>
+      <c r="EA81" s="30"/>
+      <c r="EB81" s="30"/>
+      <c r="EC81" s="30"/>
+      <c r="ED81" s="30"/>
+      <c r="EE81" s="30"/>
+      <c r="EF81" s="30"/>
+      <c r="EG81" s="30"/>
+      <c r="EH81" s="30"/>
+      <c r="EI81" s="30"/>
+      <c r="EJ81" s="30"/>
+      <c r="EK81" s="30"/>
+      <c r="EL81" s="30"/>
+      <c r="EM81" s="30"/>
+      <c r="EN81" s="30"/>
+      <c r="EO81" s="30"/>
+      <c r="EP81" s="30"/>
+      <c r="EQ81" s="30"/>
+      <c r="ER81" s="30"/>
+      <c r="ES81" s="30"/>
+      <c r="ET81" s="30"/>
+      <c r="EU81" s="30"/>
+      <c r="EV81" s="30"/>
+      <c r="EW81" s="30"/>
+      <c r="EX81" s="30"/>
+      <c r="EY81" s="30"/>
+      <c r="EZ81" s="30"/>
+      <c r="FA81" s="30"/>
+      <c r="FB81" s="30"/>
+      <c r="FC81" s="30"/>
+      <c r="FD81" s="30"/>
+      <c r="FE81" s="30"/>
+      <c r="FF81" s="30"/>
+      <c r="FG81" s="30"/>
+      <c r="FH81" s="30"/>
+      <c r="FI81" s="30"/>
+      <c r="FJ81" s="30"/>
+      <c r="FK81" s="30"/>
+      <c r="FL81" s="30"/>
+      <c r="FM81" s="30"/>
+      <c r="FN81" s="30"/>
+      <c r="FO81" s="30"/>
+      <c r="FP81" s="30"/>
+      <c r="FQ81" s="30"/>
+      <c r="FR81" s="30"/>
+      <c r="FS81" s="30"/>
+      <c r="FT81" s="30"/>
+      <c r="FU81" s="30"/>
+      <c r="FV81" s="30"/>
+      <c r="FW81" s="30"/>
+      <c r="FX81" s="30"/>
+      <c r="FY81" s="30"/>
+      <c r="FZ81" s="30"/>
+      <c r="GA81" s="30"/>
+      <c r="GB81" s="30"/>
+      <c r="GC81" s="30"/>
+      <c r="GD81" s="30"/>
+      <c r="GE81" s="30"/>
+      <c r="GF81" s="30"/>
+      <c r="GG81" s="30"/>
+      <c r="GH81" s="30"/>
+      <c r="GI81" s="30"/>
+      <c r="GJ81" s="30"/>
+      <c r="GK81" s="30"/>
+      <c r="GL81" s="30"/>
+      <c r="GM81" s="30"/>
+      <c r="GN81" s="30"/>
+      <c r="GO81" s="30"/>
+      <c r="GP81" s="30"/>
+      <c r="GQ81" s="30"/>
+      <c r="GR81" s="30"/>
+      <c r="GS81" s="30"/>
+      <c r="GT81" s="30"/>
+      <c r="GU81" s="30"/>
+      <c r="GV81" s="30"/>
+      <c r="GW81" s="30"/>
+      <c r="GX81" s="30"/>
+      <c r="GY81" s="30"/>
+      <c r="GZ81" s="30"/>
+      <c r="HA81" s="30"/>
+      <c r="HB81" s="30"/>
+      <c r="HC81" s="30"/>
+      <c r="HD81" s="30"/>
+      <c r="HE81" s="30"/>
+      <c r="HF81" s="30"/>
+      <c r="HG81" s="30"/>
+      <c r="HH81" s="30"/>
+      <c r="HI81" s="30"/>
+      <c r="HJ81" s="30"/>
+      <c r="HK81" s="30"/>
+      <c r="HL81" s="30"/>
+      <c r="HM81" s="30"/>
+      <c r="HN81" s="30"/>
+      <c r="HO81" s="30"/>
+      <c r="HP81" s="30"/>
+      <c r="HQ81" s="30"/>
+      <c r="HR81" s="30"/>
+      <c r="HS81" s="30"/>
+      <c r="HT81" s="30"/>
+      <c r="HU81" s="30"/>
+      <c r="HV81" s="30"/>
+      <c r="HW81" s="30"/>
+      <c r="HX81" s="30"/>
+      <c r="HY81" s="30"/>
+      <c r="HZ81" s="30"/>
+      <c r="IA81" s="30"/>
+      <c r="IB81" s="30"/>
+      <c r="IC81" s="30"/>
+      <c r="ID81" s="30"/>
+      <c r="IE81" s="30"/>
+      <c r="IF81" s="30"/>
+      <c r="IG81" s="30"/>
+      <c r="IH81" s="30"/>
+      <c r="II81" s="30"/>
+      <c r="IJ81" s="30"/>
+      <c r="IK81" s="30"/>
+      <c r="IL81" s="30"/>
+      <c r="IM81" s="30"/>
+      <c r="IN81" s="30"/>
+      <c r="IO81" s="30"/>
+      <c r="IP81" s="30"/>
+      <c r="IQ81" s="30"/>
+      <c r="IR81" s="30"/>
+      <c r="IS81" s="30"/>
+      <c r="IT81" s="30"/>
+      <c r="IU81" s="30"/>
+      <c r="IV81" s="30"/>
+      <c r="IW81" s="30"/>
+      <c r="IX81" s="30"/>
+      <c r="IY81" s="30"/>
+      <c r="IZ81" s="30"/>
+      <c r="JA81" s="30"/>
+      <c r="JB81" s="30"/>
+      <c r="JC81" s="30"/>
+      <c r="JD81" s="30"/>
+      <c r="JE81" s="30"/>
+      <c r="JF81" s="30"/>
+      <c r="JG81" s="30"/>
+      <c r="JH81" s="30"/>
+      <c r="JI81" s="30"/>
+      <c r="JJ81" s="30"/>
+      <c r="JK81" s="30"/>
+      <c r="JL81" s="30"/>
+      <c r="JM81" s="30"/>
+      <c r="JN81" s="30"/>
+      <c r="JO81" s="30"/>
+      <c r="JP81" s="30"/>
+      <c r="JQ81" s="30"/>
+      <c r="JR81" s="30"/>
+      <c r="JS81" s="30"/>
+      <c r="JT81" s="30"/>
+      <c r="JU81" s="30"/>
+      <c r="JV81" s="30"/>
+      <c r="JW81" s="30"/>
+      <c r="JX81" s="30"/>
+      <c r="JY81" s="30"/>
+      <c r="JZ81" s="30"/>
+      <c r="KA81" s="30"/>
+      <c r="KB81" s="30"/>
+      <c r="KC81" s="30"/>
+      <c r="KD81" s="30"/>
+      <c r="KE81" s="30"/>
+      <c r="KF81" s="30"/>
+      <c r="KG81" s="30"/>
+      <c r="KH81" s="30"/>
+      <c r="KI81" s="30"/>
+      <c r="KJ81" s="30"/>
+      <c r="KK81" s="30"/>
+      <c r="KL81" s="30"/>
+      <c r="KM81" s="30"/>
+      <c r="KN81" s="30"/>
+      <c r="KO81" s="30"/>
+      <c r="KP81" s="30"/>
+      <c r="KQ81" s="30"/>
+      <c r="KR81" s="30"/>
+      <c r="KS81" s="30"/>
+      <c r="KT81" s="30"/>
+      <c r="KU81" s="30"/>
+      <c r="KV81" s="30"/>
+      <c r="KW81" s="30"/>
+      <c r="KX81" s="30"/>
+      <c r="KY81" s="30"/>
+      <c r="KZ81" s="30"/>
+      <c r="LA81" s="30"/>
+      <c r="LB81" s="30"/>
+      <c r="LC81" s="30"/>
+      <c r="LD81" s="30"/>
+      <c r="LE81" s="30"/>
+      <c r="LF81" s="30"/>
+      <c r="LG81" s="30"/>
+      <c r="LH81" s="30"/>
+      <c r="LI81" s="30"/>
+      <c r="LJ81" s="30"/>
+      <c r="LK81" s="30"/>
+      <c r="LL81" s="30"/>
+      <c r="LM81" s="30"/>
+      <c r="LN81" s="30"/>
+      <c r="LO81" s="30"/>
+      <c r="LP81" s="30"/>
+      <c r="LQ81" s="30"/>
+      <c r="LR81" s="30"/>
+      <c r="LS81" s="30"/>
+      <c r="LT81" s="30"/>
+      <c r="LU81" s="30"/>
+      <c r="LV81" s="30"/>
+      <c r="LW81" s="30"/>
+      <c r="LX81" s="30"/>
+      <c r="LY81" s="30"/>
+      <c r="LZ81" s="30"/>
+      <c r="MA81" s="30"/>
+      <c r="MB81" s="30"/>
+      <c r="MC81" s="30"/>
+      <c r="MD81" s="30"/>
+      <c r="ME81" s="30"/>
+      <c r="MF81" s="30"/>
+      <c r="MG81" s="30"/>
+      <c r="MH81" s="30"/>
+      <c r="MI81" s="30"/>
+      <c r="MJ81" s="30"/>
+      <c r="MK81" s="30"/>
+      <c r="ML81" s="30"/>
+      <c r="MM81" s="30"/>
+      <c r="MN81" s="30"/>
+      <c r="MO81" s="30"/>
+      <c r="MP81" s="30"/>
+      <c r="MQ81" s="30"/>
+      <c r="MR81" s="30"/>
+      <c r="MS81" s="30"/>
+      <c r="MT81" s="30"/>
+      <c r="MU81" s="30"/>
+      <c r="MV81" s="30"/>
+      <c r="MW81" s="30"/>
+      <c r="MX81" s="30"/>
+      <c r="MY81" s="30"/>
+      <c r="MZ81" s="30"/>
+      <c r="NA81" s="30"/>
+      <c r="NB81" s="30"/>
+      <c r="NC81" s="30"/>
+      <c r="ND81" s="30"/>
+      <c r="NE81" s="30"/>
+      <c r="NF81" s="30"/>
+      <c r="NG81" s="30"/>
+      <c r="NH81" s="30"/>
+      <c r="NI81" s="30"/>
+      <c r="NJ81" s="30"/>
+      <c r="NK81" s="30"/>
+      <c r="NL81" s="30"/>
+      <c r="NM81" s="30"/>
+      <c r="NN81" s="30"/>
+      <c r="NO81" s="30"/>
+      <c r="NP81" s="30"/>
+      <c r="NQ81" s="30"/>
+      <c r="NR81" s="30"/>
+      <c r="NS81" s="30"/>
+      <c r="NT81" s="30"/>
+      <c r="NU81" s="30"/>
+      <c r="NV81" s="30"/>
+      <c r="NW81" s="30"/>
+      <c r="NX81" s="30"/>
+      <c r="NY81" s="30"/>
+      <c r="NZ81" s="30"/>
+      <c r="OA81" s="30"/>
+      <c r="OB81" s="30"/>
+      <c r="OC81" s="30"/>
+      <c r="OD81" s="30"/>
+      <c r="OE81" s="30"/>
+      <c r="OF81" s="30"/>
+      <c r="OG81" s="30"/>
+      <c r="OH81" s="30"/>
+      <c r="OI81" s="30"/>
+      <c r="OJ81" s="30"/>
+      <c r="OK81" s="30"/>
+      <c r="OL81" s="30"/>
+      <c r="OM81" s="30"/>
+      <c r="ON81" s="30"/>
+      <c r="OO81" s="30"/>
+      <c r="OP81" s="30"/>
+      <c r="OQ81" s="30"/>
+      <c r="OR81" s="30"/>
+      <c r="OS81" s="30"/>
+      <c r="OT81" s="30"/>
+      <c r="OU81" s="30"/>
+      <c r="OV81" s="30"/>
+      <c r="OW81" s="30"/>
+      <c r="OX81" s="30"/>
+      <c r="OY81" s="30"/>
+      <c r="OZ81" s="30"/>
+      <c r="PA81" s="30"/>
+      <c r="PB81" s="30"/>
+      <c r="PC81" s="30"/>
+      <c r="PD81" s="30"/>
+      <c r="PE81" s="30"/>
+      <c r="PF81" s="30"/>
+      <c r="PG81" s="30"/>
+      <c r="PH81" s="30"/>
+      <c r="PI81" s="30"/>
+      <c r="PJ81" s="30"/>
+      <c r="PK81" s="30"/>
+      <c r="PL81" s="30"/>
+      <c r="PM81" s="30"/>
+      <c r="PN81" s="30"/>
+      <c r="PO81" s="30"/>
+      <c r="PP81" s="30"/>
+      <c r="PQ81" s="30"/>
+      <c r="PR81" s="30"/>
+      <c r="PS81" s="30"/>
+      <c r="PT81" s="30"/>
+      <c r="PU81" s="30"/>
+      <c r="PV81" s="30"/>
+      <c r="PW81" s="30"/>
+      <c r="PX81" s="30"/>
+      <c r="PY81" s="30"/>
+      <c r="PZ81" s="30"/>
+      <c r="QA81" s="30"/>
+      <c r="QB81" s="30"/>
+      <c r="QC81" s="30"/>
+      <c r="QD81" s="30"/>
+      <c r="QE81" s="30"/>
+      <c r="QF81" s="30"/>
+      <c r="QG81" s="30"/>
+      <c r="QH81" s="30"/>
+      <c r="QI81" s="30"/>
+      <c r="QJ81" s="30"/>
+      <c r="QK81" s="30"/>
+      <c r="QL81" s="30"/>
+      <c r="QM81" s="30"/>
+      <c r="QN81" s="30"/>
+      <c r="QO81" s="30"/>
+      <c r="QP81" s="30"/>
+      <c r="QQ81" s="30"/>
+      <c r="QR81" s="30"/>
+      <c r="QS81" s="30"/>
+      <c r="QT81" s="30"/>
+      <c r="QU81" s="30"/>
+      <c r="QV81" s="30"/>
+      <c r="QW81" s="30"/>
+      <c r="QX81" s="30"/>
+      <c r="QY81" s="30"/>
+      <c r="QZ81" s="30"/>
+      <c r="RA81" s="30"/>
+      <c r="RB81" s="30"/>
+      <c r="RC81" s="30"/>
+      <c r="RD81" s="30"/>
+      <c r="RE81" s="30"/>
+      <c r="RF81" s="30"/>
+      <c r="RG81" s="30"/>
+      <c r="RH81" s="30"/>
+      <c r="RI81" s="30"/>
+      <c r="RJ81" s="30"/>
+      <c r="RK81" s="30"/>
+      <c r="RL81" s="30"/>
+      <c r="RM81" s="30"/>
+      <c r="RN81" s="30"/>
+      <c r="RO81" s="30"/>
+      <c r="RP81" s="30"/>
+      <c r="RQ81" s="30"/>
+      <c r="RR81" s="30"/>
+      <c r="RS81" s="30"/>
+      <c r="RT81" s="30"/>
+      <c r="RU81" s="30"/>
+      <c r="RV81" s="30"/>
+      <c r="RW81" s="30"/>
+      <c r="RX81" s="30"/>
+      <c r="RY81" s="30"/>
+      <c r="RZ81" s="30"/>
+      <c r="SA81" s="30"/>
+      <c r="SB81" s="30"/>
+      <c r="SC81" s="30"/>
+      <c r="SD81" s="30"/>
+      <c r="SE81" s="30"/>
+      <c r="SF81" s="30"/>
+      <c r="SG81" s="30"/>
+      <c r="SH81" s="30"/>
+      <c r="SI81" s="30"/>
+      <c r="SJ81" s="30"/>
+      <c r="SK81" s="30"/>
+      <c r="SL81" s="30"/>
+      <c r="SM81" s="30"/>
+      <c r="SN81" s="30"/>
+      <c r="SO81" s="30"/>
+      <c r="SP81" s="30"/>
+      <c r="SQ81" s="30"/>
+      <c r="SR81" s="30"/>
+      <c r="SS81" s="30"/>
+      <c r="ST81" s="30"/>
+      <c r="SU81" s="30"/>
+      <c r="SV81" s="30"/>
+      <c r="SW81" s="30"/>
+      <c r="SX81" s="30"/>
+      <c r="SY81" s="30"/>
+      <c r="SZ81" s="30"/>
+      <c r="TA81" s="30"/>
+      <c r="TB81" s="30"/>
+      <c r="TC81" s="30"/>
+      <c r="TD81" s="30"/>
+      <c r="TE81" s="30"/>
+      <c r="TF81" s="30"/>
+      <c r="TG81" s="30"/>
+      <c r="TH81" s="30"/>
+      <c r="TI81" s="30"/>
+      <c r="TJ81" s="30"/>
+      <c r="TK81" s="30"/>
+      <c r="TL81" s="30"/>
+      <c r="TM81" s="30"/>
+      <c r="TN81" s="30"/>
+      <c r="TO81" s="30"/>
+      <c r="TP81" s="30"/>
+      <c r="TQ81" s="30"/>
+      <c r="TR81" s="30"/>
+      <c r="TS81" s="30"/>
+      <c r="TT81" s="30"/>
+      <c r="TU81" s="30"/>
+      <c r="TV81" s="30"/>
+      <c r="TW81" s="30"/>
+      <c r="TX81" s="30"/>
+      <c r="TY81" s="30"/>
+      <c r="TZ81" s="30"/>
+      <c r="UA81" s="30"/>
+      <c r="UB81" s="30"/>
+      <c r="UC81" s="30"/>
+      <c r="UD81" s="30"/>
+      <c r="UE81" s="30"/>
+      <c r="UF81" s="30"/>
+      <c r="UG81" s="30"/>
+      <c r="UH81" s="30"/>
+      <c r="UI81" s="30"/>
+      <c r="UJ81" s="30"/>
+      <c r="UK81" s="30"/>
+      <c r="UL81" s="30"/>
+      <c r="UM81" s="30"/>
+      <c r="UN81" s="30"/>
+      <c r="UO81" s="30"/>
+      <c r="UP81" s="30"/>
+      <c r="UQ81" s="30"/>
+      <c r="UR81" s="30"/>
+      <c r="US81" s="30"/>
+      <c r="UT81" s="30"/>
+      <c r="UU81" s="30"/>
+      <c r="UV81" s="30"/>
+      <c r="UW81" s="30"/>
+      <c r="UX81" s="30"/>
+      <c r="UY81" s="30"/>
+      <c r="UZ81" s="30"/>
+      <c r="VA81" s="30"/>
+      <c r="VB81" s="30"/>
+      <c r="VC81" s="30"/>
+      <c r="VD81" s="30"/>
+      <c r="VE81" s="30"/>
+      <c r="VF81" s="30"/>
+      <c r="VG81" s="30"/>
+      <c r="VH81" s="30"/>
+      <c r="VI81" s="30"/>
+      <c r="VJ81" s="30"/>
+      <c r="VK81" s="30"/>
+      <c r="VL81" s="30"/>
+      <c r="VM81" s="30"/>
+      <c r="VN81" s="30"/>
+      <c r="VO81" s="30"/>
+      <c r="VP81" s="30"/>
+      <c r="VQ81" s="30"/>
+      <c r="VR81" s="30"/>
+      <c r="VS81" s="30"/>
+      <c r="VT81" s="30"/>
+      <c r="VU81" s="30"/>
+      <c r="VV81" s="30"/>
+      <c r="VW81" s="30"/>
+      <c r="VX81" s="30"/>
+      <c r="VY81" s="30"/>
+      <c r="VZ81" s="30"/>
+      <c r="WA81" s="30"/>
+      <c r="WB81" s="30"/>
+      <c r="WC81" s="30"/>
+      <c r="WD81" s="30"/>
+      <c r="WE81" s="30"/>
+      <c r="WF81" s="30"/>
+      <c r="WG81" s="30"/>
+      <c r="WH81" s="30"/>
+      <c r="WI81" s="30"/>
+      <c r="WJ81" s="30"/>
+      <c r="WK81" s="30"/>
+      <c r="WL81" s="30"/>
+      <c r="WM81" s="30"/>
+      <c r="WN81" s="30"/>
+      <c r="WO81" s="30"/>
+      <c r="WP81" s="30"/>
+      <c r="WQ81" s="30"/>
+      <c r="WR81" s="30"/>
+      <c r="WS81" s="30"/>
+      <c r="WT81" s="30"/>
+      <c r="WU81" s="30"/>
+      <c r="WV81" s="30"/>
+      <c r="WW81" s="30"/>
+      <c r="WX81" s="30"/>
+      <c r="WY81" s="30"/>
+      <c r="WZ81" s="30"/>
+      <c r="XA81" s="30"/>
+      <c r="XB81" s="30"/>
+      <c r="XC81" s="30"/>
+      <c r="XD81" s="30"/>
+      <c r="XE81" s="30"/>
+      <c r="XF81" s="30"/>
+      <c r="XG81" s="30"/>
+      <c r="XH81" s="30"/>
+      <c r="XI81" s="30"/>
+      <c r="XJ81" s="30"/>
+      <c r="XK81" s="30"/>
+      <c r="XL81" s="30"/>
+      <c r="XM81" s="30"/>
+      <c r="XN81" s="30"/>
+      <c r="XO81" s="30"/>
+      <c r="XP81" s="30"/>
+      <c r="XQ81" s="30"/>
+      <c r="XR81" s="30"/>
+      <c r="XS81" s="30"/>
+      <c r="XT81" s="30"/>
+      <c r="XU81" s="30"/>
+      <c r="XV81" s="30"/>
+      <c r="XW81" s="30"/>
+      <c r="XX81" s="30"/>
+      <c r="XY81" s="30"/>
+      <c r="XZ81" s="30"/>
+      <c r="YA81" s="30"/>
+      <c r="YB81" s="30"/>
+      <c r="YC81" s="30"/>
+      <c r="YD81" s="30"/>
+      <c r="YE81" s="30"/>
+      <c r="YF81" s="30"/>
+      <c r="YG81" s="30"/>
+      <c r="YH81" s="30"/>
+      <c r="YI81" s="30"/>
+      <c r="YJ81" s="30"/>
+      <c r="YK81" s="30"/>
+      <c r="YL81" s="30"/>
+      <c r="YM81" s="30"/>
+      <c r="YN81" s="30"/>
+      <c r="YO81" s="30"/>
+      <c r="YP81" s="30"/>
+      <c r="YQ81" s="30"/>
+      <c r="YR81" s="30"/>
+      <c r="YS81" s="30"/>
+      <c r="YT81" s="30"/>
+      <c r="YU81" s="30"/>
+      <c r="YV81" s="30"/>
+      <c r="YW81" s="30"/>
+      <c r="YX81" s="30"/>
+      <c r="YY81" s="30"/>
+      <c r="YZ81" s="30"/>
+      <c r="ZA81" s="30"/>
+      <c r="ZB81" s="30"/>
+      <c r="ZC81" s="30"/>
+      <c r="ZD81" s="30"/>
+      <c r="ZE81" s="30"/>
+      <c r="ZF81" s="30"/>
+      <c r="ZG81" s="30"/>
+      <c r="ZH81" s="30"/>
+      <c r="ZI81" s="30"/>
+      <c r="ZJ81" s="30"/>
+      <c r="ZK81" s="30"/>
+      <c r="ZL81" s="30"/>
+      <c r="ZM81" s="30"/>
+      <c r="ZN81" s="30"/>
+      <c r="ZO81" s="30"/>
+      <c r="ZP81" s="30"/>
+      <c r="ZQ81" s="30"/>
+      <c r="ZR81" s="30"/>
+      <c r="ZS81" s="30"/>
+      <c r="ZT81" s="30"/>
+      <c r="ZU81" s="30"/>
+      <c r="ZV81" s="30"/>
+      <c r="ZW81" s="30"/>
+      <c r="ZX81" s="30"/>
+      <c r="ZY81" s="30"/>
+      <c r="ZZ81" s="30"/>
+      <c r="AAA81" s="30"/>
+      <c r="AAB81" s="30"/>
+      <c r="AAC81" s="30"/>
+      <c r="AAD81" s="30"/>
+      <c r="AAE81" s="30"/>
+      <c r="AAF81" s="30"/>
+      <c r="AAG81" s="30"/>
+      <c r="AAH81" s="30"/>
+      <c r="AAI81" s="30"/>
+      <c r="AAJ81" s="30"/>
+      <c r="AAK81" s="30"/>
+      <c r="AAL81" s="30"/>
+      <c r="AAM81" s="30"/>
+      <c r="AAN81" s="30"/>
+      <c r="AAO81" s="30"/>
+      <c r="AAP81" s="30"/>
+      <c r="AAQ81" s="30"/>
+      <c r="AAR81" s="30"/>
+      <c r="AAS81" s="30"/>
+      <c r="AAT81" s="30"/>
+      <c r="AAU81" s="30"/>
+      <c r="AAV81" s="30"/>
+      <c r="AAW81" s="30"/>
+      <c r="AAX81" s="30"/>
+      <c r="AAY81" s="30"/>
+      <c r="AAZ81" s="30"/>
+      <c r="ABA81" s="30"/>
+      <c r="ABB81" s="30"/>
+      <c r="ABC81" s="30"/>
+      <c r="ABD81" s="30"/>
+      <c r="ABE81" s="30"/>
+      <c r="ABF81" s="30"/>
+      <c r="ABG81" s="30"/>
+      <c r="ABH81" s="30"/>
+      <c r="ABI81" s="30"/>
+      <c r="ABJ81" s="30"/>
+      <c r="ABK81" s="30"/>
+      <c r="ABL81" s="30"/>
+      <c r="ABM81" s="30"/>
+      <c r="ABN81" s="30"/>
+      <c r="ABO81" s="30"/>
+      <c r="ABP81" s="30"/>
+      <c r="ABQ81" s="30"/>
+      <c r="ABR81" s="30"/>
+      <c r="ABS81" s="30"/>
+      <c r="ABT81" s="30"/>
+      <c r="ABU81" s="30"/>
+      <c r="ABV81" s="30"/>
+      <c r="ABW81" s="30"/>
+      <c r="ABX81" s="30"/>
+      <c r="ABY81" s="30"/>
+      <c r="ABZ81" s="30"/>
+      <c r="ACA81" s="30"/>
+      <c r="ACB81" s="30"/>
+      <c r="ACC81" s="30"/>
+      <c r="ACD81" s="30"/>
+      <c r="ACE81" s="30"/>
+      <c r="ACF81" s="30"/>
+      <c r="ACG81" s="30"/>
+      <c r="ACH81" s="30"/>
+      <c r="ACI81" s="30"/>
+      <c r="ACJ81" s="30"/>
+      <c r="ACK81" s="30"/>
+      <c r="ACL81" s="30"/>
+      <c r="ACM81" s="30"/>
+      <c r="ACN81" s="30"/>
+      <c r="ACO81" s="30"/>
+      <c r="ACP81" s="30"/>
+      <c r="ACQ81" s="30"/>
+      <c r="ACR81" s="30"/>
+      <c r="ACS81" s="30"/>
+      <c r="ACT81" s="30"/>
+      <c r="ACU81" s="30"/>
+      <c r="ACV81" s="30"/>
+      <c r="ACW81" s="30"/>
+      <c r="ACX81" s="30"/>
+      <c r="ACY81" s="30"/>
+      <c r="ACZ81" s="30"/>
+      <c r="ADA81" s="30"/>
+      <c r="ADB81" s="30"/>
+      <c r="ADC81" s="30"/>
+      <c r="ADD81" s="30"/>
+      <c r="ADE81" s="30"/>
+      <c r="ADF81" s="30"/>
+      <c r="ADG81" s="30"/>
+      <c r="ADH81" s="30"/>
+      <c r="ADI81" s="30"/>
+      <c r="ADJ81" s="30"/>
+      <c r="ADK81" s="30"/>
+      <c r="ADL81" s="30"/>
+      <c r="ADM81" s="30"/>
+      <c r="ADN81" s="30"/>
+      <c r="ADO81" s="30"/>
+      <c r="ADP81" s="30"/>
+      <c r="ADQ81" s="30"/>
+      <c r="ADR81" s="30"/>
+      <c r="ADS81" s="30"/>
+      <c r="ADT81" s="30"/>
+      <c r="ADU81" s="30"/>
+      <c r="ADV81" s="30"/>
+      <c r="ADW81" s="30"/>
+      <c r="ADX81" s="30"/>
+      <c r="ADY81" s="30"/>
+      <c r="ADZ81" s="30"/>
+      <c r="AEA81" s="30"/>
+      <c r="AEB81" s="30"/>
+      <c r="AEC81" s="30"/>
+      <c r="AED81" s="30"/>
+      <c r="AEE81" s="30"/>
+      <c r="AEF81" s="30"/>
+      <c r="AEG81" s="30"/>
+      <c r="AEH81" s="30"/>
+      <c r="AEI81" s="30"/>
+      <c r="AEJ81" s="30"/>
+      <c r="AEK81" s="30"/>
+      <c r="AEL81" s="30"/>
+      <c r="AEM81" s="30"/>
+      <c r="AEN81" s="30"/>
+      <c r="AEO81" s="30"/>
+      <c r="AEP81" s="30"/>
+      <c r="AEQ81" s="30"/>
+      <c r="AER81" s="30"/>
+      <c r="AES81" s="30"/>
+      <c r="AET81" s="30"/>
+      <c r="AEU81" s="30"/>
+      <c r="AEV81" s="30"/>
+      <c r="AEW81" s="30"/>
+      <c r="AEX81" s="30"/>
+      <c r="AEY81" s="30"/>
+      <c r="AEZ81" s="30"/>
+      <c r="AFA81" s="30"/>
+      <c r="AFB81" s="30"/>
+      <c r="AFC81" s="30"/>
+      <c r="AFD81" s="30"/>
+      <c r="AFE81" s="30"/>
+      <c r="AFF81" s="30"/>
+      <c r="AFG81" s="30"/>
+      <c r="AFH81" s="30"/>
+      <c r="AFI81" s="30"/>
+      <c r="AFJ81" s="30"/>
+      <c r="AFK81" s="30"/>
+      <c r="AFL81" s="30"/>
+      <c r="AFM81" s="30"/>
+      <c r="AFN81" s="30"/>
+      <c r="AFO81" s="30"/>
+      <c r="AFP81" s="30"/>
+      <c r="AFQ81" s="30"/>
+      <c r="AFR81" s="30"/>
+      <c r="AFS81" s="30"/>
+      <c r="AFT81" s="30"/>
+      <c r="AFU81" s="30"/>
+      <c r="AFV81" s="30"/>
+      <c r="AFW81" s="30"/>
+      <c r="AFX81" s="30"/>
+      <c r="AFY81" s="30"/>
+      <c r="AFZ81" s="30"/>
+      <c r="AGA81" s="30"/>
+      <c r="AGB81" s="30"/>
+      <c r="AGC81" s="30"/>
+      <c r="AGD81" s="30"/>
+      <c r="AGE81" s="30"/>
+      <c r="AGF81" s="30"/>
+      <c r="AGG81" s="30"/>
+      <c r="AGH81" s="30"/>
+      <c r="AGI81" s="30"/>
+      <c r="AGJ81" s="30"/>
+      <c r="AGK81" s="30"/>
+      <c r="AGL81" s="30"/>
+      <c r="AGM81" s="30"/>
+      <c r="AGN81" s="30"/>
+      <c r="AGO81" s="30"/>
+      <c r="AGP81" s="30"/>
+      <c r="AGQ81" s="30"/>
+      <c r="AGR81" s="30"/>
+      <c r="AGS81" s="30"/>
+      <c r="AGT81" s="30"/>
+      <c r="AGU81" s="30"/>
+      <c r="AGV81" s="30"/>
+      <c r="AGW81" s="30"/>
+      <c r="AGX81" s="30"/>
+      <c r="AGY81" s="30"/>
+      <c r="AGZ81" s="30"/>
+      <c r="AHA81" s="30"/>
+      <c r="AHB81" s="30"/>
+      <c r="AHC81" s="30"/>
+      <c r="AHD81" s="30"/>
+      <c r="AHE81" s="30"/>
+      <c r="AHF81" s="30"/>
+      <c r="AHG81" s="30"/>
+      <c r="AHH81" s="30"/>
+      <c r="AHI81" s="30"/>
+      <c r="AHJ81" s="30"/>
+      <c r="AHK81" s="30"/>
+      <c r="AHL81" s="30"/>
+      <c r="AHM81" s="30"/>
+      <c r="AHN81" s="30"/>
+      <c r="AHO81" s="30"/>
+      <c r="AHP81" s="30"/>
+      <c r="AHQ81" s="30"/>
+      <c r="AHR81" s="30"/>
+      <c r="AHS81" s="30"/>
+      <c r="AHT81" s="30"/>
+      <c r="AHU81" s="30"/>
+      <c r="AHV81" s="30"/>
+      <c r="AHW81" s="30"/>
+      <c r="AHX81" s="30"/>
+      <c r="AHY81" s="30"/>
+      <c r="AHZ81" s="30"/>
+      <c r="AIA81" s="30"/>
+      <c r="AIB81" s="30"/>
+      <c r="AIC81" s="30"/>
+      <c r="AID81" s="30"/>
+      <c r="AIE81" s="30"/>
+      <c r="AIF81" s="30"/>
+      <c r="AIG81" s="30"/>
+      <c r="AIH81" s="30"/>
+      <c r="AII81" s="30"/>
+      <c r="AIJ81" s="30"/>
+      <c r="AIK81" s="30"/>
+      <c r="AIL81" s="30"/>
+      <c r="AIM81" s="30"/>
+      <c r="AIN81" s="30"/>
+      <c r="AIO81" s="30"/>
+      <c r="AIP81" s="30"/>
+      <c r="AIQ81" s="30"/>
+      <c r="AIR81" s="30"/>
+      <c r="AIS81" s="30"/>
+      <c r="AIT81" s="30"/>
+      <c r="AIU81" s="30"/>
+      <c r="AIV81" s="30"/>
+      <c r="AIW81" s="30"/>
+      <c r="AIX81" s="30"/>
+      <c r="AIY81" s="30"/>
+      <c r="AIZ81" s="30"/>
+      <c r="AJA81" s="30"/>
+      <c r="AJB81" s="30"/>
+      <c r="AJC81" s="30"/>
+      <c r="AJD81" s="30"/>
+      <c r="AJE81" s="30"/>
+      <c r="AJF81" s="30"/>
+      <c r="AJG81" s="30"/>
+      <c r="AJH81" s="30"/>
+      <c r="AJI81" s="30"/>
+      <c r="AJJ81" s="30"/>
+      <c r="AJK81" s="30"/>
+      <c r="AJL81" s="30"/>
+      <c r="AJM81" s="30"/>
+      <c r="AJN81" s="30"/>
+      <c r="AJO81" s="30"/>
+      <c r="AJP81" s="30"/>
+      <c r="AJQ81" s="30"/>
+      <c r="AJR81" s="30"/>
+      <c r="AJS81" s="30"/>
+      <c r="AJT81" s="30"/>
+      <c r="AJU81" s="30"/>
+      <c r="AJV81" s="30"/>
+      <c r="AJW81" s="30"/>
+      <c r="AJX81" s="30"/>
+      <c r="AJY81" s="30"/>
+      <c r="AJZ81" s="30"/>
+      <c r="AKA81" s="30"/>
+      <c r="AKB81" s="30"/>
+      <c r="AKC81" s="30"/>
+      <c r="AKD81" s="30"/>
+      <c r="AKE81" s="30"/>
+      <c r="AKF81" s="30"/>
+      <c r="AKG81" s="30"/>
+      <c r="AKH81" s="30"/>
+      <c r="AKI81" s="30"/>
+      <c r="AKJ81" s="30"/>
+      <c r="AKK81" s="30"/>
+      <c r="AKL81" s="30"/>
+      <c r="AKM81" s="30"/>
+      <c r="AKN81" s="30"/>
+      <c r="AKO81" s="30"/>
+      <c r="AKP81" s="30"/>
+      <c r="AKQ81" s="30"/>
+      <c r="AKR81" s="30"/>
+      <c r="AKS81" s="30"/>
+      <c r="AKT81" s="30"/>
+      <c r="AKU81" s="30"/>
+      <c r="AKV81" s="30"/>
+      <c r="AKW81" s="30"/>
+      <c r="AKX81" s="30"/>
+      <c r="AKY81" s="30"/>
+      <c r="AKZ81" s="30"/>
+      <c r="ALA81" s="30"/>
+      <c r="ALB81" s="30"/>
+      <c r="ALC81" s="30"/>
+      <c r="ALD81" s="30"/>
+      <c r="ALE81" s="30"/>
+      <c r="ALF81" s="30"/>
+      <c r="ALG81" s="30"/>
+      <c r="ALH81" s="30"/>
+      <c r="ALI81" s="30"/>
+      <c r="ALJ81" s="30"/>
+      <c r="ALK81" s="30"/>
+      <c r="ALL81" s="30"/>
+      <c r="ALM81" s="30"/>
+      <c r="ALN81" s="30"/>
+      <c r="ALO81" s="30"/>
+      <c r="ALP81" s="30"/>
+      <c r="ALQ81" s="30"/>
+      <c r="ALR81" s="30"/>
+      <c r="ALS81" s="30"/>
+      <c r="ALT81" s="30"/>
+      <c r="ALU81" s="30"/>
+      <c r="ALV81" s="30"/>
+      <c r="ALW81" s="30"/>
+      <c r="ALX81" s="30"/>
+      <c r="ALY81" s="30"/>
+      <c r="ALZ81" s="30"/>
+      <c r="AMA81" s="30"/>
+      <c r="AMB81" s="30"/>
+      <c r="AMC81" s="30"/>
+      <c r="AMD81" s="30"/>
+      <c r="AME81" s="30"/>
+      <c r="AMF81" s="30"/>
+      <c r="AMG81" s="30"/>
+      <c r="AMH81" s="30"/>
+      <c r="AMI81" s="30"/>
+      <c r="AMJ81" s="30"/>
+      <c r="AMK81" s="30"/>
+    </row>
+    <row r="82" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -4258,7 +5979,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -4277,7 +5998,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -4296,7 +6017,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
@@ -4315,7 +6036,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -4334,7 +6055,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -4353,7 +6074,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -4372,7 +6093,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -4391,7 +6112,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -4410,7 +6131,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -4429,7 +6150,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1025" ht="240" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -4448,7 +6169,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -4467,7 +6188,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1025" ht="270" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -4486,7 +6207,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>392</v>
       </c>
@@ -4505,7 +6226,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -4524,7 +6245,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -4543,7 +6264,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -4562,7 +6283,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -4600,7 +6321,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -4619,7 +6340,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -4657,7 +6378,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -4676,7 +6397,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>441</v>
       </c>
@@ -4695,7 +6416,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>446</v>
       </c>
@@ -4714,7 +6435,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>451</v>
       </c>
@@ -4733,7 +6454,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>456</v>
       </c>
@@ -4752,7 +6473,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>461</v>
       </c>
@@ -4771,7 +6492,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>466</v>
       </c>
@@ -4790,7 +6511,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>471</v>
       </c>
@@ -4830,7 +6551,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
@@ -4847,7 +6568,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
@@ -4864,7 +6585,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
@@ -4885,7 +6606,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
@@ -4906,7 +6627,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -4927,7 +6648,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>506</v>
       </c>
@@ -4941,225 +6662,1001 @@
         <v>511</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>518</v>
+        <v>808</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>507</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>519</v>
+        <v>781</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G119" s="18" t="s">
         <v>514</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>509</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>510</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>522</v>
+        <v>782</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>512</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C121" s="2" t="s">
+    </row>
+    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B122" s="21" t="s">
         <v>593</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="C122" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="D122" s="21" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="E122" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="F122" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="G122" s="22" t="s">
         <v>598</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B123" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="C123" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>605</v>
-      </c>
       <c r="F123" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B124" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>626</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
+      <c r="B127" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="C126" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="D126" s="21" t="s">
+      <c r="D127" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E127" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="F126" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="B127" s="21" t="s">
+      <c r="F127" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C127" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>601</v>
-      </c>
+      <c r="B128" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F128" s="24"/>
+      <c r="G128" s="25"/>
+    </row>
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="F130" s="24"/>
+      <c r="G130" s="25"/>
+    </row>
+    <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="F131" s="24"/>
+      <c r="G131" s="25"/>
+    </row>
+    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="F132" s="24"/>
+      <c r="G132" s="25"/>
+    </row>
+    <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="F133" s="24"/>
+      <c r="G133" s="25"/>
+    </row>
+    <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+    </row>
+    <row r="135" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="D135" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="D136" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="F136" s="26"/>
+      <c r="G136" s="26"/>
+    </row>
+    <row r="137" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="D137" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="F137" s="26"/>
+      <c r="G137" s="26"/>
+    </row>
+    <row r="138" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+    </row>
+    <row r="139" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="D139" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+    </row>
+    <row r="140" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="D140" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+    </row>
+    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D141" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="C142" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="F142" s="26"/>
+      <c r="G142" s="26"/>
+    </row>
+    <row r="143" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+    </row>
+    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F145" s="26"/>
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="F146" s="26"/>
+      <c r="G146" s="26"/>
+    </row>
+    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="F147" s="26"/>
+      <c r="G147" s="26"/>
+    </row>
+    <row r="148" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+    </row>
+    <row r="149" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="F149" s="24"/>
+      <c r="G149" s="26"/>
+    </row>
+    <row r="150" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+    </row>
+    <row r="155" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+    </row>
+    <row r="156" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="E156" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="G156" s="26" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="F157" s="24"/>
+      <c r="G157" s="26"/>
+    </row>
+    <row r="158" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="F158" s="24"/>
+      <c r="G158" s="26"/>
+    </row>
+    <row r="159" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+    </row>
+    <row r="160" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>799</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+    </row>
+    <row r="161" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="E161" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="24"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="24"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="24"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="24"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="24"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="24"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="32"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="31"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="31"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5171,8 +7668,13 @@
     <hyperlink ref="G125" r:id="rId6"/>
     <hyperlink ref="G127" r:id="rId7"/>
     <hyperlink ref="G126" r:id="rId8"/>
+    <hyperlink ref="G129" r:id="rId9"/>
+    <hyperlink ref="G150" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
+    <hyperlink ref="G151" r:id="rId11"/>
+    <hyperlink ref="G152" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,45 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Васина Светлана Викторовна</author>
-  </authors>
-  <commentList>
-    <comment ref="D161" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">государственный внутренний долг Российской Федерации - в трех источника информации - три разные суммы. Предлагаю убрать вопрос 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="808">
   <si>
     <t>id</t>
   </si>
@@ -2326,9 +2285,6 @@
     <t>32.149</t>
   </si>
   <si>
-    <t>32.150</t>
-  </si>
-  <si>
     <t>Уровень инфляции в 2016 году составил 5,4%</t>
   </si>
   <si>
@@ -2450,13 +2406,7 @@
     <t>32.155</t>
   </si>
   <si>
-    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными темпами. Возможное написание термина - ползучая инфляция</t>
-  </si>
-  <si>
     <t>Что, такое, ползущая, инфляция</t>
-  </si>
-  <si>
-    <t>Уровень инфляции - это скорость измерения цен за определенный период  (месяц, год), определяемая величиной их прироста в процентах за этот период; устанавливается по индексу потребительских цен и цен средств производства</t>
   </si>
   <si>
     <t>32.156</t>
@@ -2489,9 +2439,6 @@
   </si>
   <si>
     <t>Расходы на космодром "Восточный"?</t>
-  </si>
-  <si>
-    <t>Строительство космодрома велось в рамках Федеральной космической программы России на 2006–2015 годы и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на 2006–2015 годы»</t>
   </si>
   <si>
     <t>Расходы, космодром,Восточный</t>
@@ -2621,12 +2568,6 @@
     <t>Объём заимствований в 2017 году?</t>
   </si>
   <si>
-    <t>На первое августа две тысячи семнадцатого года государственный внутренний долг Российской Федерации составил восемь триллионов шестьсот два миллиарда восемьсот миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 1 августа 2017 государственный внутренний долг Российской Федерации составил 8 602,8 млрд. рублей, государственный внешний долг Российской Федерации - 51,3 млрд. долларов США</t>
-  </si>
-  <si>
     <t>Объём заимствований в 2016 году?</t>
   </si>
   <si>
@@ -2699,13 +2640,25 @@
   </si>
   <si>
     <t>Сколько, стоит, расходы, Олимпиада, Сочи, затраты</t>
+  </si>
+  <si>
+    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными тэмпами. Возможное написание термина - ползучая инфляция</t>
+  </si>
+  <si>
+    <t>Строительство космодрома велось в рамках Федеральной космической программы России на две тысячи шестой - две тысячи пятнадцатый годы и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на две тысячи шестой - две тысячи пятнадцатый годы»</t>
+  </si>
+  <si>
+    <t>На 1 августа 2017 государственный внутренний долг Российской Федерации составил 8 602,8 млрд. рублей, государственный внешний долг Российской Федерации - 51,3 млрд. долларов США</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На первое августа две тысячи семнадцатого года государственный внутренний долг Российской Федерации составил восемь триллионов шестьсот два миллиарда восемьсот миллионов рублей, внешний - пятьдесят один миллиард триста миллионов долларов </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2792,21 +2745,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -3081,7 +3019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3113,27 +3051,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3165,24 +3085,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3358,14 +3260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
@@ -3381,7 +3283,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3419,7 +3321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="236.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3345,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="236.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -3462,7 +3364,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="204.75">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3481,7 +3383,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="299.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3500,7 +3402,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3519,7 +3421,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="236.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3538,7 +3440,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94.5">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3557,7 +3459,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="267.75">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3576,7 +3478,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="378">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -3595,7 +3497,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="173.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +3516,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="94.5">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -3633,7 +3535,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="110.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3652,7 +3554,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="267.75">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -3671,7 +3573,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="94.5">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -3690,7 +3592,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="94.5">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3709,7 +3611,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="157.5">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -3728,7 +3630,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -3747,7 +3649,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="110.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -3766,7 +3668,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="141.75">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -3785,7 +3687,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="94.5">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3804,7 +3706,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="94.5">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -3823,7 +3725,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="96" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -3842,7 +3744,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="126">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3861,7 +3763,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="252">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3880,7 +3782,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="110.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3899,7 +3801,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="249" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3918,7 +3820,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="173.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3937,7 +3839,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="126">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3956,7 +3858,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="283.5">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3975,7 +3877,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="110.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3994,7 +3896,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="94.5">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -4013,7 +3915,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="267.75">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -4032,7 +3934,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="141.75">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -4051,7 +3953,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="141.75">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -4070,7 +3972,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="94.5">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -4089,7 +3991,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78.75">
       <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
@@ -4108,7 +4010,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="110.25">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -4127,7 +4029,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="220.5">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4146,7 +4048,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="94.5">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4165,7 +4067,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="126">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -4184,7 +4086,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="94.5">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -4203,7 +4105,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="110.25">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -4222,7 +4124,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="78.75">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -4241,7 +4143,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="126">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -4260,7 +4162,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="126">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
@@ -4279,7 +4181,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="189">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
@@ -4298,7 +4200,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="267.75">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
@@ -4317,7 +4219,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="126">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
@@ -4336,7 +4238,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="157.5">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
@@ -4355,7 +4257,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="126">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
@@ -4374,7 +4276,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="126">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
@@ -4393,7 +4295,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="126">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
@@ -4412,7 +4314,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="173.25">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
@@ -4431,7 +4333,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="110.25">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
@@ -4450,7 +4352,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="78.75">
       <c r="A56" s="6" t="s">
         <v>232</v>
       </c>
@@ -4469,7 +4371,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63">
       <c r="A57" s="6" t="s">
         <v>236</v>
       </c>
@@ -4488,7 +4390,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="63">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -4507,7 +4409,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="94.5">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -4526,7 +4428,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="189">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
@@ -4545,7 +4447,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="126">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
@@ -4564,7 +4466,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="110.25">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
@@ -4583,7 +4485,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="94.5">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4602,7 +4504,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="78.75">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
@@ -4621,7 +4523,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="141.75">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
@@ -4640,7 +4542,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="110.25">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
@@ -4659,7 +4561,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="90">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
@@ -4678,7 +4580,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="135">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
@@ -4697,7 +4599,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="90">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
@@ -4716,7 +4618,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="195">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
@@ -4735,7 +4637,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="150">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
@@ -4754,7 +4656,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="90">
       <c r="A72" s="6" t="s">
         <v>290</v>
       </c>
@@ -4773,7 +4675,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="105">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
@@ -4792,7 +4694,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="195">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
@@ -4811,7 +4713,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="195">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
@@ -4830,7 +4732,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="150">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
@@ -4849,7 +4751,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="105">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
@@ -4868,7 +4770,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="135">
       <c r="A78" s="6" t="s">
         <v>312</v>
       </c>
@@ -4887,7 +4789,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="120">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
@@ -4906,7 +4808,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
@@ -4925,7 +4827,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270">
       <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
@@ -5960,7 +5862,7 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1025" ht="90">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -5979,7 +5881,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1025" ht="90">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -5998,7 +5900,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1025" ht="105">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -6017,7 +5919,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1025" ht="60">
       <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
@@ -6036,7 +5938,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1025" ht="165">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -6055,7 +5957,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1025" ht="90">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -6074,7 +5976,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1025" ht="105">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -6093,7 +5995,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1025" ht="165">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -6112,7 +6014,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1025" ht="75">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -6131,7 +6033,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1025" ht="90">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -6150,7 +6052,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="240" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1025" ht="240">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -6169,7 +6071,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1025" ht="75">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -6188,7 +6090,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="270" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1025" ht="255">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -6207,7 +6109,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1025" ht="33" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>392</v>
       </c>
@@ -6226,7 +6128,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1025" ht="135">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -6245,7 +6147,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="105">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -6264,7 +6166,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="60">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -6283,7 +6185,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="135">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -6302,7 +6204,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="90">
       <c r="A100" s="6" t="s">
         <v>416</v>
       </c>
@@ -6321,7 +6223,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="285">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -6340,7 +6242,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="285">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -6359,7 +6261,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="270">
       <c r="A103" s="14" t="s">
         <v>431</v>
       </c>
@@ -6378,7 +6280,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="315">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -6397,7 +6299,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="330">
       <c r="A105" s="14" t="s">
         <v>441</v>
       </c>
@@ -6416,7 +6318,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="360">
       <c r="A106" s="14" t="s">
         <v>446</v>
       </c>
@@ -6435,7 +6337,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="330">
       <c r="A107" s="14" t="s">
         <v>451</v>
       </c>
@@ -6454,7 +6356,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="360">
       <c r="A108" s="14" t="s">
         <v>456</v>
       </c>
@@ -6473,7 +6375,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="210">
       <c r="A109" s="15" t="s">
         <v>461</v>
       </c>
@@ -6492,7 +6394,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="195">
       <c r="A110" s="15" t="s">
         <v>466</v>
       </c>
@@ -6511,7 +6413,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="225">
       <c r="A111" s="15" t="s">
         <v>471</v>
       </c>
@@ -6534,7 +6436,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="120">
       <c r="A112" s="15" t="s">
         <v>478</v>
       </c>
@@ -6551,7 +6453,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="180">
       <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
@@ -6568,7 +6470,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="195">
       <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
@@ -6585,7 +6487,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="120">
       <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
@@ -6606,7 +6508,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="180">
       <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
@@ -6627,7 +6529,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="270">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -6648,7 +6550,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="165">
       <c r="A118" s="16" t="s">
         <v>506</v>
       </c>
@@ -6662,19 +6564,19 @@
         <v>511</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="195">
       <c r="A119" s="16" t="s">
         <v>507</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>513</v>
@@ -6698,7 +6600,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="150">
       <c r="A120" s="16" t="s">
         <v>509</v>
       </c>
@@ -6712,7 +6614,7 @@
         <v>527</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>525</v>
@@ -6727,7 +6629,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="345">
       <c r="A121" s="16" t="s">
         <v>589</v>
       </c>
@@ -6744,7 +6646,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="150">
       <c r="A122" s="16" t="s">
         <v>617</v>
       </c>
@@ -6767,7 +6669,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="240">
       <c r="A123" s="16" t="s">
         <v>618</v>
       </c>
@@ -6790,7 +6692,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="105">
       <c r="A124" s="16" t="s">
         <v>619</v>
       </c>
@@ -6813,7 +6715,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="240">
       <c r="A125" s="16" t="s">
         <v>620</v>
       </c>
@@ -6836,7 +6738,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="135">
       <c r="A126" s="16" t="s">
         <v>621</v>
       </c>
@@ -6859,7 +6761,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="165">
       <c r="A127" s="16" t="s">
         <v>622</v>
       </c>
@@ -6882,7 +6784,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="120">
       <c r="A128" s="1" t="s">
         <v>627</v>
       </c>
@@ -6901,7 +6803,7 @@
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="1" t="s">
         <v>628</v>
       </c>
@@ -6924,7 +6826,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="90">
       <c r="A130" s="1" t="s">
         <v>629</v>
       </c>
@@ -6943,7 +6845,7 @@
       <c r="F130" s="24"/>
       <c r="G130" s="25"/>
     </row>
-    <row r="131" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="90">
       <c r="A131" s="1" t="s">
         <v>630</v>
       </c>
@@ -6962,7 +6864,7 @@
       <c r="F131" s="24"/>
       <c r="G131" s="25"/>
     </row>
-    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="90">
       <c r="A132" s="1" t="s">
         <v>631</v>
       </c>
@@ -6981,7 +6883,7 @@
       <c r="F132" s="24"/>
       <c r="G132" s="25"/>
     </row>
-    <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="90">
       <c r="A133" s="1" t="s">
         <v>632</v>
       </c>
@@ -7000,7 +6902,7 @@
       <c r="F133" s="24"/>
       <c r="G133" s="25"/>
     </row>
-    <row r="134" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="60">
       <c r="A134" s="1" t="s">
         <v>639</v>
       </c>
@@ -7019,7 +6921,7 @@
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="364.5" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>640</v>
       </c>
@@ -7048,7 +6950,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="135">
       <c r="A136" s="1" t="s">
         <v>641</v>
       </c>
@@ -7062,12 +6964,12 @@
         <v>680</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="165">
       <c r="A137" s="1" t="s">
         <v>642</v>
       </c>
@@ -7081,12 +6983,12 @@
         <v>682</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="214.5" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>643</v>
       </c>
@@ -7100,118 +7002,118 @@
         <v>688</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="195">
       <c r="A139" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B139" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C139" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="D139" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="D139" s="26" t="s">
-        <v>705</v>
-      </c>
       <c r="E139" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="120">
       <c r="A140" s="1" t="s">
         <v>690</v>
       </c>
       <c r="B140" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="C140" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="D140" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="E140" s="26" t="s">
         <v>725</v>
-      </c>
-      <c r="D140" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>726</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="90">
       <c r="A141" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>732</v>
+        <v>804</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="75">
       <c r="A142" s="1" t="s">
         <v>692</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="60">
       <c r="A143" s="1" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>734</v>
+        <v>695</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="60">
       <c r="A144" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C144" s="26" t="s">
         <v>696</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="E144" s="26" t="s">
         <v>711</v>
@@ -7219,12 +7121,12 @@
       <c r="F144" s="26"/>
       <c r="G144" s="26"/>
     </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="60">
       <c r="A145" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="C145" s="26" t="s">
         <v>697</v>
@@ -7238,18 +7140,18 @@
       <c r="F145" s="26"/>
       <c r="G145" s="26"/>
     </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="165">
       <c r="A146" s="1" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>649</v>
+        <v>705</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="E146" s="26" t="s">
         <v>713</v>
@@ -7257,18 +7159,18 @@
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
     </row>
-    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="210">
       <c r="A147" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E147" s="26" t="s">
         <v>714</v>
@@ -7276,119 +7178,119 @@
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
     </row>
-    <row r="148" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="165">
       <c r="A148" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="D148" s="26" t="s">
         <v>722</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="F148" s="26"/>
+        <v>719</v>
+      </c>
+      <c r="F148" s="24"/>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>735</v>
+    <row r="149" spans="1:7" ht="207" customHeight="1">
+      <c r="A149" s="26" t="s">
+        <v>733</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="F149" s="24"/>
-      <c r="G149" s="26"/>
-    </row>
-    <row r="150" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="255">
       <c r="A150" s="26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E150" s="26" t="s">
         <v>746</v>
       </c>
       <c r="F150" s="26" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G150" s="26" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="240">
       <c r="A151" s="26" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C151" s="26" t="s">
         <v>752</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>750</v>
+        <v>803</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="G151" s="26" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="90">
       <c r="A152" s="26" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="F152" s="26" t="s">
-        <v>759</v>
-      </c>
-      <c r="G152" s="26" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
+    </row>
+    <row r="153" spans="1:7" ht="90">
       <c r="A153" s="26" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>764</v>
@@ -7397,97 +7299,97 @@
         <v>763</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F153" s="26"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="105">
       <c r="A154" s="26" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D154" s="26" t="s">
         <v>767</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F154" s="26"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="255">
       <c r="A155" s="26" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B155" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="E155" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="D155" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>774</v>
-      </c>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-    </row>
-    <row r="156" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="F155" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="G155" s="26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="150">
       <c r="A156" s="26" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="F156" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="F156" s="24"/>
+      <c r="G156" s="26"/>
+    </row>
+    <row r="157" spans="1:7" ht="90">
+      <c r="A157" s="26" t="s">
         <v>780</v>
       </c>
-      <c r="G156" s="26" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A157" s="26" t="s">
+      <c r="B157" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="C157" s="26" t="s">
         <v>783</v>
       </c>
-      <c r="B157" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>786</v>
-      </c>
       <c r="D157" s="26" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F157" s="24"/>
       <c r="G157" s="26"/>
     </row>
-    <row r="158" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="90">
       <c r="A158" s="26" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C158" s="26" t="s">
         <v>789</v>
@@ -7496,69 +7398,58 @@
         <v>790</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F158" s="24"/>
-      <c r="G158" s="26"/>
-    </row>
-    <row r="159" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G158" s="24"/>
+    </row>
+    <row r="159" spans="1:7" ht="90">
       <c r="A159" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>791</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="90">
       <c r="A160" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
     </row>
-    <row r="161" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
-        <v>794</v>
-      </c>
-      <c r="B161" s="26" t="s">
-        <v>800</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="D161" s="26" t="s">
-        <v>802</v>
-      </c>
-      <c r="E161" s="26" t="s">
-        <v>807</v>
-      </c>
+    <row r="161" spans="2:7">
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7">
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
@@ -7566,7 +7457,7 @@
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7">
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
@@ -7574,7 +7465,7 @@
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7582,7 +7473,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7590,7 +7481,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7598,7 +7489,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7606,7 +7497,7 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7">
       <c r="B168" s="26"/>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
@@ -7614,7 +7505,7 @@
       <c r="F168" s="24"/>
       <c r="G168" s="24"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7">
       <c r="B169" s="26"/>
       <c r="C169" s="26"/>
       <c r="D169" s="26"/>
@@ -7622,7 +7513,7 @@
       <c r="F169" s="24"/>
       <c r="G169" s="24"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7">
       <c r="B170" s="26"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -7630,7 +7521,7 @@
       <c r="F170" s="24"/>
       <c r="G170" s="24"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7">
       <c r="B171" s="26"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
@@ -7638,25 +7529,17 @@
       <c r="F171" s="24"/>
       <c r="G171" s="24"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="24"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="32"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5">
+      <c r="E179" s="32"/>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="31"/>
+    </row>
+    <row r="181" spans="5:5">
       <c r="E181" s="31"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5">
       <c r="E182" s="31"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7669,12 +7552,11 @@
     <hyperlink ref="G127" r:id="rId7"/>
     <hyperlink ref="G126" r:id="rId8"/>
     <hyperlink ref="G129" r:id="rId9"/>
-    <hyperlink ref="G150" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
-    <hyperlink ref="G151" r:id="rId11"/>
-    <hyperlink ref="G152" r:id="rId12"/>
+    <hyperlink ref="G149" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
+    <hyperlink ref="G150" r:id="rId11"/>
+    <hyperlink ref="G151" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId13"/>
-  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="788">
   <si>
     <t>id</t>
   </si>
@@ -2051,18 +2055,6 @@
     <t>32.134</t>
   </si>
   <si>
-    <t>32.135</t>
-  </si>
-  <si>
-    <t>32.136</t>
-  </si>
-  <si>
-    <t>32.137</t>
-  </si>
-  <si>
-    <t>32.138</t>
-  </si>
-  <si>
     <t>Что такое евробонды?</t>
   </si>
   <si>
@@ -2135,54 +2127,6 @@
   </si>
   <si>
     <t>кто, выпускает, евробонды, еврооблигации</t>
-  </si>
-  <si>
-    <t>Еврооблигационные займы России в 2016 году?</t>
-  </si>
-  <si>
-    <t>Евробонд, Еврооблигационный, займ, 2016, год</t>
-  </si>
-  <si>
-    <t>Еврооблигационные займы России в 2017 году?</t>
-  </si>
-  <si>
-    <t>Евробонд, Еврооблигационный, займ, 2017, год</t>
-  </si>
-  <si>
-    <t>Еврооблигационные займы России в 2015 году?</t>
-  </si>
-  <si>
-    <t>Евробонд, Еврооблигационный, займ, 2015, год</t>
-  </si>
-  <si>
-    <t>Еврооблигационные займы России в 2014 году?</t>
-  </si>
-  <si>
-    <t>Евробонд, Еврооблигационный, займ, 2014, год</t>
-  </si>
-  <si>
-    <t>В две тысячи шестнадцатом году еврооблигационные займы Российской Федерации составили тридцать семь миллиардов шестьсот миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2016 году еврооблигационные займы Российской Федерации составили 37,6 млрд.руб.</t>
-  </si>
-  <si>
-    <t>В две тысячи семнадцатом году еврооблигационные займы Российской Федерации составили тридцать восемь миллиардов сто миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 01.08.2017 году еврооблигационные займы Российской Федерации составили 38,1 млрд.руб.</t>
-  </si>
-  <si>
-    <t>В две тысячи пятнадцатом году еврооблигационные займы Российской Федерации составили тридцать пять миллиардов девятьсот миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2015 году еврооблигационные займы Российской Федерации составили 35,9 млрд.руб.</t>
-  </si>
-  <si>
-    <t>В две тысячи четырнадцатом году еврооблигационные займы Российской Федерации составили тридцать девять миллиардов триста миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2014 году еврооблигационные займы Российской Федерации составили 39,3 млрд.руб.</t>
   </si>
   <si>
     <t>Сколько, лет, Минфину, возраст, Министерства, финансов</t>
@@ -2657,8 +2601,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3019,7 +2963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3051,9 +2995,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3085,6 +3047,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3260,14 +3240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
@@ -3283,7 +3263,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="236.25">
+    <row r="2" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3345,7 +3325,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="236.25">
+    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -3364,7 +3344,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="204.75">
+    <row r="4" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3383,7 +3363,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="299.25">
+    <row r="5" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3402,7 +3382,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3421,7 +3401,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="236.25">
+    <row r="7" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3440,7 +3420,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3459,7 +3439,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="267.75">
+    <row r="9" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3478,7 +3458,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="378">
+    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -3497,7 +3477,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25">
+    <row r="11" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -3516,7 +3496,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="94.5">
+    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -3535,7 +3515,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="110.25">
+    <row r="13" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3554,7 +3534,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="267.75">
+    <row r="14" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -3573,7 +3553,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5">
+    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -3592,7 +3572,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="94.5">
+    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3611,7 +3591,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="157.5">
+    <row r="17" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -3630,7 +3610,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5">
+    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -3649,7 +3629,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="110.25">
+    <row r="19" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -3668,7 +3648,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="141.75">
+    <row r="20" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -3687,7 +3667,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="94.5">
+    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3706,7 +3686,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="94.5">
+    <row r="22" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -3725,7 +3705,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1">
+    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -3744,7 +3724,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="126">
+    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3763,7 +3743,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252">
+    <row r="25" spans="1:7" ht="252" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3782,7 +3762,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="110.25">
+    <row r="26" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3801,7 +3781,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1">
+    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3820,7 +3800,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="173.25">
+    <row r="28" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3839,7 +3819,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="126">
+    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3858,7 +3838,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="283.5">
+    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3877,7 +3857,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="110.25">
+    <row r="31" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3896,7 +3876,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="94.5">
+    <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -3915,7 +3895,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="267.75">
+    <row r="33" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -3934,7 +3914,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="141.75">
+    <row r="34" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -3953,7 +3933,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="141.75">
+    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -3972,7 +3952,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="94.5">
+    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -3991,7 +3971,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75">
+    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
@@ -4010,7 +3990,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="110.25">
+    <row r="38" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -4029,7 +4009,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="220.5">
+    <row r="39" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4048,7 +4028,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="94.5">
+    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4067,7 +4047,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="126">
+    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -4086,7 +4066,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="94.5">
+    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -4105,7 +4085,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="110.25">
+    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -4124,7 +4104,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="78.75">
+    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -4143,7 +4123,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="126">
+    <row r="45" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -4162,7 +4142,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="126">
+    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
@@ -4181,7 +4161,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="189">
+    <row r="47" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
@@ -4200,7 +4180,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="267.75">
+    <row r="48" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
@@ -4219,7 +4199,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="126">
+    <row r="49" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
@@ -4238,7 +4218,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="157.5">
+    <row r="50" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
@@ -4257,7 +4237,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="126">
+    <row r="51" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
@@ -4276,7 +4256,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="126">
+    <row r="52" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
@@ -4295,7 +4275,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="126">
+    <row r="53" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
@@ -4314,7 +4294,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="173.25">
+    <row r="54" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
@@ -4333,7 +4313,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="110.25">
+    <row r="55" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
@@ -4352,7 +4332,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="78.75">
+    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>232</v>
       </c>
@@ -4371,7 +4351,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="63">
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>236</v>
       </c>
@@ -4390,7 +4370,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="63">
+    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -4409,7 +4389,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="94.5">
+    <row r="59" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -4428,7 +4408,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="189">
+    <row r="60" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
@@ -4447,7 +4427,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="126">
+    <row r="61" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
@@ -4466,7 +4446,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="110.25">
+    <row r="62" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
@@ -4485,7 +4465,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="94.5">
+    <row r="63" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4504,7 +4484,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="78.75">
+    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
@@ -4523,7 +4503,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="141.75">
+    <row r="65" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
@@ -4542,7 +4522,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="110.25">
+    <row r="66" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
@@ -4561,7 +4541,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="90">
+    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
@@ -4580,7 +4560,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="135">
+    <row r="68" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
@@ -4599,7 +4579,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="90">
+    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
@@ -4618,7 +4598,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195">
+    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
@@ -4637,7 +4617,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150">
+    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
@@ -4656,7 +4636,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="90">
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>290</v>
       </c>
@@ -4675,7 +4655,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105">
+    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
@@ -4694,7 +4674,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="195">
+    <row r="74" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
@@ -4713,7 +4693,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="195">
+    <row r="75" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
@@ -4732,7 +4712,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="150">
+    <row r="76" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
@@ -4751,7 +4731,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="105">
+    <row r="77" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
@@ -4770,7 +4750,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135">
+    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>312</v>
       </c>
@@ -4789,7 +4769,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="120">
+    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
@@ -4808,7 +4788,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90">
+    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
@@ -4827,7 +4807,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
@@ -5862,7 +5842,7 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="90">
+    <row r="82" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -5881,7 +5861,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="90">
+    <row r="83" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -5900,7 +5880,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="105">
+    <row r="84" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -5919,7 +5899,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1025" ht="60">
+    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
@@ -5938,7 +5918,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="165">
+    <row r="86" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -5957,7 +5937,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="90">
+    <row r="87" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -5976,7 +5956,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="105">
+    <row r="88" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -5995,7 +5975,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="165">
+    <row r="89" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -6014,7 +5994,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="75">
+    <row r="90" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -6033,7 +6013,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="90">
+    <row r="91" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -6052,7 +6032,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="240">
+    <row r="92" spans="1:1025" ht="240" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -6071,7 +6051,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="75">
+    <row r="93" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -6090,7 +6070,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="255">
+    <row r="94" spans="1:1025" ht="270" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -6109,7 +6089,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:1025" ht="33" customHeight="1">
+    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>392</v>
       </c>
@@ -6128,7 +6108,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="135">
+    <row r="96" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -6147,7 +6127,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="105">
+    <row r="97" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -6166,7 +6146,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="60">
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -6185,7 +6165,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="135">
+    <row r="99" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -6204,7 +6184,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="90">
+    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>416</v>
       </c>
@@ -6223,7 +6203,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="285">
+    <row r="101" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -6242,7 +6222,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="285">
+    <row r="102" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -6261,7 +6241,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="270">
+    <row r="103" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>431</v>
       </c>
@@ -6280,7 +6260,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="315">
+    <row r="104" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -6299,7 +6279,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="330">
+    <row r="105" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>441</v>
       </c>
@@ -6318,7 +6298,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="360">
+    <row r="106" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>446</v>
       </c>
@@ -6337,7 +6317,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="330">
+    <row r="107" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>451</v>
       </c>
@@ -6356,7 +6336,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="360">
+    <row r="108" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>456</v>
       </c>
@@ -6375,7 +6355,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="210">
+    <row r="109" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>461</v>
       </c>
@@ -6394,7 +6374,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="195">
+    <row r="110" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>466</v>
       </c>
@@ -6413,7 +6393,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="225">
+    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>471</v>
       </c>
@@ -6436,7 +6416,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>478</v>
       </c>
@@ -6453,7 +6433,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="180">
+    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
@@ -6470,7 +6450,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="195">
+    <row r="114" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
@@ -6487,7 +6467,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120">
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
@@ -6508,7 +6488,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="180">
+    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
@@ -6529,7 +6509,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="270">
+    <row r="117" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -6550,7 +6530,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="165">
+    <row r="118" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>506</v>
       </c>
@@ -6564,19 +6544,19 @@
         <v>511</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="195">
+    <row r="119" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>507</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>513</v>
@@ -6600,7 +6580,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="150">
+    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>509</v>
       </c>
@@ -6614,7 +6594,7 @@
         <v>527</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>525</v>
@@ -6629,7 +6609,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="345">
+    <row r="121" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>589</v>
       </c>
@@ -6646,7 +6626,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150">
+    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>617</v>
       </c>
@@ -6669,7 +6649,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="240">
+    <row r="123" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>618</v>
       </c>
@@ -6692,7 +6672,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="105">
+    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>619</v>
       </c>
@@ -6715,7 +6695,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="240">
+    <row r="125" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>620</v>
       </c>
@@ -6738,7 +6718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="135">
+    <row r="126" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>621</v>
       </c>
@@ -6761,7 +6741,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="165">
+    <row r="127" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>622</v>
       </c>
@@ -6784,664 +6764,620 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120">
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="60">
+    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>628</v>
       </c>
       <c r="B129" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B130" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>635</v>
-      </c>
-      <c r="D129" s="26" t="s">
+      <c r="C130" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="D130" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="F130" s="26"/>
+      <c r="G130" s="26"/>
+    </row>
+    <row r="131" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="C131" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="D131" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G129" s="25" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="90">
-      <c r="A130" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="25"/>
-    </row>
-    <row r="131" spans="1:9" ht="90">
-      <c r="A131" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="E131" s="26" t="s">
+      <c r="B132" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="25"/>
-    </row>
-    <row r="132" spans="1:9" ht="90">
-      <c r="A132" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>670</v>
-      </c>
       <c r="E132" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="F132" s="26"/>
+      <c r="G132" s="26"/>
+    </row>
+    <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="D133" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="25"/>
-    </row>
-    <row r="133" spans="1:9" ht="90">
-      <c r="A133" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="C133" s="26" t="s">
-        <v>671</v>
-      </c>
-      <c r="D133" s="26" t="s">
-        <v>672</v>
-      </c>
       <c r="E133" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="F133" s="24"/>
-      <c r="G133" s="25"/>
-    </row>
-    <row r="134" spans="1:9" ht="60">
+        <v>680</v>
+      </c>
+      <c r="F133" s="26"/>
+      <c r="G133" s="26"/>
+    </row>
+    <row r="134" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>639</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="364.5" customHeight="1">
+    <row r="135" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="F135" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I135" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="135">
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+    </row>
+    <row r="136" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="165">
+    <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>648</v>
+        <v>708</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>683</v>
+        <v>784</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="214.5" customHeight="1">
+    <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>687</v>
+        <v>737</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>689</v>
+        <v>736</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="195">
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>704</v>
+        <v>665</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="120">
+    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>723</v>
+        <v>666</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>724</v>
+        <v>676</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>726</v>
+        <v>673</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="90">
+    <row r="141" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>728</v>
+        <v>645</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>804</v>
+        <v>677</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>727</v>
+        <v>674</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>731</v>
+        <v>692</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="75">
+    <row r="142" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>757</v>
+        <v>685</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>756</v>
+        <v>686</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>756</v>
+        <v>687</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>758</v>
+        <v>693</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="60">
+    <row r="143" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="60">
+    <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="F144" s="24"/>
+      <c r="G144" s="26"/>
+    </row>
+    <row r="145" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>729</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
         <v>716</v>
       </c>
-      <c r="B144" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>711</v>
-      </c>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-    </row>
-    <row r="145" spans="1:7" ht="60">
-      <c r="A145" s="1" t="s">
+      <c r="B148" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="F148" s="26"/>
+      <c r="G148" s="26"/>
+    </row>
+    <row r="149" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="B145" s="26" t="s">
-        <v>649</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="F145" s="26"/>
-      <c r="G145" s="26"/>
-    </row>
-    <row r="146" spans="1:7" ht="165">
-      <c r="A146" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>713</v>
-      </c>
-      <c r="F146" s="26"/>
-      <c r="G146" s="26"/>
-    </row>
-    <row r="147" spans="1:7" ht="210">
-      <c r="A147" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>709</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="F147" s="26"/>
-      <c r="G147" s="26"/>
-    </row>
-    <row r="148" spans="1:7" ht="165">
-      <c r="A148" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B148" s="26" t="s">
+      <c r="B149" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
+    </row>
+    <row r="150" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="C148" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="26"/>
-    </row>
-    <row r="149" spans="1:7" ht="207" customHeight="1">
-      <c r="A149" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="B149" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>742</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="G149" s="26" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="255">
-      <c r="A150" s="26" t="s">
-        <v>734</v>
-      </c>
       <c r="B150" s="26" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D150" s="26" t="s">
         <v>747</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="F150" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="G150" s="26" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="240">
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
+    </row>
+    <row r="151" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B151" s="26" t="s">
         <v>751</v>
       </c>
       <c r="C151" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="D151" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="E151" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="E151" s="26" t="s">
-        <v>803</v>
-      </c>
       <c r="F151" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="G151" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="G151" s="26" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="90">
+    </row>
+    <row r="152" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="B152" s="26" t="s">
         <v>761</v>
       </c>
       <c r="C152" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="F152" s="24"/>
+      <c r="G152" s="26"/>
+    </row>
+    <row r="153" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="D152" s="26" t="s">
-        <v>759</v>
-      </c>
-      <c r="E152" s="26" t="s">
+      <c r="B153" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-    </row>
-    <row r="153" spans="1:7" ht="90">
-      <c r="A153" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>768</v>
-      </c>
       <c r="C153" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="D153" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="D153" s="26" t="s">
-        <v>763</v>
-      </c>
       <c r="E153" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="F153" s="24"/>
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="B154" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-    </row>
-    <row r="154" spans="1:7" ht="105">
-      <c r="A154" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="B154" s="26" t="s">
+      <c r="C154" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>766</v>
-      </c>
       <c r="D154" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+    </row>
+    <row r="155" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
         <v>767</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-    </row>
-    <row r="155" spans="1:7" ht="255">
-      <c r="A155" s="26" t="s">
-        <v>739</v>
       </c>
       <c r="B155" s="26" t="s">
         <v>771</v>
       </c>
       <c r="C155" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+    </row>
+    <row r="156" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="B156" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="D155" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="F155" s="26" t="s">
+      <c r="C156" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="D156" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="G155" s="26" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="150">
-      <c r="A156" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="B156" s="26" t="s">
+      <c r="E156" s="26" t="s">
         <v>781</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="D156" s="26" t="s">
-        <v>806</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>797</v>
-      </c>
       <c r="F156" s="24"/>
-      <c r="G156" s="26"/>
-    </row>
-    <row r="157" spans="1:7" ht="90">
-      <c r="A157" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="B157" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>783</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>798</v>
-      </c>
+      <c r="G156" s="24"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
       <c r="F157" s="24"/>
-      <c r="G157" s="26"/>
-    </row>
-    <row r="158" spans="1:7" ht="90">
-      <c r="A158" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="B158" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>789</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>790</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>799</v>
-      </c>
+      <c r="G157" s="24"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
-    <row r="159" spans="1:7" ht="90">
-      <c r="A159" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="B159" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>800</v>
-      </c>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7" ht="90">
-      <c r="A160" s="26" t="s">
-        <v>788</v>
-      </c>
-      <c r="B160" s="26" t="s">
-        <v>794</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>795</v>
-      </c>
-      <c r="D160" s="26" t="s">
-        <v>796</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>801</v>
-      </c>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
@@ -7449,7 +7385,7 @@
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
@@ -7457,7 +7393,7 @@
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
@@ -7465,7 +7401,7 @@
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7473,7 +7409,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7481,7 +7417,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7489,7 +7425,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7497,49 +7433,17 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="24"/>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="24"/>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="24"/>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" s="32"/>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" s="31"/>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="31"/>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="31"/>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E175" s="32"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E176" s="31"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="31"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="31"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7552,9 +7456,9 @@
     <hyperlink ref="G127" r:id="rId7"/>
     <hyperlink ref="G126" r:id="rId8"/>
     <hyperlink ref="G129" r:id="rId9"/>
-    <hyperlink ref="G149" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
-    <hyperlink ref="G150" r:id="rId11"/>
-    <hyperlink ref="G151" r:id="rId12"/>
+    <hyperlink ref="G145" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
+    <hyperlink ref="G146" r:id="rId11"/>
+    <hyperlink ref="G147" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId13"/>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2518,91 +2513,91 @@
     <t>В две тысячи шестнадцатом году государственный долг Российской Федерации составил одиннадцать триллионов сто девять миллиардов восемьсот миллионов рублей</t>
   </si>
   <si>
-    <t>В 2016 государственный долг Российской Федерации составил 11 109,8 млрд. рублей, из них: 
+    <t>Объём заимствований в 2015 году?</t>
+  </si>
+  <si>
+    <t>32.166</t>
+  </si>
+  <si>
+    <t>32.167</t>
+  </si>
+  <si>
+    <t>32.168</t>
+  </si>
+  <si>
+    <t>В две тысячи пятнадцатом году государственный долг Российской Федерации составил десять триллионов девятьсот пятьдесят один миллиард девятьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2014 году?</t>
+  </si>
+  <si>
+    <t>В две тысячи четырнадцатом году государственный долг Российской Федерации составил десять триллионов двести девяносто девять миллиардов сто миллионов рублей</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2013 году?</t>
+  </si>
+  <si>
+    <t>В две тысячи тринадцатом году государственный долг Российской Федерации составил семь триллионов пятьсот сорок восемь миллиардов триста миллионов рублей</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2017, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2016, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2015, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2014, год</t>
+  </si>
+  <si>
+    <t>Объём, заимствований, 2013, год</t>
+  </si>
+  <si>
+    <t>Расходы, чемпионат, мира, по футболу, чм</t>
+  </si>
+  <si>
+    <t>Сколько, стоит, расходы, Олимпиада, Сочи, затраты</t>
+  </si>
+  <si>
+    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными тэмпами. Возможное написание термина - ползучая инфляция</t>
+  </si>
+  <si>
+    <t>Строительство космодрома велось в рамках Федеральной космической программы России на две тысячи шестой - две тысячи пятнадцатый годы и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на две тысячи шестой - две тысячи пятнадцатый годы»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На первое августа две тысячи семнадцатого года государственный внутренний долг Российской Федерации составил восемь триллионов шестьсот два миллиарда восемьсот миллионов рублей, внешний - пятьдесят один миллиард триста миллионов долларов </t>
+  </si>
+  <si>
+    <t>На 1 августа 2017 года государственный внутренний долг Российской Федерации составил 8 602,8 млрд. рублей, государственный внешний долг Российской Федерации - 51,3 млрд. долларов США</t>
+  </si>
+  <si>
+    <t>В 2016 году государственный долг Российской Федерации составил 11 109,8 млрд. рублей, из них: 
 8 003,5 млрд. рублей - государственный внутренний долг Российской Федерации, 
 3 106,3 млрд. рублей - государственный внешний долг Российской Федерации</t>
   </si>
   <si>
-    <t>Объём заимствований в 2015 году?</t>
-  </si>
-  <si>
-    <t>32.166</t>
-  </si>
-  <si>
-    <t>32.167</t>
-  </si>
-  <si>
-    <t>32.168</t>
-  </si>
-  <si>
-    <t>В две тысячи пятнадцатом году государственный долг Российской Федерации составил десять триллионов девятьсот пятьдесят один миллиард девятьсот миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2015 государственный долг Российской Федерации составил 10 951,9 млрд. рублей, из них: 
+    <t>В 2015 году государственный долг Российской Федерации составил 10 951,9 млрд. рублей, из них: 
 7 307,6 млрд. рублей - государственный внутренний долг Российской Федерации, 
 3 644,3 млрд. рублей - государственный внешний долг Российской Федерации</t>
   </si>
   <si>
-    <t>Объём заимствований в 2014 году?</t>
-  </si>
-  <si>
-    <t>В две тысячи четырнадцатом году государственный долг Российской Федерации составил десять триллионов двести девяносто девять миллиардов сто миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2014 государственный долг Российской Федерации составил 10 299,1 млрд. рублей, из них: 
+    <t>В 2014 году государственный долг Российской Федерации составил 10 299,1 млрд. рублей, из них: 
 7 241,2 млрд. рублей - государственный внутренний долг Российской Федерации, 
 3 057,9 млрд. рублей - государственный внешний долг Российской Федерации</t>
   </si>
   <si>
-    <t>Объём заимствований в 2013 году?</t>
-  </si>
-  <si>
-    <t>В две тысячи тринадцатом году государственный долг Российской Федерации составил семь триллионов пятьсот сорок восемь миллиардов триста миллионов рублей</t>
-  </si>
-  <si>
-    <t>В 2013 государственный долг Российской Федерации составил 7 548,3 млрд. рублей, из них: 
+    <t>В 2013 году государственный долг Российской Федерации составил 7 548,3 млрд. рублей, из них: 
 5 722,2 млрд. рублей - государственный внутренний долг Российской Федерации, 
 1826,1 млрд. рублей - государственный внешний долг Российской Федерации</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2017, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2016, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2015, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2014, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2013, год</t>
-  </si>
-  <si>
-    <t>Расходы, чемпионат, мира, по футболу, чм</t>
-  </si>
-  <si>
-    <t>Сколько, стоит, расходы, Олимпиада, Сочи, затраты</t>
-  </si>
-  <si>
-    <t>Ползущая инфляция - инфляция, развивающаяся относительно медленными тэмпами. Возможное написание термина - ползучая инфляция</t>
-  </si>
-  <si>
-    <t>Строительство космодрома велось в рамках Федеральной космической программы России на две тысячи шестой - две тысячи пятнадцатый годы и подпрограммы «Создание обеспечивающей инфраструктуры космодрома Восточный» федеральной целевой программы «Развитие российских космодромов на две тысячи шестой - две тысячи пятнадцатый годы»</t>
-  </si>
-  <si>
-    <t>На 1 августа 2017 государственный внутренний долг Российской Федерации составил 8 602,8 млрд. рублей, государственный внешний долг Российской Федерации - 51,3 млрд. долларов США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На первое августа две тысячи семнадцатого года государственный внутренний долг Российской Федерации составил восемь триллионов шестьсот два миллиарда восемьсот миллионов рублей, внешний - пятьдесят один миллиард триста миллионов долларов </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2963,7 +2958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2995,27 +2990,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3047,24 +3024,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3240,14 +3199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:XFD133"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
@@ -3263,7 +3222,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="236.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +3284,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="252">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -3344,7 +3303,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="220.5">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3363,7 +3322,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="299.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3382,7 +3341,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3401,7 +3360,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="236.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3420,7 +3379,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94.5">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -3439,7 +3398,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="267.75">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3458,7 +3417,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="409.5">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -3477,7 +3436,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="173.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -3496,7 +3455,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="94.5">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
@@ -3515,7 +3474,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="110.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3534,7 +3493,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="283.5">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -3553,7 +3512,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="94.5">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -3572,7 +3531,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="94.5">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3591,7 +3550,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="157.5">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -3610,7 +3569,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="157.5">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -3629,7 +3588,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="110.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -3648,7 +3607,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="141.75">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -3667,7 +3626,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="110.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3686,7 +3645,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="94.5">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -3705,7 +3664,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="96" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
@@ -3724,7 +3683,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="126">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3743,7 +3702,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="252">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3762,7 +3721,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="110.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3781,7 +3740,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="249" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3800,7 +3759,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="173.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3819,7 +3778,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="126">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3838,7 +3797,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="299.25">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3857,7 +3816,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="110.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3876,7 +3835,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="94.5">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -3895,7 +3854,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="267.75">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -3914,7 +3873,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="141.75">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -3933,7 +3892,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="141.75">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -3952,7 +3911,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="94.5">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -3971,7 +3930,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78.75">
       <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
@@ -3990,7 +3949,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="110.25">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -4009,7 +3968,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="220.5">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4028,7 +3987,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="94.5">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4047,7 +4006,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="126">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -4066,7 +4025,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="94.5">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -4085,7 +4044,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="126">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -4104,7 +4063,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="78.75">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -4123,7 +4082,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="141.75">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -4142,7 +4101,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="141.75">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
@@ -4161,7 +4120,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="189">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
@@ -4180,7 +4139,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="267.75">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
@@ -4199,7 +4158,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="126">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
@@ -4218,7 +4177,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="157.5">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
@@ -4237,7 +4196,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="126">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
@@ -4256,7 +4215,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="126">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
@@ -4275,7 +4234,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="141.75">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
@@ -4294,7 +4253,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="173.25">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
@@ -4313,7 +4272,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="110.25">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
@@ -4332,7 +4291,7 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="78.75">
       <c r="A56" s="6" t="s">
         <v>232</v>
       </c>
@@ -4351,7 +4310,7 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63">
       <c r="A57" s="6" t="s">
         <v>236</v>
       </c>
@@ -4370,7 +4329,7 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="63">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -4389,7 +4348,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="94.5">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -4408,7 +4367,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="189">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
@@ -4427,7 +4386,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="126">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
@@ -4446,7 +4405,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="110.25">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
@@ -4465,7 +4424,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="94.5">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4484,7 +4443,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="94.5">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
@@ -4503,7 +4462,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="141.75">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
@@ -4522,7 +4481,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="110.25">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
@@ -4541,7 +4500,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="90">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
@@ -4560,7 +4519,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="135">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
@@ -4579,7 +4538,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="90">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
@@ -4598,7 +4557,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="195">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
@@ -4617,7 +4576,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="150">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
@@ -4636,7 +4595,7 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="90">
       <c r="A72" s="6" t="s">
         <v>290</v>
       </c>
@@ -4655,7 +4614,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="105">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
@@ -4674,7 +4633,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="195">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
@@ -4693,7 +4652,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="195">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
@@ -4712,7 +4671,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="150">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
@@ -4731,7 +4690,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="105">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
@@ -4750,7 +4709,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="135">
       <c r="A78" s="6" t="s">
         <v>312</v>
       </c>
@@ -4769,7 +4728,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="120">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
@@ -4788,7 +4747,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
@@ -4807,7 +4766,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270">
       <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
@@ -5842,7 +5801,7 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1025" ht="90">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -5861,7 +5820,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1025" ht="90">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -5880,7 +5839,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1025" ht="105">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -5899,7 +5858,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1025" ht="60">
       <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
@@ -5918,7 +5877,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1025" ht="165">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -5937,7 +5896,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1025" ht="90">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -5956,7 +5915,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1025" ht="105">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -5975,7 +5934,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="165" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1025" ht="165">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -5994,7 +5953,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1025" ht="75">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -6013,7 +5972,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1025" ht="90">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -6032,7 +5991,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="240" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1025" ht="240">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -6051,7 +6010,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1025" ht="75">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -6070,7 +6029,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="270" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1025" ht="255">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -6089,7 +6048,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1025" ht="33" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>392</v>
       </c>
@@ -6108,7 +6067,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1025" ht="135">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -6127,7 +6086,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="105">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -6146,7 +6105,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="60">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -6165,7 +6124,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="135">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -6184,7 +6143,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="90">
       <c r="A100" s="6" t="s">
         <v>416</v>
       </c>
@@ -6203,7 +6162,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="285">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -6222,7 +6181,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="285">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -6241,7 +6200,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="270">
       <c r="A103" s="14" t="s">
         <v>431</v>
       </c>
@@ -6260,7 +6219,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="315">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -6279,7 +6238,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="330">
       <c r="A105" s="14" t="s">
         <v>441</v>
       </c>
@@ -6298,7 +6257,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="360">
       <c r="A106" s="14" t="s">
         <v>446</v>
       </c>
@@ -6317,7 +6276,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="330">
       <c r="A107" s="14" t="s">
         <v>451</v>
       </c>
@@ -6336,7 +6295,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="360">
       <c r="A108" s="14" t="s">
         <v>456</v>
       </c>
@@ -6355,7 +6314,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="210">
       <c r="A109" s="15" t="s">
         <v>461</v>
       </c>
@@ -6374,7 +6333,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="195">
       <c r="A110" s="15" t="s">
         <v>466</v>
       </c>
@@ -6393,7 +6352,7 @@
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="225">
       <c r="A111" s="15" t="s">
         <v>471</v>
       </c>
@@ -6416,7 +6375,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="120">
       <c r="A112" s="15" t="s">
         <v>478</v>
       </c>
@@ -6433,7 +6392,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="180">
       <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
@@ -6450,7 +6409,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="195">
       <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
@@ -6467,7 +6426,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="120">
       <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
@@ -6488,7 +6447,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="180">
       <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
@@ -6509,7 +6468,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="270">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -6530,7 +6489,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="165">
       <c r="A118" s="16" t="s">
         <v>506</v>
       </c>
@@ -6544,14 +6503,14 @@
         <v>511</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="195">
       <c r="A119" s="16" t="s">
         <v>507</v>
       </c>
@@ -6580,7 +6539,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="150">
       <c r="A120" s="16" t="s">
         <v>509</v>
       </c>
@@ -6609,7 +6568,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="345">
       <c r="A121" s="16" t="s">
         <v>589</v>
       </c>
@@ -6626,7 +6585,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="150">
       <c r="A122" s="16" t="s">
         <v>617</v>
       </c>
@@ -6649,7 +6608,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="240">
       <c r="A123" s="16" t="s">
         <v>618</v>
       </c>
@@ -6672,7 +6631,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="105">
       <c r="A124" s="16" t="s">
         <v>619</v>
       </c>
@@ -6695,7 +6654,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="240">
       <c r="A125" s="16" t="s">
         <v>620</v>
       </c>
@@ -6718,7 +6677,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="135">
       <c r="A126" s="16" t="s">
         <v>621</v>
       </c>
@@ -6741,7 +6700,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="165">
       <c r="A127" s="16" t="s">
         <v>622</v>
       </c>
@@ -6764,7 +6723,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="120">
       <c r="A128" s="1" t="s">
         <v>627</v>
       </c>
@@ -6783,7 +6742,7 @@
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="1" t="s">
         <v>628</v>
       </c>
@@ -6806,7 +6765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="60">
       <c r="A130" s="1" t="s">
         <v>635</v>
       </c>
@@ -6825,7 +6784,7 @@
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
     </row>
-    <row r="131" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="364.5" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>636</v>
       </c>
@@ -6854,7 +6813,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="120">
       <c r="A132" s="1" t="s">
         <v>637</v>
       </c>
@@ -6873,7 +6832,7 @@
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
-    <row r="133" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="165">
       <c r="A133" s="1" t="s">
         <v>638</v>
       </c>
@@ -6892,7 +6851,7 @@
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
     </row>
-    <row r="134" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="214.5" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>639</v>
       </c>
@@ -6911,7 +6870,7 @@
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="180">
       <c r="A135" s="1" t="s">
         <v>640</v>
       </c>
@@ -6930,7 +6889,7 @@
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
-    <row r="136" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="120">
       <c r="A136" s="1" t="s">
         <v>670</v>
       </c>
@@ -6949,7 +6908,7 @@
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="90">
       <c r="A137" s="1" t="s">
         <v>671</v>
       </c>
@@ -6957,7 +6916,7 @@
         <v>708</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D137" s="26" t="s">
         <v>707</v>
@@ -6968,7 +6927,7 @@
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="75">
       <c r="A138" s="1" t="s">
         <v>672</v>
       </c>
@@ -6987,7 +6946,7 @@
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="1" t="s">
         <v>695</v>
       </c>
@@ -7006,7 +6965,7 @@
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="60">
       <c r="A140" s="1" t="s">
         <v>696</v>
       </c>
@@ -7025,7 +6984,7 @@
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="60">
       <c r="A141" s="1" t="s">
         <v>697</v>
       </c>
@@ -7044,7 +7003,7 @@
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="165">
       <c r="A142" s="1" t="s">
         <v>709</v>
       </c>
@@ -7063,7 +7022,7 @@
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="210">
       <c r="A143" s="1" t="s">
         <v>710</v>
       </c>
@@ -7082,7 +7041,7 @@
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="165">
       <c r="A144" s="1" t="s">
         <v>712</v>
       </c>
@@ -7101,7 +7060,7 @@
       <c r="F144" s="24"/>
       <c r="G144" s="26"/>
     </row>
-    <row r="145" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="207" customHeight="1">
       <c r="A145" s="26" t="s">
         <v>713</v>
       </c>
@@ -7109,7 +7068,7 @@
         <v>721</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D145" s="26" t="s">
         <v>720</v>
@@ -7124,7 +7083,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="255">
       <c r="A146" s="26" t="s">
         <v>714</v>
       </c>
@@ -7147,7 +7106,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="240">
       <c r="A147" s="26" t="s">
         <v>715</v>
       </c>
@@ -7161,7 +7120,7 @@
         <v>733</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F147" s="26" t="s">
         <v>735</v>
@@ -7170,7 +7129,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="90">
       <c r="A148" s="26" t="s">
         <v>716</v>
       </c>
@@ -7189,7 +7148,7 @@
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="90">
       <c r="A149" s="26" t="s">
         <v>717</v>
       </c>
@@ -7208,7 +7167,7 @@
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
-    <row r="150" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="105">
       <c r="A150" s="26" t="s">
         <v>718</v>
       </c>
@@ -7227,7 +7186,7 @@
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="255">
       <c r="A151" s="26" t="s">
         <v>719</v>
       </c>
@@ -7250,7 +7209,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="150">
       <c r="A152" s="26" t="s">
         <v>759</v>
       </c>
@@ -7258,18 +7217,18 @@
         <v>761</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E152" s="26" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="26"/>
     </row>
-    <row r="153" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="90">
       <c r="A153" s="26" t="s">
         <v>760</v>
       </c>
@@ -7280,72 +7239,72 @@
         <v>763</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F153" s="24"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="90">
       <c r="A154" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
     </row>
-    <row r="155" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="90">
       <c r="A155" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
     </row>
-    <row r="156" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="90">
       <c r="A156" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="B157" s="26"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
@@ -7353,7 +7312,7 @@
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="B158" s="26"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
@@ -7361,7 +7320,7 @@
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="B159" s="26"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
@@ -7369,7 +7328,7 @@
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="B160" s="26"/>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -7377,7 +7336,7 @@
       <c r="F160" s="24"/>
       <c r="G160" s="24"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7">
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
@@ -7385,7 +7344,7 @@
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7">
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
@@ -7393,7 +7352,7 @@
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7">
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
@@ -7401,7 +7360,7 @@
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7409,7 +7368,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7417,7 +7376,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7425,7 +7384,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7433,16 +7392,16 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7">
       <c r="E175" s="32"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7">
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5">
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5">
       <c r="E178" s="31"/>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="810">
   <si>
     <t>id</t>
   </si>
@@ -2254,9 +2254,6 @@
     <t>Что такое базовая инфляция?</t>
   </si>
   <si>
-    <t>Базовая инфляция - это инфляция, измеренная на основе базового индекса потребительских цен. Отличие базового индекса потребительских цен от индекса потребительских цен состоит в исключении при расчете изменения цен на отдельные товары и услуги, подверженные влиянию факторов, которые носят административный, а также сезонный характер</t>
-  </si>
-  <si>
     <t xml:space="preserve">Базовая инфляция - инфляция, измеренная на основе базового индекса потребительских цен (БИПЦ). Отличие БИПЦ от индекса потребительских цен (ИПЦ) состоит в исключении при расчете БИПЦ изменения цен на отдельные товары и услуги, подверженные влиянию факторов, которые носят административный, а также сезонный характер (плодоовощная продукция, топливо, отдельные услуги пассажирского транспорта, услуги связи, большинство жилищно-коммунальных услуг).
 Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)
 </t>
@@ -2540,21 +2537,6 @@
     <t>В две тысячи тринадцатом году государственный долг Российской Федерации составил семь триллионов пятьсот сорок восемь миллиардов триста миллионов рублей</t>
   </si>
   <si>
-    <t>Объём, заимствований, 2017, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2016, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2015, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2014, год</t>
-  </si>
-  <si>
-    <t>Объём, заимствований, 2013, год</t>
-  </si>
-  <si>
     <t>Расходы, чемпионат, мира, по футболу, чм</t>
   </si>
   <si>
@@ -2591,13 +2573,178 @@
     <t>В 2013 году государственный долг Российской Федерации составил 7 548,3 млрд. рублей, из них: 
 5 722,2 млрд. рублей - государственный внутренний долг Российской Федерации, 
 1826,1 млрд. рублей - государственный внешний долг Российской Федерации</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Объём, заимствований, 2017, год, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>госдолг, РФ, государственная задолженность</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Объём, заимствований, 2016, год, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>госдолг, РФ, государственная задолженность</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Объём, заимствований, 2015, год, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>госдолг, РФ, государственная задолженность</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Объём, заимствований, 2014, год, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>госдолг, РФ, государственная задолженность</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Объём, заимствований, 2013, год, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>госдолг, РФ, государственная задолженность</t>
+    </r>
+  </si>
+  <si>
+    <t>32.169</t>
+  </si>
+  <si>
+    <t>32.170</t>
+  </si>
+  <si>
+    <t>Что такое бюджетный прогноз?</t>
+  </si>
+  <si>
+    <t>Как осуществляется долгосрочное бюджетное планирование?</t>
+  </si>
+  <si>
+    <t>Базовая инфляция - это инфляция, измеренная на основе базового индекса потребительских цен, при расчете которого исключаются изменения цен на отдельные товары и услуги, подверженные влиянию факторов, которые носят административный, а также сезонный характер</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 1 статьи 170.1 долгосрочное бюджетное планирование осуществляется путем формирования бюджетного прогноза Российской Федерации на долгосрочный период, бюджетного прогноза субъекта Российской Федерации на долгосрочный период, а также бюджетного прогноза муниципального образования на долгосрочный период в случае, если представительный орган муниципального образования принял решение о его формировании в соответствии с требованиями Бюджетного кодекса</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 2 статьи 170.1 под бюджетным прогнозом на долгосрочный период понимается документ, содержащий прогноз основных характеристик соответствующих бюджетов (консолидированных бюджетов) бюджетной системы Российской Федерации, показатели финансового обеспечения государственных (муниципальных) программ на период их действия, иные показатели, характеризующие бюджеты (консолидированные бюджеты) бюджетной системы Российской Федерации, а также содержащий основные подходы к формированию бюджетной политики на долгосрочный период</t>
+  </si>
+  <si>
+    <t>Под бюджетным прогнозом на долгосрочный период понимается документ, содержащий прогноз основных характеристик соответствующих бюджетов бюджетной системы Российской Федерации, показатели финансового обеспечения государственных (муниципальных) программ на период их действия, а также основные подходы к формированию бюджетной политики на долгосрочный период</t>
+  </si>
+  <si>
+    <t>Что, такое, бюджетный, прогноз</t>
+  </si>
+  <si>
+    <t>Как, осуществляется, долгосрочное, бюджетное, планирование</t>
+  </si>
+  <si>
+    <t>Кто возглавляет Центральный банк Российской Федерации?</t>
+  </si>
+  <si>
+    <t>32.171</t>
+  </si>
+  <si>
+    <t>32.172</t>
+  </si>
+  <si>
+    <t>Банк России с 24 июня 2013 года возглавляет Эльвира Сахипзадовна Набиуллина. Эльвира Набиуллина является Председателем Центрального банка Российской Федерации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Председателем Центрального банка Российской Федерации с двадцать четвертого  июля две тысячи тринадцатого года является Эльвира Сахипзадовна Набиуллина </t>
+  </si>
+  <si>
+    <t>Биография Председателя Центрального банка Российской Федерации Эльвиры Набиуллиной</t>
+  </si>
+  <si>
+    <t>Кто, возглавляет, Центральный, Российской, Федерации, Банк, России, Набиуллина, Эльвира</t>
+  </si>
+  <si>
+    <t>Набиуллина, Эльвира, кто, такая, Биография, Председатель, Центрального, Банк, России</t>
+  </si>
+  <si>
+    <t>Эльвира Сахипзадовна Набиуллина является Председателем Центрального банка Российской Федерации.
+БИОГРАФИЯ:
+Родилась 29 октября 1963 г. в г. Уфе.
+В 1986 г. окончила экономический факультет Московского государственного университета им. М. В. Ломоносова.
+1991–1992 гг. — главный специалист дирекции Постоянного комитета Правления Научно-Промышленного союза СССР по вопросам экономической реформы, г. Москва.
+1992–1994 гг. — главный специалист, консультант дирекции Российского союза промышленников и предпринимателей по вопросам экономической политики.
+1994–1994 гг. — советник Экспертного института Российского союза промышленников и предпринимателей.
+1994–1995 гг. — заместитель руководителя Департамента экономической реформы  — начальник управления государственного регулирования экономики Министерства экономики Российской Федерации.
+1995–1996 гг. — заместитель начальника Департамента экономической реформы Министерства экономики Российской Федерации.
+1996–1997 гг. — Начальник Департамента экономической реформы Министерства экономики Российской Федерации, член коллегии Минэкономики России.
+1997–1998 гг. — Заместитель Министра экономики Российской Федерации.
+1998–1999 гг. — Заместитель Председателя правления АК «Промторгбанк».
+1999–1999 гг. — Исполнительный директор Евроазиатской рейтинговой службы.
+1999–2000 гг. — Вице-президент Фонда «Центр стратегических разработок».
+2000–2003 гг. — Первый заместитель Министра экономического развития и торговли Российской Федерации.
+2003–2005 гг. — Президент Фонда «Центр стратегических разработок».
+2005–2007 гг. — Руководитель Экспертного совета Организационного комитета по подготовке и обеспечению председательства Российской Федерации в «Группе восьми» в 2006 году, руководитель исследовательской группы Центра стратегических разработок.
+24 сентября 2007 г. — назначена Министром экономического развития и торговли Российской Федерации.
+C 12 мая 2008 г. — Министр экономического развития Российской Федерации.
+Май 2012 г. — июнь 2013 г. — помощник Президента Российской Федерации.
+С июня 2013 г. — Председатель Центрального банка Российской Федерации.
+Входит в Совет директоров в соответствии со ст. 15 Федерального закона «О Центральном банке Российской Федерации (Банке России)»</t>
+  </si>
+  <si>
+    <t>Эльвира Сахипзадовна Набиуллина, одна тысяча девятьсот шестьдесят третьего года рождения. В должности Председателя Центрального банка Российской Федерации находится с июня две тысячи тринадцатого года</t>
+  </si>
+  <si>
+    <t>http://www.cbr.ru/today/?PrtId=bankstructute</t>
+  </si>
+  <si>
+    <t>Раздел "Структура центрального аппарата Банка России" на официальном сайте Центрального банка Российской Федерации</t>
+  </si>
+  <si>
+    <t>Долгосрочное бюджетное планирование осуществляется путем формирования бюджетного прогноза Российской Федерации и бюджетного прогноза субъекта Российской Федерации на долгосрочный период, а также бюджетного прогноза муниципального образования на долгосрочный период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2686,8 +2833,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2718,6 +2872,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2735,7 +2895,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2829,6 +2989,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3202,16 +3368,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="136.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" style="1"/>
     <col min="7" max="7" width="43.7109375" style="1" customWidth="1"/>
@@ -3260,7 +3426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="236.25">
+    <row r="2" spans="1:12" ht="141.75">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3450,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="252">
+    <row r="3" spans="1:12" ht="157.5">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -3303,7 +3469,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="220.5">
+    <row r="4" spans="1:12" ht="173.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3488,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="299.25">
+    <row r="5" spans="1:12" ht="252">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -3341,7 +3507,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="63">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3360,7 +3526,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="236.25">
+    <row r="7" spans="1:12" ht="141.75">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3398,7 +3564,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="267.75">
+    <row r="9" spans="1:12" ht="157.5">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3417,7 +3583,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="409.5">
+    <row r="10" spans="1:12" ht="299.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -3436,7 +3602,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="173.25">
+    <row r="11" spans="1:12" ht="94.5">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -3474,7 +3640,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="110.25">
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
@@ -3493,7 +3659,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="283.5">
+    <row r="14" spans="1:12" ht="220.5">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -3512,7 +3678,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="94.5">
+    <row r="15" spans="1:12" ht="63">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
@@ -3531,7 +3697,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="94.5">
+    <row r="16" spans="1:12" ht="78.75">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -3550,7 +3716,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="157.5">
+    <row r="17" spans="1:7" ht="126">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
@@ -3569,7 +3735,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="157.5">
+    <row r="18" spans="1:7" ht="94.5">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -3588,7 +3754,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="110.25">
+    <row r="19" spans="1:7" ht="94.5">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
@@ -3607,7 +3773,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="141.75">
+    <row r="20" spans="1:7" ht="110.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
@@ -3626,7 +3792,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="110.25">
+    <row r="21" spans="1:7" ht="78.75">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
@@ -3645,7 +3811,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="94.5">
+    <row r="22" spans="1:7" ht="78.75">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
@@ -3683,7 +3849,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="126">
+    <row r="24" spans="1:7" ht="110.25">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
@@ -3702,7 +3868,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="252">
+    <row r="25" spans="1:7" ht="141.75">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
@@ -3721,7 +3887,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="110.25">
+    <row r="26" spans="1:7" ht="94.5">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
@@ -3759,7 +3925,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="173.25">
+    <row r="28" spans="1:7" ht="141.75">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3778,7 +3944,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="126">
+    <row r="29" spans="1:7" ht="94.5">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3797,7 +3963,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="299.25">
+    <row r="30" spans="1:7" ht="204.75">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3816,7 +3982,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="110.25">
+    <row r="31" spans="1:7" ht="94.5">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3835,7 +4001,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="94.5">
+    <row r="32" spans="1:7" ht="63">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -3854,7 +4020,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="267.75">
+    <row r="33" spans="1:7" ht="157.5">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -3873,7 +4039,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="141.75">
+    <row r="34" spans="1:7" ht="110.25">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -3892,7 +4058,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="141.75">
+    <row r="35" spans="1:7" ht="94.5">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -3911,7 +4077,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="94.5">
+    <row r="36" spans="1:7" ht="78.75">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -3949,7 +4115,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="110.25">
+    <row r="38" spans="1:7" ht="78.75">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -3968,7 +4134,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="220.5">
+    <row r="39" spans="1:7" ht="157.5">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -3987,7 +4153,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="94.5">
+    <row r="40" spans="1:7" ht="78.75">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4006,7 +4172,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="126">
+    <row r="41" spans="1:7" ht="110.25">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -4025,7 +4191,7 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="94.5">
+    <row r="42" spans="1:7" ht="78.75">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
@@ -4044,7 +4210,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="126">
+    <row r="43" spans="1:7" ht="110.25">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -4063,7 +4229,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="78.75">
+    <row r="44" spans="1:7" ht="63">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -4082,7 +4248,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="141.75">
+    <row r="45" spans="1:7" ht="94.5">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -4101,7 +4267,7 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="141.75">
+    <row r="46" spans="1:7" ht="78.75">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
@@ -4120,7 +4286,7 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="189">
+    <row r="47" spans="1:7" ht="157.5">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
@@ -4139,7 +4305,7 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="267.75">
+    <row r="48" spans="1:7" ht="204.75">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
@@ -4158,7 +4324,7 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="126">
+    <row r="49" spans="1:7" ht="110.25">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
@@ -4177,7 +4343,7 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="157.5">
+    <row r="50" spans="1:7" ht="126">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
@@ -4196,7 +4362,7 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="126">
+    <row r="51" spans="1:7" ht="94.5">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
@@ -4215,7 +4381,7 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="126">
+    <row r="52" spans="1:7" ht="94.5">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
@@ -4234,7 +4400,7 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="141.75">
+    <row r="53" spans="1:7" ht="110.25">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
@@ -4253,7 +4419,7 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="173.25">
+    <row r="54" spans="1:7" ht="141.75">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
@@ -4272,7 +4438,7 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="110.25">
+    <row r="55" spans="1:7" ht="94.5">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
@@ -4348,7 +4514,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="94.5">
+    <row r="59" spans="1:7" ht="78.75">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
@@ -4367,7 +4533,7 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="189">
+    <row r="60" spans="1:7" ht="157.5">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
@@ -4386,7 +4552,7 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="126">
+    <row r="61" spans="1:7" ht="110.25">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
@@ -4405,7 +4571,7 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="110.25">
+    <row r="62" spans="1:7" ht="78.75">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
@@ -4424,7 +4590,7 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="94.5">
+    <row r="63" spans="1:7" ht="78.75">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
@@ -4443,7 +4609,7 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="94.5">
+    <row r="64" spans="1:7" ht="78.75">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
@@ -4462,7 +4628,7 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="141.75">
+    <row r="65" spans="1:7" ht="94.5">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
@@ -4481,7 +4647,7 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="110.25">
+    <row r="66" spans="1:7" ht="78.75">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
@@ -4500,7 +4666,7 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="90">
+    <row r="67" spans="1:7" ht="75">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
@@ -4519,7 +4685,7 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="135">
+    <row r="68" spans="1:7" ht="120">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
@@ -4538,7 +4704,7 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="90">
+    <row r="69" spans="1:7" ht="75">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
@@ -4557,7 +4723,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="195">
+    <row r="70" spans="1:7" ht="120">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
@@ -4576,7 +4742,7 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="150">
+    <row r="71" spans="1:7" ht="105">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
@@ -4614,7 +4780,7 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="105">
+    <row r="73" spans="1:7" ht="75">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
@@ -4633,7 +4799,7 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="195">
+    <row r="74" spans="1:7" ht="150">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
@@ -4652,7 +4818,7 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="195">
+    <row r="75" spans="1:7" ht="135">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
@@ -4671,7 +4837,7 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="150">
+    <row r="76" spans="1:7" ht="120">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
@@ -4690,7 +4856,7 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="105">
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
@@ -4709,7 +4875,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="135">
+    <row r="78" spans="1:7" ht="105">
       <c r="A78" s="6" t="s">
         <v>312</v>
       </c>
@@ -4728,7 +4894,7 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="120">
+    <row r="79" spans="1:7" ht="90">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
@@ -4747,7 +4913,7 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="90">
+    <row r="80" spans="1:7" ht="60">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
@@ -4766,7 +4932,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="270">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="180">
       <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
@@ -5801,7 +5967,7 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="90">
+    <row r="82" spans="1:1025" ht="75">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -5820,7 +5986,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="90">
+    <row r="83" spans="1:1025" ht="60">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -5839,7 +6005,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="105">
+    <row r="84" spans="1:1025" ht="60">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -5877,7 +6043,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="165">
+    <row r="86" spans="1:1025" ht="135">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -5896,7 +6062,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="90">
+    <row r="87" spans="1:1025" ht="75">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -5915,7 +6081,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="105">
+    <row r="88" spans="1:1025" ht="75">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -5934,7 +6100,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="165">
+    <row r="89" spans="1:1025" ht="120">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -5953,7 +6119,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="75">
+    <row r="90" spans="1:1025" ht="60">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -5972,7 +6138,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="90">
+    <row r="91" spans="1:1025" ht="75">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -5991,7 +6157,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="240">
+    <row r="92" spans="1:1025" ht="195">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -6010,7 +6176,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="75">
+    <row r="93" spans="1:1025" ht="60">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -6029,7 +6195,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="255">
+    <row r="94" spans="1:1025" ht="180">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -6067,7 +6233,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="135">
+    <row r="96" spans="1:1025" ht="105">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -6086,7 +6252,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="105">
+    <row r="97" spans="1:7" ht="90">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -6105,7 +6271,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="60">
+    <row r="98" spans="1:7" ht="45">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -6124,7 +6290,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="135">
+    <row r="99" spans="1:7" ht="120">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -6143,7 +6309,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="90">
+    <row r="100" spans="1:7" ht="75">
       <c r="A100" s="6" t="s">
         <v>416</v>
       </c>
@@ -6162,7 +6328,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="285">
+    <row r="101" spans="1:7" ht="225">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -6181,7 +6347,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="285">
+    <row r="102" spans="1:7" ht="210">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -6200,7 +6366,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="270">
+    <row r="103" spans="1:7" ht="195">
       <c r="A103" s="14" t="s">
         <v>431</v>
       </c>
@@ -6219,7 +6385,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="315">
+    <row r="104" spans="1:7" ht="270">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -6238,7 +6404,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="330">
+    <row r="105" spans="1:7" ht="270">
       <c r="A105" s="14" t="s">
         <v>441</v>
       </c>
@@ -6257,7 +6423,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="360">
+    <row r="106" spans="1:7" ht="270">
       <c r="A106" s="14" t="s">
         <v>446</v>
       </c>
@@ -6276,7 +6442,7 @@
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="330">
+    <row r="107" spans="1:7" ht="285">
       <c r="A107" s="14" t="s">
         <v>451</v>
       </c>
@@ -6295,7 +6461,7 @@
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="360">
+    <row r="108" spans="1:7" ht="285">
       <c r="A108" s="14" t="s">
         <v>456</v>
       </c>
@@ -6314,7 +6480,7 @@
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="210">
+    <row r="109" spans="1:7" ht="165">
       <c r="A109" s="15" t="s">
         <v>461</v>
       </c>
@@ -6333,7 +6499,7 @@
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="195">
+    <row r="110" spans="1:7" ht="150">
       <c r="A110" s="15" t="s">
         <v>466</v>
       </c>
@@ -6375,7 +6541,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="120">
+    <row r="112" spans="1:7" ht="90">
       <c r="A112" s="15" t="s">
         <v>478</v>
       </c>
@@ -6392,7 +6558,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="180">
+    <row r="113" spans="1:9" ht="135">
       <c r="A113" s="15" t="s">
         <v>483</v>
       </c>
@@ -6409,7 +6575,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="195">
+    <row r="114" spans="1:9" ht="165">
       <c r="A114" s="15" t="s">
         <v>488</v>
       </c>
@@ -6426,7 +6592,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="120">
+    <row r="115" spans="1:9" ht="90">
       <c r="A115" s="16" t="s">
         <v>493</v>
       </c>
@@ -6447,7 +6613,7 @@
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="180">
+    <row r="116" spans="1:9" ht="105">
       <c r="A116" s="16" t="s">
         <v>494</v>
       </c>
@@ -6468,7 +6634,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="270">
+    <row r="117" spans="1:9" ht="210">
       <c r="A117" s="16" t="s">
         <v>502</v>
       </c>
@@ -6489,7 +6655,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="165">
+    <row r="118" spans="1:9" ht="135">
       <c r="A118" s="16" t="s">
         <v>506</v>
       </c>
@@ -6503,19 +6669,19 @@
         <v>511</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="195">
+    <row r="119" spans="1:9" ht="135">
       <c r="A119" s="16" t="s">
         <v>507</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>513</v>
@@ -6539,7 +6705,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="150">
+    <row r="120" spans="1:9" ht="105">
       <c r="A120" s="16" t="s">
         <v>509</v>
       </c>
@@ -6553,7 +6719,7 @@
         <v>527</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>525</v>
@@ -6568,7 +6734,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="345">
+    <row r="121" spans="1:9" ht="285">
       <c r="A121" s="16" t="s">
         <v>589</v>
       </c>
@@ -6585,7 +6751,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="150">
+    <row r="122" spans="1:9" ht="105">
       <c r="A122" s="16" t="s">
         <v>617</v>
       </c>
@@ -6608,7 +6774,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="240">
+    <row r="123" spans="1:9" ht="180">
       <c r="A123" s="16" t="s">
         <v>618</v>
       </c>
@@ -6654,7 +6820,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="240">
+    <row r="125" spans="1:9" ht="195">
       <c r="A125" s="16" t="s">
         <v>620</v>
       </c>
@@ -6677,7 +6843,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="135">
+    <row r="126" spans="1:9" ht="105">
       <c r="A126" s="16" t="s">
         <v>621</v>
       </c>
@@ -6700,7 +6866,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="165">
+    <row r="127" spans="1:9" ht="150">
       <c r="A127" s="16" t="s">
         <v>622</v>
       </c>
@@ -6723,7 +6889,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="120">
+    <row r="128" spans="1:9" ht="90">
       <c r="A128" s="1" t="s">
         <v>627</v>
       </c>
@@ -6813,7 +6979,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="120">
+    <row r="132" spans="1:9" ht="90">
       <c r="A132" s="1" t="s">
         <v>637</v>
       </c>
@@ -6832,7 +6998,7 @@
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
-    <row r="133" spans="1:9" ht="165">
+    <row r="133" spans="1:9" ht="135">
       <c r="A133" s="1" t="s">
         <v>638</v>
       </c>
@@ -6870,18 +7036,18 @@
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="180">
+    <row r="135" spans="1:9" ht="120">
       <c r="A135" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B135" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D135" s="26" t="s">
         <v>683</v>
-      </c>
-      <c r="D135" s="26" t="s">
-        <v>684</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>681</v>
@@ -6889,66 +7055,66 @@
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
-    <row r="136" spans="1:9" ht="120">
+    <row r="136" spans="1:9" ht="105">
       <c r="A136" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B136" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C136" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="D136" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="E136" s="26" t="s">
         <v>704</v>
-      </c>
-      <c r="D136" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>705</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="90">
+    <row r="137" spans="1:9" ht="60">
       <c r="A137" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="75">
+    <row r="138" spans="1:9" ht="60">
       <c r="A138" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B138" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="D138" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="E138" s="26" t="s">
         <v>737</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="D138" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>738</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:9" ht="45">
       <c r="A139" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B139" s="26" t="s">
         <v>664</v>
@@ -6960,14 +7126,14 @@
         <v>665</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="60">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B140" s="26" t="s">
         <v>666</v>
@@ -6979,14 +7145,14 @@
         <v>673</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="60">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B141" s="26" t="s">
         <v>645</v>
@@ -6998,345 +7164,394 @@
         <v>674</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="165">
+    <row r="142" spans="1:9" ht="135">
       <c r="A142" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B142" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="C142" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="D142" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="D142" s="26" t="s">
-        <v>687</v>
-      </c>
       <c r="E142" s="26" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="210">
+    <row r="143" spans="1:9" ht="135">
       <c r="A143" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="165">
+    <row r="144" spans="1:9" ht="135">
       <c r="A144" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B144" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="E144" s="26" t="s">
         <v>698</v>
-      </c>
-      <c r="C144" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>699</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7" ht="207" customHeight="1">
       <c r="A145" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="210">
+      <c r="A146" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="B145" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="C145" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="F145" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="G145" s="26" t="s">
+      <c r="B146" s="26" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="255">
-      <c r="A146" s="26" t="s">
+      <c r="C146" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="180">
+      <c r="A147" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="B146" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>727</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>729</v>
-      </c>
-      <c r="G146" s="26" t="s">
+      <c r="B147" s="26" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="240">
-      <c r="A147" s="26" t="s">
+      <c r="C147" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="75">
+      <c r="A148" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="B147" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="90">
-      <c r="A148" s="26" t="s">
-        <v>716</v>
-      </c>
       <c r="B148" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="E148" s="26" t="s">
         <v>741</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>742</v>
       </c>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7" ht="90">
+    <row r="149" spans="1:7" ht="75">
       <c r="A149" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C149" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="E149" s="26" t="s">
         <v>744</v>
-      </c>
-      <c r="D149" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>745</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
-    <row r="150" spans="1:7" ht="105">
+    <row r="150" spans="1:7" ht="75">
       <c r="A150" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B150" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="E150" s="26" t="s">
         <v>749</v>
-      </c>
-      <c r="C150" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="D150" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>750</v>
       </c>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7" ht="255">
+    <row r="151" spans="1:7" ht="195">
       <c r="A151" s="26" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B151" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="D151" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="E151" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="G151" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="D151" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="F151" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="G151" s="26" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="150">
+    </row>
+    <row r="152" spans="1:7" ht="105">
       <c r="A152" s="26" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C152" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="E152" s="33" t="s">
         <v>782</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>783</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>773</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="26"/>
     </row>
-    <row r="153" spans="1:7" ht="90">
+    <row r="153" spans="1:7" ht="75">
       <c r="A153" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B153" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="C153" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>763</v>
-      </c>
       <c r="D153" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>774</v>
+        <v>778</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>783</v>
       </c>
       <c r="F153" s="24"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="90">
+    <row r="154" spans="1:7" ht="75">
       <c r="A154" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>775</v>
+        <v>779</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>784</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
     </row>
-    <row r="155" spans="1:7" ht="90">
+    <row r="155" spans="1:7" ht="75">
       <c r="A155" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B155" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="C155" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>770</v>
-      </c>
       <c r="D155" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="E155" s="26" t="s">
-        <v>776</v>
+        <v>780</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>785</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
     </row>
-    <row r="156" spans="1:7" ht="90">
+    <row r="156" spans="1:7" ht="75">
       <c r="A156" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B156" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="C156" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>772</v>
-      </c>
       <c r="D156" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>777</v>
+        <v>781</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>786</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
     </row>
-    <row r="157" spans="1:7">
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
+    <row r="157" spans="1:7" ht="180">
+      <c r="A157" s="33" t="s">
+        <v>787</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>795</v>
+      </c>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
     </row>
-    <row r="158" spans="1:7">
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
+    <row r="158" spans="1:7" ht="120">
+      <c r="A158" s="33" t="s">
+        <v>788</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="E158" s="26" t="s">
+        <v>796</v>
+      </c>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
-    <row r="159" spans="1:7">
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
+    <row r="159" spans="1:7" ht="90">
+      <c r="A159" s="33" t="s">
+        <v>798</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>803</v>
+      </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7">
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-    </row>
-    <row r="161" spans="2:7">
+    <row r="160" spans="1:7" ht="390">
+      <c r="A160" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="G160" s="34" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="33"/>
       <c r="B161" s="26"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
@@ -7344,7 +7559,8 @@
       <c r="F161" s="24"/>
       <c r="G161" s="24"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="1:7">
+      <c r="A162" s="33"/>
       <c r="B162" s="26"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
@@ -7352,7 +7568,8 @@
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="1:7">
+      <c r="A163" s="33"/>
       <c r="B163" s="26"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
@@ -7360,7 +7577,7 @@
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="1:7">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7368,7 +7585,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="1:7">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7376,7 +7593,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="1:7">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7384,7 +7601,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="1:7">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7392,10 +7609,10 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="1:7">
       <c r="E175" s="32"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="1:7">
       <c r="E176" s="31"/>
     </row>
     <row r="177" spans="5:5">
@@ -7418,8 +7635,9 @@
     <hyperlink ref="G145" r:id="rId10" display="http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; "/>
     <hyperlink ref="G146" r:id="rId11"/>
     <hyperlink ref="G147" r:id="rId12"/>
+    <hyperlink ref="G160" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId13"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId14"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="829">
   <si>
     <t>id</t>
   </si>
@@ -1413,9 +1418,6 @@
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2016 год утвержден федеральным законом от 14 декабря 2015 г. N 359-ФЗ «О федеральном бюджете на 2016 год» в сумме 13 368,6 млрд. рублей, исполнен в сумме 13 460,0 млрд. рублей. Общий объем расходов федерального бюджета на 2016 год утвержден в сумме 16 403,0 млрд. рублей, исполнен в сумме 16 416,4 млрд. рублей</t>
   </si>
   <si>
-    <t>бюджет, 2016, год</t>
-  </si>
-  <si>
     <t>32.109</t>
   </si>
   <si>
@@ -1429,9 +1431,6 @@
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2015 год утвержден федеральным законом от 1 декабря 2014 г. N 384-ФЗ «О федеральном бюджете на 2015 год и на плановый период 2016 и 2017 годов» в сумме 13 251,4 млрд. рублей, исполнен в сумме 13 659,2 млрд. рублей. Общий объем расходов федерального бюджета на 2015 год утвержден в сумме 15 417,3 млрд. рублей, исполнен в сумме 15 620,3 млрд. рублей</t>
   </si>
   <si>
-    <t>бюджет, 2015, год</t>
-  </si>
-  <si>
     <t>32.110</t>
   </si>
   <si>
@@ -1445,9 +1444,6 @@
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2014 год утвержден федеральным законом от 2 декабря 2013 г. N 349-ФЗ «О федеральном бюджете на 2014 год и на плановый период 2015 и 2016 годов» в сумме 14 238,8 млрд. рублей, исполнен в сумме 14 496,9 млрд. рублей. Общий объем расходов федерального бюджета на 2014 год утвержден в сумме 13 960,1 млрд. рублей, исполнен в сумме 14 831,6 млрд. рублей</t>
   </si>
   <si>
-    <t>бюджет, 2014, год</t>
-  </si>
-  <si>
     <t>32.111</t>
   </si>
   <si>
@@ -1459,9 +1455,6 @@
   </si>
   <si>
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2013 год утвержден федеральным законом от 3 декабря 2012 г. N 216-ФЗ «О федеральном бюджете на 2013 год и на плановый период 2014 и 2015 годов» в сумме 12 906,4 млрд. рублей, исполнен в сумме 13 019,9 млрд. рублей. Общий объем расходов федерального бюджета на 2013 год утвержден в сумме 13 387,3 млрд. рублей, исполнен в сумме 13 342,9 млрд. рублей</t>
-  </si>
-  <si>
-    <t>бюджет, 2013, год</t>
   </si>
   <si>
     <t>32.112</t>
@@ -1476,9 +1469,6 @@
   </si>
   <si>
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2012 год утвержден федеральным законом от 30 ноября 2011 г. N 371-ФЗ «О федеральном бюджете на 2012 год и на плановый период 2013 и 2014 годов» в сумме 12 914,6 млрд. рублей, исполнен в сумме 12 855,5 млрд. рублей. Общий объем расходов федерального бюджета на 2012 год утвержден в сумме 12 957,3 млрд. рублей, исполнен в сумме 12 895,0 млрд. рублей</t>
-  </si>
-  <si>
-    <t>бюджет, 2012, год</t>
   </si>
   <si>
     <t>32.114</t>
@@ -1894,9 +1884,6 @@
   </si>
   <si>
     <t>Прогнозируемый общий объем доходов федерального бюджета на 2017 год утвержден федеральным законом от 19 декабря 2016 г. N 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» (с учетом внесения изменений) в сумме 14 678,8 млрд. рублей, на 16.08.2017 исполнен в сумме 8 435,5 млрд. рублей. Общий объем расходов федерального бюджета на 2017 год утвержден в сумме 16 602,6 млрд. рублей, на 16.08.2017 исполнен в сумме 9 515,4 млрд. рублей</t>
-  </si>
-  <si>
-    <t>Бюджет, 2017, год</t>
   </si>
   <si>
     <t>Что такое облигации федерального займа для физических лиц (ОФЗ-н)?</t>
@@ -2739,12 +2726,105 @@
   <si>
     <t>Долгосрочное бюджетное планирование осуществляется путем формирования бюджетного прогноза Российской Федерации и бюджетного прогноза субъекта Российской Федерации на долгосрочный период, а также бюджетного прогноза муниципального образования на долгосрочный период</t>
   </si>
+  <si>
+    <t>32.173</t>
+  </si>
+  <si>
+    <t>Биография Президента Российской Федерации Путина Владимира Владимировича</t>
+  </si>
+  <si>
+    <t>Путин Владимир Владимирович, одна тысяча девятьсот пятьдесят второго года рождения. Окончил юридический факультет Ленинградского государственного университета. Кандидат экономических наук. В должности Президента Российской Федерации находится с две тысячи двенадцатого года</t>
+  </si>
+  <si>
+    <t>Путин Владимир Владимирович - Президент Российской Федерации
+Биография:
+Родился 7 октября 1952 года в Ленинграде.
+В 1975 году окончил юридический факультет Ленинградского государственного университета.
+По распределению был направлен на работу в органы государственной безопасности. В 1985-1990 годах работал в ГДР.
+С 1990 года - помощник ректора Ленинградского государственного университета по международным вопросам, затем - советник председателя Ленинградского городского совета.
+С июня 1991 года - председатель Комитета по внешним связям мэрии Санкт-Петербурга, одновременно - с 1994 года - первый заместитель председателя правительства Санкт-Петербурга.
+С августа 1996 года - заместитель управляющего делами Президента Российской Федерации.
+С марта 1997 года - заместитель руководителя Администрации Президента Российской Федерации, начальник Главного контрольного управления Президента Российской Федерации.
+С мая 1998 года - первый заместитель руководителя Администрации Президента Российской Федерации.
+В июле 1998 года назначен директором Федеральной службы безопасности Российской Федерации, одновременно - с марта 1999 года - Секретарь Совета Безопасности Российской Федерации.
+С августа 1999 года - Председатель Правительства Российской Федерации.
+С 31 декабря 1999 года - Исполняющий обязанности Президента Российской Федерации.
+26 марта 2000 года избран Президентом Российской Федерации. Вступил в должность 7 мая 2000 года.
+14 марта 2004 года избран Президентом Российской Федерации на второй срок.
+8 мая 2008 года Указом Президента Российской Федерации назначен Председателем Правительства Российской Федерации.
+4 марта 2012 года избран Президентом Российской Федерации.
+Кандидат экономических наук.
+Владеет немецким и английским языками</t>
+  </si>
+  <si>
+    <t>Биография, Президент, Российской, Федерации, Путин, Владимир, Владимирович, Кто, это</t>
+  </si>
+  <si>
+    <t>Владимир Путин — личный сайт</t>
+  </si>
+  <si>
+    <t>http://putin.kremlin.ru/</t>
+  </si>
+  <si>
+    <t>Путин Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>32.173.jpg</t>
+  </si>
+  <si>
+    <t>Прогнозируемый общий объем доходов федерального бюджета на две тысячи восемнадцатый год утвержден федеральным законом о бюджете в сумме четырнадцать триллионов двадцать восемь миллиардов пятьсот миллионов рублей. Общий объем расходов федерального бюджета утвержден в сумме шестнадцать триллионов тридцать девять миллиардов семьсот миллионов рублей</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 2 статьи 1 Федерального закона от 19 декабря 2016 г. N 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» (с учетом внесения изменений) прогнозируемый общий объем доходов федерального бюджета на 2018 год утвержден в сумме 14 028,5 млрд. рублей, общий объем расходов федерального бюджета - в сумме 16 039,7 млрд. рублей</t>
+  </si>
+  <si>
+    <t>32.174</t>
+  </si>
+  <si>
+    <t>32.175</t>
+  </si>
+  <si>
+    <t>Бюджет на 2018 год</t>
+  </si>
+  <si>
+    <t>Прогнозируемый общий объем доходов федерального бюджета на две тысячи девятнадцатый год утвержден федеральным законом о бюджете в сумме четырнадцать триллионов восемьсот сорок четыре миллиарда восемьсот миллионов рублей. Общий объем расходов федерального бюджета утвержден в сумме пятнадцать триллионов девятьсот восемьдесят семь миллиардов рублей</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 2 статьи 1 Федерального закона от 19 декабря 2016 г. N 415-ФЗ «О федеральном бюджете на 2017 год и на плановый период 2018 и 2019 годов» (с учетом внесения изменений) прогнозируемый общий объем доходов федерального бюджета на 2019 год утвержден в сумме 14 844,8 млрд. рублей, общий объем расходов федерального бюджета - в сумме 15 987,0 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Бюджет на 2019 год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2016, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2015, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2014, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2013, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2012, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2017, год</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2018, год, прогноз, план</t>
+  </si>
+  <si>
+    <t>федеральный, бюджет, 2019, год, прогноз, план</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2895,7 +2975,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2994,6 +3074,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3124,7 +3207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3156,9 +3239,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3190,6 +3291,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3365,14 +3484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
@@ -3388,7 +3507,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3426,12 +3545,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="141.75">
+    <row r="2" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
@@ -3450,12 +3569,12 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="157.5">
+    <row r="3" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -3469,12 +3588,12 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="173.25">
+    <row r="4" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
@@ -3488,12 +3607,12 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="252">
+    <row r="5" spans="1:12" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>24</v>
@@ -3507,12 +3626,12 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="63">
+    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -3526,12 +3645,12 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="141.75">
+    <row r="7" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>32</v>
@@ -3545,12 +3664,12 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5">
+    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -3564,12 +3683,12 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="157.5">
+    <row r="9" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>40</v>
@@ -3583,12 +3702,12 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="299.25">
+    <row r="10" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>44</v>
@@ -3602,12 +3721,12 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="94.5">
+    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>48</v>
@@ -3621,12 +3740,12 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="94.5">
+    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -3640,12 +3759,12 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="78.75">
+    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
@@ -3659,12 +3778,12 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="220.5">
+    <row r="14" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>60</v>
@@ -3678,12 +3797,12 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="63">
+    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>64</v>
@@ -3697,12 +3816,12 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="78.75">
+    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>68</v>
@@ -3716,12 +3835,12 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="126">
+    <row r="17" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>72</v>
@@ -3735,12 +3854,12 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="94.5">
+    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>76</v>
@@ -3754,12 +3873,12 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="94.5">
+    <row r="19" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>80</v>
@@ -3773,12 +3892,12 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="110.25">
+    <row r="20" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>84</v>
@@ -3792,12 +3911,12 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="78.75">
+    <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>88</v>
@@ -3811,12 +3930,12 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="78.75">
+    <row r="22" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>92</v>
@@ -3830,12 +3949,12 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1">
+    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>96</v>
@@ -3849,12 +3968,12 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="110.25">
+    <row r="24" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>100</v>
@@ -3868,12 +3987,12 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="141.75">
+    <row r="25" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>104</v>
@@ -3887,12 +4006,12 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="94.5">
+    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>108</v>
@@ -3906,7 +4025,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1">
+    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>111</v>
       </c>
@@ -3925,7 +4044,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="141.75">
+    <row r="28" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>116</v>
       </c>
@@ -3944,7 +4063,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="94.5">
+    <row r="29" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>120</v>
       </c>
@@ -3963,7 +4082,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="204.75">
+    <row r="30" spans="1:7" ht="315" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>125</v>
       </c>
@@ -3982,7 +4101,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="94.5">
+    <row r="31" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>130</v>
       </c>
@@ -3993,7 +4112,7 @@
         <v>132</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>133</v>
@@ -4001,7 +4120,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="63">
+    <row r="32" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>134</v>
       </c>
@@ -4020,7 +4139,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="157.5">
+    <row r="33" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>139</v>
       </c>
@@ -4039,7 +4158,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="110.25">
+    <row r="34" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>144</v>
       </c>
@@ -4058,7 +4177,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5">
+    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>149</v>
       </c>
@@ -4077,7 +4196,7 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="78.75">
+    <row r="36" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>154</v>
       </c>
@@ -4096,7 +4215,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75">
+    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>159</v>
       </c>
@@ -4115,7 +4234,7 @@
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75">
+    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -4134,7 +4253,7 @@
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="157.5">
+    <row r="39" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>169</v>
       </c>
@@ -4153,7 +4272,7 @@
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="78.75">
+    <row r="40" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>173</v>
       </c>
@@ -4172,7 +4291,7 @@
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="110.25">
+    <row r="41" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>177</v>
       </c>
@@ -4191,12 +4310,12 @@
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="78.75">
+    <row r="42" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>182</v>
@@ -4210,7 +4329,7 @@
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="110.25">
+    <row r="43" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>185</v>
       </c>
@@ -4229,7 +4348,7 @@
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63">
+    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>189</v>
       </c>
@@ -4248,7 +4367,7 @@
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="94.5">
+    <row r="45" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>194</v>
       </c>
@@ -4267,12 +4386,12 @@
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="78.75">
+    <row r="46" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>200</v>
@@ -4286,12 +4405,12 @@
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="157.5">
+    <row r="47" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>204</v>
@@ -4305,12 +4424,12 @@
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="204.75">
+    <row r="48" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>208</v>
@@ -4324,12 +4443,12 @@
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="110.25">
+    <row r="49" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>211</v>
@@ -4343,12 +4462,12 @@
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="126">
+    <row r="50" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>214</v>
@@ -4362,12 +4481,12 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="94.5">
+    <row r="51" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>217</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>218</v>
@@ -4381,12 +4500,12 @@
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="94.5">
+    <row r="52" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>221</v>
@@ -4400,12 +4519,12 @@
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="110.25">
+    <row r="53" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>223</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>224</v>
@@ -4419,12 +4538,12 @@
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="141.75">
+    <row r="54" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>227</v>
@@ -4438,12 +4557,12 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="94.5">
+    <row r="55" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>230</v>
@@ -4457,12 +4576,12 @@
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="78.75">
+    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>233</v>
@@ -4476,12 +4595,12 @@
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="63">
+    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>237</v>
@@ -4495,12 +4614,12 @@
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="63">
+    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>240</v>
@@ -4514,12 +4633,12 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75">
+    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>242</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>243</v>
@@ -4533,12 +4652,12 @@
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="157.5">
+    <row r="60" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>247</v>
@@ -4552,12 +4671,12 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25">
+    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>250</v>
@@ -4571,12 +4690,12 @@
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="78.75">
+    <row r="62" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>254</v>
@@ -4590,12 +4709,12 @@
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="78.75">
+    <row r="63" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>257</v>
@@ -4609,12 +4728,12 @@
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="78.75">
+    <row r="64" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>260</v>
@@ -4628,12 +4747,12 @@
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="94.5">
+    <row r="65" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>263</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>264</v>
@@ -4647,12 +4766,12 @@
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="78.75">
+    <row r="66" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>267</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>268</v>
@@ -4666,12 +4785,12 @@
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="75">
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>270</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>271</v>
@@ -4685,12 +4804,12 @@
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="120">
+    <row r="68" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>275</v>
@@ -4704,12 +4823,12 @@
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75">
+    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>278</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>279</v>
@@ -4723,12 +4842,12 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="120">
+    <row r="70" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>283</v>
@@ -4742,12 +4861,12 @@
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="105">
+    <row r="71" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>286</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>287</v>
@@ -4761,12 +4880,12 @@
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="90">
+    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>290</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>291</v>
@@ -4780,12 +4899,12 @@
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="75">
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>293</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>294</v>
@@ -4799,12 +4918,12 @@
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="150">
+    <row r="74" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>298</v>
@@ -4818,12 +4937,12 @@
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="135">
+    <row r="75" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>301</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>302</v>
@@ -4837,12 +4956,12 @@
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="120">
+    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>305</v>
@@ -4856,12 +4975,12 @@
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>308</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>309</v>
@@ -4875,12 +4994,12 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="105">
+    <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>313</v>
@@ -4894,12 +5013,12 @@
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="90">
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>317</v>
@@ -4913,12 +5032,12 @@
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="60">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>320</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>321</v>
@@ -4932,7 +5051,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="180">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>324</v>
       </c>
@@ -5967,7 +6086,7 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="75">
+    <row r="82" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>329</v>
       </c>
@@ -5986,7 +6105,7 @@
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="60">
+    <row r="83" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>333</v>
       </c>
@@ -6005,7 +6124,7 @@
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="60">
+    <row r="84" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>338</v>
       </c>
@@ -6024,7 +6143,7 @@
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1025" ht="60">
+    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>343</v>
       </c>
@@ -6043,7 +6162,7 @@
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="135">
+    <row r="86" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>348</v>
       </c>
@@ -6062,7 +6181,7 @@
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="75">
+    <row r="87" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>353</v>
       </c>
@@ -6081,7 +6200,7 @@
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="75">
+    <row r="88" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>357</v>
       </c>
@@ -6100,7 +6219,7 @@
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="120">
+    <row r="89" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>362</v>
       </c>
@@ -6119,7 +6238,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="60">
+    <row r="90" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>367</v>
       </c>
@@ -6138,7 +6257,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="75">
+    <row r="91" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>372</v>
       </c>
@@ -6157,7 +6276,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="195">
+    <row r="92" spans="1:1025" ht="195" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>377</v>
       </c>
@@ -6176,7 +6295,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="60">
+    <row r="93" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>382</v>
       </c>
@@ -6195,7 +6314,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="180">
+    <row r="94" spans="1:1025" ht="195" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>387</v>
       </c>
@@ -6214,7 +6333,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:1025" ht="33" customHeight="1">
+    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>392</v>
       </c>
@@ -6233,7 +6352,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="105">
+    <row r="96" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>397</v>
       </c>
@@ -6252,7 +6371,7 @@
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90">
+    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>402</v>
       </c>
@@ -6271,7 +6390,7 @@
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45">
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>406</v>
       </c>
@@ -6290,7 +6409,7 @@
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="120">
+    <row r="99" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>411</v>
       </c>
@@ -6309,7 +6428,7 @@
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="75">
+    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>416</v>
       </c>
@@ -6328,7 +6447,7 @@
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="225">
+    <row r="101" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>421</v>
       </c>
@@ -6347,7 +6466,7 @@
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="210">
+    <row r="102" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>426</v>
       </c>
@@ -6366,7 +6485,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="195">
+    <row r="103" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>431</v>
       </c>
@@ -6385,7 +6504,7 @@
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="270">
+    <row r="104" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>436</v>
       </c>
@@ -6399,1185 +6518,1225 @@
         <v>439</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>440</v>
+        <v>821</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="270">
+    <row r="105" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>445</v>
+        <v>822</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="270">
+    <row r="106" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>450</v>
+        <v>823</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="285">
+    <row r="107" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>455</v>
+        <v>824</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="285">
+    <row r="108" spans="1:7" ht="285" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>460</v>
+        <v>825</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165">
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="150">
+    <row r="110" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="225">
+    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C111" s="2" t="s">
+    </row>
+    <row r="112" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="90">
-      <c r="A112" s="15" t="s">
+    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="135">
-      <c r="A113" s="15" t="s">
+    <row r="114" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="165">
-      <c r="A114" s="15" t="s">
+    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="B115" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D115" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="90">
-      <c r="A115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>493</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>498</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="105">
+    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>499</v>
-      </c>
       <c r="C116" s="18" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="210">
+    <row r="117" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="135">
+    <row r="118" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="D118" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="B118" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>511</v>
-      </c>
       <c r="E118" s="18" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="135">
+    <row r="119" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="H119" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="I119" s="17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="105">
-      <c r="A120" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="B120" s="18" t="s">
+      <c r="H120" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>757</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>523</v>
-      </c>
       <c r="I120" s="17" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="285">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D122" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="E122" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="F122" s="21" t="s">
         <v>591</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="G122" s="22" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="105">
-      <c r="A122" s="16" t="s">
+    <row r="123" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A123" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="180">
-      <c r="A123" s="16" t="s">
+      <c r="E125" s="21" t="s">
+        <v>603</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A126" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="B127" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="B123" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="105">
-      <c r="A124" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="195">
-      <c r="A125" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="C125" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="D125" s="21" t="s">
+      <c r="D127" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B128" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="E125" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="105">
-      <c r="A126" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="150">
-      <c r="A127" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>624</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>615</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>616</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="90">
-      <c r="A128" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>629</v>
-      </c>
       <c r="C128" s="26" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="60">
+    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B130" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="B129" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="C129" s="26" t="s">
-        <v>631</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>633</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="60">
-      <c r="A130" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>634</v>
-      </c>
       <c r="C130" s="26" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
     </row>
-    <row r="131" spans="1:9" ht="364.5" customHeight="1">
+    <row r="131" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="F131" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B132" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="C132" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="D132" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="C131" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="90">
-      <c r="A132" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="D132" s="26" t="s">
-        <v>660</v>
-      </c>
       <c r="E132" s="26" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
-    <row r="133" spans="1:9" ht="135">
+    <row r="133" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B133" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="B133" s="26" t="s">
-        <v>644</v>
-      </c>
       <c r="C133" s="26" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
     </row>
-    <row r="134" spans="1:9" ht="214.5" customHeight="1">
+    <row r="134" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="120">
+    <row r="135" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
-    <row r="136" spans="1:9" ht="105">
+    <row r="136" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="60">
+    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="60">
+    <row r="138" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="45">
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="45">
+    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="45">
+    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="135">
+    <row r="142" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D142" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="E142" s="26" t="s">
         <v>686</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>692</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="135">
+    <row r="143" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C143" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="E143" s="26" t="s">
         <v>687</v>
-      </c>
-      <c r="D143" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>693</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="135">
+    <row r="144" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="26"/>
     </row>
-    <row r="145" spans="1:7" ht="207" customHeight="1">
+    <row r="145" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B145" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="D146" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>775</v>
-      </c>
-      <c r="D145" s="26" t="s">
+      <c r="E146" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="E145" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="F145" s="26" t="s">
+      <c r="F146" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="G145" s="26" t="s">
+      <c r="G146" s="26" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="210">
-      <c r="A146" s="26" t="s">
-        <v>713</v>
-      </c>
-      <c r="B146" s="26" t="s">
+    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B147" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C147" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="G147" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="D146" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="180">
-      <c r="A147" s="26" t="s">
-        <v>714</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="D147" s="26" t="s">
+    </row>
+    <row r="148" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="D148" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="E147" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="F147" s="26" t="s">
-        <v>734</v>
-      </c>
-      <c r="G147" s="26" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="75">
-      <c r="A148" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="C148" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="D148" s="26" t="s">
-        <v>738</v>
-      </c>
       <c r="E148" s="26" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7" ht="75">
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
-    <row r="150" spans="1:7" ht="75">
+    <row r="150" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7" ht="195">
+    <row r="151" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E151" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A152" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="F151" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="G151" s="26" t="s">
+      <c r="B152" s="26" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="105">
-      <c r="A152" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>760</v>
-      </c>
       <c r="C152" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="E152" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="D152" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>782</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="26"/>
     </row>
-    <row r="153" spans="1:7" ht="75">
+    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F153" s="24"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="75">
+    <row r="154" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
     </row>
-    <row r="155" spans="1:7" ht="75">
+    <row r="155" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
     </row>
-    <row r="156" spans="1:7" ht="75">
+    <row r="156" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
     </row>
-    <row r="157" spans="1:7" ht="180">
+    <row r="157" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="D157" s="26" t="s">
         <v>787</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="E157" s="26" t="s">
         <v>789</v>
-      </c>
-      <c r="C157" s="26" t="s">
-        <v>794</v>
-      </c>
-      <c r="D157" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="E157" s="26" t="s">
-        <v>795</v>
       </c>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
     </row>
-    <row r="158" spans="1:7" ht="120">
+    <row r="158" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B158" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>803</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="E158" s="26" t="s">
         <v>790</v>
-      </c>
-      <c r="C158" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="D158" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>796</v>
       </c>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
-    <row r="159" spans="1:7" ht="90">
+    <row r="159" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="33" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B159" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="E159" s="26" t="s">
         <v>797</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="D159" s="26" t="s">
-        <v>800</v>
-      </c>
-      <c r="E159" s="26" t="s">
-        <v>803</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7" ht="390">
+    <row r="160" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A160" s="33" t="s">
+        <v>793</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>796</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="D160" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="E160" s="26" t="s">
+        <v>798</v>
+      </c>
+      <c r="F160" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="G160" s="34" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+      <c r="A161" s="33" t="s">
+        <v>804</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="C161" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="D160" s="26" t="s">
-        <v>805</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>804</v>
-      </c>
-      <c r="F160" s="26" t="s">
+      <c r="D161" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="E161" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="G160" s="34" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="33"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="33"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="F161" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G161" s="35" t="s">
+        <v>810</v>
+      </c>
+      <c r="H161" s="24" t="s">
+        <v>811</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A162" s="33" t="s">
+        <v>815</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>817</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="E162" s="26" t="s">
+        <v>827</v>
+      </c>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="33"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
+    <row r="163" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A163" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="E163" s="26" t="s">
+        <v>828</v>
+      </c>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7585,7 +7744,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7593,7 +7752,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7601,7 +7760,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7609,16 +7768,16 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E175" s="32"/>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="5:5">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="5:5">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" s="31"/>
     </row>
   </sheetData>
@@ -7636,8 +7795,9 @@
     <hyperlink ref="G146" r:id="rId11"/>
     <hyperlink ref="G147" r:id="rId12"/>
     <hyperlink ref="G160" r:id="rId13"/>
+    <hyperlink ref="G161" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>
--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Datatron\data\minfin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="826">
   <si>
     <t>id</t>
   </si>
@@ -68,17 +63,10 @@
     <t>Инфляционная спираль – это процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен</t>
   </si>
   <si>
-    <t>Инфляционная спираль - процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен. 
-Инфляционная спираль формируется следующим образом: сначала происходит установление нового уровня заработной платы (в результате пересмотра тарифного соглашения между наемными работниками и работодателями) на соответствующем сегменте рынка труда. Как следствие возникает изменение общего уровня заработной платы в масштабах национальной экономики. Если этот процесс не уравновешивается противодействующими факторами (например, ростом производительности труда), то увеличение издержек на единицу продукции приводит к сокращению производства. Тогда, при увеличивающемся спросе, сокращение предложения приведет к росту цен. Рост цен, в свою очередь, дает новый импульс к переговорам между наемными работниками и работодателями об увеличении оплаты труда. Таким образом, ситуация повторяется на новом витке спирали «зарплата - цены»</t>
-  </si>
-  <si>
     <t>инфляционная спираль, определение, что, такое</t>
   </si>
   <si>
     <t>32.2</t>
-  </si>
-  <si>
-    <t>Международная экономическая интеграция — это процесс международного объединения экономики стран и государств в один, общий рынок, при котором постепенная отмена тарифных и нетарифных ограничений приводит к унификации экономической политики в отраслях экономики и имеет ряд выраженных последствий</t>
   </si>
   <si>
     <t>Международная экономическая интеграция — процесс международного объединения экономики стран и государств в один, общий рынок, при котором постепенная отмена тарифных и нетарифных ограничений приводит к унификации экономической политики в отраслях экономики и имеет ряд выраженных последствий. 
@@ -129,9 +117,6 @@
     <t>Антиинфляционная политика — это комплекс мер по государственному регулированию экономики, направленный на подавление инфляции</t>
   </si>
   <si>
-    <t>Антиинфляционная политика — выбор государством курса и проведение совокупности мер, направленных на урегулирование денежного обращения, сжатие массы денег, прекращение неумеренного роста цен. Зачастую сочетается с общестабилизационными мерами на макроэкономическом уровне. Антиинфляционная политика может быть как упреждающей раскручивание маховика инфляции, так и проводиться на фоне уже прогрессирующей инфляционной ситуации. В этом случае осуществляется разновидность антиинфляционная политика — дефляционная политика. В странах с развитой рыночной экономикой основным объектом антиинфляционной политики является инфляция издержек (спираль: цены — доходы — цены). Поэтому антиинфляционная политика проводится главным образом путем замораживания или ограничения роста доходов и цен, притормаживания излишней деловой активности посредством удорожания кредита и лишь во вторую очередь предусматривает урегулирование госбюджета, сокращение государственных расходов</t>
-  </si>
-  <si>
     <t>антиинфляционная, политика, антиинфляционная, определение, что, такое</t>
   </si>
   <si>
@@ -154,10 +139,6 @@
     <t>Валютная интервенция – действие центрального банка страны на валютном рынке, направленное на поддержание или ослабление национальной валюты, в ходе которого единовременно или в ограниченный период времени производится покупка или продажа большого объема валюты</t>
   </si>
   <si>
-    <t>Валютная интервенция — значительное разовое целенаправленное воздействие центрального банка страны на валютный рынок и валютный курс, осуществляемое путём продажи или закупки банком крупных партий иностранной валюты. Валютная интервенция осуществляется для регулирования курса иностранных валют в интересах государства. 
-Валютная интервенция — совместное регулирование валютных взаимоотношений стран-участниц, конкретно выражающееся в единой валютной политике в отношении третьих стран. Валютная интервенция осуществляется при активном участии и содействии государств — участников региональных зон, в пределах которых обеспечивается относительно стабильное соотношение курсов валют. При этом используются центральные банки или казначейства стран-участниц в операциях на валютном рынке, в целях воздействия на курсы валют своей собственной страны, либо иностранной, путём продажи или покупки иностранной валюты или золота. Валютная интервенция представляет собой по форме и по существу крупную по масштабам валютную операцию, проводимую в рамках определённого, обычно кратковременного периода</t>
-  </si>
-  <si>
     <t>что, такое, валютная, интервенция</t>
   </si>
   <si>
@@ -167,9 +148,6 @@
     <t>Бюджетный кодекс — это законодательный акт, который устанавливает общие принципы бюджетного законодательства Российской Федерации, организации и функционирования бюджетной системы Российской Федерации, правовое положение субъектов бюджетных правоотношений, определяет основы бюджетного процесса и межбюджетных отношений в Российской Федерации, порядок исполнения судебных актов по обращению взыскания на средства бюджетов бюджетной системы Российской Федерации, основания и виды ответственности за нарушение бюджетного законодательства Российской Федерации</t>
   </si>
   <si>
-    <t>Бюджетный кодекс — это законодательный акт, который устанавливает общие принципы бюджетного законодательства Российской Федерации, организации и функционирования бюджетной системы Российской Федерации, правовое положение субъектов бюджетных правоотношений, определяет основы бюджетного процесса и межбюджетных отношений в Российской Федерации, порядок исполнения судебных актов по обращению взыскания на средства бюджетов бюджетной системы Российской Федерации, основания и виды ответственности за нарушение бюджетного законодательства Российской Федерации.</t>
-  </si>
-  <si>
     <t>что, такое, бюджетный, кодекс, определение</t>
   </si>
   <si>
@@ -179,9 +157,6 @@
     <t>Глобализация — это процесс всемирной экономической, политической, культурной и религиозной интеграции и унификации.</t>
   </si>
   <si>
-    <t>Глобализация представляет собой процесс изменения структуры мирового хозяйства, понимаемого как совокупность национальных хозяйств, связанных друг с другом системой международного разделения труда, экономических и политических отношений, путём включения в мировой рынок и тесного переплетения экономики на основе транснационализации и регионализации. Исходя из этого происходит формирование единой мировой сетевой рыночной экономики — геоэкономики и её инфраструктуры, разрушения национального суверенитета государств, являвшихся главными действующими лицами международных отношений на протяжении многих веков. Процесс глобализации есть следствие эволюции государственно оформленных рыночных систем</t>
-  </si>
-  <si>
     <t>что, такое, глобализация, определение</t>
   </si>
   <si>
@@ -201,9 +176,6 @@
   </si>
   <si>
     <t>Гистерезис - это сохраняющиеся длительное время последствия определенных экономических явлений, отражающиеся, например, на естественном уровне безработицы</t>
-  </si>
-  <si>
-    <t>Гистерзис - это сохраняющиеся длительное время последствия определенных экономических явлений, отражающиеся, например, на естественном уровне безработицы</t>
   </si>
   <si>
     <t>что, такое, гистерзис, определение</t>
@@ -237,9 +209,6 @@
     <t>32.15</t>
   </si>
   <si>
-    <t>ДЕВИАЦИЯ  — это внезапное, непредсказуемое отклонение курса ценных бумаг, цен биржевых товаров под влиянием форс-мажорных обстоятельств.</t>
-  </si>
-  <si>
     <t>Девиация — это внезапное, непредсказуемое отклонение курса ценных бумаг, цен биржевых товаров под влиянием форс-мажорных обстоятельств</t>
   </si>
   <si>
@@ -265,12 +234,6 @@
     <t>Деноминация — изменение нарицательной стоимости денежных знаков, обычно после гиперинфляции с целью стабилизации валюты и упрощения расчётов</t>
   </si>
   <si>
-    <t>Деноминация — изменение нарицательной стоимости денежных знаков, обычно после гиперинфляции с целью стабилизации валюты и упрощения расчётов. 
-В ходе деноминации происходит обмен старых денежных знаков на новые, имеющие, как правило, меньший номинал. Старые денежные знаки могут изыматься из обращения:
-• в течение нескольких недель, что приводит к обмену не всей имеющейся на руках денежной массы;
-• в течение года или нескольких лет, когда старые деньги ходят одновременно с новыми и постепенно изымаются из обращения</t>
-  </si>
-  <si>
     <t>что, такое, деноминация, определение</t>
   </si>
   <si>
@@ -326,9 +289,6 @@
     <t>32.22</t>
   </si>
   <si>
-    <t>Закон Грэшема — это экономический теория о том, что денежные единицы, не пользующиеся спросом, или "плохие" деньги (bad money), вытесняют денежные единицы, пользующиеся повышенным спросом, или "хорошие" деньги (good money)</t>
-  </si>
-  <si>
     <t>Экономическая теория о том, что денежные единицы, не пользующиеся спросом, или «плохие» деньги (bad money), вытесняют денежные единицы, пользующиеся повышенным спросом, или «хорошие» деньги (good money). 
 Люди, сталкиваясь в условиях золотого стандарта с выбором между двумя валютами одинаковой номинальной стоимости, одна из которых предпочтительна по сравнению с другой вследствие содержания драгметаллов или меньшей подверженности повреждениям, будут сохранять пользующиеся спросом и расходовать не пользующиеся спросом деньги, таким образом выводя пользующиеся спросом деньги из оборота. Это наблюдение названо именем сэра Томаса Грэшема, финансового советника английской королевы Елизаветы I</t>
   </si>
@@ -342,13 +302,6 @@
     <t>Закон Оукена — это экономический закон наличия обратной зависимости между уровнем безработицы, превышающим естественный; и величиной валового национального продукта страны</t>
   </si>
   <si>
-    <t xml:space="preserve">Закон Оукена - экономический закон наличия обратной зависимости между
-• уровнем безработицы, превышающим естественный; и
-• величиной валового национального продукта страны.
-Каждые 2%, на которые реальный ВНП превышает свой естественный уровень, сокращает уровень безработицы на 1% по сравнению с естественным уровнем безработицы.
-Каждые 2% сокращения реального ВНП увеличивают уровень безработицы на 1% по сравнению с естественным уровнем безработицы. </t>
-  </si>
-  <si>
     <t>что, такое, закон, оукена, закон оукена</t>
   </si>
   <si>
@@ -358,9 +311,6 @@
     <t>Закон Сэя - это закон, согласно которому предложение рождает свой собственный спрос. При этом приводится следующий аргумент: в экономике с полностью гибкими ценами и гибкой зарплатой факторы производства всегда найдут применение, а товары всегда будут проданы</t>
   </si>
   <si>
-    <t>Закон Сэя - это закон согласно которому предложение рождает свой собственный спрос. При этом приводится следующий аргумент: в экономике с полностью гибким ценами (flexible prices) и гибкой зарплатой факторы производства всегда найдут применение, а товары всегда будут проданы. Не может быть равновесия (equilibrium) в условиях вынужденной безработицы и вынужденного простаивания производственных мощностей. Если можно достигнуть полной гибкости цен и зарплаты, то кажется, что тут нет логической ошибки в рассуждениях. Проблема заключается в том, что недостаток точной информации делает цены и зарплату малоподвижными, а это означает, что может существовать вынужденная безработица (involuntary unemployment). Если негибкость цен и зарплаты не может быть полностью устранена, то ее уменьшение еще более ухудшает положение. Это происходит потому, что тенденция к снижению в ценах и зарплате ведет к возникновению ловушки ликвидности (liquidity trap), когда реальные расходы падают, и накопление денег выглядит наиболее прибыльной деятельностью из всех доступных возможностей.</t>
-  </si>
-  <si>
     <t>что, такое, закон, сэя, закон сэя</t>
   </si>
   <si>
@@ -385,12 +335,6 @@
     <t>В отличие от валового внутреннего продукта, показатель валовой национальный продукт включает стоимость потребленных населением товаров и услуг, государственных закупок, капитальных вложений, а также сальдо внешнеэкономических операций за год, включающее сальдо торгового баланса и сальдо платежного баланса</t>
   </si>
   <si>
-    <t xml:space="preserve">Валовой внутренний продукт (ВВП) – один из важнейших макроэкономических показателей, выражающий исчисленную в рыночных ценах совокупную стоимость конечного продукта (продукции, товаров и услуг), созданного в течение года внутри страны с использованием факторов производства, принадлежащих как данной стране, так и другим странам. 
-ВВП, исчисленный по реальным затратам производителей (т.е. без налогов и субсидий), имеет название "валовой внутренний продукт по факторной стоимости". С учетом же итогового сальдо налогов и субсидий показатель ВВП превращается в "валовой внутренний продукт по рыночным ценам" Для удобства международных отношений ВВП рассчитывается в американских долларах. Сопоставимость показателей обеспечивается единой методологией национальных счетов, разработанной статистической службой ООН и принятой в большинстве стран мира.
-Валовой национальный продукт (ВНП) – один из широко распространенных обобщающих макроэкономических показателей, представляющий исчисленную в рыночных ценах стоимость произведенного страной в течение года конечного (готового) продукта. В ВНП включается стоимость продукта, созданного как в самой стране, так и за рубежом с использованием факторов производства, принадлежащих данной стране. В отличие от валового внутреннего продукта, показатель ВНП включает стоимость потребленных населением товаров и услуг, государственных закупок, капитальных вложений, а также сальдо внешнеэкономических операций за год, включающее сальдо торгового баланса (стоимостную разницу экспорта и импорта товаров и услуг) и сальдо платежного баланса (стоимостную разницу между заграничными платежами и поступлениями по заработной плате, прибылями и др.). В зависимости от знака сальдо ВНП может быть больше или меньше ВВП ВНП может быть рассчитан методом суммирования добавленных стоимостей, методами потока затрат и потока доходов. Если весь произведенный в стране продукт реализован, то есть продан и оплачен, то ВНП равен валовому национальному доходу. ВНП равен сумме чистого национального дохода (вновь созданной стоимости) и амортизационных отчислений и реновацию изношенных основных средств. 
-</t>
-  </si>
-  <si>
     <t>чем, отличается, ввп, внп, валовый, внутренний, продукт, национальный, различия</t>
   </si>
   <si>
@@ -400,9 +344,6 @@
     <t>Что такое кривая спроса и кривая предложения?</t>
   </si>
   <si>
-    <t>Кривая спроса показывает вероятное количество товара, который удаётся продать за определенное время и по определённой цене. Кривая предложения показывает соотношение между рыночными ценами и количеством товаров, которые производители желают предложить.</t>
-  </si>
-  <si>
     <t>что, такое, кривая, спроса, предложения, показывает, кривые</t>
   </si>
   <si>
@@ -410,9 +351,6 @@
   </si>
   <si>
     <t>Что такое монополия и олигополия?</t>
-  </si>
-  <si>
-    <t>Монополия представляет собой крупную корпорацию, занимающую определенное положение на рынке. Олигополия – это рынок, на котором доминируют несколько конкурирующих фирм</t>
   </si>
   <si>
     <t>Монополия представляет собой крупную корпорацию, занимающую определенное положение на рынке. 
@@ -431,12 +369,6 @@
     <t>Министерство финансов России — это федеральный орган исполнительной власти, обеспечивающий проведение единой финансовой политики, а также осуществляющее общее руководство в области организации финансов в Российской Федерации.</t>
   </si>
   <si>
-    <t>В соответствии с положением о Министерстве финансов Российской Федерации является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в сфере бюджетной, налоговой, страховой, валютной, банковской деятельности, государственного долга, аудиторской деятельности, бухгалтерского учета и бухгалтерской отчетности, производства, переработки и обращения драгоценных металлов и драгоценных камней, таможенных платежей, определения таможенной стоимости товаров и транспортных средств, инвестирования средств для финансирования накопительной части трудовой пенсии, организации и проведения лотерей, производства и оборота защищенной полиграфической продукции, финансового обеспечения государственной службы, противодействия легализации доходов, полученных преступным путем, и финансированию терроризма.
-Министерство финансов Российской Федерации осуществляет координацию и контроль за деятельностью находящихся в его ведении Федеральной налоговой службы, Федеральной службы страхового надзора, Федеральной службы финансово-бюджетного надзора, Федеральной службы по финансовому мониторингу и Федерального казначейства, а также контроль за исполнением Федеральной таможенной службой нормативных правовых актов по вопросам исчисления и взимания таможенных платежей, определения таможенной стоимости товаров и транспортных средств.
-Министерство финансов Российской Федерации руководствуется в своей деятельности Конституцией Российской Федерации, федеральными конституционными законами, федеральными законами, актами Президента Российской Федерации и Правительства Российской Федерации, международными договорами Российской Федерации, а также Положением о Министерстве финансов Российской Федерации.
-Министерство финансов Российской Федерации осуществляет свою деятельность во взаимодействии с другими федеральными органами исполнительной власти, органами исполнительной власти субъектов Российской Федерации, органами местного самоуправления, общественными объединениями и иными организациями.</t>
-  </si>
-  <si>
     <t>что, такое, минфин, министерство, финансов, россии, определение</t>
   </si>
   <si>
@@ -477,13 +409,6 @@
     <t>Издержки - это денежное выражение использования производственных ресурсов, в результате которого осуществляется производство и реализация продукции</t>
   </si>
   <si>
-    <t>Издержки — это – денежное выражение использования производственных ресурсов, в результате которого осуществляется производство и реализация продукции 
-Постоянные издержки — это такой вид затрат, который несет предприятие в рамках одного производственного цикла. Определяется предприятием самостоятельно. Все эти затраты будут характерны для всех циклов производства товара.
-Переменные издержки — это такие виды затрат, которые переносятся на готовое изделие в полном объеме.
-Общие издержки — те затраты, которые несет предприятие в течении одной стадии производства (Постоянные \+ Переменные)
-Средние издержки – это издержки, взвешенные по объему производства, то есть издержки на единицу выпускаемой продукции. Различают общие средние издержки, равные частному от деления полных издержек на объем производства; средние переменные издержки, равные частному от деления переменных издержек на объем производства; средние постоянные издержки, равные частному от деления постоянных издержек на объем производства</t>
-  </si>
-  <si>
     <t>что, такое, определение, издержки, производства</t>
   </si>
   <si>
@@ -511,9 +436,6 @@
     <t>Экономические блага включают в себя две категории: товары и услуги. Блага, существующие в природе «свободно», в неограниченном количестве, называются неэкономическими или даровыми.</t>
   </si>
   <si>
-    <t>Экономические блага — это результаты экономической деятельности, которые можно получить в ограниченном количестве по сравнению с потребностями. Экономические блага включают в себя две категории: товары и услуги. Блага, существующие в природе «свободно», в неограниченном количестве и называются неэкономическими или даровыми</t>
-  </si>
-  <si>
     <t>что, такое, определение, экономические, блага, входит, составляющие</t>
   </si>
   <si>
@@ -538,9 +460,6 @@
     <t>Что такое дефолт?</t>
   </si>
   <si>
-    <t>Дефолт — это невыполнение денежных обязательств в установленный срок; неуплата долгов, финансовая несостоятельность.</t>
-  </si>
-  <si>
     <t>Дефолт — это невыполнение денежных обязательств в установленный срок; неуплата долгов, финансовая несостоятельность</t>
   </si>
   <si>
@@ -592,9 +511,6 @@
     <t>Что такое теория трудовой стоимости?</t>
   </si>
   <si>
-    <t>Теория трудовой стоимости — это экономическая теория, в соответствии с которой товары обмениваются между собой в таких количествах, чтобы обеспечить равенство общественно-необходимых затрат труда</t>
-  </si>
-  <si>
     <t>что, такое, определение, теория, трудовой, стоимости</t>
   </si>
   <si>
@@ -602,9 +518,6 @@
   </si>
   <si>
     <t>Маржинализм — это направление в экономической науке, признающее принцип снижающейся предельной полезности фундаментальным элементом теории стоимости</t>
-  </si>
-  <si>
-    <t>Маржинализм — это направление в экономической науке, признающее принцип снижающейся предельной полезности фундаментальным элементом теории стоимости.</t>
   </si>
   <si>
     <t>что, такое, определение, маржинализм</t>
@@ -698,9 +611,6 @@
     <t>32.51</t>
   </si>
   <si>
-    <t>М\+аркетинг — это предпринимательская деятельность, которая управляет продвижением товаров и услуг от производителя к потребителю. Кроме того, под маркетингом подразумевается деятельность по изучению текущего рынка сбыта</t>
-  </si>
-  <si>
     <t>Маркетинг – это предпринимательская деятельность, которая управляет продвижением товаров и услуг от производителя к потребителю.
 Кроме того, под маркетингом подразумевается деятельность по изучению текущего рынка сбыта</t>
   </si>
@@ -828,9 +738,6 @@
     <t>32.64</t>
   </si>
   <si>
-    <t>Фондоемкость — это средняя сумма промышленно производственных основных фондов по первоначальной стоимости деленная на объем выпущенной продукции</t>
-  </si>
-  <si>
     <t>что, такое, определение, фондоемкость</t>
   </si>
   <si>
@@ -838,9 +745,6 @@
   </si>
   <si>
     <t>Фондовооруженность труда — это  показатель отражающий эффективность использования производственных фондов предприятия</t>
-  </si>
-  <si>
-    <t>Фондовооруженность труда — это  показатель отражающий эффективность использования производственных фондов предприятия. Другими словами коэффициент отражает степень обеспеченности персонала основными средствами производства</t>
   </si>
   <si>
     <t>что, такое, определение, фондовооруженность, труда</t>
@@ -898,10 +802,6 @@
 </t>
   </si>
   <si>
-    <t>Импорт – ввоз из-за границы товаров, технологии и капиталов для реализации и приложения на внутреннем рынке страны-импортера; возмездное получение от иностранных партнеров услуг производственного или потребительского назначения
-Источник информации: Словарь финансовых терминов</t>
-  </si>
-  <si>
     <t>что, такое, определение, импорт</t>
   </si>
   <si>
@@ -911,13 +811,6 @@
     <t>Экспорт — это вывоз за границу товаров, услуг и капитала для реализации на внешних рынках</t>
   </si>
   <si>
-    <t>Экспорт - вывоз за границу товаров, услуг и капитала для реализации на внешних рынках. 
-Различают:
-• экспорт товаров, т.е. вывоз материальных благ, возмездное предоставление иностранному партнеру услуг производственного характера или потребительского назначения; 
-• экспорт капитала, т. е. вложение капитала за пределами данной страны (строительство и эксплуатация соответствующих предприятий и объектов) с целью получения более высокой нормы прибыли. 
-Экспорт выступает как результат международного разделения труда и служит материальной предпосылкой импорта, т.к. выручка от экспорта основной источник средств для оплаты импорта. На практике экспортные и импортные операции взаимосвязаны</t>
-  </si>
-  <si>
     <t>что, такое, определение, экспорт</t>
   </si>
   <si>
@@ -925,15 +818,6 @@
   </si>
   <si>
     <t>Сбережения — это часть доходов, не использованная в определенный период времени на текущее потребление</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сбережения — часть доходов, не использованная в определенный период времени на текущее потребление. 
-Виды сбережений: 
-• личные сбережения, 
-• сбережения корпораций, 
-• правительственные (нераспределенные, не истраченные согласно бюджету) доходы. 
-На размер сбережений влияют высота процентной ставки и уровень доходов населения.
-</t>
   </si>
   <si>
     <t>Что, такое, определение, сбережения</t>
@@ -1028,9 +912,6 @@
     <t>Трест — это одна из форм монополистических объединений, в рамках которой участники теряют производственную, коммерческую, а порой даже юридическую самостоятельность.</t>
   </si>
   <si>
-    <t>Трест — одна из форм монополистических объединений, в рамках которой участники теряют производственную, коммерческую, а порой даже юридическую самостоятельность. Реальная власть в тресте сосредотачивается в руках правления или главной компании.</t>
-  </si>
-  <si>
     <t>что, такое, определение, трест</t>
   </si>
   <si>
@@ -1038,9 +919,6 @@
   </si>
   <si>
     <t>Секвестр бюджета — это пропорциональное снижение всех расходных статей бюджета на определённую долю.</t>
-  </si>
-  <si>
-    <t>Секвестр бюджета — это пропорциональное снижение всех расходных статей бюджета на определённую долю. Его применяют для сокращения дефицита бюджета, который возникает, когда расходы превышают доходы. Как правило, в рамках секвестирования правительство определяет статьи, расходы на которые сокращать нельзя. Обычно это важные социальные выплаты и оплата внешнего долга.</t>
   </si>
   <si>
     <t>что, такое, определение, секвестр, бюджета</t>
@@ -1083,9 +961,6 @@
     <t>Инфляция и дефляция - это изменения, соответственно повышение и понижение, общего уровня цен в экономике.</t>
   </si>
   <si>
-    <t>Инфляция и дефляция - это изменения, соответственно повышение и понижение, общего уровня цен в экономике. Наиболее типичным изменением уровня цен является инфляция – обесценивание денег в результате роста цен на все товары. Дефляция, повышение ценности денег в результате снижения уровня цен, наблюдается реже и охватывает, как правило, не все виды товаров, а лишь отдельные их группы</t>
-  </si>
-  <si>
     <t>что, такое, определение, дефляция, инфляция</t>
   </si>
   <si>
@@ -1098,11 +973,6 @@
     <t>Казна - это финансовые ресурсы государства, централизованные государственные источники финансов</t>
   </si>
   <si>
-    <t>Казна (от тюрк. - хранилище денег):
-• финансовые ресурсы государства, централизованные государственные источники финансов, включая средства федерального бюджета, бюджетов субъектов Федерации, государственное имущество, не закрепленное за государственными предприятиями и учреждениями; 
-• хранилище денег и драгоценностей правителей, королей, царей, монастырей в историческом прошлом.</t>
-  </si>
-  <si>
     <t>что, такое, определение, казна</t>
   </si>
   <si>
@@ -1130,9 +1000,6 @@
     <t>Экономическое равновесие — это состояние экономической системы, рынка, характеризуемое наличием сбалансированности, уравновешиванием двух разнонаправленных факторов, например равновесия спроса и предложения, производства и потребления, доходов и расходов</t>
   </si>
   <si>
-    <t>Экономическое равновесие — состояние экономической системы, рынка, характеризуемое наличием сбалансированности, уравновешиванием двух разнонаправленных факторов, например равновесия спроса и предложения, производства и потребления, доходов и расходов. Равновесие может быть неустойчивым, кратковременным и устойчивым, длительным.</t>
-  </si>
-  <si>
     <t>что, такое, определение, равновесие, экономика, экономическое равновесие</t>
   </si>
   <si>
@@ -1157,9 +1024,6 @@
     <t>Спрос — это зависимость между ценой  и количеством товара, которое покупатели могут и желают купить по строго определенной цене, в определенный промежуток времени</t>
   </si>
   <si>
-    <t>Спрос — это зависимость между ценой  и количеством товара, которое покупатели могут и желают купить по строго определенной цене, в определенный промежуток времени. Спрос - это потребность, подкреплённая покупательной способностью</t>
-  </si>
-  <si>
     <t>что, такое, определение, спрос, экономика</t>
   </si>
   <si>
@@ -1202,9 +1066,6 @@
     <t>К основному капиталу относится та часть авансированного капитала, которая затрачена на постройку зданий, сооружений, на покупку машин, оборудования, инструмента</t>
   </si>
   <si>
-    <t>Основной капитал предприятия – это часть производительного капитала, который полностью и многократно принимает участие в производстве товара, переносит свою стоимость на новый продукт по частям, в течение ряда периодов. К основному капиталу относится та часть авансированного капитала, которая затрачена на постройку зданий, сооружений, на покупку машин, оборудования, инструмент.</t>
-  </si>
-  <si>
     <t>что, относится, считается, входит, основной, капитал</t>
   </si>
   <si>
@@ -1217,9 +1078,6 @@
     <t>Невидимая рука рынка — это термин, ведущий свое происхождение от Адама Смита и означающий рыночный механизм саморегулирования экономики. Согласно утверждению Смита, в экономике свободного рынка отдельные индивиды, руководствуясь собственными интересами, направляются как бы невидимой рукой рынка и их действия поневоле обеспечивают осуществление интересов других людей и общества в целом</t>
   </si>
   <si>
-    <t>"Невидимая рука рынка" — популярная метафора, впервые использованная Адамом Смитом в работе Исследование о природе и причинах богатства народов для описания механизма влияния индивидуальных интересов на максимизацию общественного богатства</t>
-  </si>
-  <si>
     <t>что, такое, определение, невидимая, рука, рынка</t>
   </si>
   <si>
@@ -1232,9 +1090,6 @@
     <t>Общественное благо - это благо, которое потребляется коллективно всеми гражданами независимо от того, платят они за него или нет</t>
   </si>
   <si>
-    <t>Общественное благо - это благо, которое потребляется коллективно всеми гражданами независимо от того, платят они за него или нет. Признаки общественного блага: признак неисключения, признак неконкурентности в потреблении, признак неделимости. Примером общественного блага можно считать маяк, а также обеспеченную внутреннюю и внешнюю безопасность правового государства</t>
-  </si>
-  <si>
     <t>что, такое, определение, общественное, благо</t>
   </si>
   <si>
@@ -1247,12 +1102,6 @@
     <t>Великими экономистами принято считать Адама Смита, основателя экономики как науки, и автора труда «Исследование о природе и причинах богатства народов», а также Карла Маркса и Джона Мейнард Кейнса</t>
   </si>
   <si>
-    <t xml:space="preserve">Адам Смит. Его считают первым экономистом и основателем всей этой науки. Фундаментом для нее стала его книга «Исследование о природе и причинах богатства народов». В этом труде Смит предложил концепцию экономического человека, которым движет эгоизм и стремление к обогащению. 
-Карл Маркс. Ученый полагал, что стоимость любого товара находится в прямой зависимости от потраченного на него труда. Капиталист может извлекать прибыль только в том случае, если цена товара будет стоять выше, чем стоимость производства. Добиться этого можно исключительно эксплуатацией рабочего класса. В конечном счете, по мнению Маркса, капитализм приведет к полному обнищанию пролетариев.
-Джон Мейнард Кейнс. Во времена Великой депрессии оказалось, что «невидимая рука» Смита не всегда может справляться с экономическими проблемами, именно поэтому порой требуется решительное вмешательство государства. В тяжелые кризисные времена страна просто обязана увеличивать траты, тем самым будет поддерживаться уровень занятости населения. Благодаря Кейнсу был также создан послевоенный валютный режим. Сперва его привязали к золотому стандарту, а теперь уже к американскому доллару, обеспеченным лишь авторитетом страны.
-</t>
-  </si>
-  <si>
     <t>какие, великие, известые, экономисты</t>
   </si>
   <si>
@@ -1265,9 +1114,6 @@
     <t>Средства труда — это орудия производства, с помощью которых осуществляется воздействие на предметы труда</t>
   </si>
   <si>
-    <t>Средства труда – это орудия производства, с помощью которых осуществляется воздействие на предметы труда.</t>
-  </si>
-  <si>
     <t>что, такое, определение, средство, труда, экономика</t>
   </si>
   <si>
@@ -1280,9 +1126,6 @@
     <t>Средства производства - это орудия и предметы производственной, трудовой деятельности людей; основные средства и оборотные средства, используемые в производстве; все, что создано людьми и используется ими в производственной деятельности</t>
   </si>
   <si>
-    <t>Средства производства - орудия и предметы производственной, трудовой деятельности людей; основные средства (производственные здания, сооружения, машины, оборудование, инструменты, приборы) и оборотные средства (сырье, материалы, энергия, малоценный инвентарь), используемые в производстве; все, что создано людьми и используется ими в производственной деятельности.</t>
-  </si>
-  <si>
     <t>что, такое, определение, средство, производства</t>
   </si>
   <si>
@@ -1307,9 +1150,6 @@
     <t>Рынок труда — это сфера формирования спроса и предложения рабочей силы (трудовых услуг).</t>
   </si>
   <si>
-    <t>Рынок труда — это сфера формирования спроса и предложения рабочей силы (трудовых услуг). Через рынок труда большинство работающего населения получает работу и доходы. Рынок трударегулируется спросом и предложением рабочей силы</t>
-  </si>
-  <si>
     <t>что, такое, определение, рынок, труда</t>
   </si>
   <si>
@@ -1322,10 +1162,6 @@
     <t>Государственный бюджет – смета доходов и расходов государства за определенный период времени, чаще всего на год, составленная с указанием источников поступления государственных доходов и направлений, каналов расходования средств</t>
   </si>
   <si>
-    <t>Государственный бюджет – смета доходов и расходов государства за определенный период времени, чаще всего на год, составленная с указанием источников поступления государственных доходов и направлений, каналов расходования средств. 
-Государственный бюджет составляется Правительством, утверждается и принимается высшими законодательными органами. В процессе исполнения бюджета может иметь место его частичный пересмотр. В Российской Федерации государственный бюджет разделяется на федеральный и бюджеты субъектов Федерации</t>
-  </si>
-  <si>
     <t>что, такое, определение, государственный, бюджет,  гос.бюджет, госбюджет</t>
   </si>
   <si>
@@ -1338,12 +1174,6 @@
     <t>Кредитная система России имеет два уровня: Центральный банк РФ,  Коммерческие банки и другие финансово-кредитные институты</t>
   </si>
   <si>
-    <t>Кредитная система – совокупность кредитных отношений, принятых в стране, банков и других финансово-кредитных учреждений, осуществляющих и организующих данные отношения. 
-Кредитная система России имеет 2 уровня: 
-• Центральный банк РФ, 
-• Коммерческие банки и другие финансово-кредитные институты</t>
-  </si>
-  <si>
     <t>какая, структура, кредитная, система, россия, российская, федерация, рф, что, входит, из, чего</t>
   </si>
   <si>
@@ -1356,9 +1186,6 @@
     <t>Основная функция Центрального Банка РФ - это защита и обесп\+ечение устойчивости рубля. В соответствии с законодательством Российской Федерации Банк России может осуществлять на рынке покупку, продажу как государственных, так и корпоративных долговых бумаг (акций — только в рамках операций РЭПО). При этом покупка государственных ценных бумаг Банком России может осуществляться только на вторичном рынке (в целях ограничения возможностей прямого эмиссионного финансирования бюджета)</t>
   </si>
   <si>
-    <t>Основная функция Центрального Банка РФ - это защита и обеспечение устойчивости рубля. Статус, цели деятельности, функции и полномочия Банка России определяются Федеральным законом 10 июля 2002 года № 86-ФЗ «О Центральном банке Российской Федерации (Банке России)» и другими федеральными законами. Согласно законодательству Банк России может осуществлять на рынке покупку/продажу как государственных, так и корпоративных долговых бумаг (акций — только в рамках операций РЕПО). При этом покупка государственных ценных бумаг Банком России может осуществляться только на вторичном рынке (в целях ограничения возможностей прямого эмиссионного финансирования бюджета)</t>
-  </si>
-  <si>
     <t>какая,функция,зачем,что,делает,отвечает,ответственен,центральный,банк,цб,россия,российская,федерация,рф,операции,открытый,рынок</t>
   </si>
   <si>
@@ -1371,14 +1198,6 @@
     <t>Основные положения денежной системы Российской Федерации определены в Федеральном законе от десятого июля две тысячи второго года номер восемьдесят шесть ФЗ «О Центральном банке Российской Федерации (Банке России)»</t>
   </si>
   <si>
-    <t xml:space="preserve">Национальная денежная система - исторически сложившиеся и закрепленные правовыми нормами способы и формы выпуска денег и организации денежного обращения в стране.
-Основные положения денежной системы Российской Федерации определены в Федеральном законе от 10 июля 2002 г. № 86-ФЗ «О Центральном банке Российской Федерации (Банке России)».
-Законом запрещен выпуск иных денежных единиц и денежных суррогатов, подчеркнута ответственность лиц, нарушающих единство денежного обращения. Официальное соотношение между рублем и золотом или другими ценными металлами не устанавливается. Исключительное право выпуска наличных денег, организация обращения и изъятие их из обращения на территории Российской Федерации принадлежит ЦБ РФ.
-Видами денег, имеющими законную платежную силу, являются банковские билеты (банкноты) и металлическая монета, образцы которых утверждаются Банком России. Банкноты и металлическая монета являются безусловными обязательствами ЦБ и обеспечиваются его активами. Они обязательны к приему по их нарицательной стоимости на всей территории Российской Федерации по всем видам платежей, а также для зачисления на счета, вклады, депозиты и для перевода.
-Законом разделены полномочия Правительства РФ и Центрального банка РФ в области изготовления денежных знаков. Центральный банк РФ несет ответственность лишь за планирование объемов их производства.
-</t>
-  </si>
-  <si>
     <t>какие, особенность, денежная, система, россия, рф, российская, федерация</t>
   </si>
   <si>
@@ -1389,17 +1208,6 @@
   </si>
   <si>
     <t>Налоговый кодекс Российской федерации – это кодифицированный законодательный акт, состоящий из двух частей. Часть первая устанавливает систему налогов и сборов, а так же общие принципы налогообложения и уплаты сборов в Российской Федерации. Часть вторая устанавливает взимаемые налоги и сборы, а так же ряд специальных налоговых режимов</t>
-  </si>
-  <si>
-    <t>Налоговый кодекс - это кодифицированный законодательный акт, состоящий из двух частей: часть первая (общая часть) и часть вторая (специальная или особенная часть).
-Часть первая НК РФ вступила в силу с 1 января 1999 г. Эта часть кодекса устанавливает систему налогов и сборов, а так же общие принципы налогообложения и уплаты сборов в Российской Федерации, в том числе: 
-• виды налогов и сборов, взимаемых в Российской Федерации; 
-• основания возникновения (изменения, прекращения) и порядок исполнения обязанностей по уплате налогов и сборов; 
-• принципы установления, введения в действие и прекращения действия ранее введенных налогов субъектов федерации и местных налогов; 
-• права и обязанности налогоплательщиков, налоговых органов, налоговых агентов, других участников отношений, регулируемых законодательством о налогах и сборах; 
-• формы и методы налогового контроля; ответственность за совершение налоговых правонарушений; 
-• порядок обжалования актов налоговых органов и действий (бездействия) их должностных лиц.
-Часть вторая НК РФ вступила в силу с 1 января 2001 г. Эта часть устанавливает конкретные взимаемые налоги и сборы, а так же ряд специальных налоговых режимов. Для каждого налога часть вторая НК РФ определяет элементы налогообложения (объект налогообложения, налоговую базу, налоговый период, налоговую ставку, порядок исчисления налога, порядок и сроки уплаты налога), в необходимых случаях налоговые льготы и основания для их использования налогоплательщиком, порядок декларирования налога. Для каждого сбора - плательщиков и элементы обложения применительно к конкретным сборам. Для каждого специального налогового режима - условия и порядок его применения, особый порядок определения элементов налогообложения, а также возможность освобождения от обязанности по уплате отдельных налогов и сборов, предусмотренных частью первой Налогового Кодекса, порядок декларирования налога, уплачиваемого в связи с применением специального налогового режима</t>
   </si>
   <si>
     <t xml:space="preserve">что, такое, налоговый кодекс, </t>
@@ -1533,11 +1341,6 @@
     <t>Экономика - это хозяйственная деятельность общества, а также совокупность отношений, складывающихся в системе производства, распределения, обмена и потребления</t>
   </si>
   <si>
-    <t>Экономика (от греч. oikos - дом, хозяйство и nomos - правило, закон; в совокупности - правила ведения хозяйства) – 
-1) хозяйство, совокупность средств, объектов, процессов, используемых людьми для обеспечения жизни, удовлетворения потребностей путем создания необходимых человеку благ, условий и средств существования с применением труда; 
-2) наука о хозяйстве, способах его ведения людьми, отношениях между людьми в процессе производства и обмена товаров, закономерностях протекания хозяйственных процессов.</t>
-  </si>
-  <si>
     <t>Что, такое, экономика, определение</t>
   </si>
   <si>
@@ -1550,10 +1353,6 @@
     <t>Кризис экономический – это резкое ухудшение экономического состояния страны, проявляющееся в значительном спаде производства, нарушении сложившихся производственных связей, банкротстве предприятий, росте безработицы и в итоге - в снижении жизненного уровня, благосостояния населения</t>
   </si>
   <si>
-    <t xml:space="preserve">Кризис экономический (от греч. krisis - поворотный пункт) - резкое ухудшение экономического состояния страны, проявляющееся в значительном спаде производства, нарушении сложившихся производственных связей, банкротстве предприятий, росте безработицы и в итоге - в снижении жизненного уровня, благосостояния населения.
-</t>
-  </si>
-  <si>
     <t>Что, такое, экономический, кризис, определение</t>
   </si>
   <si>
@@ -1564,11 +1363,6 @@
   </si>
   <si>
     <t>Проект федерального бюджета и проекты бюджетов государственных внебюджетных фондов Российской Федерации, проект бюджета субъекта Российской Федерации и проекты территориальных государственных внебюджетных фондов Российской Федерации составляются и утверждаются сроком на три года - очередной финансовый год и плановый период</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В соответствии с пунктом 3 статьи 169 проект федерального бюджета и проекты бюджетов государственных внебюджетных фондов Российской Федерации составляются и утверждаются сроком на три года - очередной финансовый год и плановый период.
-В соответствии с пунктом 4 статьи 169 проект бюджета субъекта Российской Федерации и проекты территориальных государственных внебюджетных фондов составляются и утверждаются сроком на три года - очередной финансовый год и плановый период.
-</t>
   </si>
   <si>
     <t>что, такое, трехлетний, бюджет, определение</t>
@@ -1607,9 +1401,6 @@
     <t>32.122</t>
   </si>
   <si>
-    <t xml:space="preserve">Строительство трансконтинентального транспортного коридора «Европа – Западный Китай» называют «Новым шелковым пут+ем». На комплексное развитие международного транспортного коридора «Европа - Западный Китай» на территории Российской Федерации в период реализации подпрограммы в две тысячи восемнадцатом две тысячи двадцатом годах предусмотрен объем финансирования в сумме двадцать миллиардов двадцать восемь миллионов рублей. </t>
-  </si>
-  <si>
     <t>Расходы на строительство "Шелкового пути"</t>
   </si>
   <si>
@@ -1629,9 +1420,6 @@
   </si>
   <si>
     <t xml:space="preserve">Со структурой расходов федерального бюджета по данным оперативной отчетности, а также ежемесячных и годовых отчетов об исполнении бюджета можно ознакомиться на Едином портале бюджетной системы в разделе  «Бюджет» - «Расходы» </t>
-  </si>
-  <si>
-    <t>В соответствии с постановлением Правительства РФ от 20 июня 2013 г. N 518 "О Программе подготовки к проведению в 2018 году в Российской Федерации чемпионата мира по футболу" (с изменениями и дополнениями от 4 августа 2017 г.) на реализацию Программы предусмотрен объем финансирования в период 2013-2018 гг. в сумме  643,5 млрд. рублей</t>
   </si>
   <si>
     <t>http://budget.gov.ru/epbs/faces/p/Бюджет/Расходы</t>
@@ -1675,16 +1463,6 @@
   </si>
   <si>
     <t>Информация о расходах бюджета на Едином портале бюджетной системы</t>
-  </si>
-  <si>
-    <t>Со структурой доходов федерального бюджета по данным оперативной отчетности, а также ежемесячных и годовых отчетов об исполнении бюджета можно ознакомиться на Едином портале бюджетной системы в разделе  «Бюджет» - «Доходы».
-Доходы федерального бюджета в 2016 году составили 13 460,04 млрд. руб. 
-Формирование доходов федерального бюджета обеспечено за счет поступлений:
-• налогов на товары (работы, услуги), реализуемые на территории Российской Федерации (24,4%), 
-• налогов, сборов и регулярных платежей за пользование природными ресурсами (21,4%), 
-• доходов от внешнеэкономической деятельности (19,4%),
-• налогов на товары, ввозимые на территорию Российской Федерации (14,7%), 
-• доходов от использования имущества, находящегося в государственной и муниципальной собственности (9,5%), и др.</t>
   </si>
   <si>
     <t xml:space="preserve">Со структурой расходов федерального бюджета по данным оперативной отчетности, а также ежемесячных и годовых отчетов об исполнении бюджета можно ознакомиться на Едином портале бюджетной системы в разделе  «Бюджет» - «Расходы».
@@ -1850,9 +1628,6 @@
   </si>
   <si>
     <t>Что является источником собственного капитала?</t>
-  </si>
-  <si>
-    <t>Что такое рыночная конъюктура?</t>
   </si>
   <si>
     <t>Что такое патент?</t>
@@ -1934,19 +1709,6 @@
 </t>
   </si>
   <si>
-    <t>Преимущества облигаций федерального займа для физических лиц (ОФЗ-н): 
-1. Для государства: 
-• стимулирование физических лиц к среднесрочным сбережениям 
-• повышение финансовой грамотности населения 
-• усиление конкуренции в финансовом секторе - стимул для повышения банками качества и доступности услуг/продуктов 
-• воспитание внутреннего инвестора, развитие внутреннего рынка капитала • потенциальное снижение стоимости заимствований в долгосрочной перспективе.  
-2. Для владельцев (граждан): 
-• получение упрощенного доступа к долговым инструментам с высоким кредитным качеством 
-• повышение финансовой грамотности 
-• возможность получать больший доход, чем по банковским депозитам, при минимальных рисках 
-• просто купить в отделении банков-агентов Сбербанка и ВТБ24 либо в личном кабинете на их сайтах в сети «Интернет»</t>
-  </si>
-  <si>
     <t>преимущества, облигация, федеральный, займ, офз, офз-н, для, населения, физических лиц</t>
   </si>
   <si>
@@ -1954,9 +1716,6 @@
   </si>
   <si>
     <t>Приобрести облигации федерального займа для физических лиц можно в отделениях банков-агентов Сбербанка и ВЭ ТЭ БЭ двадцать четыре, либо в личном кабинете на их сайтах в сети «Интернет»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приобрести облигации федерального займа для физических лиц (ОФЗ-н) можно в отделениях Сбербанка и ВТБ-24 либо в личном кабинете на их сайтах в сети «Интернет». </t>
   </si>
   <si>
     <t>где, приобрести, покупка, офз, офз-н, облигация, федеральный, займ, для, населения, физических лиц</t>
@@ -1986,10 +1745,6 @@
   </si>
   <si>
     <t>Минимальная номинальная стоимость облигаций федерального займа для физических лиц, доступных для приобретения – тридцать тысяч рублей. Максимальная номинальная стоимость облигаций одного выпуска, доступных для приобретения одним владельцем – пятнадцать миллионов рублей</t>
-  </si>
-  <si>
-    <t>Минимальная номинальная стоимость облигаций федерального займа для физических лиц (ОФЗ-н), доступных для приобретения – 30 тыс. руб. 
-Максимальная номинальная стоимость облигаций одного выпуска, доступных для приобретения одним владельцем – 15 млн.руб.</t>
   </si>
   <si>
     <t xml:space="preserve">Минимальная, максимальная, номинальная,
@@ -2028,9 +1783,6 @@
     <t>Бюджет на 2017 год</t>
   </si>
   <si>
-    <t>Акциз — это косвенный налог, включаемый в цену товара или услуги, преимущественно массового потребления, а также услуг частных предприятий, и оплачиваемый покупателями (потребителями)</t>
-  </si>
-  <si>
     <t>32.133</t>
   </si>
   <si>
@@ -2129,23 +1881,6 @@
     <t>Раздел "Биография" на официальном сайте Правительства России</t>
   </si>
   <si>
-    <t>Дмитрий Анатольевич Медведев - Председатель Правительства России и Председатель партии "Единая Россия". 
-Биография: 
-Родился 14 сентября 1965 года в Ленинграде.
-Окончил юридический факультет Ленинградского государственного университета в 1987 году и аспирантуру ЛГУ в 1990 году. Кандидат юридических наук, доцент.
-В 1990 — 1999 годах — на преподавательской работе в Санкт-Петербургском государственном университете.
-Одновременно в 1990 — 1995 годах — советник Председателя Ленинградского городского совета, эксперт Комитета по внешним связям Мэрии Санкт-Петербурга.
-В 1999 году — заместитель Руководителя Аппарата Правительства Российской Федерации.
-В 1999 — 2000 годах — заместитель Руководителя Администрации Президента Российской Федерации.
-С 2000 года — первый заместитель Руководителя Администрации Президента Российской Федерации.
-В 2000 — 2001 годах — председатель Совета директоров ОАО «Газпром», в 2001 году -заместитель председателя Совета директоров ОАО «Газпром», с июня 2002 года — председатель Совета директоров ОАО «Газпром».
-С октября 2003 года — Руководитель Администрации Президента Российской Федерации.
-В ноябре 2005 года назначен Первым заместителем Председателя Правительства Российской Федерации.
-7 мая 2008 года вступил в должность Президента Российской Федерации.
-8 мая 2012 года назначен Председателем Правительства Российской Федерации.
-Женат, имеет сына</t>
-  </si>
-  <si>
     <t>Макроэкономика — это раздел экономической науки, посвященный изучению крупномасштабных экономических явлений и процессов, относящихся к экономике страны, ее хозяйству в целом. Объектом изучения макроэкономики являются сводные, обобщающие показатели по всему хозяйству, такие, как национальное богатство, валовой национальный и валовой внутренний продукт, национальный доход, суммарные государственные и частные инвестиции, общее количество денег в обращении.
 Источник информации: Энциклопедический словарь экономики и права</t>
   </si>
@@ -2158,9 +1893,6 @@
   </si>
   <si>
     <t>Микроэкономика — это раздел экономической науки, связанный с изучением относительно мелкомасштабных экономических процессов, субъектов, явлений, в основном предприятий, фирм, предпринимателей, их хозяйственной деятельности, экономических отношений между ними</t>
-  </si>
-  <si>
-    <t>Уровень инфляции в 2017 году?</t>
   </si>
   <si>
     <r>
@@ -2189,9 +1921,6 @@
     </r>
   </si>
   <si>
-    <t>Уровень инфляции в 2016 году?</t>
-  </si>
-  <si>
     <t>Что такое инфляция?</t>
   </si>
   <si>
@@ -2250,10 +1979,6 @@
   </si>
   <si>
     <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и позволяет достигать основной цели денежно-кредитной политики</t>
-  </si>
-  <si>
-    <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и в конечном счете позволяет достигать основной цели денежно-кредитной политики. Операционно соответствует минимальной процентной ставке на аукционах репо Банка России на срок 1 неделя и максимальной процентной ставке на депозитных аукционах Банка России на срок 1 неделя
-Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
   </si>
   <si>
     <t>Платежный баланс Российской Федерации - это статистическая система, в которой отражаются все экономические операции между резидентами и нерезидентами Российской Федерации, произошедшие в течение отчетного периода</t>
@@ -2819,12 +2544,274 @@
   <si>
     <t>федеральный, бюджет, 2019, год, прогноз, план</t>
   </si>
+  <si>
+    <t>Инфляционная спираль - процесс взаимозависимого роста цен и заработной платы, при котором рост цен обусловливает необходимость повышения заработной платы, а ее повышение приводит к росту цен. 
+Инфляционная спираль формируется следующим образом: сначала происходит установление нового уровня заработной платы (в результате пересмотра тарифного соглашения между наемными работниками и работодателями) на соответствующем сегменте рынка труда. Как следствие возникает изменение общего уровня заработной платы в масштабах национальной экономики. Если этот процесс не уравновешивается противодействующими факторами (например, ростом производительности труда), то увеличение издержек на единицу продукции приводит к сокращению производства. Тогда при увеличивающемся спросе сокращение предложения приведет к росту цен. Рост цен, в свою очередь, дает новый импульс к переговорам между наемными работниками и работодателями об увеличении оплаты труда. Таким образом, ситуация повторяется на новом витке спирали «зарплата - цены»</t>
+  </si>
+  <si>
+    <t>Международная экономическая интеграция — это процесс международного объединения экономики стран и государств в один, общий рынок, при котором постепенная отмена тарифных и нетар\+ифных ограничений приводит к унификации экономической политики в отраслях экономики и имеет ряд выраженных последствий</t>
+  </si>
+  <si>
+    <t>Антиинфляционная политика — выбор государством курса и проведение совокупности мер, направленных на урегулирование денежного обращения, сжатие массы денег, прекращение неумеренного роста цен. Зачастую сочетается с общестабилизационными мерами на макроэкономическом уровне. Антиинфляционная политика может быть как упреждающей раскручивание маховика инфляции, так и проводиться на фоне уже прогрессирующей инфляционной ситуации. В этом случае осуществляется разновидность антиинфляционной политики — дефляционная политика. В странах с развитой рыночной экономикой основным объектом антиинфляционной политики является инфляция издержек (спираль: цены — доходы — цены). Поэтому антиинфляционная политика проводится главным образом путем замораживания или ограничения роста доходов и цен, притормаживания излишней деловой активности посредством удорожания кредита и лишь во вторую очередь предусматривает урегулирование госбюджета, сокращение государственных расходов</t>
+  </si>
+  <si>
+    <t>Валютная интервенция — значительное разовое целенаправленное воздействие центрального банка страны на валютный рынок и валютный курс, осуществляемое путём продажи или закупки банком крупных партий иностранной валюты. Валютная интервенция осуществляется для регулирования курса иностранных валют в интересах государства. 
+Валютная интервенция — совместное регулирование валютных взаимоотношений стран-участниц, конкретно выражающееся в единой валютной политике в отношении третьих стран. Валютная интервенция осуществляется при активном участии и содействии государств — участников региональных зон, в пределах которых обеспечивается относительно стабильное соотношение курсов валют. При этом используются центральные банки или казначейства стран-участниц в операциях на валютном рынке в целях воздействия на курсы валют своей собственной страны либо иностранной путём продажи или покупки иностранной валюты или золота. Валютная интервенция представляет собой по форме и по существу крупную по масштабам валютную операцию, проводимую в рамках определённого, обычно кратковременного периода</t>
+  </si>
+  <si>
+    <t>Глобализация представляет собой процесс изменения структуры мирового хозяйства, понимаемого как совокупность национальных хозяйств, связанных друг с другом системой международного разделения труда, экономических и политических отношений, путём включения в мировой рынок и тесного переплетения экономики на основе транснационализации и регионализации. Исходя из этого, происходит формирование единой мировой сетевой рыночной экономики — геоэкономики и её инфраструктуры, разрушение национального суверенитета государств, являвшихся главными действующими лицами международных отношений на протяжении многих веков. Процесс глобализации есть следствие эволюции государственно оформленных рыночных систем</t>
+  </si>
+  <si>
+    <t>Девиация  — это внезапное, непредсказуемое отклонение курса ценных бумаг, цен биржевых товаров под влиянием форс-мажорных обстоятельств.</t>
+  </si>
+  <si>
+    <t>Деноминация — изменение нарицательной стоимости денежных знаков, обычно после гиперинфляции, с целью стабилизации валюты и упрощения расчётов. 
+В ходе деноминации происходит обмен старых денежных знаков на новые, имеющие, как правило, меньший номинал. Старые денежные знаки могут изыматься из обращения:
+• в течение нескольких недель, что приводит к обмену не всей имеющейся на руках денежной массы;
+• в течение года или нескольких лет, когда старые деньги ходят одновременно с новыми и постепенно изымаются из обращения</t>
+  </si>
+  <si>
+    <t>Закон Грэшема — это экономический теория о том, что денежные единицы, не пользующиеся спросом, или "плохие" деньги (bad мани), вытесняют денежные единицы, пользующиеся повышенным спросом, или "хорошие" деньги (good мани)</t>
+  </si>
+  <si>
+    <t>Закон Оукена - экономический закон наличия обратной зависимости между уровнем безработицы, превышающим естественный, и величиной валового национального продукта страны.
+Каждые 2%, на которые реальный ВНП превышает свой естественный уровень, сокращает уровень безработицы на 1% по сравнению с естественным уровнем безработицы.
+Каждые 2% сокращения реального ВНП увеличивают уровень безработицы на 1% по сравнению с естественным уровнем безработицы</t>
+  </si>
+  <si>
+    <t>Закон Сэя - это закон, согласно которому предложение рождает свой собственный спрос. При этом приводится следующий аргумент: в экономике с полностью гибким ценами (flexible prices) и гибкой зарплатой факторы производства всегда найдут применение, а товары всегда будут проданы. Не может быть равновесия (equilibrium) в условиях вынужденной безработицы и вынужденного простаивания производственных мощностей. Если можно достигнуть полной гибкости цен и зарплаты, то кажется, что тут нет логической ошибки в рассуждениях. Проблема заключается в том, что недостаток точной информации делает цены и зарплату малоподвижными, а это означает, что может существовать вынужденная безработица (involuntary unemployment). Если негибкость цен и зарплаты не может быть полностью устранена, то ее уменьшение еще более ухудшает положение. Это происходит, потому что тенденция к снижению в ценах и зарплате ведет к возникновению ловушки ликвидности (liquidity trap), когда реальные расходы падают, и накопление денег выглядит наиболее прибыльной деятельностью из всех доступных возможностей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валовой внутренний продукт (ВВП) – один из важнейших макроэкономических показателей, выражающий исчисленную в рыночных ценах совокупную стоимость конечного продукта (продукции, товаров и услуг), созданного в течение года внутри страны с использованием факторов производства, принадлежащих как данной стране, так и другим странам. 
+ВВП, исчисленный по реальным затратам производителей (т. е. без налогов и субсидий), имеет название "валовой внутренний продукт по факторной стоимости". С учетом же итогового сальдо налогов и субсидий показатель ВВП превращается в "валовой внутренний продукт по рыночным ценам". Для удобства международных отношений ВВП рассчитывается в американских долларах. Сопоставимость показателей обеспечивается единой методологией национальных счетов, разработанной статистической службой ООН и принятой в большинстве стран мира.
+Валовой национальный продукт (ВНП) – один из широко распространенных обобщающих макроэкономических показателей, представляющий исчисленную в рыночных ценах стоимость произведенного страной в течение года конечного (готового) продукта. В ВНП включается стоимость продукта, созданного как в самой стране, так и за рубежом с использованием факторов производства, принадлежащих данной стране. В отличие от валового внутреннего продукта, показатель ВНП включает стоимость потребленных населением товаров и услуг, государственных закупок, капитальных вложений, а также сальдо внешнеэкономических операций за год, включающее сальдо торгового баланса (стоимостную разницу экспорта и импорта товаров и услуг) и сальдо платежного баланса (стоимостную разницу между заграничными платежами и поступлениями по заработной плате, прибылями и др.). В зависимости от знака сальдо ВНП может быть больше или меньше ВВП. ВНП может быть рассчитан методом суммирования добавленных стоимостей, методами потока затрат и потока доходов. Если весь произведенный в стране продукт реализован, то есть продан и оплачен, то ВНП равен валовому национальному доходу. ВНП равен сумме чистого национального дохода (вновь созданной стоимости) и амортизационных отчислений на реновацию изношенных основных средств
+</t>
+  </si>
+  <si>
+    <t>Кривая спроса показывает вероятное количество товара, который удаётся продать за определенное время и по определённой цене. Кривая предложения показывает соотношение между рыночными ценами и количеством товаров, которые производители желают предложить</t>
+  </si>
+  <si>
+    <t>Монополия представляет собой крупную корпорацию, занимающую определенное положение на рынке.
+Олигополия – это рынок, на котором доминируют несколько конкурирующих фирм</t>
+  </si>
+  <si>
+    <t>Министерство финансов Российской Федерации (Минфин России) является федеральным органом исполнительной власти, осуществляющим функции по выработке государственной политики и нормативно-правовому регулированию в сфере бюджетной, налоговой, страховой, валютной, банковской деятельности, кредитной кооперации, микрофинансовой деятельности, финансовых рынков, государственного долга, аудиторской деятельности, бухгалтерского учета и бухгалтерской отчетности, производства, переработки и обращения драгоценных металлов и драгоценных камней, производства и оборота этилового спирта, алкогольной и спиртосодержащей продукции и ограничения потребления (распития) алкогольной продукции, таможенных платежей, определения таможенной стоимости товаров, таможенного дела, формирования и инвестирования средств пенсионных накоплений, в том числе включенных в выплатной резерв, организации и проведения лотерей, азартных игр, производства и реализации защищенной от подделок полиграфической продукции, финансового обеспечения государственной службы, государственного регулирования деятельности негосударственных пенсионных фондов, управляющих компаний, специализированных депозитариев и актуариев по негосударственному пенсионному обеспечению, обязательному пенсионному страхованию и профессиональному пенсионному страхованию, бюро кредитных историй, оказания государственной поддержки субъектам Российской Федерации и муниципальным образованиям за счет бюджетных ассигнований федерального бюджета, применения контрольно-кассовой техники, осуществления закупок товаров, работ, услуг для обеспечения государственных и муниципальных нужд.
+Министерство финансов Российской Федерации осуществляет координацию и контроль деятельности находящихся в его ведении Федеральной налоговой службы, Федеральной службы по регулированию алкогольного рынка, Федеральной таможенной службы и Федерального казначейства</t>
+  </si>
+  <si>
+    <t>Акциз — это косвенный налог, включаемый в цену товара или услуги преимущественно массового потребления, а также услуг частных предприятий, и оплачиваемый покупателями (потребителями)</t>
+  </si>
+  <si>
+    <t>Издержки — это денежное выражение использования производственных ресурсов, в результате которого осуществляется производство и реализация продукции.
+Постоянные издержки — это такой вид затрат, который несет предприятие в рамках одного производственного цикла. Определяется предприятием самостоятельно. Все эти затраты будут характерны для всех циклов производства товара.
+Переменные издержки — это такие виды затрат, которые переносятся на готовое изделие в полном объеме.
+Общие издержки — те затраты, которые несет предприятие в течении одной стадии производства (постоянные + переменные)
+Средние издержки – это издержки, взвешенные по объему производства, то есть издержки на единицу выпускаемой продукции. Различают общие средние издержки, равные частному от деления полных издержек на объем производства; средние переменные издержки, равные частному от деления переменных издержек на объем производства; средние постоянные издержки, равные частному от деления постоянных издержек на объем производства</t>
+  </si>
+  <si>
+    <t>Экономические блага — это результаты экономической деятельности, которые можно получить в ограниченном количестве по сравнению с потребностями. Экономические блага включают в себя две категории: товары и услуги. Блага, существующие в природе «свободно», в неограниченном количестве, называются неэкономическими или даровыми</t>
+  </si>
+  <si>
+    <t>Теория трудовой стоимости — это экономическая теория, в соответствии с которой товары обмениваются между собой в таких количествах, чтобы обеспечить равенство общественно необходимых затрат труда</t>
+  </si>
+  <si>
+    <t>Доходы населения – это источники денежных и других доходов, которыми располагает население для удовлетворения своих потребностей. Основными источниками личных доходов населения являются: заработная плата, индивидуальная трудовая деятельность, предпринимательство, выплаты и льготы из общественных фондов потребления (пенсии, стипендии, пособия), личное подсобное хозяйство</t>
+  </si>
+  <si>
+    <t>М\+аркетинг — это предпринимательская деятельность, которая управляет продвижением товаров и услуг от производителя к потребителю. 
+Кроме того, под маркетингом подразумевается деятельность по изучению текущего рынка сбыта</t>
+  </si>
+  <si>
+    <t>Фондоемкость — это средняя сумма промышленно производственных основных фондов по первоначальной стоимости, деленная на объем выпущенной продукции</t>
+  </si>
+  <si>
+    <t>Фондовооруженность труда — это показатель, отражающий эффективность использования производственных фондов предприятия. Другими словами, коэффициент отражает степень обеспеченности персонала основными средствами производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сбережения — часть доходов, не использованная в определенный период времени на текущее потребление. 
+Виды сбережений: 
+• личные сбережения;
+• сбережения корпораций;
+• правительственные (нераспределенные, не истраченные согласно бюджету) доходы. 
+На размер сбережений влияют высота процентной ставки и уровень доходов населения
+</t>
+  </si>
+  <si>
+    <t>Что такое рыночная конъюнктура?</t>
+  </si>
+  <si>
+    <t>Трест — одна из форм монополистических объединений, в рамках которой участники теряют производственную, коммерческую, а порой даже юридическую самостоятельность. Реальная власть в тресте сосредотачивается в руках правления или главной компании</t>
+  </si>
+  <si>
+    <t>Секвестр бюджета — это пропорциональное снижение всех расходных статей бюджета на определённую долю. Его применяют для сокращения дефицита бюджета, который возникает, когда расходы превышают доходы. Как правило, в рамках секвестирования правительство определяет статьи, расходы на которые сокращать нельзя. Обычно это важные социальные выплаты и оплата внешнего долга</t>
+  </si>
+  <si>
+    <t>Инфляция и дефляция - это изменения, соответственно повышение и понижение общего уровня цен в экономике. Наиболее типичным изменением уровня цен является инфляция – обесценивание денег в результате роста цен на все товары. Дефляция, повышение ценности денег в результате снижения уровня цен, наблюдается реже и охватывает, как правило, не все виды товаров, а лишь отдельные их группы</t>
+  </si>
+  <si>
+    <t>Казна (от тюрк. - хранилище денег):
+• финансовые ресурсы государства, централизованные государственные источники финансов, включая средства федерального бюджета, бюджетов субъектов Федерации, государственное имущество, не закрепленное за государственными предприятиями и учреждениями; 
+• хранилище денег и драгоценностей правителей, королей, царей, монастырей в историческом прошлом</t>
+  </si>
+  <si>
+    <t>Экономическое равновесие — состояние экономической системы, рынка, характеризуемое наличием сбалансированности, уравновешиванием двух разнонаправленных факторов, например равновесия спроса и предложения, производства и потребления, доходов и расходов. Равновесие может быть неустойчивым, кратковременным и устойчивым, длительным</t>
+  </si>
+  <si>
+    <t>Спрос — это зависимость между ценой и количеством товара, которое покупатели могут и желают купить по строго определенной цене, в определенный промежуток времени. Спрос - это потребность, подкреплённая покупательной способностью</t>
+  </si>
+  <si>
+    <t>Основной капитал предприятия – это часть производительного капитала, который полностью и многократно принимает участие в производстве товара, переносит свою стоимость на новый продукт по частям в течение ряда периодов. К основному капиталу относится та часть авансированного капитала, которая затрачена на постройку зданий, сооружений, на покупку машин, оборудования, инструмента</t>
+  </si>
+  <si>
+    <t>Общественное благо - это благо, которое потребляется коллективно всеми гражданами независимо от того, платят они за него или нет. Признаки общественного блага: признак неисключения, признак неконкурентности в потреблении, признак неделимости. Примером общественного блага можно считать маяк или же обеспеченную внутреннюю и внешнюю безопасность правового государства</t>
+  </si>
+  <si>
+    <t>"Невидимая рука рынка" — популярная метафора, впервые использованная Адамом Смитом в работе «Исследование о природе и причинах богатства народов» для описания механизма влияния индивидуальных интересов на максимизацию общественного богатства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адам Смит. Его считают первым экономистом и основателем всей этой науки. Фундаментом для нее стала его книга «Исследование о природе и причинах богатства народов». В этом труде Смит предложил концепцию экономического человека, которым движет эгоизм и стремление к обогащению. 
+Карл Маркс. Ученый полагал, что стоимость любого товара находится в прямой зависимости от потраченного на него труда. Капиталист может извлекать прибыль только в том случае, если цена товара будет стоять выше, чем стоимость производства. Добиться этого можно исключительно эксплуатацией рабочего класса. В конечном счете, по мнению Маркса, капитализм приведет к полному обнищанию пролетариев.
+Джон Мейнард Кейнс. Во времена Великой депрессии оказалось, что «невидимая рука» Смита не всегда может справляться с экономическими проблемами, именно поэтому порой требуется решительное вмешательство государства. В тяжелые кризисные времена страна просто обязана увеличивать траты, тем самым будет поддерживаться уровень занятости населения. Благодаря Кейнсу был также создан послевоенный валютный режим. Сперва его привязали к золотому стандарту, а теперь уже к американскому доллару, обеспеченным лишь авторитетом страны
+</t>
+  </si>
+  <si>
+    <t>Средства труда – это орудия производства, с помощью которых осуществляется воздействие на предметы труда</t>
+  </si>
+  <si>
+    <t>Средства производства - орудия и предметы производственной, трудовой деятельности людей; основные средства (производственные здания, сооружения, машины, оборудование, инструменты, приборы) и оборотные средства (сырье, материалы, энергия, малоценный инвентарь), используемые в производстве; все, что создано людьми и используется ими в производственной деятельности</t>
+  </si>
+  <si>
+    <t>Рынок труда — это сфера формирования спроса и предложения рабочей силы (трудовых услуг). Через рынок труда большинство работающего населения получает работу и доходы. Рынок труда регулируется спросом и предложением рабочей силы</t>
+  </si>
+  <si>
+    <t>Импорт – ввоз из-за границы товаров, технологии и капиталов для реализации и приложения на внутреннем рынке страны-импортера; возмездное получение от иностранных партнеров услуг производственного или потребительского назначения.
+Источник информации: Словарь финансовых терминов</t>
+  </si>
+  <si>
+    <t>Экспорт - вывоз за границу товаров, услуг и капитала для реализации на внешних рынках. 
+Различают:
+• экспорт товаров, т. е. вывоз материальных благ, возмездное предоставление иностранному партнеру услуг производственного характера или потребительского назначения; 
+• экспорт капитала, т. е. вложение капитала за пределами данной страны (строительство и эксплуатация соответствующих предприятий и объектов) с целью получения более высокой нормы прибыли. 
+Экспорт выступает как результат международного разделения труда и служит материальной предпосылкой импорта, т. к. выручка от экспорта - основной источник средств для оплаты импорта. На практике экспортные и импортные операции взаимосвязаны.
+Источник информации: Словарь финансовых терминов</t>
+  </si>
+  <si>
+    <t>Государственный бюджет – смета доходов и расходов государства за определенный период времени, чаще всего на год, составленная с указанием источников поступления государственных доходов и направлений, каналов расходования средств. 
+Государственный бюджет составляется Правительством, утверждается и принимается высшими законодательными органами. В процессе исполнения бюджета может иметь место его частичный пересмотр. В Российской Федерации государственный бюджет разделяется на федеральный и бюджеты субъектов Федерации.
+Источник информации: Райзберг Б.А., Лозовский Л.Ш., Стародубцева Е.Б."Современный экономический словарь. - 6-е изд., перераб. и доп. - М."(ИНФРА-М, 2011)</t>
+  </si>
+  <si>
+    <t>Кредитная система – совокупность кредитных отношений, принятых в стране, банков и других финансово-кредитных учреждений, осуществляющих и организующих данные отношения. 
+Кредитная система России имеет 2 уровня: 
+• Центральный банк РФ;
+• Коммерческие банки и другие финансово-кредитные институты</t>
+  </si>
+  <si>
+    <t>Основная функция Центрального Банка РФ - это защита и обеспечение устойчивости рубля. Статус, цели деятельности, функции и полномочия Банка России определяются Федеральным законом 10 июля 2002 года № 86-ФЗ «О Центральном банке Российской Федерации (Банке России)» и другими федеральными законами. Согласно законодательству, Банк России может осуществлять на рынке покупку/продажу как государственных, так и корпоративных долговых бумаг (акций — только в рамках операций РЕПО). При этом покупка государственных ценных бумаг Банком России может осуществляться только на вторичном рынке (в целях ограничения возможностей прямого эмиссионного финансирования бюджета)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальная денежная система - исторически сложившиеся и закрепленные правовыми нормами способы и формы выпуска денег и организации денежного обращения в стране.
+Основные положения денежной системы Российской Федерации определены в Федеральном законе от 10 июля 2002 г. № 86-ФЗ «О Центральном банке Российской Федерации (Банке России)».
+Законом запрещен выпуск иных денежных единиц и денежных суррогатов, подчеркнута ответственность лиц, нарушающих единство денежного обращения. Официальное соотношение между рублем и золотом или другими ценными металлами не устанавливается. Исключительное право выпуска наличных денег, организация обращения и изъятие их из обращения на территории Российской Федерации принадлежит ЦБ РФ.
+Видами денег, имеющими законную платежную силу, являются банковские билеты (банкноты) и металлическая монета, образцы которых утверждаются Банком России. Банкноты и металлическая монета являются безусловными обязательствами ЦБ и обеспечиваются его активами. Они обязательны к приему по их нарицательной стоимости на всей территории Российской Федерации по всем видам платежей, а также для зачисления на счета, вклады, депозиты и для перевода.
+Законом разделены полномочия Правительства РФ и Центрального банка РФ в области изготовления денежных знаков. Центральный банк РФ несет ответственность лишь за планирование объемов их производства
+</t>
+  </si>
+  <si>
+    <t>Налоговый кодекс - это кодифицированный законодательный акт, состоящий из двух частей: часть первая (общая часть) и часть вторая (специальная или особенная часть).
+Часть первая НК РФ вступила в силу с 1 января 1999 г. Эта часть кодекса устанавливает систему налогов и сборов, а также общие принципы налогообложения и уплаты сборов в Российской Федерации, в том числе: 
+• виды налогов и сборов, взимаемых в Российской Федерации; 
+• основания возникновения (изменения, прекращения) и порядок исполнения обязанностей по уплате налогов и сборов; 
+• принципы установления, введения в действие и прекращения действия ранее введенных налогов субъектов федерации и местных налогов; 
+• права и обязанности налогоплательщиков, налоговых органов, налоговых агентов, других участников отношений, регулируемых законодательством о налогах и сборах; 
+• формы и методы налогового контроля; ответственность за совершение налоговых правонарушений; 
+• порядок обжалования актов налоговых органов и действий (бездействия) их должностных лиц.
+Часть вторая НК РФ вступила в силу с 1 января 2001 г. Эта часть устанавливает конкретные взимаемые налоги и сборы, а так же ряд специальных налоговых режимов. Для каждого налога часть вторая НК РФ определяет элементы налогообложения (объект налогообложения, налоговую базу, налоговый период, налоговую ставку, порядок исчисления налога, порядок и сроки уплаты налога), в необходимых случаях налоговые льготы и основания для их использования налогоплательщиком, порядок декларирования налога. Для каждого сбора - плательщиков и элементы обложения применительно к конкретным сборам. Для каждого специального налогового режима - условия и порядок его применения, особый порядок определения элементов налогообложения, а также возможность освобождения от обязанности по уплате отдельных налогов и сборов, предусмотренных частью первой Налогового Кодекса, порядок декларирования налога, уплачиваемого в связи с применением специального налогового режима</t>
+  </si>
+  <si>
+    <t>Экономика (от греч. oikos - дом, хозяйство и nomos - правило, закон; в совокупности - правила ведения хозяйства) – 
+1) хозяйство, совокупность средств, объектов, процессов, используемых людьми для обеспечения жизни, удовлетворения потребностей путем создания необходимых человеку благ, условий и средств существования с применением труда; 
+2) наука о хозяйстве, способах его ведения людьми, отношениях между людьми в процессе производства и обмена товаров, закономерностях протекания хозяйственных процессов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кризис экономический (от греч. krisis - поворотный пункт) - резкое ухудшение экономического состояния страны, проявляющееся в значительном спаде производства, нарушении сложившихся производственных связей, банкротстве предприятий, росте безработицы и в итоге - в снижении жизненного уровня, благосостояния населения
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В соответствии с пунктом 3 статьи 169 проект федерального бюджета и проекты бюджетов государственных внебюджетных фондов Российской Федерации составляются и утверждаются сроком на три года - очередной финансовый год и плановый период.
+В соответствии с пунктом 4 статьи 169 проект бюджета субъекта Российской Федерации и проекты территориальных государственных внебюджетных фондов составляются и утверждаются сроком на три года - очередной финансовый год и плановый период
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство трансконтинентального транспортного коридора «Европа – Западный Китай» называют «Новым ш\+ёлковым путём». На комплексное развитие международного транспортного коридора «Европа - Западный Китай» на территории Российской Федерации в период реализации подпрограммы в две тысячи восемнадцатом две тысячи двадцатом годах предусмотрен объем финансирования в сумме двадцать миллиардов двадцать восемь миллионов рублей. </t>
+  </si>
+  <si>
+    <t>В соответствии с постановлением Правительства РФ от 20 июня 2013 г. N 518 "О Программе подготовки к проведению в 2018 году в Российской Федерации чемпионата мира по футболу" (с изменениями и дополнениями от 4 августа 2017 г.) на реализацию Программы предусмотрен объем финансирования в период 2013-2018 гг. в сумме 643,5 млрд. рублей</t>
+  </si>
+  <si>
+    <t>Со структурой доходов федерального бюджета по данным оперативной отчетности, а также ежемесячных и годовых отчетов об исполнении бюджета можно ознакомиться на Едином портале бюджетной системы в разделе  «Бюджет» - «Доходы».
+Доходы федерального бюджета в 2016 году составили 13 460,04 млрд. руб. 
+Формирование доходов федерального бюджета обеспечено за счет поступлений:
+• налогов на товары (работы, услуги), реализуемые на территории Российской Федерации (24,4%);
+• налогов, сборов и регулярных платежей за пользование природными ресурсами (21,4%);
+• доходов от внешнеэкономической деятельности (19,4%);
+• налогов на товары, ввозимые на территорию Российской Федерации (14,7%);
+• доходов от использования имущества, находящегося в государственной и муниципальной собственности (9,5%) и др.</t>
+  </si>
+  <si>
+    <t>Преимущества облигаций федерального займа для физических лиц (ОФЗ-н): 
+1. Для государства: 
+• стимулирование физических лиц к среднесрочным сбережениям;
+• повышение финансовой грамотности населения;
+• усиление конкуренции в финансовом секторе - стимул для повышения банками качества и доступности услуг/продуктов; 
+• воспитание внутреннего инвестора, развитие внутреннего рынка капитала; 
+• потенциальное снижение стоимости заимствований в долгосрочной перспективе.  
+2. Для владельцев (граждан): 
+• получение упрощенного доступа к долговым инструментам с высоким кредитным качеством; 
+• повышение финансовой грамотности; 
+• возможность получать больший доход, чем по банковским депозитам, при минимальных рисках; 
+• просто купить в отделении банков-агентов Сбербанка и ВТБ24 либо в личном кабинете на их сайтах в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>Приобрести облигации федерального займа для физических лиц (ОФЗ-н) можно в отделениях Сбербанка и ВТБ24 либо в личном кабинете на их сайтах в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>Минимальная номинальная стоимость облигаций федерального займа для физических лиц (ОФЗ-н), доступных для приобретения – 30 тыс. рублей. 
+Максимальная номинальная стоимость облигаций одного выпуска, доступных для приобретения одним владельцем – 15 млн. рублей</t>
+  </si>
+  <si>
+    <t>Дмитрий Анатольевич Медведев - Председатель Правительства России и Председатель партии "Единая Россия". 
+Биография: 
+Родился 14 сентября 1965 года в Ленинграде.
+Окончил юридический факультет Ленинградского государственного университета в 1987 году и аспирантуру ЛГУ в 1990 году. Кандидат юридических наук, доцент.
+В 1990—1999 годах — на преподавательской работе в Санкт-Петербургском государственном университете.
+Одновременно в 1990—1995 годах — советник Председателя Ленинградского городского совета, эксперт Комитета по внешним связям Мэрии Санкт-Петербурга.
+В 1999 году — заместитель Руководителя Аппарата Правительства Российской Федерации.
+В 1999—2000 годах — заместитель Руководителя Администрации Президента Российской Федерации.
+С 2000 года — первый заместитель Руководителя Администрации Президента Российской Федерации.
+В 2000—2001 годах — председатель Совета директоров ОАО «Газпром», в 2001 году — заместитель председателя Совета директоров ОАО «Газпром», с июня 2002 года — председатель Совета директоров ОАО «Газпром».
+С октября 2003 года — Руководитель Администрации Президента Российской Федерации.
+В ноябре 2005 года назначен Первым заместителем Председателя Правительства Российской Федерации.
+7 мая 2008 года вступил в должность Президента Российской Федерации.
+8 мая 2012 года назначен Председателем Правительства Российской Федерации.
+Женат, имеет сына</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2017 году</t>
+  </si>
+  <si>
+    <t>Уровень инфляции в 2016 году</t>
+  </si>
+  <si>
+    <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и в конечном счете позволяет достигать основной цели денежно-кредитной политики. Операционно соответствует минимальной процентной ставке на аукционах РЕПО Банка России на срок 1 неделя и максимальной процентной ставке на депозитных аукционах Банка России на срок 1 неделя.
+Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2975,7 +2962,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3076,6 +3063,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3207,7 +3197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3239,27 +3229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3291,24 +3263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3484,14 +3438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1"/>
     <col min="2" max="2" width="31.7109375" style="2" customWidth="1"/>
@@ -3507,7 +3461,7 @@
     <col min="12" max="1025" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3545,21 +3499,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="141.75">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -3569,1503 +3523,1503 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="157.5">
       <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="173.25">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:12" ht="252" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="252">
       <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="63">
       <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="141.75">
       <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="94.5">
       <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="157.5">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>772</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:12" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="299.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>532</v>
+        <v>481</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="94.5">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>773</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="94.5">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="78.75">
       <c r="A13" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="220.5">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="63">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="78.75">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>538</v>
+        <v>487</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>68</v>
+        <v>774</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="110.25">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>539</v>
+        <v>488</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="94.5">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>540</v>
+        <v>489</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>77</v>
+        <v>775</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="94.5">
       <c r="A19" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>541</v>
+        <v>490</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="110.25">
       <c r="A20" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="78.75">
       <c r="A21" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="78.75">
       <c r="A22" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>544</v>
+        <v>493</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="96" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>96</v>
+        <v>776</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="94.5">
       <c r="A24" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>546</v>
+        <v>495</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>101</v>
+        <v>777</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="141.75">
       <c r="A25" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>105</v>
+        <v>778</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="78.75">
       <c r="A26" s="6" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="249" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>114</v>
+        <v>779</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="141.75">
       <c r="A28" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>118</v>
+        <v>780</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>118</v>
+        <v>780</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="94.5">
       <c r="A29" s="6" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>122</v>
+        <v>781</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="173.25">
       <c r="A30" s="6" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>128</v>
+        <v>782</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="94.5">
       <c r="A31" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>620</v>
+        <v>783</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="63">
       <c r="A32" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="157.5">
       <c r="A33" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>142</v>
+        <v>784</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="110.25">
       <c r="A34" s="6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="94.5">
       <c r="A35" s="6" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>152</v>
+        <v>785</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="78.75">
       <c r="A36" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78.75">
       <c r="A37" s="6" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
     </row>
-    <row r="38" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="78.75">
       <c r="A38" s="6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F38"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="157.5">
       <c r="A39" s="6" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
     </row>
-    <row r="40" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="78.75">
       <c r="A40" s="6" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
     </row>
-    <row r="41" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="110.25">
       <c r="A41" s="6" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>179</v>
+        <v>786</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>179</v>
+        <v>786</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F41"/>
       <c r="G41"/>
     </row>
-    <row r="42" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="78.75">
       <c r="A42" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
     </row>
-    <row r="43" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="110.25">
       <c r="A43" s="6" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F43"/>
       <c r="G43"/>
     </row>
-    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="63">
       <c r="A44" s="6" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="94.5">
       <c r="A45" s="6" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F45"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="78.75">
       <c r="A46" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="157.5">
       <c r="A47" s="6" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F47"/>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="204.75">
       <c r="A48" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>208</v>
+        <v>787</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="110.25">
       <c r="A49" s="6" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F49"/>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="126">
       <c r="A50" s="6" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>214</v>
+        <v>788</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="94.5">
       <c r="A51" s="6" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>554</v>
+        <v>503</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F51"/>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="94.5">
       <c r="A52" s="6" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>555</v>
+        <v>504</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="110.25">
       <c r="A53" s="6" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="141.75">
       <c r="A54" s="6" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="94.5">
       <c r="A55" s="6" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="78.75">
       <c r="A56" s="6" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="63">
       <c r="A57" s="6" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="63">
       <c r="A58" s="6" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="78.75">
       <c r="A59" s="6" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="157.5">
       <c r="A60" s="6" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="110.25">
       <c r="A61" s="6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>564</v>
+        <v>513</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F61"/>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="78.75">
       <c r="A62" s="6" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="F62"/>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="78.75">
       <c r="A63" s="6" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>257</v>
+        <v>789</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>257</v>
+        <v>789</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="F63"/>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="78.75">
       <c r="A64" s="6" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>261</v>
+        <v>790</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="94.5">
       <c r="A65" s="6" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>568</v>
+        <v>517</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="78.75">
       <c r="A66" s="6" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="75">
       <c r="A67" s="6" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="120">
       <c r="A68" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="75">
       <c r="A69" s="6" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>280</v>
+        <v>806</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="150">
       <c r="A70" s="6" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>284</v>
+        <v>807</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="105">
       <c r="A71" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>288</v>
+        <v>791</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="90">
       <c r="A72" s="6" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="75">
       <c r="A73" s="6" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>576</v>
+        <v>792</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="150">
       <c r="A74" s="6" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="135">
       <c r="A75" s="6" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="120">
       <c r="A76" s="6" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" s="6" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="105">
       <c r="A78" s="6" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="90">
       <c r="A79" s="6" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>793</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="60">
       <c r="A80" s="6" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>322</v>
+        <v>794</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:1025" s="29" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1025" s="29" customFormat="1" ht="180">
       <c r="A81" s="27" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
@@ -6086,1657 +6040,1657 @@
       <c r="AMJ81" s="30"/>
       <c r="AMK81" s="30"/>
     </row>
-    <row r="82" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1025" ht="75">
       <c r="A82" s="6" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1025" ht="60">
       <c r="A83" s="6" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>336</v>
+        <v>795</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1025" ht="60">
       <c r="A84" s="6" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>341</v>
+        <v>796</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1025" ht="60">
       <c r="A85" s="6" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="1:1025" ht="135" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1025" ht="135">
       <c r="A86" s="6" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>351</v>
+        <v>797</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1025" ht="75">
       <c r="A87" s="6" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1025" ht="75">
       <c r="A88" s="6" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>360</v>
+        <v>798</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1025" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1025" ht="120">
       <c r="A89" s="6" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1025" ht="60">
       <c r="A90" s="6" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1025" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1025" ht="75">
       <c r="A91" s="6" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>375</v>
+        <v>799</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1025" ht="195" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1025" ht="195">
       <c r="A92" s="6" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>380</v>
+        <v>345</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>801</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>381</v>
+        <v>346</v>
       </c>
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1025" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1025" ht="60">
       <c r="A93" s="6" t="s">
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>385</v>
+        <v>800</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:1025" ht="195" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1025" ht="180">
       <c r="A94" s="6" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>390</v>
+        <v>802</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:1025" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1025" ht="33" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>395</v>
+        <v>803</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:1025" ht="105" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1025" ht="105">
       <c r="A96" s="6" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>400</v>
+        <v>804</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="90">
       <c r="A97" s="6" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="45">
       <c r="A98" s="6" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>409</v>
+        <v>805</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="120">
       <c r="A99" s="6" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>414</v>
+        <v>808</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="75">
       <c r="A100" s="6" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>419</v>
+        <v>809</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="225">
       <c r="A101" s="6" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>424</v>
+        <v>810</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="210">
       <c r="A102" s="6" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>427</v>
+        <v>384</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>429</v>
+        <v>811</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="195">
       <c r="A103" s="14" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>434</v>
+        <v>812</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="270">
       <c r="A104" s="14" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>821</v>
+        <v>761</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="270">
       <c r="A105" s="14" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>822</v>
+        <v>762</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="270">
       <c r="A106" s="14" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>823</v>
+        <v>763</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="270">
       <c r="A107" s="14" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>824</v>
+        <v>764</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="285">
       <c r="A108" s="14" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>825</v>
+        <v>765</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="165">
       <c r="A109" s="15" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="150">
       <c r="A110" s="15" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="225">
       <c r="A111" s="15" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="90">
       <c r="A112" s="15" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>476</v>
+        <v>813</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="135">
       <c r="A113" s="15" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>481</v>
+        <v>814</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="165">
       <c r="A114" s="15" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>486</v>
+        <v>815</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="90">
       <c r="A115" s="16" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>493</v>
+        <v>445</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
     </row>
-    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="105">
       <c r="A116" s="16" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>495</v>
+        <v>447</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
     </row>
-    <row r="117" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="210">
       <c r="A117" s="16" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>498</v>
+        <v>816</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
     </row>
-    <row r="118" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="135">
       <c r="A118" s="16" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>506</v>
+        <v>817</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>766</v>
+        <v>706</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
     </row>
-    <row r="119" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="135">
       <c r="A119" s="16" t="s">
-        <v>502</v>
+        <v>453</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>521</v>
+        <v>818</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="I119" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="105">
       <c r="A120" s="16" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>751</v>
+        <v>691</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="270">
       <c r="A121" s="16" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="105">
+      <c r="A122" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="180">
+      <c r="A123" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="105">
+      <c r="A124" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="195">
+      <c r="A125" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="105">
+      <c r="A126" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="135">
+      <c r="A127" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="90">
+      <c r="A128" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="D128" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>611</v>
-      </c>
-      <c r="B122" s="21" t="s">
+      <c r="E128" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>589</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>590</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>595</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="F123" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>597</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F124" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A125" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>617</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="F125" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="s">
-        <v>615</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="F126" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>608</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>609</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="C128" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="D128" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>643</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="60">
       <c r="A129" s="1" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>624</v>
+        <v>568</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>625</v>
+        <v>569</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>627</v>
+        <v>571</v>
       </c>
       <c r="G129" s="25" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="60">
       <c r="A130" s="1" t="s">
-        <v>629</v>
+        <v>573</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>628</v>
+        <v>572</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>644</v>
+        <v>588</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>645</v>
+        <v>589</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
     </row>
-    <row r="131" spans="1:9" ht="364.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="364.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>630</v>
+        <v>574</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>648</v>
+        <v>592</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>653</v>
+        <v>822</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>651</v>
+        <v>595</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>652</v>
+        <v>596</v>
       </c>
       <c r="G131" s="26" t="s">
-        <v>649</v>
+        <v>593</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="90">
       <c r="A132" s="1" t="s">
-        <v>631</v>
+        <v>575</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>636</v>
+        <v>580</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>637</v>
+        <v>581</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>654</v>
+        <v>597</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>673</v>
+        <v>614</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
-    <row r="133" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="135">
       <c r="A133" s="1" t="s">
-        <v>632</v>
+        <v>576</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>657</v>
+        <v>600</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>656</v>
+        <v>599</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>674</v>
+        <v>615</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
     </row>
-    <row r="134" spans="1:9" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="214.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>633</v>
+        <v>577</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>663</v>
+        <v>604</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>672</v>
+        <v>613</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
-    <row r="135" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="120">
       <c r="A135" s="1" t="s">
-        <v>634</v>
+        <v>578</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>676</v>
+        <v>617</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>785</v>
+        <v>725</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>677</v>
+        <v>618</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>675</v>
+        <v>616</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
-    <row r="136" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="105">
       <c r="A136" s="1" t="s">
-        <v>664</v>
+        <v>605</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>696</v>
+        <v>636</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>697</v>
+        <v>637</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>699</v>
+        <v>639</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>698</v>
+        <v>638</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
-    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="60">
       <c r="A137" s="1" t="s">
-        <v>665</v>
+        <v>606</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>701</v>
+        <v>641</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>704</v>
+        <v>644</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
-    <row r="138" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="60">
       <c r="A138" s="1" t="s">
-        <v>666</v>
+        <v>607</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>730</v>
+        <v>670</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>729</v>
+        <v>669</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>729</v>
+        <v>669</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>731</v>
+        <v>671</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
-    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="1" t="s">
-        <v>688</v>
+        <v>628</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>658</v>
+        <v>823</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>669</v>
+        <v>610</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>659</v>
+        <v>601</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>683</v>
+        <v>623</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="1" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>660</v>
+        <v>824</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>670</v>
+        <v>611</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>667</v>
+        <v>608</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>684</v>
+        <v>624</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
-    <row r="141" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="1" t="s">
-        <v>690</v>
+        <v>630</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>671</v>
+        <v>612</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>668</v>
+        <v>609</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>685</v>
+        <v>625</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
-    <row r="142" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="135">
       <c r="A142" s="1" t="s">
-        <v>702</v>
+        <v>642</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>678</v>
+        <v>619</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>679</v>
+        <v>620</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>680</v>
+        <v>825</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>686</v>
+        <v>626</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
-    <row r="143" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="135">
       <c r="A143" s="1" t="s">
-        <v>703</v>
+        <v>643</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>682</v>
+        <v>622</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>681</v>
+        <v>621</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>694</v>
+        <v>634</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
-    <row r="144" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="135">
       <c r="A144" s="1" t="s">
-        <v>705</v>
+        <v>645</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>691</v>
+        <v>631</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>693</v>
+        <v>633</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>695</v>
+        <v>635</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>692</v>
+        <v>632</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="26"/>
     </row>
-    <row r="145" spans="1:7" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="207" customHeight="1">
       <c r="A145" s="26" t="s">
-        <v>706</v>
+        <v>646</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>714</v>
+        <v>654</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>769</v>
+        <v>709</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>713</v>
+        <v>653</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>715</v>
+        <v>655</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>716</v>
+        <v>656</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="210">
       <c r="A146" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="165">
+      <c r="A147" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="E147" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="B146" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="C146" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="G146" s="26" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="C147" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="D147" s="26" t="s">
-        <v>726</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>767</v>
-      </c>
       <c r="F147" s="26" t="s">
-        <v>728</v>
+        <v>668</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="75">
       <c r="A148" s="26" t="s">
-        <v>709</v>
+        <v>649</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>734</v>
+        <v>674</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>733</v>
+        <v>673</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>735</v>
+        <v>675</v>
       </c>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="60">
       <c r="A149" s="26" t="s">
-        <v>710</v>
+        <v>650</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>741</v>
+        <v>681</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>737</v>
+        <v>677</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>736</v>
+        <v>676</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>738</v>
+        <v>678</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
-    <row r="150" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="75">
       <c r="A150" s="26" t="s">
-        <v>711</v>
+        <v>651</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>742</v>
+        <v>682</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>739</v>
+        <v>679</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>743</v>
+        <v>683</v>
       </c>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="180">
       <c r="A151" s="26" t="s">
-        <v>712</v>
+        <v>652</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>744</v>
+        <v>684</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>745</v>
+        <v>685</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>746</v>
+        <v>686</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="105">
       <c r="A152" s="26" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>754</v>
+        <v>694</v>
       </c>
       <c r="C152" s="26" t="s">
-        <v>770</v>
+        <v>710</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>771</v>
+        <v>711</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>776</v>
+        <v>716</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="26"/>
     </row>
-    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="75">
       <c r="A153" s="26" t="s">
-        <v>753</v>
+        <v>693</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>755</v>
+        <v>695</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>756</v>
+        <v>696</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>772</v>
+        <v>712</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="F153" s="24"/>
       <c r="G153" s="26"/>
     </row>
-    <row r="154" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="75">
       <c r="A154" s="26" t="s">
-        <v>758</v>
+        <v>698</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>757</v>
+        <v>697</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>761</v>
+        <v>701</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>773</v>
+        <v>713</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>778</v>
+        <v>718</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
     </row>
-    <row r="155" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="75">
       <c r="A155" s="26" t="s">
-        <v>759</v>
+        <v>699</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>762</v>
+        <v>702</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>763</v>
+        <v>703</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>774</v>
+        <v>714</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>779</v>
+        <v>719</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
     </row>
-    <row r="156" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="75">
       <c r="A156" s="26" t="s">
-        <v>760</v>
+        <v>700</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>764</v>
+        <v>704</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>765</v>
+        <v>705</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>775</v>
+        <v>715</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>780</v>
+        <v>720</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
     </row>
-    <row r="157" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="180">
       <c r="A157" s="33" t="s">
-        <v>781</v>
+        <v>721</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>783</v>
+        <v>723</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>788</v>
+        <v>728</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>787</v>
+        <v>727</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>789</v>
+        <v>729</v>
       </c>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
     </row>
-    <row r="158" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="120">
       <c r="A158" s="33" t="s">
-        <v>782</v>
+        <v>722</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>784</v>
+        <v>724</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>803</v>
+        <v>743</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>786</v>
+        <v>726</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>790</v>
+        <v>730</v>
       </c>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
-    <row r="159" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="90">
       <c r="A159" s="33" t="s">
-        <v>792</v>
+        <v>732</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>791</v>
+        <v>731</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>795</v>
+        <v>735</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>794</v>
+        <v>734</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>797</v>
+        <v>737</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
-    <row r="160" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="390">
       <c r="A160" s="33" t="s">
-        <v>793</v>
+        <v>733</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>796</v>
+        <v>736</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>799</v>
+        <v>739</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>798</v>
+        <v>738</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>802</v>
+        <v>742</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="345">
       <c r="A161" s="33" t="s">
-        <v>804</v>
+        <v>744</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>805</v>
+        <v>745</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>806</v>
+        <v>746</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>807</v>
+        <v>747</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>808</v>
+        <v>748</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>810</v>
+        <v>750</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>811</v>
+        <v>751</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="165">
       <c r="A162" s="33" t="s">
-        <v>815</v>
+        <v>755</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>817</v>
+        <v>757</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>813</v>
+        <v>753</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>814</v>
+        <v>754</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>827</v>
+        <v>767</v>
       </c>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
-    <row r="163" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="165">
       <c r="A163" s="33" t="s">
-        <v>816</v>
+        <v>756</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>820</v>
+        <v>760</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>818</v>
+        <v>758</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>819</v>
+        <v>759</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>828</v>
+        <v>768</v>
       </c>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="B164" s="26"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
@@ -7744,7 +7698,7 @@
       <c r="F164" s="24"/>
       <c r="G164" s="24"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="B165" s="26"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
@@ -7752,7 +7706,7 @@
       <c r="F165" s="24"/>
       <c r="G165" s="24"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="B166" s="26"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
@@ -7760,7 +7714,7 @@
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="B167" s="26"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
@@ -7768,16 +7722,16 @@
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="E175" s="32"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="E176" s="31"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5">
       <c r="E177" s="31"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5">
       <c r="E178" s="31"/>
     </row>
   </sheetData>

--- a/data/minfin/32_questions.xlsx
+++ b/data/minfin/32_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="840">
   <si>
     <t>id</t>
   </si>
@@ -1306,9 +1306,6 @@
     <t>В соответствии с пунктом 1 статьи 3 Налогового кодекса Российской Федерации каждое лицо должно уплачивать законно установленные налоги и сборы. Законодательство о налогах и сборах основывается на признании всеобщности и равенства налогообложения. При установлении налогов учитывается фактическая способность налогоплательщика к уплате налога.
 Собираемые налоги позволяют государству формировать бюджет, выполнять свои социальные обязательства, осуществлять другие расходные обязательства.
 Отдавая часть своих доходов в бюджет, граждане выступают соучастниками создания благоприятной для жизни и здоровья среды, уровня образованности и благосостояния нации</t>
-  </si>
-  <si>
-    <t>Зачем, платить, налоги, смысл, цель</t>
   </si>
   <si>
     <t>32.116</t>
@@ -1705,17 +1702,10 @@
     <t>Преимущества облигаций федерального займа для физических лиц (ОФЗ-н)?</t>
   </si>
   <si>
-    <t xml:space="preserve">Облигации федерального займа для физических лиц дают возможность  населению получить упрощенный доступ к долговым инструментам с высоким кредитным качеством и получать б+ольший доход, чем по банковским депозитам, при минимальных рисках
-</t>
-  </si>
-  <si>
     <t>преимущества, облигация, федеральный, займ, офз, офз-н, для, населения, физических лиц</t>
   </si>
   <si>
     <t>Где можно приобрести облигации федерального займа для физических лиц (ОФЗ-н)?</t>
-  </si>
-  <si>
-    <t>Приобрести облигации федерального займа для физических лиц можно в отделениях банков-агентов Сбербанка и ВЭ ТЭ БЭ двадцать четыре, либо в личном кабинете на их сайтах в сети «Интернет»</t>
   </si>
   <si>
     <t>где, приобрести, покупка, офз, офз-н, облигация, федеральный, займ, для, населения, физических лиц</t>
@@ -1873,9 +1863,6 @@
   </si>
   <si>
     <t>Дмитрий Анатольевич Медведев, одна тысяча девятьсот шестьдесят пятого года рождения. Окончил юридический факультет и аспирантуру Ленинградского государственного университета в 1987 году. Кандидат юридических наук, доцент. В должности председателя Правительства Российской Федерации находится с две тысячи двенадцатого года</t>
-  </si>
-  <si>
-    <t>Биография, председателя, Правительства, Российской, Федерации, Медведев, Дмитрий, Анатольевич</t>
   </si>
   <si>
     <t>Раздел "Биография" на официальном сайте Правительства России</t>
@@ -2086,9 +2073,6 @@
 В рамках ФКП создавались объекты космической инфраструктуры (стартовые, технические, заправочные комплексы для ракет-носителей и космических аппаратов)</t>
   </si>
   <si>
-    <t>Расходы на космодром "Восточный"?</t>
-  </si>
-  <si>
     <t>Расходы, космодром,Восточный</t>
   </si>
   <si>
@@ -2098,17 +2082,9 @@
     <t>http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2014/196; http://fcp.economy.gov.ru/cgi-bin/cis/fcp.cgi/Fcp/ViewFcp/View/2016/355/</t>
   </si>
   <si>
-    <t>Расходы на строительство транспортного перехода через Керченский пролив?</t>
-  </si>
-  <si>
     <t>Керченский мост, Крымский, расходы, строительство, Транспортный, переход, через, пролив</t>
   </si>
   <si>
-    <t xml:space="preserve">В соответствии с пунктом 5 распоряжения Правительства РФ от 30 января 2015 г. N 118-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ по проектированию и строительству транспортного перехода через Керченский пролив, закупку которых осуществляет ФКУ «Управление федеральных автомобильных дорог «Тамань» Федерального дорожного агентства» предельная стоимость работ, а также затраты заказчика, не подлежащие включению в сводный сметный расчет, но необходимые для реализации проекта «Транспортный переход через Керченский пролив», с учетом налога на добавленную стоимость составляют 212 529 726 тыс. рублей в ценах 2015 года (228 300 000 тыс. рублей в ценах соответствующих лет с учетом прогнозных индексов-дефляторов, установленных Министерством экономического развития Российской Федерации). Предельная стоимость работ не может быть превышена.
-В соответствии с пунктом 3 распоряжения Правительства РФ от 26.01.2017 N 101-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ, закупку которых осуществляет Росжелдор, по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив»» общая цена контракта по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив» составляет 16947,2 млн. рублей
-</t>
-  </si>
-  <si>
     <t>В соответствии с пунктом 5 Распоряжения Правительства РФ от тридцатого января две тысячи пятнадцатого года номер сто восемнадцать эр предельная стоимость работ, а также затраты заказчика, не подлежащие включению в сводный сметный расчет, но необходимые для реализации проекта «Транспортный переход через Керченский пролив», с учетом налога на добавленную стоимость составляют двести двенадцать миллиардов пятьсот миллионов рублей в ценах 2015 года</t>
   </si>
   <si>
@@ -2124,12 +2100,6 @@
     <t>По информации Счетной палаты затраты на подготовку и проведение двадцать вторых Олимпийских зимних игр и одиннадцатых Паралимпийских зимних игр (а именно, строительство спортивных объектов и объектов, обеспечивающих их функционирование, строительство временной инфраструктуры и организацию Игр) в общей сложности составили триста двадцать четыре миллиарда девятьсот миллионов рублей</t>
   </si>
   <si>
-    <t>По информации Счетной палаты затраты на подготовку и проведение XXII Олимпийских зимних игр и XI Паралимпийских зимних игр (строительство спортивных объектов и объектов, обеспечивающих их функционирование, строительство временной инфраструктуры и организацию Игр) в общей сложности составили 324,9 млрд. руб., из них: 
-• 221 млрд. руб. - частные инвестиции, 
-• 103,3 млрд. руб. – федеральный бюджет, 
-• 0,6 млрд. руб. - бюджеты Краснодарского края и г. Сочи</t>
-  </si>
-  <si>
     <t>http://www.ach.gov.ru/press_center/news/21280?sphrase_id=4846230</t>
   </si>
   <si>
@@ -2157,9 +2127,6 @@
     <t xml:space="preserve">Что, такое, докапитализация, банков </t>
   </si>
   <si>
-    <t>Объем Резервного фонда на 15.08.2017 года составил 1 018,9 млрд. рублей, что на 46,8 млрд. рублей или 4,8% выше, чем на 01.01.2017 года</t>
-  </si>
-  <si>
     <t>Объем Резервного фонда на пятнадцатое августа две тысячи семнадцатого года составил один триллион восемнадцать миллиардов девятьсот миллионов рублей</t>
   </si>
   <si>
@@ -2169,26 +2136,12 @@
     <t>Объем Фонда национального благосостояния на пятнадцатое августа две тысячи семнадцатого года составил четыре триллиона четыреста девяносто три миллиарда сто миллионов рублей</t>
   </si>
   <si>
-    <t>Объем Фонда национального благосостояния на 15.08.2017 года составил 4 493,1 млрд. рублей, что на 133,9 млрд. рублей или 3,1% выше, чем на 01.01.2017 года</t>
-  </si>
-  <si>
-    <t>Объем Резервного фонда в 2017 году?</t>
-  </si>
-  <si>
-    <t>Объем Фонда национального благосостояния в 2017 году?</t>
-  </si>
-  <si>
     <t>Объем, Фонда, национального, благосостояния, 2017, год</t>
   </si>
   <si>
     <t>Как пройти в библиотеку?</t>
   </si>
   <si>
-    <t>Научная библиотека Министерства финансов РФ находится по адресу г. Москва, Ильинка ул., 9.
-Читатели научной библиотеки в любое время могут получить литературу и информацию по самым разнообразным вопросам финансовой службы: исторические сведения, новые научные изыскания в области экономики и финансов страны, информацию по финансам зарубежных стран и многим другим вопросам. 
-К услугам читателей и абонентов — читальный зал и отдел абонемента, научно-библиографический отдел, открытые книжные полки с томами отечественной и зарубежной литературы, многочисленные выставки. В читальном зале имеется автоматизированное рабочее место для проведения тематического поиска непосредственно читателями.</t>
-  </si>
-  <si>
     <t>Как, пройти, библиотека, Научная, Министерства, финансов</t>
   </si>
   <si>
@@ -2213,18 +2166,9 @@
     <t>32.165</t>
   </si>
   <si>
-    <t>Объём заимствований в 2017 году?</t>
-  </si>
-  <si>
-    <t>Объём заимствований в 2016 году?</t>
-  </si>
-  <si>
     <t>В две тысячи шестнадцатом году государственный долг Российской Федерации составил одиннадцать триллионов сто девять миллиардов восемьсот миллионов рублей</t>
   </si>
   <si>
-    <t>Объём заимствований в 2015 году?</t>
-  </si>
-  <si>
     <t>32.166</t>
   </si>
   <si>
@@ -2237,13 +2181,7 @@
     <t>В две тысячи пятнадцатом году государственный долг Российской Федерации составил десять триллионов девятьсот пятьдесят один миллиард девятьсот миллионов рублей</t>
   </si>
   <si>
-    <t>Объём заимствований в 2014 году?</t>
-  </si>
-  <si>
     <t>В две тысячи четырнадцатом году государственный долг Российской Федерации составил десять триллионов двести девяносто девять миллиардов сто миллионов рублей</t>
-  </si>
-  <si>
-    <t>Объём заимствований в 2013 году?</t>
   </si>
   <si>
     <t>В две тысячи тринадцатом году государственный долг Российской Федерации составил семь триллионов пятьсот сорок восемь миллиардов триста миллионов рублей</t>
@@ -2411,33 +2349,6 @@
   </si>
   <si>
     <t>Кто, возглавляет, Центральный, Российской, Федерации, Банк, России, Набиуллина, Эльвира</t>
-  </si>
-  <si>
-    <t>Набиуллина, Эльвира, кто, такая, Биография, Председатель, Центрального, Банк, России</t>
-  </si>
-  <si>
-    <t>Эльвира Сахипзадовна Набиуллина является Председателем Центрального банка Российской Федерации.
-БИОГРАФИЯ:
-Родилась 29 октября 1963 г. в г. Уфе.
-В 1986 г. окончила экономический факультет Московского государственного университета им. М. В. Ломоносова.
-1991–1992 гг. — главный специалист дирекции Постоянного комитета Правления Научно-Промышленного союза СССР по вопросам экономической реформы, г. Москва.
-1992–1994 гг. — главный специалист, консультант дирекции Российского союза промышленников и предпринимателей по вопросам экономической политики.
-1994–1994 гг. — советник Экспертного института Российского союза промышленников и предпринимателей.
-1994–1995 гг. — заместитель руководителя Департамента экономической реформы  — начальник управления государственного регулирования экономики Министерства экономики Российской Федерации.
-1995–1996 гг. — заместитель начальника Департамента экономической реформы Министерства экономики Российской Федерации.
-1996–1997 гг. — Начальник Департамента экономической реформы Министерства экономики Российской Федерации, член коллегии Минэкономики России.
-1997–1998 гг. — Заместитель Министра экономики Российской Федерации.
-1998–1999 гг. — Заместитель Председателя правления АК «Промторгбанк».
-1999–1999 гг. — Исполнительный директор Евроазиатской рейтинговой службы.
-1999–2000 гг. — Вице-президент Фонда «Центр стратегических разработок».
-2000–2003 гг. — Первый заместитель Министра экономического развития и торговли Российской Федерации.
-2003–2005 гг. — Президент Фонда «Центр стратегических разработок».
-2005–2007 гг. — Руководитель Экспертного совета Организационного комитета по подготовке и обеспечению председательства Российской Федерации в «Группе восьми» в 2006 году, руководитель исследовательской группы Центра стратегических разработок.
-24 сентября 2007 г. — назначена Министром экономического развития и торговли Российской Федерации.
-C 12 мая 2008 г. — Министр экономического развития Российской Федерации.
-Май 2012 г. — июнь 2013 г. — помощник Президента Российской Федерации.
-С июня 2013 г. — Председатель Центрального банка Российской Федерации.
-Входит в Совет директоров в соответствии со ст. 15 Федерального закона «О Центральном банке Российской Федерации (Банке России)»</t>
   </si>
   <si>
     <t>Эльвира Сахипзадовна Набиуллина, одна тысяча девятьсот шестьдесят третьего года рождения. В должности Председателя Центрального банка Российской Федерации находится с июня две тысячи тринадцатого года</t>
@@ -2482,9 +2393,6 @@
 Владеет немецким и английским языками</t>
   </si>
   <si>
-    <t>Биография, Президент, Российской, Федерации, Путин, Владимир, Владимирович, Кто, это</t>
-  </si>
-  <si>
     <t>Владимир Путин — личный сайт</t>
   </si>
   <si>
@@ -2805,6 +2713,170 @@
   <si>
     <t>Ключевая ставка Банка России - это основная ставка денежно-кредитной политики, которая устанавливается Советом директоров Банка России. Изменение ключевой ставки оказывает влияние на кредитную и экономическую активность и в конечном счете позволяет достигать основной цели денежно-кредитной политики. Операционно соответствует минимальной процентной ставке на аукционах РЕПО Банка России на срок 1 неделя и максимальной процентной ставке на депозитных аукционах Банка России на срок 1 неделя.
 Источник информации: "Основные направления единой государственной денежно-кредитной политики на 2017 год и период 2018 и 2019 годов" (утв. Банком России)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облигации федерального займа для физических лиц дают возможность  населению получить упрощенный доступ к долговым инструментам с высоким кредитным качеством и получать б\+ольший доход, чем по банковским депозитам, при минимальных рисках
+</t>
+  </si>
+  <si>
+    <t>Приобрести облигации федерального займа для физических лиц можно в отделениях банков-агентов Сбербанка и ВЭТЭБ\+Э двадцать четыре, либо в личном кабинете на их сайтах в сети «Интернет»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Биография, председателя, Правительства, Российской, Федерации, Медведев, Дмитрий,Анатольевич, кто, является, сейчас, текущий </t>
+  </si>
+  <si>
+    <t>Набиуллина, Эльвира, кто, такая, Биография, Председатель, Центрального, Банк, России, кто, является, сейчас, текущий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Биография, Президент, Российской, Федерации, Путин, Владимир, Владимирович, Кто, это, является, сейчас, текущий </t>
+  </si>
+  <si>
+    <t>32.176</t>
+  </si>
+  <si>
+    <t>Биография мэра Москвы Собянина Сергея Семёновича</t>
+  </si>
+  <si>
+    <t>Сергей Семёнович Собянин, одна тысяча девятьсот пятьдесят восьмого года рождения. Окончил Костромской технологический институт и Всесоюзный юридический заочный институт. Кандидат юридических наук. С две тысячи десятого года по представлению Президента России Дмитрия Медведева наделен Московской Думой полномочиями Мэра Москвы. С двенадцатого сентября две тысячи тринадцатого года вступил в должность Мэра Москвы</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Биография, мэр, Москва, Сергей, Семёнович, Собянин, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кто, является, сейчас, текущий</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Раздел "Биография" на официальном сайте Мэра Москвы
+</t>
+  </si>
+  <si>
+    <t>https://www.mos.ru/mayor/biography/</t>
+  </si>
+  <si>
+    <t>Сергей Семёнович Собянин</t>
+  </si>
+  <si>
+    <t>32.176.jpg</t>
+  </si>
+  <si>
+    <t>32.177</t>
+  </si>
+  <si>
+    <t>Когда состоятся выборы Президента Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Выборы Президента Российской Федерации состоятся одиннадцатого марта две тысячи восемнадцатого года</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 5 Федерального закона от 10 января 2003 г. N 19-ФЗ «О выборах Президента Российской Федерации» днем голосования на выборах Президента Российской Федерации является второе воскресенье месяца, в котором проводилось голосование на предыдущих общих выборах Президента Российской Федерации и в котором шесть лет тому назад был избран Президент Российской Федерации.
+Выборы Президента Российской Федерации состоятся 11 марта 2018 года</t>
+  </si>
+  <si>
+    <t>Когда, состоятся, выборы, 2018, Президент, Российской, Федерации</t>
+  </si>
+  <si>
+    <t>Зачем, платить, налоги, смысл, цель, где, взять, деньги</t>
+  </si>
+  <si>
+    <t>Расходы на космодром "Восточный"</t>
+  </si>
+  <si>
+    <t>Расходы на строительство транспортного перехода через Керченский пролив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В соответствии с пунктом 5 распоряжения Правительства РФ от 30 января 2015 г. N 118-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ по проектированию и строительству транспортного перехода через Керченский пролив, закупку которых осуществляет ФКУ «Управление федеральных автомобильных дорог «Тамань» Федерального дорожного агентства» предельная стоимость работ, а также затраты заказчика, не подлежащие включению в сводный сметный расчет, но необходимые для реализации проекта «Транспортный переход через Керченский пролив», с учетом налога на добавленную стоимость составляют 212 529 726 тыс. рублей в ценах 2015 года (228 300 000 тыс. рублей в ценах соответствующих лет с учетом прогнозных индексов-дефляторов, установленных Министерством экономического развития Российской Федерации). Предельная стоимость работ не может быть превышена.
+В соответствии с пунктом 3 распоряжения Правительства РФ от 26.01.2017 N 101-р «Об определении ООО «Стройгазмонтаж» единственным исполнителем работ, закупку которых осуществляет Росжелдор, по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив»» общая цена контракта по разработке рабочей документации и выполнению строительно-монтажных работ по мероприятию «Строительство железнодорожных подходов к транспортному переходу через Керченский пролив» составляет 16 947,2 млн. рублей
+</t>
+  </si>
+  <si>
+    <t>По информации Счетной палаты затраты на подготовку и проведение XXII Олимпийских зимних игр и XI Паралимпийских зимних игр (строительство спортивных объектов и объектов, обеспечивающих их функционирование, строительство временной инфраструктуры и организацию Игр) в общей сложности составили 324,9 млрд. руб., из них: 
+• 221 млрд. руб. - частные инвестиции;
+• 103,3 млрд. руб. – федеральный бюджет;
+• 0,6 млрд. руб. - бюджеты Краснодарского края и г. Сочи</t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда в 2017 году</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния в 2017 году</t>
+  </si>
+  <si>
+    <t>Научная библиотека Министерства финансов РФ находится по адресу г. Москва, Ильинка ул., 9.
+Читатели научной библиотеки в любое время могут получить литературу и информацию по самым разнообразным вопросам финансовой службы: исторические сведения, новые научные изыскания в области экономики и финансов страны, информацию по финансам зарубежных стран и многим другим вопросам. 
+К услугам читателей и абонентов — читальный зал и отдел абонемента, научно-библиографический отдел, открытые книжные полки с томами отечественной и зарубежной литературы, многочисленные выставки. В читальном зале имеется автоматизированное рабочее место для проведения тематического поиска непосредственно читателями</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2017 году</t>
+  </si>
+  <si>
+    <t>Объем Резервного фонда на 15.08.2017 составил 1 018,9 млрд. рублей, что на 46,8 млрд. рублей, или 4,8% выше, чем на 01.01.2017</t>
+  </si>
+  <si>
+    <t>Объем Фонда национального благосостояния на 15.08.2017 составил 4 493,1 млрд. рублей, что на 133,9 млрд. рублей, или 3,1% выше, чем на 01.01.2017</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2016 году</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2015 году</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2014 году</t>
+  </si>
+  <si>
+    <t>Объём заимствований в 2013 году</t>
+  </si>
+  <si>
+    <t>Эльвира Сахипзадовна Набиуллина является Председателем Центрального банка Российской Федерации.
+Биография:
+Родилась 29 октября 1963 г. в г. Уфе.
+В 1986 г. окончила экономический факультет Московского государственного университета им. М. В. Ломоносова.
+1991–1992 гг. — главный специалист дирекции Постоянного комитета Правления Научно-Промышленного союза СССР по вопросам экономической реформы, г. Москва.
+1992–1994 гг. — главный специалист, консультант дирекции Российского союза промышленников и предпринимателей по вопросам экономической политики.
+1994–1994 гг. — советник Экспертного института Российского союза промышленников и предпринимателей.
+1994–1995 гг. — заместитель руководителя Департамента экономической реформы — начальник управления государственного регулирования экономики Министерства экономики Российской Федерации.
+1995–1996 гг. — заместитель начальника Департамента экономической реформы Министерства экономики Российской Федерации.
+1996–1997 гг. — начальник Департамента экономической реформы Министерства экономики Российской Федерации, член коллегии Минэкономики России.
+1997–1998 гг. — заместитель Министра экономики Российской Федерации.
+1998–1999 гг. — заместитель Председателя правления АК «Промторгбанк».
+1999–1999 гг. — исполнительный директор Евроазиатской рейтинговой службы.
+1999–2000 гг. — вице-президент Фонда «Центр стратегических разработок».
+2000–2003 гг. — первый заместитель Министра экономического развития и торговли Российской Федерации.
+2003–2005 гг. — президент Фонда «Центр стратегических разработок».
+2005–2007 гг. — руководитель Экспертного совета Организационного комитета по подготовке и обеспечению председательства Российской Федерации в «Группе восьми» в 2006 году, руководитель исследовательской группы Центра стратегических разработок.
+24 сентября 2007 г. назначена Министром экономического развития и торговли Российской Федерации.
+C 12 мая 2008 г. — Министр экономического развития Российской Федерации.
+Май 2012 г. — июнь 2013 г. — помощник Президента Российской Федерации.
+С июня 2013 г. — Председатель Центрального банка Российской Федерации.
+Входит в Совет директоров в соответствии со ст. 15 Федерального закона «О Центральном банке Российской Федерации (Банке России)»</t>
+  </si>
+  <si>
+    <t>Сергей Семёнович Собянин - Мэра Москвы
+Биография: 
+Родился 21июня 1958 года в селе Няксимволь Берёзовского района Тюменской области.
+В 1980 г. окончил Костромской технологический институт. Тогда же начал трудовую деятельность – работал слесарем, затем мастером Челябинского трубопрокатного завода.
+В 1982 г. стал заведующим орготделом Ленинского райкома ВЛКСМ Челябинска.
+В 1984–1990 гг. работал на руководящей партийной и советской работе в Ханты-Мансийском автономном округе Тюменской области.
+В 1989 г. окончил всесоюзный юридический заочный институт. Кандидат юридических наук.
+1991 г. – Глава администрации города Когалыма.
+1993 г. – первый заместитель главы администрации Ханты-Мансийского автономного округа.
+1994 г. – Председатель Думы Ханты-Мансийского автономного округа, член Совета Федерации Федерального собрания Российской Федерации, председатель Комитета Совета Федерации по конституционному законодательству и судебно-правовым вопросам.
+2000 г. – первый заместитель полномочного представителя Президента Российской Федерации в Уральском федеральном округе.
+2001–2005 гг. – Губернатор Тюменской области. 
+С ноября 2005 года – руководитель Администрации Президента Российской Федерации.
+2008 г. – заместитель Председателя Правительства Российской Федерации – руководитель Аппарата Правительства Российской Федерации.
+В 2010 г. по представлению Президента России Дмитрия Медведева наделен Московской городской Думой полномочиями Мэра Москвы на пять лет.
+8 сентября 2013 г. избран Мэром Москвы на пять лет. 
+12 сентября 2013 г. вступил в должность Мэра Москвы</t>
   </si>
 </sst>
 </file>
@@ -2962,7 +3034,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3067,6 +3139,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3441,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3504,13 +3582,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -3528,10 +3606,10 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>16</v>
@@ -3547,7 +3625,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
@@ -3566,7 +3644,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>22</v>
@@ -3585,7 +3663,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>26</v>
@@ -3604,13 +3682,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>31</v>
@@ -3623,7 +3701,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>33</v>
@@ -3642,13 +3720,13 @@
         <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>38</v>
@@ -3661,7 +3739,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>40</v>
@@ -3680,13 +3758,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>44</v>
@@ -3699,7 +3777,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>46</v>
@@ -3718,7 +3796,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>50</v>
@@ -3737,7 +3815,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>53</v>
@@ -3756,7 +3834,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
@@ -3775,10 +3853,10 @@
         <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>61</v>
@@ -3794,7 +3872,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>64</v>
@@ -3813,13 +3891,13 @@
         <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>69</v>
@@ -3832,7 +3910,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>71</v>
@@ -3851,7 +3929,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>75</v>
@@ -3870,7 +3948,7 @@
         <v>78</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>79</v>
@@ -3889,7 +3967,7 @@
         <v>82</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>83</v>
@@ -3908,10 +3986,10 @@
         <v>86</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>87</v>
@@ -3927,13 +4005,13 @@
         <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>91</v>
@@ -3946,13 +4024,13 @@
         <v>92</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>94</v>
@@ -3965,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>96</v>
@@ -3990,7 +4068,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>102</v>
@@ -4006,10 +4084,10 @@
         <v>104</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>105</v>
@@ -4025,7 +4103,7 @@
         <v>107</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>108</v>
@@ -4047,7 +4125,7 @@
         <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>113</v>
@@ -4066,7 +4144,7 @@
         <v>116</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>117</v>
@@ -4104,7 +4182,7 @@
         <v>125</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>126</v>
@@ -4142,7 +4220,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>135</v>
@@ -4169,7 +4247,7 @@
       <c r="F36"/>
       <c r="G36"/>
     </row>
-    <row r="37" spans="1:7" ht="78.75">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="6" t="s">
         <v>141</v>
       </c>
@@ -4253,10 +4331,10 @@
         <v>159</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>160</v>
@@ -4269,7 +4347,7 @@
         <v>161</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>162</v>
@@ -4345,7 +4423,7 @@
         <v>178</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>179</v>
@@ -4364,7 +4442,7 @@
         <v>182</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>183</v>
@@ -4383,13 +4461,13 @@
         <v>186</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>188</v>
@@ -4402,7 +4480,7 @@
         <v>189</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>190</v>
@@ -4421,10 +4499,10 @@
         <v>192</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>193</v>
@@ -4435,12 +4513,12 @@
       <c r="F50"/>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" ht="94.5">
+    <row r="51" spans="1:7" ht="78.75">
       <c r="A51" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>196</v>
@@ -4459,7 +4537,7 @@
         <v>198</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>199</v>
@@ -4478,7 +4556,7 @@
         <v>201</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>202</v>
@@ -4497,7 +4575,7 @@
         <v>204</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>205</v>
@@ -4511,12 +4589,12 @@
       <c r="F54"/>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" ht="94.5">
+    <row r="55" spans="1:7" ht="78.75">
       <c r="A55" s="6" t="s">
         <v>207</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>208</v>
@@ -4535,7 +4613,7 @@
         <v>210</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>211</v>
@@ -4554,7 +4632,7 @@
         <v>214</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>215</v>
@@ -4573,7 +4651,7 @@
         <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>218</v>
@@ -4592,7 +4670,7 @@
         <v>220</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>221</v>
@@ -4611,7 +4689,7 @@
         <v>224</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>225</v>
@@ -4625,12 +4703,12 @@
       <c r="F60"/>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" ht="110.25">
+    <row r="61" spans="1:7" ht="94.5">
       <c r="A61" s="6" t="s">
         <v>227</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>228</v>
@@ -4649,7 +4727,7 @@
         <v>231</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>232</v>
@@ -4668,13 +4746,13 @@
         <v>234</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>235</v>
@@ -4687,13 +4765,13 @@
         <v>236</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>238</v>
@@ -4706,7 +4784,7 @@
         <v>239</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>240</v>
@@ -4725,7 +4803,7 @@
         <v>243</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>244</v>
@@ -4744,7 +4822,7 @@
         <v>246</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>247</v>
@@ -4763,7 +4841,7 @@
         <v>250</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>251</v>
@@ -4782,13 +4860,13 @@
         <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>256</v>
@@ -4801,13 +4879,13 @@
         <v>257</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>259</v>
@@ -4820,13 +4898,13 @@
         <v>260</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>262</v>
@@ -4839,7 +4917,7 @@
         <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>264</v>
@@ -4858,7 +4936,7 @@
         <v>266</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>267</v>
@@ -4877,7 +4955,7 @@
         <v>270</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>271</v>
@@ -4896,7 +4974,7 @@
         <v>274</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>275</v>
@@ -4915,7 +4993,7 @@
         <v>277</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>278</v>
@@ -4934,7 +5012,7 @@
         <v>281</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>282</v>
@@ -4953,7 +5031,7 @@
         <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>286</v>
@@ -4972,13 +5050,13 @@
         <v>289</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>291</v>
@@ -4991,13 +5069,13 @@
         <v>292</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>294</v>
@@ -6070,7 +6148,7 @@
         <v>306</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>307</v>
@@ -6089,7 +6167,7 @@
         <v>310</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>311</v>
@@ -6127,7 +6205,7 @@
         <v>319</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>320</v>
@@ -6165,7 +6243,7 @@
         <v>327</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>328</v>
@@ -6222,7 +6300,7 @@
         <v>341</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>342</v>
@@ -6241,7 +6319,7 @@
         <v>345</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>346</v>
@@ -6260,7 +6338,7 @@
         <v>349</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>350</v>
@@ -6279,7 +6357,7 @@
         <v>353</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>354</v>
@@ -6298,7 +6376,7 @@
         <v>357</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>358</v>
@@ -6317,7 +6395,7 @@
         <v>361</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>362</v>
@@ -6355,7 +6433,7 @@
         <v>369</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>370</v>
@@ -6374,7 +6452,7 @@
         <v>373</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>374</v>
@@ -6393,7 +6471,7 @@
         <v>377</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>378</v>
@@ -6412,7 +6490,7 @@
         <v>381</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>382</v>
@@ -6431,7 +6509,7 @@
         <v>385</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>386</v>
@@ -6450,7 +6528,7 @@
         <v>389</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>390</v>
@@ -6472,7 +6550,7 @@
         <v>394</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="F104"/>
       <c r="G104"/>
@@ -6491,7 +6569,7 @@
         <v>398</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
       <c r="F105"/>
       <c r="G105"/>
@@ -6510,7 +6588,7 @@
         <v>402</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
       <c r="F106"/>
       <c r="G106"/>
@@ -6529,7 +6607,7 @@
         <v>406</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
       <c r="F107"/>
       <c r="G107"/>
@@ -6548,7 +6626,7 @@
         <v>410</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
@@ -6586,100 +6664,100 @@
         <v>419</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>420</v>
+        <v>823</v>
       </c>
       <c r="F110"/>
       <c r="G110"/>
     </row>
     <row r="111" spans="1:7" ht="225">
       <c r="A111" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="90">
       <c r="A112" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="135">
       <c r="A113" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="165">
       <c r="A114" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="90">
       <c r="A115" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B115" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E115" s="18" t="s">
         <v>444</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E115" s="18" t="s">
-        <v>445</v>
       </c>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
@@ -6688,19 +6766,19 @@
     </row>
     <row r="116" spans="1:9" ht="105">
       <c r="A116" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B116" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="D116" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>448</v>
-      </c>
       <c r="E116" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -6709,19 +6787,19 @@
     </row>
     <row r="117" spans="1:9" ht="210">
       <c r="A117" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B117" s="18" t="s">
-        <v>450</v>
-      </c>
       <c r="C117" s="18" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="D117" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E117" s="18" t="s">
         <v>460</v>
-      </c>
-      <c r="E117" s="18" t="s">
-        <v>461</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
@@ -6730,19 +6808,19 @@
     </row>
     <row r="118" spans="1:9" ht="135">
       <c r="A118" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
@@ -6751,960 +6829,994 @@
     </row>
     <row r="119" spans="1:9" ht="135">
       <c r="A119" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C119" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="G119" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="E119" s="18" t="s">
+      <c r="H119" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="F119" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="H119" s="18" t="s">
+      <c r="I119" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="I119" s="17" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="105">
       <c r="A120" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="C120" s="18" t="s">
+      <c r="D120" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>678</v>
+      </c>
+      <c r="F120" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="G120" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="D120" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="E120" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="G120" s="18" t="s">
-        <v>457</v>
-      </c>
       <c r="H120" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I120" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="270">
       <c r="A121" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="105">
       <c r="A122" s="16" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B122" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="C122" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="D122" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="E122" s="21" t="s">
         <v>537</v>
       </c>
-      <c r="E122" s="21" t="s">
+      <c r="F122" s="21" t="s">
         <v>538</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="G122" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="180">
       <c r="A123" s="16" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B123" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="E123" s="21" t="s">
         <v>541</v>
       </c>
-      <c r="C123" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>819</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>543</v>
-      </c>
       <c r="F123" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G123" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="105">
       <c r="A124" s="16" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>545</v>
+        <v>806</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F124" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G124" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="195">
       <c r="A125" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="D125" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="B125" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>562</v>
-      </c>
       <c r="E125" s="21" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F125" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G125" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="105">
       <c r="A126" s="16" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B126" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>548</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="E126" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>552</v>
-      </c>
-      <c r="E126" s="21" t="s">
-        <v>553</v>
-      </c>
       <c r="F126" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G126" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G126" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="135">
       <c r="A127" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F127" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="G127" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="G127" s="22" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="90">
       <c r="A128" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F128" s="24"/>
       <c r="G128" s="25"/>
     </row>
-    <row r="129" spans="1:9" ht="60">
+    <row r="129" spans="1:9" ht="45">
       <c r="A129" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="C129" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="D129" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F129" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="D129" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>571</v>
-      </c>
       <c r="G129" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="60">
       <c r="A130" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C130" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="E130" s="26" t="s">
         <v>588</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>591</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
     </row>
     <row r="131" spans="1:9" ht="364.5" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B131" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>801</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="F131" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="G131" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="D131" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>595</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="G131" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="90">
       <c r="A132" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
     </row>
     <row r="133" spans="1:9" ht="135">
       <c r="A133" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
     </row>
     <row r="134" spans="1:9" ht="214.5" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
     </row>
     <row r="135" spans="1:9" ht="120">
       <c r="A135" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
     </row>
     <row r="136" spans="1:9" ht="105">
       <c r="A136" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
     </row>
     <row r="137" spans="1:9" ht="60">
       <c r="A137" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="D137" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="E137" s="26" t="s">
         <v>640</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>644</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
     </row>
     <row r="138" spans="1:9" ht="60">
       <c r="A138" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:9" ht="45">
       <c r="A139" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F139" s="26"/>
       <c r="G139" s="26"/>
     </row>
     <row r="140" spans="1:9" ht="45">
       <c r="A140" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F140" s="26"/>
       <c r="G140" s="26"/>
     </row>
     <row r="141" spans="1:9" ht="45">
       <c r="A141" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F141" s="26"/>
       <c r="G141" s="26"/>
     </row>
     <row r="142" spans="1:9" ht="135">
       <c r="A142" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F142" s="26"/>
       <c r="G142" s="26"/>
     </row>
     <row r="143" spans="1:9" ht="135">
       <c r="A143" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F143" s="26"/>
       <c r="G143" s="26"/>
     </row>
     <row r="144" spans="1:9" ht="135">
       <c r="A144" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B144" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="D144" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="C144" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="D144" s="26" t="s">
-        <v>635</v>
-      </c>
       <c r="E144" s="26" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="26"/>
     </row>
     <row r="145" spans="1:7" ht="207" customHeight="1">
       <c r="A145" s="26" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>654</v>
+        <v>824</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F145" s="26" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="210">
       <c r="A146" s="26" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>658</v>
+        <v>825</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>660</v>
+        <v>826</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F146" s="26" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="165">
       <c r="A147" s="26" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>666</v>
+        <v>827</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="75">
       <c r="A148" s="26" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
     </row>
     <row r="149" spans="1:7" ht="60">
       <c r="A149" s="26" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>681</v>
+        <v>828</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>676</v>
+        <v>832</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7" ht="75">
       <c r="A150" s="26" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>682</v>
+        <v>829</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>680</v>
+        <v>833</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
     </row>
-    <row r="151" spans="1:7" ht="180">
+    <row r="151" spans="1:7" ht="195">
       <c r="A151" s="26" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>685</v>
+        <v>830</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="F151" s="26" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="105">
       <c r="A152" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>831</v>
+      </c>
+      <c r="C152" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="B152" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="C152" s="26" t="s">
-        <v>710</v>
-      </c>
       <c r="D152" s="26" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="F152" s="24"/>
       <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7" ht="75">
       <c r="A153" s="26" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>695</v>
+        <v>834</v>
       </c>
       <c r="C153" s="26" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="F153" s="24"/>
       <c r="G153" s="26"/>
     </row>
     <row r="154" spans="1:7" ht="75">
       <c r="A154" s="26" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>697</v>
+        <v>835</v>
       </c>
       <c r="C154" s="26" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="F154" s="24"/>
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" ht="75">
       <c r="A155" s="26" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>702</v>
+        <v>836</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="F155" s="24"/>
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" ht="75">
       <c r="A156" s="26" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>704</v>
+        <v>837</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="F156" s="24"/>
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" ht="180">
       <c r="A157" s="33" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="F157" s="24"/>
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" ht="120">
       <c r="A158" s="33" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="F158" s="24"/>
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" ht="90">
       <c r="A159" s="33" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" ht="390">
       <c r="A160" s="33" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>739</v>
+        <v>838</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="G160" s="34" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="345">
       <c r="A161" s="33" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="C161" s="26" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>748</v>
+        <v>809</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="G161" s="35" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="165">
       <c r="A162" s="33" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="C162" s="26" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
       <c r="F162" s="24"/>
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:9" ht="165">
       <c r="A163" s="33" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="C163" s="26" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="F163" s="24"/>
       <c r="G163" s="24"/>
     </row>
-    <row r="164" spans="1:9">
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="24"/>
-      <c r="G164" s="24"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
-      <c r="F165" s="24"/>
-      <c r="G165" s="24"/>
+    <row r="164" spans="1:9" ht="285">
+      <c r="A164" s="37" t="s">
+        <v>810</v>
+      </c>
+      <c r="B164" s="37" t="s">
+        <v>811</v>
+      </c>
+      <c r="C164" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="D164" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="E164" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="F164" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="G164" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="I164" s="37" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="75">
+      <c r="A165" s="37" t="s">
+        <v>818</v>
+      </c>
+      <c r="B165" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C165" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="D165" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
     </row>
     <row r="166" spans="1:9">
       <c r="B166" s="26"/>
